--- a/AAII_Financials/Quarterly/PUODY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PUODY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>PUODY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>157800</v>
+        <v>113600</v>
       </c>
       <c r="E8" s="3">
-        <v>143600</v>
+        <v>162600</v>
       </c>
       <c r="F8" s="3">
-        <v>141500</v>
+        <v>132500</v>
       </c>
       <c r="G8" s="3">
-        <v>170200</v>
+        <v>120600</v>
       </c>
       <c r="H8" s="3">
-        <v>161500</v>
+        <v>118800</v>
       </c>
       <c r="I8" s="3">
+        <v>142900</v>
+      </c>
+      <c r="J8" s="3">
+        <v>135600</v>
+      </c>
+      <c r="K8" s="3">
         <v>158200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>125500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>133800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>126000</v>
-      </c>
-      <c r="M8" s="3">
-        <v>140900</v>
-      </c>
-      <c r="N8" s="3">
-        <v>116900</v>
       </c>
       <c r="O8" s="3">
         <v>140900</v>
       </c>
       <c r="P8" s="3">
+        <v>116900</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>140900</v>
+      </c>
+      <c r="R8" s="3">
         <v>127500</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>71400</v>
+        <v>45400</v>
       </c>
       <c r="E9" s="3">
-        <v>58700</v>
+        <v>86300</v>
       </c>
       <c r="F9" s="3">
-        <v>56400</v>
+        <v>60000</v>
       </c>
       <c r="G9" s="3">
-        <v>81800</v>
+        <v>49300</v>
       </c>
       <c r="H9" s="3">
-        <v>71100</v>
+        <v>47400</v>
       </c>
       <c r="I9" s="3">
+        <v>68700</v>
+      </c>
+      <c r="J9" s="3">
+        <v>59700</v>
+      </c>
+      <c r="K9" s="3">
         <v>63700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>42400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>56000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>50700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>63400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>43500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>61900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>50600</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>86400</v>
+        <v>68200</v>
       </c>
       <c r="E10" s="3">
-        <v>84900</v>
+        <v>76300</v>
       </c>
       <c r="F10" s="3">
-        <v>85000</v>
+        <v>72500</v>
       </c>
       <c r="G10" s="3">
-        <v>88400</v>
+        <v>71300</v>
       </c>
       <c r="H10" s="3">
-        <v>90500</v>
+        <v>71400</v>
       </c>
       <c r="I10" s="3">
+        <v>74200</v>
+      </c>
+      <c r="J10" s="3">
+        <v>76000</v>
+      </c>
+      <c r="K10" s="3">
         <v>94400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>83100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>77800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>75300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>77400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>73300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>79000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>77000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,25 +1052,31 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
         <v>100</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
       <c r="G15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I15" s="3">
         <v>100</v>
@@ -1039,11 +1084,11 @@
       <c r="J15" s="3">
         <v>100</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>8</v>
+      <c r="K15" s="3">
+        <v>100</v>
+      </c>
+      <c r="L15" s="3">
+        <v>100</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>8</v>
@@ -1051,14 +1096,20 @@
       <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>72300</v>
+        <v>44800</v>
       </c>
       <c r="E17" s="3">
-        <v>59800</v>
+        <v>86200</v>
       </c>
       <c r="F17" s="3">
+        <v>60700</v>
+      </c>
+      <c r="G17" s="3">
+        <v>50200</v>
+      </c>
+      <c r="H17" s="3">
+        <v>47700</v>
+      </c>
+      <c r="I17" s="3">
+        <v>69300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>61400</v>
+      </c>
+      <c r="K17" s="3">
+        <v>62900</v>
+      </c>
+      <c r="L17" s="3">
+        <v>40700</v>
+      </c>
+      <c r="M17" s="3">
         <v>56900</v>
       </c>
-      <c r="G17" s="3">
-        <v>82600</v>
-      </c>
-      <c r="H17" s="3">
-        <v>73100</v>
-      </c>
-      <c r="I17" s="3">
-        <v>62900</v>
-      </c>
-      <c r="J17" s="3">
-        <v>40700</v>
-      </c>
-      <c r="K17" s="3">
-        <v>56900</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>48300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>63000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>42700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>61500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>49600</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>85500</v>
+        <v>68800</v>
       </c>
       <c r="E18" s="3">
-        <v>83800</v>
+        <v>76400</v>
       </c>
       <c r="F18" s="3">
-        <v>84600</v>
+        <v>71800</v>
       </c>
       <c r="G18" s="3">
-        <v>87600</v>
+        <v>70300</v>
       </c>
       <c r="H18" s="3">
-        <v>88500</v>
+        <v>71000</v>
       </c>
       <c r="I18" s="3">
+        <v>73600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>74300</v>
+      </c>
+      <c r="K18" s="3">
         <v>95300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>84800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>77000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>77700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>77800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>74100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>79500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>77900</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1243,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,219 +1254,249 @@
         <v>33000</v>
       </c>
       <c r="E20" s="3">
-        <v>21200</v>
+        <v>1700</v>
       </c>
       <c r="F20" s="3">
-        <v>18400</v>
+        <v>27700</v>
       </c>
       <c r="G20" s="3">
-        <v>51900</v>
+        <v>17800</v>
       </c>
       <c r="H20" s="3">
-        <v>6300</v>
+        <v>15400</v>
       </c>
       <c r="I20" s="3">
+        <v>43600</v>
+      </c>
+      <c r="J20" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K20" s="3">
         <v>34500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-7100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>35700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>12000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>3100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-11500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>16400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>130400</v>
+        <v>109700</v>
       </c>
       <c r="E21" s="3">
-        <v>110900</v>
+        <v>85000</v>
       </c>
       <c r="F21" s="3">
-        <v>108700</v>
+        <v>109500</v>
       </c>
       <c r="G21" s="3">
-        <v>141000</v>
+        <v>93100</v>
       </c>
       <c r="H21" s="3">
-        <v>100700</v>
+        <v>91200</v>
       </c>
       <c r="I21" s="3">
+        <v>122300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>84600</v>
+      </c>
+      <c r="K21" s="3">
         <v>135800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>83300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>118700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>95200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>86300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>67800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>101400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>97700</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>11300</v>
+        <v>9100</v>
       </c>
       <c r="E22" s="3">
-        <v>9200</v>
+        <v>9400</v>
       </c>
       <c r="F22" s="3">
-        <v>5800</v>
+        <v>9500</v>
       </c>
       <c r="G22" s="3">
-        <v>21000</v>
+        <v>7700</v>
       </c>
       <c r="H22" s="3">
         <v>4900</v>
       </c>
       <c r="I22" s="3">
+        <v>17700</v>
+      </c>
+      <c r="J22" s="3">
         <v>4100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="L22" s="3">
         <v>4700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>22000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>4000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>3900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>3900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>44600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>107200</v>
+        <v>92700</v>
       </c>
       <c r="E23" s="3">
-        <v>95800</v>
+        <v>68700</v>
       </c>
       <c r="F23" s="3">
-        <v>97100</v>
+        <v>90000</v>
       </c>
       <c r="G23" s="3">
-        <v>118500</v>
+        <v>80400</v>
       </c>
       <c r="H23" s="3">
-        <v>89800</v>
+        <v>81500</v>
       </c>
       <c r="I23" s="3">
+        <v>99500</v>
+      </c>
+      <c r="J23" s="3">
+        <v>75400</v>
+      </c>
+      <c r="K23" s="3">
         <v>125700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>73000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>90700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>85800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>77000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>58700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>51300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>85500</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>28400</v>
+        <v>24400</v>
       </c>
       <c r="E24" s="3">
-        <v>26700</v>
+        <v>15500</v>
       </c>
       <c r="F24" s="3">
-        <v>22600</v>
+        <v>23900</v>
       </c>
       <c r="G24" s="3">
         <v>22400</v>
       </c>
       <c r="H24" s="3">
-        <v>14300</v>
+        <v>19000</v>
       </c>
       <c r="I24" s="3">
+        <v>18800</v>
+      </c>
+      <c r="J24" s="3">
+        <v>12000</v>
+      </c>
+      <c r="K24" s="3">
         <v>34000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>16500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>14700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>18300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>17500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>11800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-7000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>78800</v>
+        <v>68300</v>
       </c>
       <c r="E26" s="3">
-        <v>69200</v>
+        <v>53300</v>
       </c>
       <c r="F26" s="3">
-        <v>74500</v>
+        <v>66200</v>
       </c>
       <c r="G26" s="3">
-        <v>96100</v>
+        <v>58100</v>
       </c>
       <c r="H26" s="3">
-        <v>75500</v>
+        <v>62600</v>
       </c>
       <c r="I26" s="3">
+        <v>80700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>63400</v>
+      </c>
+      <c r="K26" s="3">
         <v>91700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>56500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>76000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>67500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>59600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>46900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>58300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>70400</v>
+        <v>58500</v>
       </c>
       <c r="E27" s="3">
-        <v>56800</v>
+        <v>43100</v>
       </c>
       <c r="F27" s="3">
-        <v>63800</v>
+        <v>59100</v>
       </c>
       <c r="G27" s="3">
-        <v>85300</v>
+        <v>47700</v>
       </c>
       <c r="H27" s="3">
-        <v>65300</v>
+        <v>53600</v>
       </c>
       <c r="I27" s="3">
+        <v>71600</v>
+      </c>
+      <c r="J27" s="3">
+        <v>54800</v>
+      </c>
+      <c r="K27" s="3">
         <v>82300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>47000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>68100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>61600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>54200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>42900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>55200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,16 +1689,22 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
         <v>0</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1594,8 +1715,8 @@
       <c r="H29" s="3">
         <v>0</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1607,19 +1728,25 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-400</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1839,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,87 +1854,99 @@
         <v>-33000</v>
       </c>
       <c r="E32" s="3">
-        <v>-21200</v>
+        <v>-1700</v>
       </c>
       <c r="F32" s="3">
-        <v>-18400</v>
+        <v>-27700</v>
       </c>
       <c r="G32" s="3">
-        <v>-51900</v>
+        <v>-17800</v>
       </c>
       <c r="H32" s="3">
-        <v>-6300</v>
+        <v>-15400</v>
       </c>
       <c r="I32" s="3">
+        <v>-43600</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-34500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>7100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-35700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-12000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-3100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>11500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-16400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-14800</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>70400</v>
+        <v>58500</v>
       </c>
       <c r="E33" s="3">
-        <v>56800</v>
+        <v>43100</v>
       </c>
       <c r="F33" s="3">
-        <v>63800</v>
+        <v>59100</v>
       </c>
       <c r="G33" s="3">
-        <v>85300</v>
+        <v>47700</v>
       </c>
       <c r="H33" s="3">
-        <v>65300</v>
+        <v>53600</v>
       </c>
       <c r="I33" s="3">
+        <v>71600</v>
+      </c>
+      <c r="J33" s="3">
+        <v>54800</v>
+      </c>
+      <c r="K33" s="3">
         <v>82300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>47000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>68100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>61600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>53800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>42900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>55200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>70400</v>
+        <v>58500</v>
       </c>
       <c r="E35" s="3">
-        <v>56800</v>
+        <v>43100</v>
       </c>
       <c r="F35" s="3">
-        <v>63800</v>
+        <v>59100</v>
       </c>
       <c r="G35" s="3">
-        <v>85300</v>
+        <v>47700</v>
       </c>
       <c r="H35" s="3">
-        <v>65300</v>
+        <v>53600</v>
       </c>
       <c r="I35" s="3">
+        <v>71600</v>
+      </c>
+      <c r="J35" s="3">
+        <v>54800</v>
+      </c>
+      <c r="K35" s="3">
         <v>82300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>47000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>68100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>61600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>53800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>42900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>55200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2138,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1525800</v>
+        <v>1348400</v>
       </c>
       <c r="E41" s="3">
-        <v>1669800</v>
+        <v>1297600</v>
       </c>
       <c r="F41" s="3">
-        <v>1404500</v>
+        <v>1281000</v>
       </c>
       <c r="G41" s="3">
-        <v>1357900</v>
+        <v>1401900</v>
       </c>
       <c r="H41" s="3">
-        <v>1299900</v>
+        <v>1179200</v>
       </c>
       <c r="I41" s="3">
+        <v>1140100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1091400</v>
+      </c>
+      <c r="K41" s="3">
         <v>1217400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1143600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>23600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>849000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>830500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>758200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>815900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>651900</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2025,346 +2204,394 @@
       <c r="F42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="3">
-        <v>1330200</v>
+      <c r="G42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
+      <c r="I42" s="3">
+        <v>1116800</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="3">
-        <v>1073300</v>
+      <c r="K42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>8</v>
+      <c r="M42" s="3">
+        <v>1073300</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O42" s="3">
-        <v>741000</v>
+      <c r="O42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>741000</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>85300</v>
+        <v>73600</v>
       </c>
       <c r="E43" s="3">
-        <v>77700</v>
+        <v>85100</v>
       </c>
       <c r="F43" s="3">
-        <v>73100</v>
+        <v>71600</v>
       </c>
       <c r="G43" s="3">
-        <v>102400</v>
+        <v>65300</v>
       </c>
       <c r="H43" s="3">
-        <v>91300</v>
+        <v>61400</v>
       </c>
       <c r="I43" s="3">
+        <v>85900</v>
+      </c>
+      <c r="J43" s="3">
+        <v>76600</v>
+      </c>
+      <c r="K43" s="3">
         <v>81300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>100000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>128300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>107700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>110400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>105300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>104500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>85200</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6600</v>
+        <v>5500</v>
       </c>
       <c r="E44" s="3">
-        <v>5800</v>
+        <v>5100</v>
       </c>
       <c r="F44" s="3">
+        <v>5600</v>
+      </c>
+      <c r="G44" s="3">
+        <v>4900</v>
+      </c>
+      <c r="H44" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I44" s="3">
+        <v>4200</v>
+      </c>
+      <c r="J44" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K44" s="3">
+        <v>5400</v>
+      </c>
+      <c r="L44" s="3">
+        <v>5400</v>
+      </c>
+      <c r="M44" s="3">
+        <v>5300</v>
+      </c>
+      <c r="N44" s="3">
         <v>5500</v>
       </c>
-      <c r="G44" s="3">
-        <v>5000</v>
-      </c>
-      <c r="H44" s="3">
-        <v>7100</v>
-      </c>
-      <c r="I44" s="3">
-        <v>5400</v>
-      </c>
-      <c r="J44" s="3">
-        <v>5400</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="O44" s="3">
+        <v>5600</v>
+      </c>
+      <c r="P44" s="3">
         <v>5300</v>
       </c>
-      <c r="L44" s="3">
-        <v>5500</v>
-      </c>
-      <c r="M44" s="3">
-        <v>5600</v>
-      </c>
-      <c r="N44" s="3">
-        <v>5300</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>8400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>41300</v>
+        <v>37800</v>
       </c>
       <c r="E45" s="3">
-        <v>14800</v>
+        <v>18300</v>
       </c>
       <c r="F45" s="3">
-        <v>11000</v>
+        <v>34700</v>
       </c>
       <c r="G45" s="3">
-        <v>20000</v>
+        <v>12500</v>
       </c>
       <c r="H45" s="3">
-        <v>32400</v>
+        <v>9200</v>
       </c>
       <c r="I45" s="3">
+        <v>16800</v>
+      </c>
+      <c r="J45" s="3">
+        <v>27200</v>
+      </c>
+      <c r="K45" s="3">
         <v>34300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>68800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>25900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>59700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>55400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>50200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>73000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>50700</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1659100</v>
+        <v>1465400</v>
       </c>
       <c r="E46" s="3">
-        <v>1768200</v>
+        <v>1406200</v>
       </c>
       <c r="F46" s="3">
-        <v>1494100</v>
+        <v>1392900</v>
       </c>
       <c r="G46" s="3">
-        <v>1440600</v>
+        <v>1484600</v>
       </c>
       <c r="H46" s="3">
-        <v>1430600</v>
+        <v>1254400</v>
       </c>
       <c r="I46" s="3">
+        <v>1209500</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1201100</v>
+      </c>
+      <c r="K46" s="3">
         <v>1338500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1317800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1256400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1021900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1001900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>919000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>940700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>792800</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="E47" s="3">
-        <v>198600</v>
+        <v>118300</v>
       </c>
       <c r="F47" s="3">
-        <v>199800</v>
+        <v>117600</v>
       </c>
       <c r="G47" s="3">
-        <v>202700</v>
+        <v>166800</v>
       </c>
       <c r="H47" s="3">
-        <v>170700</v>
+        <v>167700</v>
       </c>
       <c r="I47" s="3">
+        <v>170200</v>
+      </c>
+      <c r="J47" s="3">
+        <v>143300</v>
+      </c>
+      <c r="K47" s="3">
         <v>162200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>217500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>218000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>208300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>201500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>196000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>205700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>197500</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>55800</v>
+        <v>45800</v>
       </c>
       <c r="E48" s="3">
-        <v>55500</v>
+        <v>46600</v>
       </c>
       <c r="F48" s="3">
-        <v>56500</v>
+        <v>46800</v>
       </c>
       <c r="G48" s="3">
-        <v>106700</v>
+        <v>46600</v>
       </c>
       <c r="H48" s="3">
-        <v>56600</v>
+        <v>47400</v>
       </c>
       <c r="I48" s="3">
+        <v>89600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>47500</v>
+      </c>
+      <c r="K48" s="3">
         <v>56200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>50100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>54700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>49300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>49900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>50500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>112400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>49000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1887500</v>
+        <v>1616000</v>
       </c>
       <c r="E49" s="3">
-        <v>1202100</v>
+        <v>1608000</v>
       </c>
       <c r="F49" s="3">
-        <v>1171900</v>
+        <v>1584700</v>
       </c>
       <c r="G49" s="3">
-        <v>1142600</v>
+        <v>1009200</v>
       </c>
       <c r="H49" s="3">
-        <v>1101300</v>
+        <v>983900</v>
       </c>
       <c r="I49" s="3">
+        <v>959300</v>
+      </c>
+      <c r="J49" s="3">
+        <v>924600</v>
+      </c>
+      <c r="K49" s="3">
         <v>1071500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1049100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>981900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>957200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>923200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>882000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>882800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>872700</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>106100</v>
+        <v>96000</v>
       </c>
       <c r="E52" s="3">
-        <v>53500</v>
+        <v>94200</v>
       </c>
       <c r="F52" s="3">
-        <v>77400</v>
+        <v>89100</v>
       </c>
       <c r="G52" s="3">
-        <v>152700</v>
+        <v>44900</v>
       </c>
       <c r="H52" s="3">
-        <v>94800</v>
+        <v>64900</v>
       </c>
       <c r="I52" s="3">
+        <v>128200</v>
+      </c>
+      <c r="J52" s="3">
+        <v>79600</v>
+      </c>
+      <c r="K52" s="3">
         <v>53300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>73100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>71500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>73900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>72900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>69100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>91600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3848400</v>
+        <v>3353100</v>
       </c>
       <c r="E54" s="3">
-        <v>3277900</v>
+        <v>3273300</v>
       </c>
       <c r="F54" s="3">
-        <v>2999600</v>
+        <v>3231100</v>
       </c>
       <c r="G54" s="3">
-        <v>2939800</v>
+        <v>2752100</v>
       </c>
       <c r="H54" s="3">
-        <v>2854000</v>
+        <v>2518400</v>
       </c>
       <c r="I54" s="3">
+        <v>2468200</v>
+      </c>
+      <c r="J54" s="3">
+        <v>2396100</v>
+      </c>
+      <c r="K54" s="3">
         <v>2681700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2707500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2582400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2310700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2249300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2116700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2170400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1960500</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2878,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>18900</v>
+        <v>25600</v>
       </c>
       <c r="E57" s="3">
-        <v>13800</v>
+        <v>18700</v>
       </c>
       <c r="F57" s="3">
-        <v>13900</v>
+        <v>15900</v>
       </c>
       <c r="G57" s="3">
-        <v>12600</v>
+        <v>11600</v>
       </c>
       <c r="H57" s="3">
-        <v>14000</v>
+        <v>11600</v>
       </c>
       <c r="I57" s="3">
+        <v>10600</v>
+      </c>
+      <c r="J57" s="3">
+        <v>11700</v>
+      </c>
+      <c r="K57" s="3">
         <v>12000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>11100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>12300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>12100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>13400</v>
-      </c>
-      <c r="N57" s="3">
-        <v>8700</v>
-      </c>
-      <c r="O57" s="3">
-        <v>13800</v>
       </c>
       <c r="P57" s="3">
         <v>8700</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>13800</v>
+      </c>
+      <c r="R57" s="3">
+        <v>8700</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>10100</v>
+      </c>
+      <c r="F58" s="3">
+        <v>9000</v>
+      </c>
+      <c r="G58" s="3">
+        <v>9000</v>
+      </c>
+      <c r="H58" s="3">
+        <v>14400</v>
+      </c>
+      <c r="I58" s="3">
+        <v>27100</v>
+      </c>
+      <c r="J58" s="3">
+        <v>10600</v>
+      </c>
+      <c r="K58" s="3">
         <v>10700</v>
       </c>
-      <c r="E58" s="3">
-        <v>10700</v>
-      </c>
-      <c r="F58" s="3">
-        <v>17200</v>
-      </c>
-      <c r="G58" s="3">
-        <v>32300</v>
-      </c>
-      <c r="H58" s="3">
-        <v>12700</v>
-      </c>
-      <c r="I58" s="3">
-        <v>10700</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>34600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>36700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>35700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>34900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>34000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>31100</v>
       </c>
-      <c r="P58" s="3" t="s">
+      <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>167500</v>
+        <v>134900</v>
       </c>
       <c r="E59" s="3">
-        <v>114400</v>
+        <v>137700</v>
       </c>
       <c r="F59" s="3">
-        <v>117900</v>
+        <v>140700</v>
       </c>
       <c r="G59" s="3">
-        <v>359900</v>
+        <v>96100</v>
       </c>
       <c r="H59" s="3">
-        <v>241700</v>
+        <v>99000</v>
       </c>
       <c r="I59" s="3">
+        <v>302200</v>
+      </c>
+      <c r="J59" s="3">
+        <v>203000</v>
+      </c>
+      <c r="K59" s="3">
         <v>237000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>101000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>107600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>117100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>110200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>138900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>144900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>155200</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>197200</v>
+        <v>170700</v>
       </c>
       <c r="E60" s="3">
-        <v>139000</v>
+        <v>166600</v>
       </c>
       <c r="F60" s="3">
-        <v>148900</v>
+        <v>165500</v>
       </c>
       <c r="G60" s="3">
-        <v>269700</v>
+        <v>116700</v>
       </c>
       <c r="H60" s="3">
-        <v>268400</v>
+        <v>125000</v>
       </c>
       <c r="I60" s="3">
+        <v>226400</v>
+      </c>
+      <c r="J60" s="3">
+        <v>225300</v>
+      </c>
+      <c r="K60" s="3">
         <v>259700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>146700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>156500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>164900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>158500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>181600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>147500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>163900</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>865200</v>
+        <v>743100</v>
       </c>
       <c r="E61" s="3">
-        <v>519100</v>
+        <v>720200</v>
       </c>
       <c r="F61" s="3">
-        <v>292900</v>
+        <v>726400</v>
       </c>
       <c r="G61" s="3">
-        <v>293200</v>
+        <v>435800</v>
       </c>
       <c r="H61" s="3">
-        <v>315600</v>
+        <v>245900</v>
       </c>
       <c r="I61" s="3">
+        <v>246200</v>
+      </c>
+      <c r="J61" s="3">
+        <v>265000</v>
+      </c>
+      <c r="K61" s="3">
         <v>220700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>232800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>222600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>230900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>229300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>240500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>243500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>372600</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>64200</v>
+        <v>44600</v>
       </c>
       <c r="E62" s="3">
-        <v>500</v>
+        <v>54000</v>
       </c>
       <c r="F62" s="3">
-        <v>700</v>
+        <v>53900</v>
       </c>
       <c r="G62" s="3">
-        <v>18500</v>
+        <v>400</v>
       </c>
       <c r="H62" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I62" s="3">
-        <v>500</v>
+        <v>15600</v>
       </c>
       <c r="J62" s="3">
         <v>500</v>
       </c>
       <c r="K62" s="3">
+        <v>500</v>
+      </c>
+      <c r="L62" s="3">
+        <v>500</v>
+      </c>
+      <c r="M62" s="3">
         <v>10500</v>
-      </c>
-      <c r="L62" s="3">
-        <v>400</v>
-      </c>
-      <c r="M62" s="3">
-        <v>400</v>
       </c>
       <c r="N62" s="3">
         <v>400</v>
       </c>
       <c r="O62" s="3">
-        <v>25600</v>
+        <v>400</v>
       </c>
       <c r="P62" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>25600</v>
+      </c>
+      <c r="R62" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1471800</v>
+        <v>1256700</v>
       </c>
       <c r="E66" s="3">
-        <v>1016400</v>
+        <v>1234400</v>
       </c>
       <c r="F66" s="3">
-        <v>795500</v>
+        <v>1235700</v>
       </c>
       <c r="G66" s="3">
-        <v>799400</v>
+        <v>853400</v>
       </c>
       <c r="H66" s="3">
-        <v>820100</v>
+        <v>667900</v>
       </c>
       <c r="I66" s="3">
+        <v>671200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>688600</v>
+      </c>
+      <c r="K66" s="3">
         <v>706300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>595900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>588700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>537600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>535600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>514500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>525900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>549600</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>590800</v>
+        <v>597600</v>
       </c>
       <c r="E72" s="3">
-        <v>520300</v>
+        <v>539100</v>
       </c>
       <c r="F72" s="3">
-        <v>783300</v>
+        <v>496000</v>
       </c>
       <c r="G72" s="3">
-        <v>1864100</v>
+        <v>436900</v>
       </c>
       <c r="H72" s="3">
-        <v>634200</v>
+        <v>657600</v>
       </c>
       <c r="I72" s="3">
+        <v>1565100</v>
+      </c>
+      <c r="J72" s="3">
+        <v>532500</v>
+      </c>
+      <c r="K72" s="3">
         <v>568900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>959800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1278000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>812600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>750900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>748900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1724800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>712100</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2376700</v>
+        <v>2096400</v>
       </c>
       <c r="E76" s="3">
-        <v>2261500</v>
+        <v>2039000</v>
       </c>
       <c r="F76" s="3">
-        <v>2204100</v>
+        <v>1995400</v>
       </c>
       <c r="G76" s="3">
-        <v>2140400</v>
+        <v>1898700</v>
       </c>
       <c r="H76" s="3">
-        <v>2033800</v>
+        <v>1850500</v>
       </c>
       <c r="I76" s="3">
+        <v>1797000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1707600</v>
+      </c>
+      <c r="K76" s="3">
         <v>1975500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2111600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1993700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1773000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1713800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1602200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1644500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1410900</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>70400</v>
+        <v>58500</v>
       </c>
       <c r="E81" s="3">
-        <v>56800</v>
+        <v>43100</v>
       </c>
       <c r="F81" s="3">
-        <v>63800</v>
+        <v>59100</v>
       </c>
       <c r="G81" s="3">
-        <v>85300</v>
+        <v>47700</v>
       </c>
       <c r="H81" s="3">
-        <v>65300</v>
+        <v>53600</v>
       </c>
       <c r="I81" s="3">
+        <v>71600</v>
+      </c>
+      <c r="J81" s="3">
+        <v>54800</v>
+      </c>
+      <c r="K81" s="3">
         <v>82300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>47000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>68100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>61600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>53800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>42900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>55200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>11900</v>
+        <v>7900</v>
       </c>
       <c r="E83" s="3">
-        <v>5900</v>
+        <v>6900</v>
       </c>
       <c r="F83" s="3">
-        <v>5700</v>
+        <v>10000</v>
       </c>
       <c r="G83" s="3">
-        <v>1500</v>
+        <v>4900</v>
       </c>
       <c r="H83" s="3">
-        <v>6000</v>
+        <v>4800</v>
       </c>
       <c r="I83" s="3">
-        <v>6000</v>
+        <v>5200</v>
       </c>
       <c r="J83" s="3">
-        <v>5600</v>
+        <v>5000</v>
       </c>
       <c r="K83" s="3">
         <v>6000</v>
       </c>
       <c r="L83" s="3">
+        <v>5600</v>
+      </c>
+      <c r="M83" s="3">
+        <v>6000</v>
+      </c>
+      <c r="N83" s="3">
         <v>5400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>5400</v>
-      </c>
-      <c r="N83" s="3">
-        <v>5100</v>
-      </c>
-      <c r="O83" s="3">
-        <v>5600</v>
       </c>
       <c r="P83" s="3">
         <v>5100</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>5600</v>
+      </c>
+      <c r="R83" s="3">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>98500</v>
+        <v>31100</v>
       </c>
       <c r="E89" s="3">
-        <v>-65900</v>
+        <v>85200</v>
       </c>
       <c r="F89" s="3">
-        <v>-41600</v>
+        <v>82700</v>
       </c>
       <c r="G89" s="3">
-        <v>57600</v>
+        <v>-55300</v>
       </c>
       <c r="H89" s="3">
-        <v>141300</v>
+        <v>-34900</v>
       </c>
       <c r="I89" s="3">
+        <v>48300</v>
+      </c>
+      <c r="J89" s="3">
+        <v>118600</v>
+      </c>
+      <c r="K89" s="3">
         <v>210000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-7100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>94700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>68100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>26300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>87900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>200000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>46700</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-2100</v>
+      <c r="D91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="I91" s="3">
+        <v>4300</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
-        <v>-7500</v>
-      </c>
-      <c r="G91" s="3">
-        <v>4200</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="M91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-900</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-700</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-400</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-126600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>72700</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-477900</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
-        <v>-125400</v>
+        <v>-67200</v>
       </c>
       <c r="F94" s="3">
-        <v>31300</v>
+        <v>-401200</v>
       </c>
       <c r="G94" s="3">
-        <v>-114100</v>
+        <v>-105300</v>
       </c>
       <c r="H94" s="3">
-        <v>-233300</v>
+        <v>26300</v>
       </c>
       <c r="I94" s="3">
+        <v>-64100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-195900</v>
+      </c>
+      <c r="K94" s="3">
         <v>39700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>13100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-499200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-62000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>165700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-52400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-240900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-31200</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4163,13 +4630,13 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>107200</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4809,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>378100</v>
+        <v>10100</v>
       </c>
       <c r="E100" s="3">
-        <v>216200</v>
+        <v>-18600</v>
       </c>
       <c r="F100" s="3">
-        <v>1500</v>
+        <v>317400</v>
       </c>
       <c r="G100" s="3">
-        <v>27300</v>
+        <v>181500</v>
       </c>
       <c r="H100" s="3">
-        <v>87500</v>
+        <v>1200</v>
       </c>
       <c r="I100" s="3">
+        <v>180500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>73400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-238700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-1600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>410700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-1700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-174500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-38500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>55000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-142700</v>
+        <v>9700</v>
       </c>
       <c r="E101" s="3">
-        <v>240500</v>
+        <v>17200</v>
       </c>
       <c r="F101" s="3">
-        <v>67400</v>
+        <v>-119800</v>
       </c>
       <c r="G101" s="3">
-        <v>-142500</v>
+        <v>201900</v>
       </c>
       <c r="H101" s="3">
-        <v>87100</v>
+        <v>56600</v>
       </c>
       <c r="I101" s="3">
+        <v>58200</v>
+      </c>
+      <c r="J101" s="3">
+        <v>73100</v>
+      </c>
+      <c r="K101" s="3">
         <v>62800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-1500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>281000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>14000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>54800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>1100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-140600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-144000</v>
+        <v>50700</v>
       </c>
       <c r="E102" s="3">
-        <v>265300</v>
+        <v>16600</v>
       </c>
       <c r="F102" s="3">
-        <v>58600</v>
+        <v>-120900</v>
       </c>
       <c r="G102" s="3">
-        <v>-171700</v>
+        <v>222700</v>
       </c>
       <c r="H102" s="3">
-        <v>82500</v>
+        <v>49200</v>
       </c>
       <c r="I102" s="3">
+        <v>38700</v>
+      </c>
+      <c r="J102" s="3">
+        <v>69300</v>
+      </c>
+      <c r="K102" s="3">
         <v>73800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>2900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>251500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>18500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>72300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-1900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-126500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>42000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PUODY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PUODY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>PUODY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>113600</v>
+        <v>80100</v>
       </c>
       <c r="E8" s="3">
-        <v>162600</v>
+        <v>115100</v>
       </c>
       <c r="F8" s="3">
-        <v>132500</v>
+        <v>164700</v>
       </c>
       <c r="G8" s="3">
-        <v>120600</v>
+        <v>134200</v>
       </c>
       <c r="H8" s="3">
-        <v>118800</v>
+        <v>122200</v>
       </c>
       <c r="I8" s="3">
-        <v>142900</v>
+        <v>120300</v>
       </c>
       <c r="J8" s="3">
+        <v>144800</v>
+      </c>
+      <c r="K8" s="3">
         <v>135600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>158200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>125500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>133800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>126000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>140900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>116900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>140900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>127500</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>45400</v>
+        <v>43600</v>
       </c>
       <c r="E9" s="3">
-        <v>86300</v>
+        <v>46000</v>
       </c>
       <c r="F9" s="3">
-        <v>60000</v>
+        <v>87400</v>
       </c>
       <c r="G9" s="3">
-        <v>49300</v>
+        <v>60700</v>
       </c>
       <c r="H9" s="3">
-        <v>47400</v>
+        <v>49900</v>
       </c>
       <c r="I9" s="3">
-        <v>68700</v>
+        <v>48000</v>
       </c>
       <c r="J9" s="3">
+        <v>69600</v>
+      </c>
+      <c r="K9" s="3">
         <v>59700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>63700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>42400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>56000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>50700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>63400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>43500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>61900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>50600</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>68200</v>
+        <v>36500</v>
       </c>
       <c r="E10" s="3">
-        <v>76300</v>
+        <v>69100</v>
       </c>
       <c r="F10" s="3">
-        <v>72500</v>
+        <v>77300</v>
       </c>
       <c r="G10" s="3">
-        <v>71300</v>
+        <v>73500</v>
       </c>
       <c r="H10" s="3">
-        <v>71400</v>
+        <v>72300</v>
       </c>
       <c r="I10" s="3">
-        <v>74200</v>
+        <v>72300</v>
       </c>
       <c r="J10" s="3">
+        <v>75200</v>
+      </c>
+      <c r="K10" s="3">
         <v>76000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>94400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>83100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>77800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>75300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>77400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>73300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>79000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>77000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,28 +1078,31 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
       </c>
       <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
         <v>100</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
       <c r="H15" s="3">
         <v>0</v>
       </c>
       <c r="I15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J15" s="3">
         <v>100</v>
@@ -1090,8 +1113,8 @@
       <c r="L15" s="3">
         <v>100</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>8</v>
+      <c r="M15" s="3">
+        <v>100</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>8</v>
@@ -1102,14 +1125,17 @@
       <c r="P15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>44800</v>
+        <v>43300</v>
       </c>
       <c r="E17" s="3">
-        <v>86200</v>
+        <v>45400</v>
       </c>
       <c r="F17" s="3">
-        <v>60700</v>
+        <v>87300</v>
       </c>
       <c r="G17" s="3">
-        <v>50200</v>
+        <v>61500</v>
       </c>
       <c r="H17" s="3">
-        <v>47700</v>
+        <v>50900</v>
       </c>
       <c r="I17" s="3">
-        <v>69300</v>
+        <v>48400</v>
       </c>
       <c r="J17" s="3">
+        <v>70300</v>
+      </c>
+      <c r="K17" s="3">
         <v>61400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>62900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>40700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>56900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>48300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>63000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>42700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>61500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>49600</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>68800</v>
+        <v>36700</v>
       </c>
       <c r="E18" s="3">
-        <v>76400</v>
+        <v>69700</v>
       </c>
       <c r="F18" s="3">
-        <v>71800</v>
+        <v>77400</v>
       </c>
       <c r="G18" s="3">
-        <v>70300</v>
+        <v>72700</v>
       </c>
       <c r="H18" s="3">
-        <v>71000</v>
+        <v>71300</v>
       </c>
       <c r="I18" s="3">
-        <v>73600</v>
+        <v>72000</v>
       </c>
       <c r="J18" s="3">
+        <v>74500</v>
+      </c>
+      <c r="K18" s="3">
         <v>74300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>95300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>84800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>77000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>77700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>77800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>74100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>79500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>77900</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,108 +1278,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>33000</v>
+        <v>8200</v>
       </c>
       <c r="E20" s="3">
-        <v>1700</v>
+        <v>33400</v>
       </c>
       <c r="F20" s="3">
-        <v>27700</v>
+        <v>13600</v>
       </c>
       <c r="G20" s="3">
-        <v>17800</v>
+        <v>28100</v>
       </c>
       <c r="H20" s="3">
-        <v>15400</v>
+        <v>18100</v>
       </c>
       <c r="I20" s="3">
-        <v>43600</v>
+        <v>15600</v>
       </c>
       <c r="J20" s="3">
+        <v>44100</v>
+      </c>
+      <c r="K20" s="3">
         <v>5300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>34500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-7100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>35700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>12000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-11500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>16400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>109700</v>
+        <v>52000</v>
       </c>
       <c r="E21" s="3">
-        <v>85000</v>
+        <v>111100</v>
       </c>
       <c r="F21" s="3">
-        <v>109500</v>
+        <v>98000</v>
       </c>
       <c r="G21" s="3">
-        <v>93100</v>
+        <v>110900</v>
       </c>
       <c r="H21" s="3">
-        <v>91200</v>
+        <v>94300</v>
       </c>
       <c r="I21" s="3">
-        <v>122300</v>
+        <v>92400</v>
       </c>
       <c r="J21" s="3">
+        <v>120000</v>
+      </c>
+      <c r="K21" s="3">
         <v>84600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>135800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>83300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>118700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>95200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>86300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>67800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>101400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>97700</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1354,149 +1394,158 @@
         <v>9100</v>
       </c>
       <c r="E22" s="3">
-        <v>9400</v>
+        <v>9200</v>
       </c>
       <c r="F22" s="3">
-        <v>9500</v>
+        <v>19500</v>
       </c>
       <c r="G22" s="3">
-        <v>7700</v>
+        <v>9600</v>
       </c>
       <c r="H22" s="3">
-        <v>4900</v>
+        <v>7800</v>
       </c>
       <c r="I22" s="3">
-        <v>17700</v>
+        <v>5000</v>
       </c>
       <c r="J22" s="3">
-        <v>4100</v>
+        <v>17900</v>
       </c>
       <c r="K22" s="3">
         <v>4100</v>
       </c>
       <c r="L22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="M22" s="3">
         <v>4700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>22000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4000</v>
-      </c>
-      <c r="O22" s="3">
-        <v>3900</v>
       </c>
       <c r="P22" s="3">
         <v>3900</v>
       </c>
       <c r="Q22" s="3">
+        <v>3900</v>
+      </c>
+      <c r="R22" s="3">
         <v>44600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>92700</v>
+        <v>35800</v>
       </c>
       <c r="E23" s="3">
-        <v>68700</v>
+        <v>93900</v>
       </c>
       <c r="F23" s="3">
-        <v>90000</v>
+        <v>71500</v>
       </c>
       <c r="G23" s="3">
-        <v>80400</v>
+        <v>91200</v>
       </c>
       <c r="H23" s="3">
         <v>81500</v>
       </c>
       <c r="I23" s="3">
-        <v>99500</v>
+        <v>82600</v>
       </c>
       <c r="J23" s="3">
+        <v>100800</v>
+      </c>
+      <c r="K23" s="3">
         <v>75400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>125700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>73000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>90700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>85800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>77000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>58700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>51300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>85500</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>24400</v>
+        <v>6200</v>
       </c>
       <c r="E24" s="3">
-        <v>15500</v>
+        <v>24700</v>
       </c>
       <c r="F24" s="3">
-        <v>23900</v>
+        <v>15700</v>
       </c>
       <c r="G24" s="3">
-        <v>22400</v>
+        <v>24200</v>
       </c>
       <c r="H24" s="3">
+        <v>22700</v>
+      </c>
+      <c r="I24" s="3">
+        <v>19200</v>
+      </c>
+      <c r="J24" s="3">
         <v>19000</v>
       </c>
-      <c r="I24" s="3">
-        <v>18800</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>12000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>34000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>16500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>14700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>18300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>17500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>11800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-7000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>68300</v>
+        <v>29600</v>
       </c>
       <c r="E26" s="3">
-        <v>53300</v>
+        <v>69200</v>
       </c>
       <c r="F26" s="3">
-        <v>66200</v>
+        <v>55800</v>
       </c>
       <c r="G26" s="3">
-        <v>58100</v>
+        <v>67000</v>
       </c>
       <c r="H26" s="3">
-        <v>62600</v>
+        <v>58800</v>
       </c>
       <c r="I26" s="3">
-        <v>80700</v>
+        <v>63400</v>
       </c>
       <c r="J26" s="3">
+        <v>81700</v>
+      </c>
+      <c r="K26" s="3">
         <v>63400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>91700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>56500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>76000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>67500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>59600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>46900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>58300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>58500</v>
+        <v>23400</v>
       </c>
       <c r="E27" s="3">
-        <v>43100</v>
+        <v>59300</v>
       </c>
       <c r="F27" s="3">
-        <v>59100</v>
+        <v>45500</v>
       </c>
       <c r="G27" s="3">
-        <v>47700</v>
+        <v>59900</v>
       </c>
       <c r="H27" s="3">
-        <v>53600</v>
+        <v>48300</v>
       </c>
       <c r="I27" s="3">
-        <v>71600</v>
+        <v>54300</v>
       </c>
       <c r="J27" s="3">
+        <v>72500</v>
+      </c>
+      <c r="K27" s="3">
         <v>54800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>82300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>47000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>68100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>61600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>54200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>42900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>55200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1709,18 +1770,18 @@
       <c r="F29" s="3">
         <v>0</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3" t="s">
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
@@ -1734,19 +1795,22 @@
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-400</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-33000</v>
+        <v>-8200</v>
       </c>
       <c r="E32" s="3">
-        <v>-1700</v>
+        <v>-33400</v>
       </c>
       <c r="F32" s="3">
-        <v>-27700</v>
+        <v>-13600</v>
       </c>
       <c r="G32" s="3">
-        <v>-17800</v>
+        <v>-28100</v>
       </c>
       <c r="H32" s="3">
-        <v>-15400</v>
+        <v>-18100</v>
       </c>
       <c r="I32" s="3">
-        <v>-43600</v>
+        <v>-15600</v>
       </c>
       <c r="J32" s="3">
+        <v>-44100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-5300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-34500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>7100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-35700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-12000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>11500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-16400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-14800</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>58500</v>
+        <v>23400</v>
       </c>
       <c r="E33" s="3">
-        <v>43100</v>
+        <v>59300</v>
       </c>
       <c r="F33" s="3">
-        <v>59100</v>
+        <v>45500</v>
       </c>
       <c r="G33" s="3">
-        <v>47700</v>
+        <v>59900</v>
       </c>
       <c r="H33" s="3">
-        <v>53600</v>
+        <v>48300</v>
       </c>
       <c r="I33" s="3">
-        <v>71600</v>
+        <v>54300</v>
       </c>
       <c r="J33" s="3">
+        <v>72500</v>
+      </c>
+      <c r="K33" s="3">
         <v>54800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>82300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>47000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>68100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>61600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>53800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>42900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>55200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>58500</v>
+        <v>23400</v>
       </c>
       <c r="E35" s="3">
-        <v>43100</v>
+        <v>59300</v>
       </c>
       <c r="F35" s="3">
-        <v>59100</v>
+        <v>45500</v>
       </c>
       <c r="G35" s="3">
-        <v>47700</v>
+        <v>59900</v>
       </c>
       <c r="H35" s="3">
-        <v>53600</v>
+        <v>48300</v>
       </c>
       <c r="I35" s="3">
-        <v>71600</v>
+        <v>54300</v>
       </c>
       <c r="J35" s="3">
+        <v>72500</v>
+      </c>
+      <c r="K35" s="3">
         <v>54800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>82300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>47000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>68100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>61600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>53800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>42900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>55200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1348400</v>
+        <v>1333000</v>
       </c>
       <c r="E41" s="3">
-        <v>1297600</v>
+        <v>1366100</v>
       </c>
       <c r="F41" s="3">
-        <v>1281000</v>
+        <v>22100</v>
       </c>
       <c r="G41" s="3">
-        <v>1401900</v>
+        <v>1297800</v>
       </c>
       <c r="H41" s="3">
-        <v>1179200</v>
+        <v>1420300</v>
       </c>
       <c r="I41" s="3">
-        <v>1140100</v>
+        <v>1194700</v>
       </c>
       <c r="J41" s="3">
+        <v>10200</v>
+      </c>
+      <c r="K41" s="3">
         <v>1091400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1217400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1143600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>23600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>849000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>830500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>758200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>815900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>651900</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2201,8 +2291,8 @@
       <c r="E42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
+      <c r="F42" s="3">
+        <v>1289500</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>8</v>
@@ -2210,11 +2300,11 @@
       <c r="H42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="3">
-        <v>1116800</v>
-      </c>
-      <c r="J42" s="3" t="s">
+      <c r="I42" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J42" s="3">
+        <v>1131400</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>8</v>
@@ -2222,11 +2312,11 @@
       <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N42" s="3">
         <v>1073300</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>8</v>
@@ -2234,364 +2324,388 @@
       <c r="P42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R42" s="3">
         <v>741000</v>
       </c>
-      <c r="R42" s="3" t="s">
+      <c r="S42" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>73600</v>
+        <v>78000</v>
       </c>
       <c r="E43" s="3">
-        <v>85100</v>
+        <v>74600</v>
       </c>
       <c r="F43" s="3">
-        <v>71600</v>
+        <v>85500</v>
       </c>
       <c r="G43" s="3">
-        <v>65300</v>
+        <v>72600</v>
       </c>
       <c r="H43" s="3">
-        <v>61400</v>
+        <v>66100</v>
       </c>
       <c r="I43" s="3">
-        <v>85900</v>
+        <v>62200</v>
       </c>
       <c r="J43" s="3">
+        <v>68900</v>
+      </c>
+      <c r="K43" s="3">
         <v>76600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>81300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>100000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>128300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>107700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>110400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>105300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>104500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>85200</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5500</v>
+        <v>5800</v>
       </c>
       <c r="E44" s="3">
-        <v>5100</v>
+        <v>5600</v>
       </c>
       <c r="F44" s="3">
+        <v>5200</v>
+      </c>
+      <c r="G44" s="3">
         <v>5600</v>
       </c>
-      <c r="G44" s="3">
-        <v>4900</v>
-      </c>
       <c r="H44" s="3">
-        <v>4600</v>
+        <v>5000</v>
       </c>
       <c r="I44" s="3">
-        <v>4200</v>
+        <v>4700</v>
       </c>
       <c r="J44" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K44" s="3">
         <v>5900</v>
-      </c>
-      <c r="K44" s="3">
-        <v>5400</v>
       </c>
       <c r="L44" s="3">
         <v>5400</v>
       </c>
       <c r="M44" s="3">
+        <v>5400</v>
+      </c>
+      <c r="N44" s="3">
         <v>5300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>8400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>37800</v>
+        <v>40400</v>
       </c>
       <c r="E45" s="3">
+        <v>38300</v>
+      </c>
+      <c r="F45" s="3">
         <v>18300</v>
       </c>
-      <c r="F45" s="3">
-        <v>34700</v>
-      </c>
       <c r="G45" s="3">
-        <v>12500</v>
+        <v>35200</v>
       </c>
       <c r="H45" s="3">
-        <v>9200</v>
+        <v>12600</v>
       </c>
       <c r="I45" s="3">
-        <v>16800</v>
+        <v>9300</v>
       </c>
       <c r="J45" s="3">
+        <v>6300</v>
+      </c>
+      <c r="K45" s="3">
         <v>27200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>34300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>68800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>25900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>59700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>55400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>50200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>73000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>50700</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1465400</v>
+        <v>1457100</v>
       </c>
       <c r="E46" s="3">
-        <v>1406200</v>
+        <v>1484600</v>
       </c>
       <c r="F46" s="3">
-        <v>1392900</v>
+        <v>1420500</v>
       </c>
       <c r="G46" s="3">
-        <v>1484600</v>
+        <v>1411200</v>
       </c>
       <c r="H46" s="3">
-        <v>1254400</v>
+        <v>1504000</v>
       </c>
       <c r="I46" s="3">
-        <v>1209500</v>
+        <v>1270900</v>
       </c>
       <c r="J46" s="3">
+        <v>1221300</v>
+      </c>
+      <c r="K46" s="3">
         <v>1201100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1338500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1317800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1256400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1021900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1001900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>919000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>940700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>792800</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>130000</v>
+        <v>134200</v>
       </c>
       <c r="E47" s="3">
-        <v>118300</v>
+        <v>131700</v>
       </c>
       <c r="F47" s="3">
-        <v>117600</v>
+        <v>124800</v>
       </c>
       <c r="G47" s="3">
-        <v>166800</v>
+        <v>119100</v>
       </c>
       <c r="H47" s="3">
-        <v>167700</v>
+        <v>169000</v>
       </c>
       <c r="I47" s="3">
-        <v>170200</v>
+        <v>169900</v>
       </c>
       <c r="J47" s="3">
+        <v>172400</v>
+      </c>
+      <c r="K47" s="3">
         <v>143300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>162200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>217500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>218000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>208300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>201500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>196000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>205700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>197500</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>45800</v>
+        <v>45400</v>
       </c>
       <c r="E48" s="3">
-        <v>46600</v>
+        <v>46400</v>
       </c>
       <c r="F48" s="3">
-        <v>46800</v>
+        <v>52700</v>
       </c>
       <c r="G48" s="3">
-        <v>46600</v>
+        <v>47500</v>
       </c>
       <c r="H48" s="3">
-        <v>47400</v>
+        <v>47200</v>
       </c>
       <c r="I48" s="3">
-        <v>89600</v>
+        <v>48000</v>
       </c>
       <c r="J48" s="3">
+        <v>47800</v>
+      </c>
+      <c r="K48" s="3">
         <v>47500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>56200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>50100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>54700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>49300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>49900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>50500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>112400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>49000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1616000</v>
+        <v>1643600</v>
       </c>
       <c r="E49" s="3">
-        <v>1608000</v>
+        <v>1637200</v>
       </c>
       <c r="F49" s="3">
-        <v>1584700</v>
+        <v>1629100</v>
       </c>
       <c r="G49" s="3">
-        <v>1009200</v>
+        <v>1605400</v>
       </c>
       <c r="H49" s="3">
-        <v>983900</v>
+        <v>1022500</v>
       </c>
       <c r="I49" s="3">
-        <v>959300</v>
+        <v>996800</v>
       </c>
       <c r="J49" s="3">
+        <v>971800</v>
+      </c>
+      <c r="K49" s="3">
         <v>924600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1071500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1049100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>981900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>957200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>923200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>882000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>882800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>872700</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>96000</v>
+        <v>114900</v>
       </c>
       <c r="E52" s="3">
-        <v>94200</v>
+        <v>97200</v>
       </c>
       <c r="F52" s="3">
-        <v>89100</v>
+        <v>103500</v>
       </c>
       <c r="G52" s="3">
-        <v>44900</v>
+        <v>90200</v>
       </c>
       <c r="H52" s="3">
-        <v>64900</v>
+        <v>45500</v>
       </c>
       <c r="I52" s="3">
-        <v>128200</v>
+        <v>65800</v>
       </c>
       <c r="J52" s="3">
+        <v>87200</v>
+      </c>
+      <c r="K52" s="3">
         <v>79600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>53300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>73100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>71500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>73900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>72900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>69100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>91600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3353100</v>
+        <v>3395300</v>
       </c>
       <c r="E54" s="3">
-        <v>3273300</v>
+        <v>3397100</v>
       </c>
       <c r="F54" s="3">
-        <v>3231100</v>
+        <v>3330600</v>
       </c>
       <c r="G54" s="3">
-        <v>2752100</v>
+        <v>3273400</v>
       </c>
       <c r="H54" s="3">
-        <v>2518400</v>
+        <v>2788200</v>
       </c>
       <c r="I54" s="3">
-        <v>2468200</v>
+        <v>2551400</v>
       </c>
       <c r="J54" s="3">
+        <v>2500500</v>
+      </c>
+      <c r="K54" s="3">
         <v>2396100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2681700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2707500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2582400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2310700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2249300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2116700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2170400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1960500</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,281 +3010,297 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>25600</v>
+        <v>24600</v>
       </c>
       <c r="E57" s="3">
-        <v>18700</v>
+        <v>25900</v>
       </c>
       <c r="F57" s="3">
-        <v>15900</v>
+        <v>18900</v>
       </c>
       <c r="G57" s="3">
-        <v>11600</v>
+        <v>16100</v>
       </c>
       <c r="H57" s="3">
-        <v>11600</v>
+        <v>11800</v>
       </c>
       <c r="I57" s="3">
-        <v>10600</v>
+        <v>11800</v>
       </c>
       <c r="J57" s="3">
+        <v>10800</v>
+      </c>
+      <c r="K57" s="3">
         <v>11700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>12000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>11100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>12300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>12100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>13400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>8700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>13800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>10200</v>
+        <v>21800</v>
       </c>
       <c r="E58" s="3">
-        <v>10100</v>
+        <v>10400</v>
       </c>
       <c r="F58" s="3">
-        <v>9000</v>
+        <v>10300</v>
       </c>
       <c r="G58" s="3">
-        <v>9000</v>
+        <v>9100</v>
       </c>
       <c r="H58" s="3">
-        <v>14400</v>
+        <v>9100</v>
       </c>
       <c r="I58" s="3">
-        <v>27100</v>
+        <v>14600</v>
       </c>
       <c r="J58" s="3">
+        <v>14600</v>
+      </c>
+      <c r="K58" s="3">
         <v>10600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>10700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>34600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>36700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>35700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>34900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>34000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>31100</v>
       </c>
-      <c r="R58" s="3" t="s">
+      <c r="S58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>134900</v>
+        <v>206100</v>
       </c>
       <c r="E59" s="3">
-        <v>137700</v>
+        <v>136700</v>
       </c>
       <c r="F59" s="3">
-        <v>140700</v>
+        <v>230800</v>
       </c>
       <c r="G59" s="3">
-        <v>96100</v>
+        <v>142500</v>
       </c>
       <c r="H59" s="3">
-        <v>99000</v>
+        <v>97300</v>
       </c>
       <c r="I59" s="3">
-        <v>302200</v>
+        <v>100300</v>
       </c>
       <c r="J59" s="3">
+        <v>204100</v>
+      </c>
+      <c r="K59" s="3">
         <v>203000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>237000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>101000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>107600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>117100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>110200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>138900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>144900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>155200</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>170700</v>
+        <v>252400</v>
       </c>
       <c r="E60" s="3">
-        <v>166600</v>
+        <v>173000</v>
       </c>
       <c r="F60" s="3">
-        <v>165500</v>
+        <v>259900</v>
       </c>
       <c r="G60" s="3">
-        <v>116700</v>
+        <v>167700</v>
       </c>
       <c r="H60" s="3">
-        <v>125000</v>
+        <v>118200</v>
       </c>
       <c r="I60" s="3">
-        <v>226400</v>
+        <v>126600</v>
       </c>
       <c r="J60" s="3">
+        <v>229400</v>
+      </c>
+      <c r="K60" s="3">
         <v>225300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>259700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>146700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>156500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>164900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>158500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>181600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>147500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>163900</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>743100</v>
+        <v>734100</v>
       </c>
       <c r="E61" s="3">
-        <v>720200</v>
+        <v>752800</v>
       </c>
       <c r="F61" s="3">
-        <v>726400</v>
+        <v>729600</v>
       </c>
       <c r="G61" s="3">
-        <v>435800</v>
+        <v>736000</v>
       </c>
       <c r="H61" s="3">
-        <v>245900</v>
+        <v>441500</v>
       </c>
       <c r="I61" s="3">
-        <v>246200</v>
+        <v>249100</v>
       </c>
       <c r="J61" s="3">
+        <v>249400</v>
+      </c>
+      <c r="K61" s="3">
         <v>265000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>220700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>232800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>222600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>230900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>229300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>240500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>243500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>372600</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>44600</v>
+        <v>45100</v>
       </c>
       <c r="E62" s="3">
-        <v>54000</v>
+        <v>45200</v>
       </c>
       <c r="F62" s="3">
-        <v>53900</v>
+        <v>67200</v>
       </c>
       <c r="G62" s="3">
-        <v>400</v>
+        <v>54600</v>
       </c>
       <c r="H62" s="3">
+        <v>500</v>
+      </c>
+      <c r="I62" s="3">
         <v>600</v>
       </c>
-      <c r="I62" s="3">
-        <v>15600</v>
-      </c>
       <c r="J62" s="3">
-        <v>500</v>
+        <v>15200</v>
       </c>
       <c r="K62" s="3">
         <v>500</v>
@@ -3163,10 +3309,10 @@
         <v>500</v>
       </c>
       <c r="M62" s="3">
+        <v>500</v>
+      </c>
+      <c r="N62" s="3">
         <v>10500</v>
-      </c>
-      <c r="N62" s="3">
-        <v>400</v>
       </c>
       <c r="O62" s="3">
         <v>400</v>
@@ -3175,13 +3321,16 @@
         <v>400</v>
       </c>
       <c r="Q62" s="3">
+        <v>400</v>
+      </c>
+      <c r="R62" s="3">
         <v>25600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1256700</v>
+        <v>1340500</v>
       </c>
       <c r="E66" s="3">
-        <v>1234400</v>
+        <v>1273200</v>
       </c>
       <c r="F66" s="3">
-        <v>1235700</v>
+        <v>1354200</v>
       </c>
       <c r="G66" s="3">
-        <v>853400</v>
+        <v>1251900</v>
       </c>
       <c r="H66" s="3">
-        <v>667900</v>
+        <v>864600</v>
       </c>
       <c r="I66" s="3">
-        <v>671200</v>
+        <v>676600</v>
       </c>
       <c r="J66" s="3">
+        <v>680000</v>
+      </c>
+      <c r="K66" s="3">
         <v>688600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>706300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>595900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>588700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>537600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>535600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>514500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>525900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>549600</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>597600</v>
+        <v>539500</v>
       </c>
       <c r="E72" s="3">
-        <v>539100</v>
+        <v>605400</v>
       </c>
       <c r="F72" s="3">
-        <v>496000</v>
+        <v>869100</v>
       </c>
       <c r="G72" s="3">
-        <v>436900</v>
+        <v>502500</v>
       </c>
       <c r="H72" s="3">
-        <v>657600</v>
+        <v>442600</v>
       </c>
       <c r="I72" s="3">
-        <v>1565100</v>
+        <v>666300</v>
       </c>
       <c r="J72" s="3">
+        <v>973600</v>
+      </c>
+      <c r="K72" s="3">
         <v>532500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>568900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>959800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1278000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>812600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>750900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>748900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1724800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>712100</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2096400</v>
+        <v>2054800</v>
       </c>
       <c r="E76" s="3">
-        <v>2039000</v>
+        <v>2123900</v>
       </c>
       <c r="F76" s="3">
-        <v>1995400</v>
+        <v>1976300</v>
       </c>
       <c r="G76" s="3">
-        <v>1898700</v>
+        <v>2021600</v>
       </c>
       <c r="H76" s="3">
-        <v>1850500</v>
+        <v>1923600</v>
       </c>
       <c r="I76" s="3">
-        <v>1797000</v>
+        <v>1874800</v>
       </c>
       <c r="J76" s="3">
+        <v>1820600</v>
+      </c>
+      <c r="K76" s="3">
         <v>1707600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1975500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2111600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1993700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1773000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1713800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1602200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1644500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1410900</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>58500</v>
+        <v>23400</v>
       </c>
       <c r="E81" s="3">
-        <v>43100</v>
+        <v>59300</v>
       </c>
       <c r="F81" s="3">
-        <v>59100</v>
+        <v>45500</v>
       </c>
       <c r="G81" s="3">
-        <v>47700</v>
+        <v>59900</v>
       </c>
       <c r="H81" s="3">
-        <v>53600</v>
+        <v>48300</v>
       </c>
       <c r="I81" s="3">
-        <v>71600</v>
+        <v>54300</v>
       </c>
       <c r="J81" s="3">
+        <v>72500</v>
+      </c>
+      <c r="K81" s="3">
         <v>54800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>82300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>47000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>68100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>61600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>53800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>42900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>55200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>7900</v>
+        <v>7100</v>
       </c>
       <c r="E83" s="3">
-        <v>6900</v>
+        <v>8000</v>
       </c>
       <c r="F83" s="3">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="G83" s="3">
-        <v>4900</v>
+        <v>10100</v>
       </c>
       <c r="H83" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I83" s="3">
         <v>4800</v>
       </c>
-      <c r="I83" s="3">
-        <v>5200</v>
-      </c>
       <c r="J83" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K83" s="3">
         <v>5000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>6000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>5600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>6000</v>
-      </c>
-      <c r="N83" s="3">
-        <v>5400</v>
       </c>
       <c r="O83" s="3">
         <v>5400</v>
       </c>
       <c r="P83" s="3">
+        <v>5400</v>
+      </c>
+      <c r="Q83" s="3">
         <v>5100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>5600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>31100</v>
+        <v>105200</v>
       </c>
       <c r="E89" s="3">
-        <v>85200</v>
+        <v>31500</v>
       </c>
       <c r="F89" s="3">
-        <v>82700</v>
+        <v>282700</v>
       </c>
       <c r="G89" s="3">
-        <v>-55300</v>
+        <v>83800</v>
       </c>
       <c r="H89" s="3">
-        <v>-34900</v>
+        <v>-56100</v>
       </c>
       <c r="I89" s="3">
-        <v>48300</v>
+        <v>-35400</v>
       </c>
       <c r="J89" s="3">
+        <v>53000</v>
+      </c>
+      <c r="K89" s="3">
         <v>118600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>210000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-7100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>94700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>68100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>26300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>87900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>200000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>46700</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="3">
-        <v>-1500</v>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F91" s="3">
-        <v>-1700</v>
+        <v>-2900</v>
       </c>
       <c r="G91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
-        <v>-6300</v>
-      </c>
       <c r="I91" s="3">
-        <v>4300</v>
+        <v>-6400</v>
       </c>
       <c r="J91" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-126600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>72700</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>34200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>-67200</v>
-      </c>
       <c r="F94" s="3">
-        <v>-401200</v>
+        <v>74300</v>
       </c>
       <c r="G94" s="3">
-        <v>-105300</v>
+        <v>-406500</v>
       </c>
       <c r="H94" s="3">
-        <v>26300</v>
+        <v>-106700</v>
       </c>
       <c r="I94" s="3">
-        <v>-64100</v>
+        <v>26600</v>
       </c>
       <c r="J94" s="3">
+        <v>-97000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-195900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>39700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>13100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-499200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-62000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>165700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-52400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-240900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-31200</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4636,10 +4870,10 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>91200</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>10100</v>
+        <v>-115500</v>
       </c>
       <c r="E100" s="3">
-        <v>-18600</v>
+        <v>10200</v>
       </c>
       <c r="F100" s="3">
-        <v>317400</v>
+        <v>-336900</v>
       </c>
       <c r="G100" s="3">
-        <v>181500</v>
+        <v>321600</v>
       </c>
       <c r="H100" s="3">
+        <v>183900</v>
+      </c>
+      <c r="I100" s="3">
         <v>1200</v>
       </c>
-      <c r="I100" s="3">
-        <v>180500</v>
-      </c>
       <c r="J100" s="3">
+        <v>23200</v>
+      </c>
+      <c r="K100" s="3">
         <v>73400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-238700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>410700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-174500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-38500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>55000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>9700</v>
+        <v>-57000</v>
       </c>
       <c r="E101" s="3">
-        <v>17200</v>
+        <v>9800</v>
       </c>
       <c r="F101" s="3">
-        <v>-119800</v>
+        <v>-161200</v>
       </c>
       <c r="G101" s="3">
-        <v>201900</v>
+        <v>-121400</v>
       </c>
       <c r="H101" s="3">
-        <v>56600</v>
+        <v>204500</v>
       </c>
       <c r="I101" s="3">
-        <v>58200</v>
+        <v>57300</v>
       </c>
       <c r="J101" s="3">
+        <v>-121200</v>
+      </c>
+      <c r="K101" s="3">
         <v>73100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>62800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>281000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>14000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>54800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-140600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>50700</v>
+        <v>-33100</v>
       </c>
       <c r="E102" s="3">
-        <v>16600</v>
+        <v>51400</v>
       </c>
       <c r="F102" s="3">
-        <v>-120900</v>
+        <v>-141100</v>
       </c>
       <c r="G102" s="3">
-        <v>222700</v>
+        <v>-122500</v>
       </c>
       <c r="H102" s="3">
-        <v>49200</v>
+        <v>225700</v>
       </c>
       <c r="I102" s="3">
-        <v>38700</v>
+        <v>49800</v>
       </c>
       <c r="J102" s="3">
+        <v>-146000</v>
+      </c>
+      <c r="K102" s="3">
         <v>69300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>73800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>251500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>18500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>72300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-126500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>42000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PUODY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PUODY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>PUODY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>80100</v>
+        <v>121000</v>
       </c>
       <c r="E8" s="3">
-        <v>115100</v>
+        <v>87700</v>
       </c>
       <c r="F8" s="3">
-        <v>164700</v>
+        <v>126000</v>
       </c>
       <c r="G8" s="3">
-        <v>134200</v>
+        <v>180400</v>
       </c>
       <c r="H8" s="3">
-        <v>122200</v>
+        <v>147000</v>
       </c>
       <c r="I8" s="3">
-        <v>120300</v>
+        <v>133800</v>
       </c>
       <c r="J8" s="3">
+        <v>131800</v>
+      </c>
+      <c r="K8" s="3">
         <v>144800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>135600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>158200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>125500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>133800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>126000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>140900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>116900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>140900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>127500</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>43600</v>
+        <v>58300</v>
       </c>
       <c r="E9" s="3">
-        <v>46000</v>
+        <v>47700</v>
       </c>
       <c r="F9" s="3">
-        <v>87400</v>
+        <v>50400</v>
       </c>
       <c r="G9" s="3">
-        <v>60700</v>
+        <v>95800</v>
       </c>
       <c r="H9" s="3">
-        <v>49900</v>
+        <v>66500</v>
       </c>
       <c r="I9" s="3">
-        <v>48000</v>
+        <v>54600</v>
       </c>
       <c r="J9" s="3">
+        <v>52600</v>
+      </c>
+      <c r="K9" s="3">
         <v>69600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>59700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>63700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>42400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>56000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>50700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>63400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>43500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>61900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>50600</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>36500</v>
+        <v>62600</v>
       </c>
       <c r="E10" s="3">
-        <v>69100</v>
+        <v>39900</v>
       </c>
       <c r="F10" s="3">
-        <v>77300</v>
+        <v>75700</v>
       </c>
       <c r="G10" s="3">
-        <v>73500</v>
+        <v>84600</v>
       </c>
       <c r="H10" s="3">
-        <v>72300</v>
+        <v>80500</v>
       </c>
       <c r="I10" s="3">
-        <v>72300</v>
+        <v>79100</v>
       </c>
       <c r="J10" s="3">
+        <v>79200</v>
+      </c>
+      <c r="K10" s="3">
         <v>75200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>76000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>94400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>83100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>77800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>75300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>77400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>73300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>79000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>77000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1090,22 +1113,22 @@
         <v>100</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
         <v>100</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
       <c r="I15" s="3">
         <v>0</v>
       </c>
       <c r="J15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K15" s="3">
         <v>100</v>
@@ -1116,8 +1139,8 @@
       <c r="M15" s="3">
         <v>100</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>8</v>
+      <c r="N15" s="3">
+        <v>100</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>8</v>
@@ -1128,14 +1151,17 @@
       <c r="Q15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>43300</v>
+        <v>61300</v>
       </c>
       <c r="E17" s="3">
-        <v>45400</v>
+        <v>47400</v>
       </c>
       <c r="F17" s="3">
-        <v>87300</v>
+        <v>49700</v>
       </c>
       <c r="G17" s="3">
+        <v>95600</v>
+      </c>
+      <c r="H17" s="3">
+        <v>67400</v>
+      </c>
+      <c r="I17" s="3">
+        <v>55700</v>
+      </c>
+      <c r="J17" s="3">
+        <v>53000</v>
+      </c>
+      <c r="K17" s="3">
+        <v>70300</v>
+      </c>
+      <c r="L17" s="3">
+        <v>61400</v>
+      </c>
+      <c r="M17" s="3">
+        <v>62900</v>
+      </c>
+      <c r="N17" s="3">
+        <v>40700</v>
+      </c>
+      <c r="O17" s="3">
+        <v>56900</v>
+      </c>
+      <c r="P17" s="3">
+        <v>48300</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>63000</v>
+      </c>
+      <c r="R17" s="3">
+        <v>42700</v>
+      </c>
+      <c r="S17" s="3">
         <v>61500</v>
       </c>
-      <c r="H17" s="3">
-        <v>50900</v>
-      </c>
-      <c r="I17" s="3">
-        <v>48400</v>
-      </c>
-      <c r="J17" s="3">
-        <v>70300</v>
-      </c>
-      <c r="K17" s="3">
-        <v>61400</v>
-      </c>
-      <c r="L17" s="3">
-        <v>62900</v>
-      </c>
-      <c r="M17" s="3">
-        <v>40700</v>
-      </c>
-      <c r="N17" s="3">
-        <v>56900</v>
-      </c>
-      <c r="O17" s="3">
-        <v>48300</v>
-      </c>
-      <c r="P17" s="3">
-        <v>63000</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>42700</v>
-      </c>
-      <c r="R17" s="3">
-        <v>61500</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>49600</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>36700</v>
+        <v>59700</v>
       </c>
       <c r="E18" s="3">
-        <v>69700</v>
+        <v>40200</v>
       </c>
       <c r="F18" s="3">
-        <v>77400</v>
+        <v>76300</v>
       </c>
       <c r="G18" s="3">
-        <v>72700</v>
+        <v>84700</v>
       </c>
       <c r="H18" s="3">
-        <v>71300</v>
+        <v>79600</v>
       </c>
       <c r="I18" s="3">
-        <v>72000</v>
+        <v>78000</v>
       </c>
       <c r="J18" s="3">
+        <v>78800</v>
+      </c>
+      <c r="K18" s="3">
         <v>74500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>74300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>95300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>84800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>77000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>77700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>77800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>74100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>79500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>77900</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>8200</v>
+        <v>2700</v>
       </c>
       <c r="E20" s="3">
-        <v>33400</v>
+        <v>8900</v>
       </c>
       <c r="F20" s="3">
-        <v>13600</v>
+        <v>36600</v>
       </c>
       <c r="G20" s="3">
-        <v>28100</v>
+        <v>14900</v>
       </c>
       <c r="H20" s="3">
-        <v>18100</v>
+        <v>30800</v>
       </c>
       <c r="I20" s="3">
-        <v>15600</v>
+        <v>19800</v>
       </c>
       <c r="J20" s="3">
+        <v>17100</v>
+      </c>
+      <c r="K20" s="3">
         <v>44100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>34500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-7100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>35700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>12000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-11500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>16400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>52000</v>
+        <v>72100</v>
       </c>
       <c r="E21" s="3">
-        <v>111100</v>
+        <v>56900</v>
       </c>
       <c r="F21" s="3">
-        <v>98000</v>
+        <v>121700</v>
       </c>
       <c r="G21" s="3">
-        <v>110900</v>
+        <v>107300</v>
       </c>
       <c r="H21" s="3">
-        <v>94300</v>
+        <v>121500</v>
       </c>
       <c r="I21" s="3">
-        <v>92400</v>
+        <v>103300</v>
       </c>
       <c r="J21" s="3">
+        <v>101200</v>
+      </c>
+      <c r="K21" s="3">
         <v>120000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>84600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>135800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>83300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>118700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>95200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>86300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>67800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>101400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>97700</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>9100</v>
+        <v>10000</v>
       </c>
       <c r="E22" s="3">
-        <v>9200</v>
+        <v>9900</v>
       </c>
       <c r="F22" s="3">
-        <v>19500</v>
+        <v>10100</v>
       </c>
       <c r="G22" s="3">
-        <v>9600</v>
+        <v>21400</v>
       </c>
       <c r="H22" s="3">
-        <v>7800</v>
+        <v>10500</v>
       </c>
       <c r="I22" s="3">
-        <v>5000</v>
+        <v>8600</v>
       </c>
       <c r="J22" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K22" s="3">
         <v>17900</v>
-      </c>
-      <c r="K22" s="3">
-        <v>4100</v>
       </c>
       <c r="L22" s="3">
         <v>4100</v>
       </c>
       <c r="M22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="N22" s="3">
         <v>4700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>22000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4000</v>
-      </c>
-      <c r="P22" s="3">
-        <v>3900</v>
       </c>
       <c r="Q22" s="3">
         <v>3900</v>
       </c>
       <c r="R22" s="3">
+        <v>3900</v>
+      </c>
+      <c r="S22" s="3">
         <v>44600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>35800</v>
+        <v>52400</v>
       </c>
       <c r="E23" s="3">
-        <v>93900</v>
+        <v>39300</v>
       </c>
       <c r="F23" s="3">
-        <v>71500</v>
+        <v>102800</v>
       </c>
       <c r="G23" s="3">
-        <v>91200</v>
+        <v>78300</v>
       </c>
       <c r="H23" s="3">
-        <v>81500</v>
+        <v>99900</v>
       </c>
       <c r="I23" s="3">
-        <v>82600</v>
+        <v>89200</v>
       </c>
       <c r="J23" s="3">
+        <v>90500</v>
+      </c>
+      <c r="K23" s="3">
         <v>100800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>75400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>125700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>73000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>90700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>85800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>77000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>58700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>51300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>85500</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>6200</v>
+        <v>15300</v>
       </c>
       <c r="E24" s="3">
-        <v>24700</v>
+        <v>6800</v>
       </c>
       <c r="F24" s="3">
-        <v>15700</v>
+        <v>27000</v>
       </c>
       <c r="G24" s="3">
-        <v>24200</v>
+        <v>17200</v>
       </c>
       <c r="H24" s="3">
-        <v>22700</v>
+        <v>26500</v>
       </c>
       <c r="I24" s="3">
-        <v>19200</v>
+        <v>24800</v>
       </c>
       <c r="J24" s="3">
+        <v>21100</v>
+      </c>
+      <c r="K24" s="3">
         <v>19000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>12000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>34000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>16500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>14700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>18300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>17500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>11800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-7000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>29600</v>
+        <v>37200</v>
       </c>
       <c r="E26" s="3">
-        <v>69200</v>
+        <v>32400</v>
       </c>
       <c r="F26" s="3">
-        <v>55800</v>
+        <v>75800</v>
       </c>
       <c r="G26" s="3">
-        <v>67000</v>
+        <v>61100</v>
       </c>
       <c r="H26" s="3">
-        <v>58800</v>
+        <v>73400</v>
       </c>
       <c r="I26" s="3">
+        <v>64400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>69400</v>
+      </c>
+      <c r="K26" s="3">
+        <v>81700</v>
+      </c>
+      <c r="L26" s="3">
         <v>63400</v>
       </c>
-      <c r="J26" s="3">
-        <v>81700</v>
-      </c>
-      <c r="K26" s="3">
-        <v>63400</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>91700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>56500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>76000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>67500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>59600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>46900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>58300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>23400</v>
+        <v>28800</v>
       </c>
       <c r="E27" s="3">
-        <v>59300</v>
+        <v>25600</v>
       </c>
       <c r="F27" s="3">
-        <v>45500</v>
+        <v>64900</v>
       </c>
       <c r="G27" s="3">
-        <v>59900</v>
+        <v>49800</v>
       </c>
       <c r="H27" s="3">
-        <v>48300</v>
+        <v>65600</v>
       </c>
       <c r="I27" s="3">
-        <v>54300</v>
+        <v>52900</v>
       </c>
       <c r="J27" s="3">
+        <v>59400</v>
+      </c>
+      <c r="K27" s="3">
         <v>72500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>54800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>82300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>47000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>68100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>61600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>54200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>42900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>55200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1773,18 +1834,18 @@
       <c r="G29" s="3">
         <v>0</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
@@ -1798,19 +1859,22 @@
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-400</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-8200</v>
+        <v>-2700</v>
       </c>
       <c r="E32" s="3">
-        <v>-33400</v>
+        <v>-8900</v>
       </c>
       <c r="F32" s="3">
-        <v>-13600</v>
+        <v>-36600</v>
       </c>
       <c r="G32" s="3">
-        <v>-28100</v>
+        <v>-14900</v>
       </c>
       <c r="H32" s="3">
-        <v>-18100</v>
+        <v>-30800</v>
       </c>
       <c r="I32" s="3">
-        <v>-15600</v>
+        <v>-19800</v>
       </c>
       <c r="J32" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-44100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-34500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>7100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-35700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-12000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>11500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-16400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-14800</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>23400</v>
+        <v>28800</v>
       </c>
       <c r="E33" s="3">
-        <v>59300</v>
+        <v>25600</v>
       </c>
       <c r="F33" s="3">
-        <v>45500</v>
+        <v>64900</v>
       </c>
       <c r="G33" s="3">
-        <v>59900</v>
+        <v>49800</v>
       </c>
       <c r="H33" s="3">
-        <v>48300</v>
+        <v>65600</v>
       </c>
       <c r="I33" s="3">
-        <v>54300</v>
+        <v>52900</v>
       </c>
       <c r="J33" s="3">
+        <v>59400</v>
+      </c>
+      <c r="K33" s="3">
         <v>72500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>54800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>82300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>47000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>68100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>61600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>53800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>42900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>55200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>23400</v>
+        <v>28800</v>
       </c>
       <c r="E35" s="3">
-        <v>59300</v>
+        <v>25600</v>
       </c>
       <c r="F35" s="3">
-        <v>45500</v>
+        <v>64900</v>
       </c>
       <c r="G35" s="3">
-        <v>59900</v>
+        <v>49800</v>
       </c>
       <c r="H35" s="3">
-        <v>48300</v>
+        <v>65600</v>
       </c>
       <c r="I35" s="3">
-        <v>54300</v>
+        <v>52900</v>
       </c>
       <c r="J35" s="3">
+        <v>59400</v>
+      </c>
+      <c r="K35" s="3">
         <v>72500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>54800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>82300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>47000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>68100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>61600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>53800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>42900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>55200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1333000</v>
+        <v>1485200</v>
       </c>
       <c r="E41" s="3">
-        <v>1366100</v>
+        <v>1459500</v>
       </c>
       <c r="F41" s="3">
-        <v>22100</v>
+        <v>1495800</v>
       </c>
       <c r="G41" s="3">
-        <v>1297800</v>
+        <v>24200</v>
       </c>
       <c r="H41" s="3">
-        <v>1420300</v>
+        <v>1421100</v>
       </c>
       <c r="I41" s="3">
-        <v>1194700</v>
+        <v>1555200</v>
       </c>
       <c r="J41" s="3">
+        <v>1308100</v>
+      </c>
+      <c r="K41" s="3">
         <v>10200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1091400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1217400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1143600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>23600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>849000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>830500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>758200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>815900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>651900</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2291,11 +2381,11 @@
       <c r="E42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="3">
-        <v>1289500</v>
-      </c>
-      <c r="G42" s="3" t="s">
+      <c r="F42" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1411900</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>8</v>
@@ -2303,11 +2393,11 @@
       <c r="I42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K42" s="3">
         <v>1131400</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>8</v>
@@ -2315,11 +2405,11 @@
       <c r="M42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O42" s="3">
         <v>1073300</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>8</v>
@@ -2327,385 +2417,409 @@
       <c r="Q42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S42" s="3">
         <v>741000</v>
       </c>
-      <c r="S42" s="3" t="s">
+      <c r="T42" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>78000</v>
+        <v>78200</v>
       </c>
       <c r="E43" s="3">
-        <v>74600</v>
+        <v>85400</v>
       </c>
       <c r="F43" s="3">
-        <v>85500</v>
+        <v>81700</v>
       </c>
       <c r="G43" s="3">
-        <v>72600</v>
+        <v>93600</v>
       </c>
       <c r="H43" s="3">
-        <v>66100</v>
+        <v>79400</v>
       </c>
       <c r="I43" s="3">
-        <v>62200</v>
+        <v>72400</v>
       </c>
       <c r="J43" s="3">
+        <v>68100</v>
+      </c>
+      <c r="K43" s="3">
         <v>68900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>76600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>81300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>100000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>128300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>107700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>110400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>105300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>104500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>85200</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5800</v>
+        <v>6600</v>
       </c>
       <c r="E44" s="3">
-        <v>5600</v>
+        <v>6400</v>
       </c>
       <c r="F44" s="3">
+        <v>6100</v>
+      </c>
+      <c r="G44" s="3">
+        <v>5700</v>
+      </c>
+      <c r="H44" s="3">
+        <v>6200</v>
+      </c>
+      <c r="I44" s="3">
+        <v>5400</v>
+      </c>
+      <c r="J44" s="3">
         <v>5200</v>
       </c>
-      <c r="G44" s="3">
-        <v>5600</v>
-      </c>
-      <c r="H44" s="3">
-        <v>5000</v>
-      </c>
-      <c r="I44" s="3">
-        <v>4700</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5900</v>
-      </c>
-      <c r="L44" s="3">
-        <v>5400</v>
       </c>
       <c r="M44" s="3">
         <v>5400</v>
       </c>
       <c r="N44" s="3">
+        <v>5400</v>
+      </c>
+      <c r="O44" s="3">
         <v>5300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>8400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>40400</v>
+        <v>13300</v>
       </c>
       <c r="E45" s="3">
-        <v>38300</v>
+        <v>44200</v>
       </c>
       <c r="F45" s="3">
-        <v>18300</v>
+        <v>42000</v>
       </c>
       <c r="G45" s="3">
-        <v>35200</v>
+        <v>20000</v>
       </c>
       <c r="H45" s="3">
-        <v>12600</v>
+        <v>38500</v>
       </c>
       <c r="I45" s="3">
-        <v>9300</v>
+        <v>13800</v>
       </c>
       <c r="J45" s="3">
+        <v>10200</v>
+      </c>
+      <c r="K45" s="3">
         <v>6300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>27200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>34300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>68800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>25900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>59700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>55400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>50200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>73000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>50700</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1457100</v>
+        <v>1583300</v>
       </c>
       <c r="E46" s="3">
-        <v>1484600</v>
+        <v>1595500</v>
       </c>
       <c r="F46" s="3">
-        <v>1420500</v>
+        <v>1625500</v>
       </c>
       <c r="G46" s="3">
-        <v>1411200</v>
+        <v>1555400</v>
       </c>
       <c r="H46" s="3">
-        <v>1504000</v>
+        <v>1545200</v>
       </c>
       <c r="I46" s="3">
-        <v>1270900</v>
+        <v>1646900</v>
       </c>
       <c r="J46" s="3">
+        <v>1391500</v>
+      </c>
+      <c r="K46" s="3">
         <v>1221300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1201100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1338500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1317800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1256400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1021900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1001900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>919000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>940700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>792800</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>134200</v>
+        <v>156000</v>
       </c>
       <c r="E47" s="3">
-        <v>131700</v>
+        <v>147000</v>
       </c>
       <c r="F47" s="3">
-        <v>124800</v>
+        <v>144200</v>
       </c>
       <c r="G47" s="3">
-        <v>119100</v>
+        <v>136700</v>
       </c>
       <c r="H47" s="3">
-        <v>169000</v>
+        <v>130400</v>
       </c>
       <c r="I47" s="3">
-        <v>169900</v>
+        <v>185000</v>
       </c>
       <c r="J47" s="3">
+        <v>186100</v>
+      </c>
+      <c r="K47" s="3">
         <v>172400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>143300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>162200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>217500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>218000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>208300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>201500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>196000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>205700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>197500</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>45400</v>
+        <v>49800</v>
       </c>
       <c r="E48" s="3">
-        <v>46400</v>
+        <v>49700</v>
       </c>
       <c r="F48" s="3">
-        <v>52700</v>
+        <v>50800</v>
       </c>
       <c r="G48" s="3">
+        <v>57700</v>
+      </c>
+      <c r="H48" s="3">
+        <v>52000</v>
+      </c>
+      <c r="I48" s="3">
+        <v>51700</v>
+      </c>
+      <c r="J48" s="3">
+        <v>52600</v>
+      </c>
+      <c r="K48" s="3">
+        <v>47800</v>
+      </c>
+      <c r="L48" s="3">
         <v>47500</v>
       </c>
-      <c r="H48" s="3">
-        <v>47200</v>
-      </c>
-      <c r="I48" s="3">
-        <v>48000</v>
-      </c>
-      <c r="J48" s="3">
-        <v>47800</v>
-      </c>
-      <c r="K48" s="3">
-        <v>47500</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>56200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>50100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>54700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>49300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>49900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>50500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>112400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>49000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1643600</v>
+        <v>1812100</v>
       </c>
       <c r="E49" s="3">
-        <v>1637200</v>
+        <v>1799700</v>
       </c>
       <c r="F49" s="3">
-        <v>1629100</v>
+        <v>1792700</v>
       </c>
       <c r="G49" s="3">
-        <v>1605400</v>
+        <v>1783700</v>
       </c>
       <c r="H49" s="3">
-        <v>1022500</v>
+        <v>1757900</v>
       </c>
       <c r="I49" s="3">
-        <v>996800</v>
+        <v>1119600</v>
       </c>
       <c r="J49" s="3">
+        <v>1091400</v>
+      </c>
+      <c r="K49" s="3">
         <v>971800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>924600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1071500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1049100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>981900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>957200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>923200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>882000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>882800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>872700</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>114900</v>
+        <v>138800</v>
       </c>
       <c r="E52" s="3">
-        <v>97200</v>
+        <v>125800</v>
       </c>
       <c r="F52" s="3">
-        <v>103500</v>
+        <v>106400</v>
       </c>
       <c r="G52" s="3">
-        <v>90200</v>
+        <v>113300</v>
       </c>
       <c r="H52" s="3">
-        <v>45500</v>
+        <v>98800</v>
       </c>
       <c r="I52" s="3">
-        <v>65800</v>
+        <v>49800</v>
       </c>
       <c r="J52" s="3">
+        <v>72000</v>
+      </c>
+      <c r="K52" s="3">
         <v>87200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>79600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>53300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>73100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>71500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>73900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>72900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>69100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>91600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3395300</v>
+        <v>3739900</v>
       </c>
       <c r="E54" s="3">
-        <v>3397100</v>
+        <v>3717700</v>
       </c>
       <c r="F54" s="3">
-        <v>3330600</v>
+        <v>3719600</v>
       </c>
       <c r="G54" s="3">
-        <v>3273400</v>
+        <v>3646800</v>
       </c>
       <c r="H54" s="3">
-        <v>2788200</v>
+        <v>3584300</v>
       </c>
       <c r="I54" s="3">
-        <v>2551400</v>
+        <v>3052900</v>
       </c>
       <c r="J54" s="3">
+        <v>2793700</v>
+      </c>
+      <c r="K54" s="3">
         <v>2500500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2396100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2681700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2707500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2582400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2310700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2249300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2116700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2170400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1960500</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,299 +3141,315 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>24600</v>
+        <v>29300</v>
       </c>
       <c r="E57" s="3">
-        <v>25900</v>
+        <v>26900</v>
       </c>
       <c r="F57" s="3">
-        <v>18900</v>
+        <v>28400</v>
       </c>
       <c r="G57" s="3">
-        <v>16100</v>
+        <v>20700</v>
       </c>
       <c r="H57" s="3">
-        <v>11800</v>
+        <v>17600</v>
       </c>
       <c r="I57" s="3">
-        <v>11800</v>
+        <v>12900</v>
       </c>
       <c r="J57" s="3">
+        <v>12900</v>
+      </c>
+      <c r="K57" s="3">
         <v>10800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>11700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>12000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>11100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>12300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>12100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>13400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>8700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>13800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>21800</v>
+        <v>26700</v>
       </c>
       <c r="E58" s="3">
-        <v>10400</v>
+        <v>23900</v>
       </c>
       <c r="F58" s="3">
-        <v>10300</v>
+        <v>11400</v>
       </c>
       <c r="G58" s="3">
-        <v>9100</v>
+        <v>11200</v>
       </c>
       <c r="H58" s="3">
-        <v>9100</v>
+        <v>10000</v>
       </c>
       <c r="I58" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J58" s="3">
+        <v>16000</v>
+      </c>
+      <c r="K58" s="3">
         <v>14600</v>
       </c>
-      <c r="J58" s="3">
-        <v>14600</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>10600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>10700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>34600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>36700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>35700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>34900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>34000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>31100</v>
       </c>
-      <c r="S58" s="3" t="s">
+      <c r="T58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>206100</v>
+        <v>221100</v>
       </c>
       <c r="E59" s="3">
-        <v>136700</v>
+        <v>225600</v>
       </c>
       <c r="F59" s="3">
-        <v>230800</v>
+        <v>149700</v>
       </c>
       <c r="G59" s="3">
-        <v>142500</v>
+        <v>252700</v>
       </c>
       <c r="H59" s="3">
-        <v>97300</v>
+        <v>156000</v>
       </c>
       <c r="I59" s="3">
-        <v>100300</v>
+        <v>106600</v>
       </c>
       <c r="J59" s="3">
+        <v>109800</v>
+      </c>
+      <c r="K59" s="3">
         <v>204100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>203000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>237000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>101000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>107600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>117100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>110200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>138900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>144900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>155200</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>252400</v>
+        <v>277100</v>
       </c>
       <c r="E60" s="3">
-        <v>173000</v>
+        <v>276400</v>
       </c>
       <c r="F60" s="3">
-        <v>259900</v>
+        <v>189400</v>
       </c>
       <c r="G60" s="3">
-        <v>167700</v>
+        <v>284600</v>
       </c>
       <c r="H60" s="3">
-        <v>118200</v>
+        <v>183600</v>
       </c>
       <c r="I60" s="3">
-        <v>126600</v>
+        <v>129400</v>
       </c>
       <c r="J60" s="3">
+        <v>138700</v>
+      </c>
+      <c r="K60" s="3">
         <v>229400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>225300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>259700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>146700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>156500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>164900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>158500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>181600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>147500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>163900</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>734100</v>
+        <v>803000</v>
       </c>
       <c r="E61" s="3">
-        <v>752800</v>
+        <v>803800</v>
       </c>
       <c r="F61" s="3">
-        <v>729600</v>
+        <v>824300</v>
       </c>
       <c r="G61" s="3">
-        <v>736000</v>
+        <v>798900</v>
       </c>
       <c r="H61" s="3">
-        <v>441500</v>
+        <v>805800</v>
       </c>
       <c r="I61" s="3">
-        <v>249100</v>
+        <v>483500</v>
       </c>
       <c r="J61" s="3">
+        <v>272800</v>
+      </c>
+      <c r="K61" s="3">
         <v>249400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>265000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>220700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>232800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>222600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>230900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>229300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>240500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>243500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>372600</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>45100</v>
+        <v>49400</v>
       </c>
       <c r="E62" s="3">
-        <v>45200</v>
+        <v>49400</v>
       </c>
       <c r="F62" s="3">
-        <v>67200</v>
+        <v>49500</v>
       </c>
       <c r="G62" s="3">
-        <v>54600</v>
+        <v>73600</v>
       </c>
       <c r="H62" s="3">
+        <v>59800</v>
+      </c>
+      <c r="I62" s="3">
         <v>500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>15200</v>
-      </c>
-      <c r="K62" s="3">
-        <v>500</v>
       </c>
       <c r="L62" s="3">
         <v>500</v>
@@ -3312,10 +3458,10 @@
         <v>500</v>
       </c>
       <c r="N62" s="3">
+        <v>500</v>
+      </c>
+      <c r="O62" s="3">
         <v>10500</v>
-      </c>
-      <c r="O62" s="3">
-        <v>400</v>
       </c>
       <c r="P62" s="3">
         <v>400</v>
@@ -3324,13 +3470,16 @@
         <v>400</v>
       </c>
       <c r="R62" s="3">
+        <v>400</v>
+      </c>
+      <c r="S62" s="3">
         <v>25600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1340500</v>
+        <v>1463100</v>
       </c>
       <c r="E66" s="3">
-        <v>1273200</v>
+        <v>1467800</v>
       </c>
       <c r="F66" s="3">
-        <v>1354200</v>
+        <v>1394100</v>
       </c>
       <c r="G66" s="3">
-        <v>1251900</v>
+        <v>1482800</v>
       </c>
       <c r="H66" s="3">
-        <v>864600</v>
+        <v>1370700</v>
       </c>
       <c r="I66" s="3">
-        <v>676600</v>
+        <v>946700</v>
       </c>
       <c r="J66" s="3">
+        <v>740900</v>
+      </c>
+      <c r="K66" s="3">
         <v>680000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>688600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>706300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>595900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>588700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>537600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>535600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>514500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>525900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>549600</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>539500</v>
+        <v>919000</v>
       </c>
       <c r="E72" s="3">
-        <v>605400</v>
+        <v>590700</v>
       </c>
       <c r="F72" s="3">
-        <v>869100</v>
+        <v>662900</v>
       </c>
       <c r="G72" s="3">
-        <v>502500</v>
+        <v>951600</v>
       </c>
       <c r="H72" s="3">
-        <v>442600</v>
+        <v>550200</v>
       </c>
       <c r="I72" s="3">
-        <v>666300</v>
+        <v>484600</v>
       </c>
       <c r="J72" s="3">
+        <v>729500</v>
+      </c>
+      <c r="K72" s="3">
         <v>973600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>532500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>568900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>959800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1278000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>812600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>750900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>748900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1724800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>712100</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2054800</v>
+        <v>2276900</v>
       </c>
       <c r="E76" s="3">
-        <v>2123900</v>
+        <v>2249900</v>
       </c>
       <c r="F76" s="3">
-        <v>1976300</v>
+        <v>2325500</v>
       </c>
       <c r="G76" s="3">
-        <v>2021600</v>
+        <v>2164000</v>
       </c>
       <c r="H76" s="3">
-        <v>1923600</v>
+        <v>2213500</v>
       </c>
       <c r="I76" s="3">
-        <v>1874800</v>
+        <v>2106300</v>
       </c>
       <c r="J76" s="3">
+        <v>2052800</v>
+      </c>
+      <c r="K76" s="3">
         <v>1820600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1707600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1975500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2111600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1993700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1773000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1713800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1602200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1644500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1410900</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>23400</v>
+        <v>28800</v>
       </c>
       <c r="E81" s="3">
-        <v>59300</v>
+        <v>25600</v>
       </c>
       <c r="F81" s="3">
-        <v>45500</v>
+        <v>64900</v>
       </c>
       <c r="G81" s="3">
-        <v>59900</v>
+        <v>49800</v>
       </c>
       <c r="H81" s="3">
-        <v>48300</v>
+        <v>65600</v>
       </c>
       <c r="I81" s="3">
-        <v>54300</v>
+        <v>52900</v>
       </c>
       <c r="J81" s="3">
+        <v>59400</v>
+      </c>
+      <c r="K81" s="3">
         <v>72500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>54800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>82300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>47000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>68100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>61600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>53800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>42900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>55200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>7100</v>
+        <v>9600</v>
       </c>
       <c r="E83" s="3">
-        <v>8000</v>
+        <v>7800</v>
       </c>
       <c r="F83" s="3">
-        <v>7000</v>
+        <v>8800</v>
       </c>
       <c r="G83" s="3">
-        <v>10100</v>
+        <v>7700</v>
       </c>
       <c r="H83" s="3">
+        <v>11100</v>
+      </c>
+      <c r="I83" s="3">
+        <v>5500</v>
+      </c>
+      <c r="J83" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K83" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L83" s="3">
         <v>5000</v>
       </c>
-      <c r="I83" s="3">
-        <v>4800</v>
-      </c>
-      <c r="J83" s="3">
-        <v>1300</v>
-      </c>
-      <c r="K83" s="3">
-        <v>5000</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>6000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>5600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>6000</v>
-      </c>
-      <c r="O83" s="3">
-        <v>5400</v>
       </c>
       <c r="P83" s="3">
         <v>5400</v>
       </c>
       <c r="Q83" s="3">
+        <v>5400</v>
+      </c>
+      <c r="R83" s="3">
         <v>5100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>5600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>105200</v>
+        <v>14900</v>
       </c>
       <c r="E89" s="3">
-        <v>31500</v>
+        <v>115200</v>
       </c>
       <c r="F89" s="3">
-        <v>282700</v>
+        <v>34400</v>
       </c>
       <c r="G89" s="3">
-        <v>83800</v>
+        <v>309500</v>
       </c>
       <c r="H89" s="3">
-        <v>-56100</v>
+        <v>91700</v>
       </c>
       <c r="I89" s="3">
-        <v>-35400</v>
+        <v>-61400</v>
       </c>
       <c r="J89" s="3">
+        <v>-38700</v>
+      </c>
+      <c r="K89" s="3">
         <v>53000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>118600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>210000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-7100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>94700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>68100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>26300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>87900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>200000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>46700</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>-1500</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F91" s="3">
-        <v>-2900</v>
+      <c r="F91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G91" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="K91" s="3">
+        <v>3600</v>
+      </c>
+      <c r="L91" s="3">
         <v>-1800</v>
       </c>
-      <c r="H91" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-6400</v>
-      </c>
-      <c r="J91" s="3">
-        <v>3600</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-126600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>72700</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>34200</v>
+        <v>-66500</v>
       </c>
       <c r="E94" s="3">
+        <v>37400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>74300</v>
-      </c>
       <c r="G94" s="3">
-        <v>-406500</v>
+        <v>81400</v>
       </c>
       <c r="H94" s="3">
-        <v>-106700</v>
+        <v>-445100</v>
       </c>
       <c r="I94" s="3">
-        <v>26600</v>
+        <v>-116800</v>
       </c>
       <c r="J94" s="3">
+        <v>29200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-97000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-195900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>39700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>13100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-499200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-62000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>165700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-52400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-240900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-31200</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4873,11 +5107,11 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>91200</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-115500</v>
+        <v>5000</v>
       </c>
       <c r="E100" s="3">
-        <v>10200</v>
+        <v>-126500</v>
       </c>
       <c r="F100" s="3">
-        <v>-336900</v>
+        <v>11200</v>
       </c>
       <c r="G100" s="3">
-        <v>321600</v>
+        <v>-368900</v>
       </c>
       <c r="H100" s="3">
-        <v>183900</v>
+        <v>352100</v>
       </c>
       <c r="I100" s="3">
-        <v>1200</v>
+        <v>201300</v>
       </c>
       <c r="J100" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K100" s="3">
         <v>23200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>73400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-238700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>410700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-174500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-38500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>55000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-57000</v>
+        <v>72400</v>
       </c>
       <c r="E101" s="3">
-        <v>9800</v>
+        <v>-62400</v>
       </c>
       <c r="F101" s="3">
-        <v>-161200</v>
+        <v>10800</v>
       </c>
       <c r="G101" s="3">
-        <v>-121400</v>
+        <v>-176500</v>
       </c>
       <c r="H101" s="3">
-        <v>204500</v>
+        <v>-132900</v>
       </c>
       <c r="I101" s="3">
-        <v>57300</v>
+        <v>223900</v>
       </c>
       <c r="J101" s="3">
+        <v>62800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-121200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>73100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>62800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>281000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>14000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>54800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-140600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-33100</v>
+        <v>25700</v>
       </c>
       <c r="E102" s="3">
-        <v>51400</v>
+        <v>-36200</v>
       </c>
       <c r="F102" s="3">
-        <v>-141100</v>
+        <v>56300</v>
       </c>
       <c r="G102" s="3">
-        <v>-122500</v>
+        <v>-154500</v>
       </c>
       <c r="H102" s="3">
-        <v>225700</v>
+        <v>-134100</v>
       </c>
       <c r="I102" s="3">
-        <v>49800</v>
+        <v>247100</v>
       </c>
       <c r="J102" s="3">
+        <v>54500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-146000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>69300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>73800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>251500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>18500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>72300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-126500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>42000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PUODY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PUODY_QTR_FIN.xlsx
@@ -752,25 +752,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>121000</v>
+        <v>117200</v>
       </c>
       <c r="E8" s="3">
-        <v>87700</v>
+        <v>84900</v>
       </c>
       <c r="F8" s="3">
-        <v>126000</v>
+        <v>122100</v>
       </c>
       <c r="G8" s="3">
-        <v>180400</v>
+        <v>174800</v>
       </c>
       <c r="H8" s="3">
-        <v>147000</v>
+        <v>142400</v>
       </c>
       <c r="I8" s="3">
-        <v>133800</v>
+        <v>129600</v>
       </c>
       <c r="J8" s="3">
-        <v>131800</v>
+        <v>127600</v>
       </c>
       <c r="K8" s="3">
         <v>144800</v>
@@ -808,25 +808,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>58300</v>
+        <v>56500</v>
       </c>
       <c r="E9" s="3">
-        <v>47700</v>
+        <v>46200</v>
       </c>
       <c r="F9" s="3">
-        <v>50400</v>
+        <v>48800</v>
       </c>
       <c r="G9" s="3">
-        <v>95800</v>
+        <v>92800</v>
       </c>
       <c r="H9" s="3">
-        <v>66500</v>
+        <v>64400</v>
       </c>
       <c r="I9" s="3">
-        <v>54600</v>
+        <v>52900</v>
       </c>
       <c r="J9" s="3">
-        <v>52600</v>
+        <v>50900</v>
       </c>
       <c r="K9" s="3">
         <v>69600</v>
@@ -864,25 +864,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>62600</v>
+        <v>60700</v>
       </c>
       <c r="E10" s="3">
-        <v>39900</v>
+        <v>38700</v>
       </c>
       <c r="F10" s="3">
-        <v>75700</v>
+        <v>73300</v>
       </c>
       <c r="G10" s="3">
-        <v>84600</v>
+        <v>82000</v>
       </c>
       <c r="H10" s="3">
-        <v>80500</v>
+        <v>77900</v>
       </c>
       <c r="I10" s="3">
-        <v>79100</v>
+        <v>76600</v>
       </c>
       <c r="J10" s="3">
-        <v>79200</v>
+        <v>76700</v>
       </c>
       <c r="K10" s="3">
         <v>75200</v>
@@ -1185,25 +1185,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>61300</v>
+        <v>59300</v>
       </c>
       <c r="E17" s="3">
-        <v>47400</v>
+        <v>46000</v>
       </c>
       <c r="F17" s="3">
-        <v>49700</v>
+        <v>48100</v>
       </c>
       <c r="G17" s="3">
-        <v>95600</v>
+        <v>92700</v>
       </c>
       <c r="H17" s="3">
-        <v>67400</v>
+        <v>65200</v>
       </c>
       <c r="I17" s="3">
-        <v>55700</v>
+        <v>54000</v>
       </c>
       <c r="J17" s="3">
-        <v>53000</v>
+        <v>51300</v>
       </c>
       <c r="K17" s="3">
         <v>70300</v>
@@ -1241,25 +1241,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>59700</v>
+        <v>57900</v>
       </c>
       <c r="E18" s="3">
-        <v>40200</v>
+        <v>39000</v>
       </c>
       <c r="F18" s="3">
+        <v>73900</v>
+      </c>
+      <c r="G18" s="3">
+        <v>82100</v>
+      </c>
+      <c r="H18" s="3">
+        <v>77100</v>
+      </c>
+      <c r="I18" s="3">
+        <v>75600</v>
+      </c>
+      <c r="J18" s="3">
         <v>76300</v>
-      </c>
-      <c r="G18" s="3">
-        <v>84700</v>
-      </c>
-      <c r="H18" s="3">
-        <v>79600</v>
-      </c>
-      <c r="I18" s="3">
-        <v>78000</v>
-      </c>
-      <c r="J18" s="3">
-        <v>78800</v>
       </c>
       <c r="K18" s="3">
         <v>74500</v>
@@ -1319,25 +1319,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="E20" s="3">
-        <v>8900</v>
+        <v>8700</v>
       </c>
       <c r="F20" s="3">
-        <v>36600</v>
+        <v>35500</v>
       </c>
       <c r="G20" s="3">
-        <v>14900</v>
+        <v>14400</v>
       </c>
       <c r="H20" s="3">
-        <v>30800</v>
+        <v>29800</v>
       </c>
       <c r="I20" s="3">
-        <v>19800</v>
+        <v>19200</v>
       </c>
       <c r="J20" s="3">
-        <v>17100</v>
+        <v>16600</v>
       </c>
       <c r="K20" s="3">
         <v>44100</v>
@@ -1375,25 +1375,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>72100</v>
+        <v>69800</v>
       </c>
       <c r="E21" s="3">
-        <v>56900</v>
+        <v>55200</v>
       </c>
       <c r="F21" s="3">
-        <v>121700</v>
+        <v>117900</v>
       </c>
       <c r="G21" s="3">
-        <v>107300</v>
+        <v>104000</v>
       </c>
       <c r="H21" s="3">
-        <v>121500</v>
+        <v>117700</v>
       </c>
       <c r="I21" s="3">
-        <v>103300</v>
+        <v>100100</v>
       </c>
       <c r="J21" s="3">
-        <v>101200</v>
+        <v>98000</v>
       </c>
       <c r="K21" s="3">
         <v>120000</v>
@@ -1431,25 +1431,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>10000</v>
+        <v>9700</v>
       </c>
       <c r="E22" s="3">
-        <v>9900</v>
+        <v>9600</v>
       </c>
       <c r="F22" s="3">
-        <v>10100</v>
+        <v>9800</v>
       </c>
       <c r="G22" s="3">
-        <v>21400</v>
+        <v>20700</v>
       </c>
       <c r="H22" s="3">
-        <v>10500</v>
+        <v>10200</v>
       </c>
       <c r="I22" s="3">
-        <v>8600</v>
+        <v>8300</v>
       </c>
       <c r="J22" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="K22" s="3">
         <v>17900</v>
@@ -1487,25 +1487,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>52400</v>
+        <v>50800</v>
       </c>
       <c r="E23" s="3">
-        <v>39300</v>
+        <v>38000</v>
       </c>
       <c r="F23" s="3">
-        <v>102800</v>
+        <v>99600</v>
       </c>
       <c r="G23" s="3">
-        <v>78300</v>
+        <v>75800</v>
       </c>
       <c r="H23" s="3">
-        <v>99900</v>
+        <v>96800</v>
       </c>
       <c r="I23" s="3">
-        <v>89200</v>
+        <v>86500</v>
       </c>
       <c r="J23" s="3">
-        <v>90500</v>
+        <v>87600</v>
       </c>
       <c r="K23" s="3">
         <v>100800</v>
@@ -1543,25 +1543,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>15300</v>
+        <v>14800</v>
       </c>
       <c r="E24" s="3">
-        <v>6800</v>
+        <v>6600</v>
       </c>
       <c r="F24" s="3">
-        <v>27000</v>
+        <v>26200</v>
       </c>
       <c r="G24" s="3">
-        <v>17200</v>
+        <v>16600</v>
       </c>
       <c r="H24" s="3">
-        <v>26500</v>
+        <v>25600</v>
       </c>
       <c r="I24" s="3">
-        <v>24800</v>
+        <v>24100</v>
       </c>
       <c r="J24" s="3">
-        <v>21100</v>
+        <v>20400</v>
       </c>
       <c r="K24" s="3">
         <v>19000</v>
@@ -1655,25 +1655,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>37200</v>
+        <v>36000</v>
       </c>
       <c r="E26" s="3">
-        <v>32400</v>
+        <v>31400</v>
       </c>
       <c r="F26" s="3">
-        <v>75800</v>
+        <v>73400</v>
       </c>
       <c r="G26" s="3">
-        <v>61100</v>
+        <v>59200</v>
       </c>
       <c r="H26" s="3">
-        <v>73400</v>
+        <v>71100</v>
       </c>
       <c r="I26" s="3">
-        <v>64400</v>
+        <v>62400</v>
       </c>
       <c r="J26" s="3">
-        <v>69400</v>
+        <v>67200</v>
       </c>
       <c r="K26" s="3">
         <v>81700</v>
@@ -1711,25 +1711,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>28800</v>
+        <v>27900</v>
       </c>
       <c r="E27" s="3">
-        <v>25600</v>
+        <v>24800</v>
       </c>
       <c r="F27" s="3">
-        <v>64900</v>
+        <v>62900</v>
       </c>
       <c r="G27" s="3">
-        <v>49800</v>
+        <v>48200</v>
       </c>
       <c r="H27" s="3">
-        <v>65600</v>
+        <v>63500</v>
       </c>
       <c r="I27" s="3">
-        <v>52900</v>
+        <v>51300</v>
       </c>
       <c r="J27" s="3">
-        <v>59400</v>
+        <v>57600</v>
       </c>
       <c r="K27" s="3">
         <v>72500</v>
@@ -1991,25 +1991,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="E32" s="3">
-        <v>-8900</v>
+        <v>-8700</v>
       </c>
       <c r="F32" s="3">
-        <v>-36600</v>
+        <v>-35500</v>
       </c>
       <c r="G32" s="3">
-        <v>-14900</v>
+        <v>-14400</v>
       </c>
       <c r="H32" s="3">
-        <v>-30800</v>
+        <v>-29800</v>
       </c>
       <c r="I32" s="3">
-        <v>-19800</v>
+        <v>-19200</v>
       </c>
       <c r="J32" s="3">
-        <v>-17100</v>
+        <v>-16600</v>
       </c>
       <c r="K32" s="3">
         <v>-44100</v>
@@ -2047,25 +2047,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>28800</v>
+        <v>27900</v>
       </c>
       <c r="E33" s="3">
-        <v>25600</v>
+        <v>24800</v>
       </c>
       <c r="F33" s="3">
-        <v>64900</v>
+        <v>62900</v>
       </c>
       <c r="G33" s="3">
-        <v>49800</v>
+        <v>48200</v>
       </c>
       <c r="H33" s="3">
-        <v>65600</v>
+        <v>63500</v>
       </c>
       <c r="I33" s="3">
-        <v>52900</v>
+        <v>51300</v>
       </c>
       <c r="J33" s="3">
-        <v>59400</v>
+        <v>57600</v>
       </c>
       <c r="K33" s="3">
         <v>72500</v>
@@ -2159,25 +2159,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>28800</v>
+        <v>27900</v>
       </c>
       <c r="E35" s="3">
-        <v>25600</v>
+        <v>24800</v>
       </c>
       <c r="F35" s="3">
-        <v>64900</v>
+        <v>62900</v>
       </c>
       <c r="G35" s="3">
-        <v>49800</v>
+        <v>48200</v>
       </c>
       <c r="H35" s="3">
-        <v>65600</v>
+        <v>63500</v>
       </c>
       <c r="I35" s="3">
-        <v>52900</v>
+        <v>51300</v>
       </c>
       <c r="J35" s="3">
-        <v>59400</v>
+        <v>57600</v>
       </c>
       <c r="K35" s="3">
         <v>72500</v>
@@ -2320,25 +2320,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1485200</v>
+        <v>1438800</v>
       </c>
       <c r="E41" s="3">
-        <v>1459500</v>
+        <v>1413900</v>
       </c>
       <c r="F41" s="3">
-        <v>1495800</v>
+        <v>1449000</v>
       </c>
       <c r="G41" s="3">
-        <v>24200</v>
+        <v>23400</v>
       </c>
       <c r="H41" s="3">
-        <v>1421100</v>
+        <v>1376700</v>
       </c>
       <c r="I41" s="3">
-        <v>1555200</v>
+        <v>1506600</v>
       </c>
       <c r="J41" s="3">
-        <v>1308100</v>
+        <v>1267200</v>
       </c>
       <c r="K41" s="3">
         <v>10200</v>
@@ -2385,7 +2385,7 @@
         <v>8</v>
       </c>
       <c r="G42" s="3">
-        <v>1411900</v>
+        <v>1367800</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>8</v>
@@ -2432,25 +2432,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>78200</v>
+        <v>75800</v>
       </c>
       <c r="E43" s="3">
-        <v>85400</v>
+        <v>82700</v>
       </c>
       <c r="F43" s="3">
-        <v>81700</v>
+        <v>79100</v>
       </c>
       <c r="G43" s="3">
-        <v>93600</v>
+        <v>90700</v>
       </c>
       <c r="H43" s="3">
-        <v>79400</v>
+        <v>77000</v>
       </c>
       <c r="I43" s="3">
-        <v>72400</v>
+        <v>70100</v>
       </c>
       <c r="J43" s="3">
-        <v>68100</v>
+        <v>66000</v>
       </c>
       <c r="K43" s="3">
         <v>68900</v>
@@ -2488,25 +2488,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6600</v>
+        <v>6400</v>
       </c>
       <c r="E44" s="3">
-        <v>6400</v>
+        <v>6200</v>
       </c>
       <c r="F44" s="3">
-        <v>6100</v>
+        <v>5900</v>
       </c>
       <c r="G44" s="3">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="H44" s="3">
-        <v>6200</v>
+        <v>6000</v>
       </c>
       <c r="I44" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="J44" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="K44" s="3">
         <v>4500</v>
@@ -2544,25 +2544,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>13300</v>
+        <v>12800</v>
       </c>
       <c r="E45" s="3">
-        <v>44200</v>
+        <v>42800</v>
       </c>
       <c r="F45" s="3">
-        <v>42000</v>
+        <v>40600</v>
       </c>
       <c r="G45" s="3">
-        <v>20000</v>
+        <v>19400</v>
       </c>
       <c r="H45" s="3">
-        <v>38500</v>
+        <v>37300</v>
       </c>
       <c r="I45" s="3">
-        <v>13800</v>
+        <v>13400</v>
       </c>
       <c r="J45" s="3">
-        <v>10200</v>
+        <v>9900</v>
       </c>
       <c r="K45" s="3">
         <v>6300</v>
@@ -2600,25 +2600,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1583300</v>
+        <v>1533900</v>
       </c>
       <c r="E46" s="3">
-        <v>1595500</v>
+        <v>1545700</v>
       </c>
       <c r="F46" s="3">
-        <v>1625500</v>
+        <v>1574800</v>
       </c>
       <c r="G46" s="3">
-        <v>1555400</v>
+        <v>1506800</v>
       </c>
       <c r="H46" s="3">
-        <v>1545200</v>
+        <v>1496900</v>
       </c>
       <c r="I46" s="3">
-        <v>1646900</v>
+        <v>1595400</v>
       </c>
       <c r="J46" s="3">
-        <v>1391500</v>
+        <v>1348100</v>
       </c>
       <c r="K46" s="3">
         <v>1221300</v>
@@ -2656,25 +2656,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>156000</v>
+        <v>151100</v>
       </c>
       <c r="E47" s="3">
-        <v>147000</v>
+        <v>142400</v>
       </c>
       <c r="F47" s="3">
-        <v>144200</v>
+        <v>139700</v>
       </c>
       <c r="G47" s="3">
-        <v>136700</v>
+        <v>132400</v>
       </c>
       <c r="H47" s="3">
-        <v>130400</v>
+        <v>126300</v>
       </c>
       <c r="I47" s="3">
-        <v>185000</v>
+        <v>179200</v>
       </c>
       <c r="J47" s="3">
-        <v>186100</v>
+        <v>180300</v>
       </c>
       <c r="K47" s="3">
         <v>172400</v>
@@ -2712,25 +2712,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>49800</v>
+        <v>48200</v>
       </c>
       <c r="E48" s="3">
-        <v>49700</v>
+        <v>48100</v>
       </c>
       <c r="F48" s="3">
-        <v>50800</v>
+        <v>49200</v>
       </c>
       <c r="G48" s="3">
-        <v>57700</v>
+        <v>55900</v>
       </c>
       <c r="H48" s="3">
-        <v>52000</v>
+        <v>50300</v>
       </c>
       <c r="I48" s="3">
-        <v>51700</v>
+        <v>50100</v>
       </c>
       <c r="J48" s="3">
-        <v>52600</v>
+        <v>51000</v>
       </c>
       <c r="K48" s="3">
         <v>47800</v>
@@ -2768,25 +2768,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1812100</v>
+        <v>1755500</v>
       </c>
       <c r="E49" s="3">
-        <v>1799700</v>
+        <v>1743400</v>
       </c>
       <c r="F49" s="3">
-        <v>1792700</v>
+        <v>1736700</v>
       </c>
       <c r="G49" s="3">
-        <v>1783700</v>
+        <v>1728000</v>
       </c>
       <c r="H49" s="3">
-        <v>1757900</v>
+        <v>1703000</v>
       </c>
       <c r="I49" s="3">
-        <v>1119600</v>
+        <v>1084600</v>
       </c>
       <c r="J49" s="3">
-        <v>1091400</v>
+        <v>1057300</v>
       </c>
       <c r="K49" s="3">
         <v>971800</v>
@@ -2936,25 +2936,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>138800</v>
+        <v>134400</v>
       </c>
       <c r="E52" s="3">
-        <v>125800</v>
+        <v>121900</v>
       </c>
       <c r="F52" s="3">
-        <v>106400</v>
+        <v>103100</v>
       </c>
       <c r="G52" s="3">
-        <v>113300</v>
+        <v>109800</v>
       </c>
       <c r="H52" s="3">
-        <v>98800</v>
+        <v>95700</v>
       </c>
       <c r="I52" s="3">
-        <v>49800</v>
+        <v>48300</v>
       </c>
       <c r="J52" s="3">
-        <v>72000</v>
+        <v>69800</v>
       </c>
       <c r="K52" s="3">
         <v>87200</v>
@@ -3048,25 +3048,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3739900</v>
+        <v>3623100</v>
       </c>
       <c r="E54" s="3">
-        <v>3717700</v>
+        <v>3601500</v>
       </c>
       <c r="F54" s="3">
-        <v>3719600</v>
+        <v>3603400</v>
       </c>
       <c r="G54" s="3">
-        <v>3646800</v>
+        <v>3532900</v>
       </c>
       <c r="H54" s="3">
-        <v>3584300</v>
+        <v>3472300</v>
       </c>
       <c r="I54" s="3">
-        <v>3052900</v>
+        <v>2957500</v>
       </c>
       <c r="J54" s="3">
-        <v>2793700</v>
+        <v>2706400</v>
       </c>
       <c r="K54" s="3">
         <v>2500500</v>
@@ -3148,25 +3148,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>29300</v>
+        <v>28400</v>
       </c>
       <c r="E57" s="3">
-        <v>26900</v>
+        <v>26100</v>
       </c>
       <c r="F57" s="3">
-        <v>28400</v>
+        <v>27500</v>
       </c>
       <c r="G57" s="3">
-        <v>20700</v>
+        <v>20100</v>
       </c>
       <c r="H57" s="3">
-        <v>17600</v>
+        <v>17100</v>
       </c>
       <c r="I57" s="3">
-        <v>12900</v>
+        <v>12500</v>
       </c>
       <c r="J57" s="3">
-        <v>12900</v>
+        <v>12500</v>
       </c>
       <c r="K57" s="3">
         <v>10800</v>
@@ -3204,25 +3204,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>26700</v>
+        <v>25800</v>
       </c>
       <c r="E58" s="3">
-        <v>23900</v>
+        <v>23100</v>
       </c>
       <c r="F58" s="3">
-        <v>11400</v>
+        <v>11000</v>
       </c>
       <c r="G58" s="3">
-        <v>11200</v>
+        <v>10900</v>
       </c>
       <c r="H58" s="3">
-        <v>10000</v>
+        <v>9700</v>
       </c>
       <c r="I58" s="3">
-        <v>10000</v>
+        <v>9600</v>
       </c>
       <c r="J58" s="3">
-        <v>16000</v>
+        <v>15500</v>
       </c>
       <c r="K58" s="3">
         <v>14600</v>
@@ -3260,25 +3260,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>221100</v>
+        <v>214200</v>
       </c>
       <c r="E59" s="3">
-        <v>225600</v>
+        <v>218600</v>
       </c>
       <c r="F59" s="3">
-        <v>149700</v>
+        <v>145000</v>
       </c>
       <c r="G59" s="3">
-        <v>252700</v>
+        <v>244800</v>
       </c>
       <c r="H59" s="3">
-        <v>156000</v>
+        <v>151200</v>
       </c>
       <c r="I59" s="3">
-        <v>106600</v>
+        <v>103300</v>
       </c>
       <c r="J59" s="3">
-        <v>109800</v>
+        <v>106300</v>
       </c>
       <c r="K59" s="3">
         <v>204100</v>
@@ -3316,25 +3316,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>277100</v>
+        <v>268400</v>
       </c>
       <c r="E60" s="3">
-        <v>276400</v>
+        <v>267800</v>
       </c>
       <c r="F60" s="3">
-        <v>189400</v>
+        <v>183500</v>
       </c>
       <c r="G60" s="3">
-        <v>284600</v>
+        <v>275700</v>
       </c>
       <c r="H60" s="3">
-        <v>183600</v>
+        <v>177900</v>
       </c>
       <c r="I60" s="3">
-        <v>129400</v>
+        <v>125400</v>
       </c>
       <c r="J60" s="3">
-        <v>138700</v>
+        <v>134300</v>
       </c>
       <c r="K60" s="3">
         <v>229400</v>
@@ -3372,25 +3372,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>803000</v>
+        <v>777900</v>
       </c>
       <c r="E61" s="3">
-        <v>803800</v>
+        <v>778600</v>
       </c>
       <c r="F61" s="3">
-        <v>824300</v>
+        <v>798600</v>
       </c>
       <c r="G61" s="3">
-        <v>798900</v>
+        <v>773900</v>
       </c>
       <c r="H61" s="3">
-        <v>805800</v>
+        <v>780700</v>
       </c>
       <c r="I61" s="3">
-        <v>483500</v>
+        <v>468400</v>
       </c>
       <c r="J61" s="3">
-        <v>272800</v>
+        <v>264300</v>
       </c>
       <c r="K61" s="3">
         <v>249400</v>
@@ -3428,19 +3428,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>49400</v>
+        <v>47900</v>
       </c>
       <c r="E62" s="3">
-        <v>49400</v>
+        <v>47900</v>
       </c>
       <c r="F62" s="3">
-        <v>49500</v>
+        <v>47900</v>
       </c>
       <c r="G62" s="3">
-        <v>73600</v>
+        <v>71300</v>
       </c>
       <c r="H62" s="3">
-        <v>59800</v>
+        <v>57900</v>
       </c>
       <c r="I62" s="3">
         <v>500</v>
@@ -3652,25 +3652,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1463100</v>
+        <v>1417400</v>
       </c>
       <c r="E66" s="3">
-        <v>1467800</v>
+        <v>1421900</v>
       </c>
       <c r="F66" s="3">
-        <v>1394100</v>
+        <v>1350600</v>
       </c>
       <c r="G66" s="3">
-        <v>1482800</v>
+        <v>1436500</v>
       </c>
       <c r="H66" s="3">
-        <v>1370700</v>
+        <v>1327900</v>
       </c>
       <c r="I66" s="3">
-        <v>946700</v>
+        <v>917100</v>
       </c>
       <c r="J66" s="3">
-        <v>740900</v>
+        <v>717700</v>
       </c>
       <c r="K66" s="3">
         <v>680000</v>
@@ -3954,25 +3954,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>919000</v>
+        <v>890300</v>
       </c>
       <c r="E72" s="3">
-        <v>590700</v>
+        <v>572200</v>
       </c>
       <c r="F72" s="3">
-        <v>662900</v>
+        <v>642200</v>
       </c>
       <c r="G72" s="3">
-        <v>951600</v>
+        <v>921900</v>
       </c>
       <c r="H72" s="3">
-        <v>550200</v>
+        <v>533000</v>
       </c>
       <c r="I72" s="3">
-        <v>484600</v>
+        <v>469500</v>
       </c>
       <c r="J72" s="3">
-        <v>729500</v>
+        <v>706700</v>
       </c>
       <c r="K72" s="3">
         <v>973600</v>
@@ -4178,25 +4178,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2276900</v>
+        <v>2205700</v>
       </c>
       <c r="E76" s="3">
-        <v>2249900</v>
+        <v>2179600</v>
       </c>
       <c r="F76" s="3">
-        <v>2325500</v>
+        <v>2252900</v>
       </c>
       <c r="G76" s="3">
-        <v>2164000</v>
+        <v>2096400</v>
       </c>
       <c r="H76" s="3">
-        <v>2213500</v>
+        <v>2144400</v>
       </c>
       <c r="I76" s="3">
-        <v>2106300</v>
+        <v>2040400</v>
       </c>
       <c r="J76" s="3">
-        <v>2052800</v>
+        <v>1988700</v>
       </c>
       <c r="K76" s="3">
         <v>1820600</v>
@@ -4351,25 +4351,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>28800</v>
+        <v>27900</v>
       </c>
       <c r="E81" s="3">
-        <v>25600</v>
+        <v>24800</v>
       </c>
       <c r="F81" s="3">
-        <v>64900</v>
+        <v>62900</v>
       </c>
       <c r="G81" s="3">
-        <v>49800</v>
+        <v>48200</v>
       </c>
       <c r="H81" s="3">
-        <v>65600</v>
+        <v>63500</v>
       </c>
       <c r="I81" s="3">
-        <v>52900</v>
+        <v>51300</v>
       </c>
       <c r="J81" s="3">
-        <v>59400</v>
+        <v>57600</v>
       </c>
       <c r="K81" s="3">
         <v>72500</v>
@@ -4429,25 +4429,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>9600</v>
+        <v>9300</v>
       </c>
       <c r="E83" s="3">
-        <v>7800</v>
+        <v>7500</v>
       </c>
       <c r="F83" s="3">
-        <v>8800</v>
+        <v>8500</v>
       </c>
       <c r="G83" s="3">
-        <v>7700</v>
+        <v>7500</v>
       </c>
       <c r="H83" s="3">
-        <v>11100</v>
+        <v>10800</v>
       </c>
       <c r="I83" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="J83" s="3">
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="K83" s="3">
         <v>1300</v>
@@ -4765,25 +4765,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>14900</v>
+        <v>14400</v>
       </c>
       <c r="E89" s="3">
-        <v>115200</v>
+        <v>111600</v>
       </c>
       <c r="F89" s="3">
-        <v>34400</v>
+        <v>33400</v>
       </c>
       <c r="G89" s="3">
-        <v>309500</v>
+        <v>299900</v>
       </c>
       <c r="H89" s="3">
-        <v>91700</v>
+        <v>88800</v>
       </c>
       <c r="I89" s="3">
-        <v>-61400</v>
+        <v>-59500</v>
       </c>
       <c r="J89" s="3">
-        <v>-38700</v>
+        <v>-37500</v>
       </c>
       <c r="K89" s="3">
         <v>53000</v>
@@ -4843,7 +4843,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>8</v>
@@ -4852,7 +4852,7 @@
         <v>8</v>
       </c>
       <c r="G91" s="3">
-        <v>-3200</v>
+        <v>-3100</v>
       </c>
       <c r="H91" s="3">
         <v>-1900</v>
@@ -4861,7 +4861,7 @@
         <v>-400</v>
       </c>
       <c r="J91" s="3">
-        <v>-7000</v>
+        <v>-6800</v>
       </c>
       <c r="K91" s="3">
         <v>3600</v>
@@ -5011,25 +5011,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-66500</v>
+        <v>-64400</v>
       </c>
       <c r="E94" s="3">
-        <v>37400</v>
+        <v>36200</v>
       </c>
       <c r="F94" s="3">
         <v>-100</v>
       </c>
       <c r="G94" s="3">
-        <v>81400</v>
+        <v>78800</v>
       </c>
       <c r="H94" s="3">
-        <v>-445100</v>
+        <v>-431100</v>
       </c>
       <c r="I94" s="3">
-        <v>-116800</v>
+        <v>-113200</v>
       </c>
       <c r="J94" s="3">
-        <v>29200</v>
+        <v>28300</v>
       </c>
       <c r="K94" s="3">
         <v>-97000</v>
@@ -5313,25 +5313,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="E100" s="3">
-        <v>-126500</v>
+        <v>-122500</v>
       </c>
       <c r="F100" s="3">
-        <v>11200</v>
+        <v>10800</v>
       </c>
       <c r="G100" s="3">
-        <v>-368900</v>
+        <v>-357400</v>
       </c>
       <c r="H100" s="3">
-        <v>352100</v>
+        <v>341100</v>
       </c>
       <c r="I100" s="3">
-        <v>201300</v>
+        <v>195100</v>
       </c>
       <c r="J100" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K100" s="3">
         <v>23200</v>
@@ -5369,25 +5369,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>72400</v>
+        <v>70100</v>
       </c>
       <c r="E101" s="3">
-        <v>-62400</v>
+        <v>-60400</v>
       </c>
       <c r="F101" s="3">
-        <v>10800</v>
+        <v>10400</v>
       </c>
       <c r="G101" s="3">
-        <v>-176500</v>
+        <v>-171000</v>
       </c>
       <c r="H101" s="3">
-        <v>-132900</v>
+        <v>-128700</v>
       </c>
       <c r="I101" s="3">
-        <v>223900</v>
+        <v>217000</v>
       </c>
       <c r="J101" s="3">
-        <v>62800</v>
+        <v>60800</v>
       </c>
       <c r="K101" s="3">
         <v>-121200</v>
@@ -5425,25 +5425,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>25700</v>
+        <v>24900</v>
       </c>
       <c r="E102" s="3">
-        <v>-36200</v>
+        <v>-35100</v>
       </c>
       <c r="F102" s="3">
-        <v>56300</v>
+        <v>54500</v>
       </c>
       <c r="G102" s="3">
-        <v>-154500</v>
+        <v>-149700</v>
       </c>
       <c r="H102" s="3">
-        <v>-134100</v>
+        <v>-129900</v>
       </c>
       <c r="I102" s="3">
-        <v>247100</v>
+        <v>239400</v>
       </c>
       <c r="J102" s="3">
-        <v>54500</v>
+        <v>52800</v>
       </c>
       <c r="K102" s="3">
         <v>-146000</v>

--- a/AAII_Financials/Quarterly/PUODY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PUODY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>PUODY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,282 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>117200</v>
+        <v>137200</v>
       </c>
       <c r="E8" s="3">
-        <v>84900</v>
+        <v>162200</v>
       </c>
       <c r="F8" s="3">
-        <v>122100</v>
+        <v>121700</v>
       </c>
       <c r="G8" s="3">
-        <v>174800</v>
+        <v>88200</v>
       </c>
       <c r="H8" s="3">
-        <v>142400</v>
+        <v>129600</v>
       </c>
       <c r="I8" s="3">
+        <v>190300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>147800</v>
+      </c>
+      <c r="K8" s="3">
         <v>129600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>127600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>144800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>135600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>158200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>125500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>133800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>126000</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>140900</v>
-      </c>
-      <c r="R8" s="3">
-        <v>116900</v>
       </c>
       <c r="S8" s="3">
         <v>140900</v>
       </c>
       <c r="T8" s="3">
+        <v>116900</v>
+      </c>
+      <c r="U8" s="3">
+        <v>140900</v>
+      </c>
+      <c r="V8" s="3">
         <v>127500</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>56500</v>
+        <v>59000</v>
       </c>
       <c r="E9" s="3">
-        <v>46200</v>
+        <v>83200</v>
       </c>
       <c r="F9" s="3">
-        <v>48800</v>
+        <v>58700</v>
       </c>
       <c r="G9" s="3">
-        <v>92800</v>
+        <v>48000</v>
       </c>
       <c r="H9" s="3">
-        <v>64400</v>
+        <v>53300</v>
       </c>
       <c r="I9" s="3">
+        <v>104600</v>
+      </c>
+      <c r="J9" s="3">
+        <v>66900</v>
+      </c>
+      <c r="K9" s="3">
         <v>52900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>50900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>69600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>59700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>63700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>42400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>56000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>50700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>63400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>43500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>61900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>50600</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>60700</v>
+        <v>78300</v>
       </c>
       <c r="E10" s="3">
-        <v>38700</v>
+        <v>79000</v>
       </c>
       <c r="F10" s="3">
+        <v>63000</v>
+      </c>
+      <c r="G10" s="3">
+        <v>40200</v>
+      </c>
+      <c r="H10" s="3">
+        <v>76300</v>
+      </c>
+      <c r="I10" s="3">
+        <v>85600</v>
+      </c>
+      <c r="J10" s="3">
+        <v>80900</v>
+      </c>
+      <c r="K10" s="3">
+        <v>76600</v>
+      </c>
+      <c r="L10" s="3">
+        <v>76700</v>
+      </c>
+      <c r="M10" s="3">
+        <v>75200</v>
+      </c>
+      <c r="N10" s="3">
+        <v>76000</v>
+      </c>
+      <c r="O10" s="3">
+        <v>94400</v>
+      </c>
+      <c r="P10" s="3">
+        <v>83100</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>77800</v>
+      </c>
+      <c r="R10" s="3">
+        <v>75300</v>
+      </c>
+      <c r="S10" s="3">
+        <v>77400</v>
+      </c>
+      <c r="T10" s="3">
         <v>73300</v>
       </c>
-      <c r="G10" s="3">
-        <v>82000</v>
-      </c>
-      <c r="H10" s="3">
-        <v>77900</v>
-      </c>
-      <c r="I10" s="3">
-        <v>76600</v>
-      </c>
-      <c r="J10" s="3">
-        <v>76700</v>
-      </c>
-      <c r="K10" s="3">
-        <v>75200</v>
-      </c>
-      <c r="L10" s="3">
-        <v>76000</v>
-      </c>
-      <c r="M10" s="3">
-        <v>94400</v>
-      </c>
-      <c r="N10" s="3">
-        <v>83100</v>
-      </c>
-      <c r="O10" s="3">
-        <v>77800</v>
-      </c>
-      <c r="P10" s="3">
-        <v>75300</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>77400</v>
-      </c>
-      <c r="R10" s="3">
-        <v>73300</v>
-      </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>79000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>77000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1081,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1143,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1119,7 +1164,7 @@
         <v>100</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H15" s="3">
         <v>100</v>
@@ -1128,13 +1173,13 @@
         <v>0</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M15" s="3">
         <v>100</v>
@@ -1142,11 +1187,11 @@
       <c r="N15" s="3">
         <v>100</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>8</v>
+      <c r="O15" s="3">
+        <v>100</v>
+      </c>
+      <c r="P15" s="3">
+        <v>100</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>8</v>
@@ -1154,14 +1199,20 @@
       <c r="R15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1230,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>59300</v>
+        <v>59500</v>
       </c>
       <c r="E17" s="3">
-        <v>46000</v>
+        <v>83500</v>
       </c>
       <c r="F17" s="3">
-        <v>48100</v>
+        <v>61600</v>
       </c>
       <c r="G17" s="3">
-        <v>92700</v>
+        <v>47700</v>
       </c>
       <c r="H17" s="3">
-        <v>65200</v>
+        <v>52700</v>
       </c>
       <c r="I17" s="3">
+        <v>105600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>67700</v>
+      </c>
+      <c r="K17" s="3">
         <v>54000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>51300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>70300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>61400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>62900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>40700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>56900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>48300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>63000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>42700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>61500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>49600</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>57900</v>
+        <v>77700</v>
       </c>
       <c r="E18" s="3">
-        <v>39000</v>
+        <v>78700</v>
       </c>
       <c r="F18" s="3">
-        <v>73900</v>
+        <v>60100</v>
       </c>
       <c r="G18" s="3">
-        <v>82100</v>
+        <v>40500</v>
       </c>
       <c r="H18" s="3">
-        <v>77100</v>
+        <v>76900</v>
       </c>
       <c r="I18" s="3">
+        <v>84700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>80100</v>
+      </c>
+      <c r="K18" s="3">
         <v>75600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>76300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>74500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>74300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>95300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>84800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>77000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>77700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>77800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>74100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>79500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>77900</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,288 +1378,320 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2600</v>
+        <v>31100</v>
       </c>
       <c r="E20" s="3">
-        <v>8700</v>
+        <v>-64400</v>
       </c>
       <c r="F20" s="3">
-        <v>35500</v>
+        <v>2700</v>
       </c>
       <c r="G20" s="3">
-        <v>14400</v>
+        <v>9000</v>
       </c>
       <c r="H20" s="3">
-        <v>29800</v>
+        <v>38200</v>
       </c>
       <c r="I20" s="3">
+        <v>12000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>30900</v>
+      </c>
+      <c r="K20" s="3">
         <v>19200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>16600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>44100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>5300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>34500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-7100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>35700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>12000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>3100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-11500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>16400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>69800</v>
+        <v>120100</v>
       </c>
       <c r="E21" s="3">
-        <v>55200</v>
+        <v>31400</v>
       </c>
       <c r="F21" s="3">
-        <v>117900</v>
+        <v>72500</v>
       </c>
       <c r="G21" s="3">
-        <v>104000</v>
+        <v>57300</v>
       </c>
       <c r="H21" s="3">
-        <v>117700</v>
+        <v>123900</v>
       </c>
       <c r="I21" s="3">
+        <v>109300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>122200</v>
+      </c>
+      <c r="K21" s="3">
         <v>100100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>98000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>120000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>84600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>135800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>83300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>118700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>95200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>86300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>67800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>101400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>97700</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>9700</v>
-      </c>
-      <c r="E22" s="3">
-        <v>9600</v>
+        <v>15900</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F22" s="3">
-        <v>9800</v>
+        <v>10100</v>
       </c>
       <c r="G22" s="3">
-        <v>20700</v>
+        <v>10000</v>
       </c>
       <c r="H22" s="3">
-        <v>10200</v>
+        <v>12400</v>
       </c>
       <c r="I22" s="3">
+        <v>21500</v>
+      </c>
+      <c r="J22" s="3">
+        <v>10600</v>
+      </c>
+      <c r="K22" s="3">
         <v>8300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>5300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>17900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>4100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>4100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>4700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>22000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>4000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>3900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>3900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>44600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>50800</v>
+        <v>92900</v>
       </c>
       <c r="E23" s="3">
-        <v>38000</v>
+        <v>14300</v>
       </c>
       <c r="F23" s="3">
-        <v>99600</v>
+        <v>52700</v>
       </c>
       <c r="G23" s="3">
-        <v>75800</v>
+        <v>39500</v>
       </c>
       <c r="H23" s="3">
-        <v>96800</v>
+        <v>102700</v>
       </c>
       <c r="I23" s="3">
+        <v>75200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>100500</v>
+      </c>
+      <c r="K23" s="3">
         <v>86500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>87600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>100800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>75400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>125700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>73000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>90700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>85800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>77000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>58700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>51300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>85500</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>14800</v>
+        <v>19200</v>
       </c>
       <c r="E24" s="3">
-        <v>6600</v>
+        <v>-11000</v>
       </c>
       <c r="F24" s="3">
-        <v>26200</v>
+        <v>15400</v>
       </c>
       <c r="G24" s="3">
-        <v>16600</v>
+        <v>6900</v>
       </c>
       <c r="H24" s="3">
-        <v>25600</v>
+        <v>27200</v>
       </c>
       <c r="I24" s="3">
+        <v>17500</v>
+      </c>
+      <c r="J24" s="3">
+        <v>26600</v>
+      </c>
+      <c r="K24" s="3">
         <v>24100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>20400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>19000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>12000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>34000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>16500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>14700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>18300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>17500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>11800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-7000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1746,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>36000</v>
+        <v>73700</v>
       </c>
       <c r="E26" s="3">
-        <v>31400</v>
+        <v>25300</v>
       </c>
       <c r="F26" s="3">
-        <v>73400</v>
+        <v>37400</v>
       </c>
       <c r="G26" s="3">
-        <v>59200</v>
+        <v>32600</v>
       </c>
       <c r="H26" s="3">
-        <v>71100</v>
+        <v>75500</v>
       </c>
       <c r="I26" s="3">
+        <v>57600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>73800</v>
+      </c>
+      <c r="K26" s="3">
         <v>62400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>67200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>81700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>63400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>91700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>56500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>76000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>67500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>59600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>46900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>58300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>27900</v>
+        <v>67100</v>
       </c>
       <c r="E27" s="3">
-        <v>24800</v>
+        <v>13600</v>
       </c>
       <c r="F27" s="3">
-        <v>62900</v>
+        <v>28900</v>
       </c>
       <c r="G27" s="3">
-        <v>48200</v>
+        <v>25800</v>
       </c>
       <c r="H27" s="3">
-        <v>63500</v>
+        <v>65300</v>
       </c>
       <c r="I27" s="3">
+        <v>50100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>66000</v>
+      </c>
+      <c r="K27" s="3">
         <v>51300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>57600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>72500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>54800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>82300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>47000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>68100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>61600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>54200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>42900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>55200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1843,15 +1964,15 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
@@ -1862,19 +1983,25 @@
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-400</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2118,138 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2600</v>
+        <v>-31100</v>
       </c>
       <c r="E32" s="3">
-        <v>-8700</v>
+        <v>64400</v>
       </c>
       <c r="F32" s="3">
-        <v>-35500</v>
+        <v>-2700</v>
       </c>
       <c r="G32" s="3">
-        <v>-14400</v>
+        <v>-9000</v>
       </c>
       <c r="H32" s="3">
-        <v>-29800</v>
+        <v>-38200</v>
       </c>
       <c r="I32" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-30900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-19200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-16600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-44100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-5300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-34500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>7100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-35700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-3100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>11500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-16400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-14800</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>27900</v>
+        <v>67100</v>
       </c>
       <c r="E33" s="3">
-        <v>24800</v>
+        <v>13600</v>
       </c>
       <c r="F33" s="3">
-        <v>62900</v>
+        <v>28900</v>
       </c>
       <c r="G33" s="3">
-        <v>48200</v>
+        <v>25800</v>
       </c>
       <c r="H33" s="3">
-        <v>63500</v>
+        <v>65300</v>
       </c>
       <c r="I33" s="3">
+        <v>50100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>66000</v>
+      </c>
+      <c r="K33" s="3">
         <v>51300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>57600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>72500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>54800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>82300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>47000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>68100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>61600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>53800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>42900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>55200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2304,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>27900</v>
+        <v>67100</v>
       </c>
       <c r="E35" s="3">
-        <v>24800</v>
+        <v>13600</v>
       </c>
       <c r="F35" s="3">
-        <v>62900</v>
+        <v>28900</v>
       </c>
       <c r="G35" s="3">
-        <v>48200</v>
+        <v>25800</v>
       </c>
       <c r="H35" s="3">
-        <v>63500</v>
+        <v>65300</v>
       </c>
       <c r="I35" s="3">
+        <v>50100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>66000</v>
+      </c>
+      <c r="K35" s="3">
         <v>51300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>57600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>72500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>54800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>82300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>47000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>68100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>61600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>53800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>42900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>55200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,512 +2485,568 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1438800</v>
+        <v>1391200</v>
       </c>
       <c r="E41" s="3">
-        <v>1413900</v>
+        <v>56900</v>
       </c>
       <c r="F41" s="3">
-        <v>1449000</v>
+        <v>1493900</v>
       </c>
       <c r="G41" s="3">
-        <v>23400</v>
+        <v>1468000</v>
       </c>
       <c r="H41" s="3">
-        <v>1376700</v>
+        <v>1504500</v>
       </c>
       <c r="I41" s="3">
+        <v>24400</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1429300</v>
+      </c>
+      <c r="K41" s="3">
         <v>1506600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1267200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>10200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1091400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1217400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1143600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>23600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>849000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>830500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>758200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>815900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>651900</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>8</v>
+      <c r="E42" s="3">
+        <v>1196200</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="3">
-        <v>1367800</v>
+      <c r="G42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
+      <c r="I42" s="3">
+        <v>1426100</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="3">
-        <v>1131400</v>
+      <c r="K42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>8</v>
+      <c r="M42" s="3">
+        <v>1131400</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O42" s="3">
-        <v>1073300</v>
+      <c r="O42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>8</v>
+      <c r="Q42" s="3">
+        <v>1073300</v>
       </c>
       <c r="R42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S42" s="3">
-        <v>741000</v>
+      <c r="S42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>741000</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>75800</v>
+        <v>73600</v>
       </c>
       <c r="E43" s="3">
-        <v>82700</v>
+        <v>71800</v>
       </c>
       <c r="F43" s="3">
-        <v>79100</v>
+        <v>78700</v>
       </c>
       <c r="G43" s="3">
-        <v>90700</v>
+        <v>85900</v>
       </c>
       <c r="H43" s="3">
-        <v>77000</v>
+        <v>82200</v>
       </c>
       <c r="I43" s="3">
+        <v>84300</v>
+      </c>
+      <c r="J43" s="3">
+        <v>79900</v>
+      </c>
+      <c r="K43" s="3">
         <v>70100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>66000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>68900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>76600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>81300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>100000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>128300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>107700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>110400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>105300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>104500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>85200</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F44" s="3">
+        <v>6700</v>
+      </c>
+      <c r="G44" s="3">
         <v>6400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="H44" s="3">
         <v>6200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="I44" s="3">
+        <v>7400</v>
+      </c>
+      <c r="J44" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K44" s="3">
+        <v>5300</v>
+      </c>
+      <c r="L44" s="3">
+        <v>5000</v>
+      </c>
+      <c r="M44" s="3">
+        <v>4500</v>
+      </c>
+      <c r="N44" s="3">
         <v>5900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="O44" s="3">
+        <v>5400</v>
+      </c>
+      <c r="P44" s="3">
+        <v>5400</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>5300</v>
+      </c>
+      <c r="R44" s="3">
         <v>5500</v>
       </c>
-      <c r="H44" s="3">
-        <v>6000</v>
-      </c>
-      <c r="I44" s="3">
+      <c r="S44" s="3">
+        <v>5600</v>
+      </c>
+      <c r="T44" s="3">
         <v>5300</v>
       </c>
-      <c r="J44" s="3">
-        <v>5000</v>
-      </c>
-      <c r="K44" s="3">
-        <v>4500</v>
-      </c>
-      <c r="L44" s="3">
-        <v>5900</v>
-      </c>
-      <c r="M44" s="3">
-        <v>5400</v>
-      </c>
-      <c r="N44" s="3">
-        <v>5400</v>
-      </c>
-      <c r="O44" s="3">
-        <v>5300</v>
-      </c>
-      <c r="P44" s="3">
-        <v>5500</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>5600</v>
-      </c>
-      <c r="R44" s="3">
-        <v>5300</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>8400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>12800</v>
+        <v>20800</v>
       </c>
       <c r="E45" s="3">
-        <v>42800</v>
+        <v>11800</v>
       </c>
       <c r="F45" s="3">
-        <v>40600</v>
+        <v>13300</v>
       </c>
       <c r="G45" s="3">
-        <v>19400</v>
+        <v>44500</v>
       </c>
       <c r="H45" s="3">
-        <v>37300</v>
+        <v>42200</v>
       </c>
       <c r="I45" s="3">
+        <v>22900</v>
+      </c>
+      <c r="J45" s="3">
+        <v>38700</v>
+      </c>
+      <c r="K45" s="3">
         <v>13400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>9900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>6300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>27200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>34300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>68800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>25900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>59700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>55400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>50200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>73000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>50700</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1533900</v>
+        <v>1492700</v>
       </c>
       <c r="E46" s="3">
-        <v>1545700</v>
+        <v>1343500</v>
       </c>
       <c r="F46" s="3">
-        <v>1574800</v>
+        <v>1592500</v>
       </c>
       <c r="G46" s="3">
-        <v>1506800</v>
+        <v>1604800</v>
       </c>
       <c r="H46" s="3">
-        <v>1496900</v>
+        <v>1635000</v>
       </c>
       <c r="I46" s="3">
+        <v>1567300</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1554200</v>
+      </c>
+      <c r="K46" s="3">
         <v>1595400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1348100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1221300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1201100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1338500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1317800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1256400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1021900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1001900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>919000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>940700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>792800</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>151100</v>
+        <v>97700</v>
       </c>
       <c r="E47" s="3">
-        <v>142400</v>
+        <v>182700</v>
       </c>
       <c r="F47" s="3">
-        <v>139700</v>
+        <v>156900</v>
       </c>
       <c r="G47" s="3">
-        <v>132400</v>
+        <v>147800</v>
       </c>
       <c r="H47" s="3">
-        <v>126300</v>
+        <v>145000</v>
       </c>
       <c r="I47" s="3">
+        <v>96100</v>
+      </c>
+      <c r="J47" s="3">
+        <v>131200</v>
+      </c>
+      <c r="K47" s="3">
         <v>179200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>180300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>172400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>143300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>162200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>217500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>218000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>208300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>201500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>196000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>205700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>197500</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>48200</v>
+        <v>71300</v>
       </c>
       <c r="E48" s="3">
-        <v>48100</v>
+        <v>56300</v>
       </c>
       <c r="F48" s="3">
-        <v>49200</v>
+        <v>50100</v>
       </c>
       <c r="G48" s="3">
-        <v>55900</v>
+        <v>50000</v>
       </c>
       <c r="H48" s="3">
-        <v>50300</v>
+        <v>51100</v>
       </c>
       <c r="I48" s="3">
+        <v>58100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>52300</v>
+      </c>
+      <c r="K48" s="3">
         <v>50100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>51000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>47800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>47500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>56200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>50100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>54700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>49300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>49900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>50500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>112400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>49000</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1755500</v>
+        <v>2025700</v>
       </c>
       <c r="E49" s="3">
-        <v>1743400</v>
+        <v>2015200</v>
       </c>
       <c r="F49" s="3">
-        <v>1736700</v>
+        <v>1822600</v>
       </c>
       <c r="G49" s="3">
-        <v>1728000</v>
+        <v>1810100</v>
       </c>
       <c r="H49" s="3">
-        <v>1703000</v>
+        <v>1803100</v>
       </c>
       <c r="I49" s="3">
+        <v>1986500</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1768100</v>
+      </c>
+      <c r="K49" s="3">
         <v>1084600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1057300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>971800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>924600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1071500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1049100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>981900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>957200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>923200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>882000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>882800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>872700</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3163,76 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>134400</v>
+        <v>133800</v>
       </c>
       <c r="E52" s="3">
-        <v>121900</v>
+        <v>169800</v>
       </c>
       <c r="F52" s="3">
-        <v>103100</v>
+        <v>139600</v>
       </c>
       <c r="G52" s="3">
-        <v>109800</v>
+        <v>126500</v>
       </c>
       <c r="H52" s="3">
-        <v>95700</v>
+        <v>107100</v>
       </c>
       <c r="I52" s="3">
+        <v>116300</v>
+      </c>
+      <c r="J52" s="3">
+        <v>99400</v>
+      </c>
+      <c r="K52" s="3">
         <v>48300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>69800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>87200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>79600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>53300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>73100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>71500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>73900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>72900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>69100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>91600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3287,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3623100</v>
+        <v>3821300</v>
       </c>
       <c r="E54" s="3">
-        <v>3601500</v>
+        <v>3767600</v>
       </c>
       <c r="F54" s="3">
-        <v>3603400</v>
+        <v>3761700</v>
       </c>
       <c r="G54" s="3">
-        <v>3532900</v>
+        <v>3739300</v>
       </c>
       <c r="H54" s="3">
-        <v>3472300</v>
+        <v>3741200</v>
       </c>
       <c r="I54" s="3">
+        <v>3824300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>3605100</v>
+      </c>
+      <c r="K54" s="3">
         <v>2957500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2706400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2500500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2396100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2681700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2707500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2582400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2310700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2249300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2116700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>2170400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1960500</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3401,382 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>28400</v>
+        <v>31100</v>
       </c>
       <c r="E57" s="3">
-        <v>26100</v>
+        <v>32200</v>
       </c>
       <c r="F57" s="3">
-        <v>27500</v>
+        <v>29400</v>
       </c>
       <c r="G57" s="3">
-        <v>20100</v>
+        <v>27100</v>
       </c>
       <c r="H57" s="3">
-        <v>17100</v>
+        <v>28500</v>
       </c>
       <c r="I57" s="3">
+        <v>30900</v>
+      </c>
+      <c r="J57" s="3">
+        <v>17700</v>
+      </c>
+      <c r="K57" s="3">
         <v>12500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>12500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>10800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>11700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>12000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>11100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>12300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>12100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>13400</v>
-      </c>
-      <c r="R57" s="3">
-        <v>8700</v>
-      </c>
-      <c r="S57" s="3">
-        <v>13800</v>
       </c>
       <c r="T57" s="3">
         <v>8700</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>13800</v>
+      </c>
+      <c r="V57" s="3">
+        <v>8700</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>25800</v>
+        <v>34000</v>
       </c>
       <c r="E58" s="3">
-        <v>23100</v>
+        <v>32400</v>
       </c>
       <c r="F58" s="3">
-        <v>11000</v>
+        <v>26800</v>
       </c>
       <c r="G58" s="3">
-        <v>10900</v>
+        <v>24000</v>
       </c>
       <c r="H58" s="3">
-        <v>9700</v>
+        <v>11400</v>
       </c>
       <c r="I58" s="3">
+        <v>11300</v>
+      </c>
+      <c r="J58" s="3">
+        <v>10100</v>
+      </c>
+      <c r="K58" s="3">
         <v>9600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>15500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>14600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>10600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>10700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>34600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>36700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>35700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>34900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>34000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>31100</v>
       </c>
-      <c r="T58" s="3" t="s">
+      <c r="V58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>214200</v>
+        <v>123800</v>
       </c>
       <c r="E59" s="3">
-        <v>218600</v>
+        <v>115000</v>
       </c>
       <c r="F59" s="3">
-        <v>145000</v>
+        <v>222400</v>
       </c>
       <c r="G59" s="3">
-        <v>244800</v>
+        <v>226900</v>
       </c>
       <c r="H59" s="3">
-        <v>151200</v>
+        <v>150500</v>
       </c>
       <c r="I59" s="3">
+        <v>267600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>156900</v>
+      </c>
+      <c r="K59" s="3">
         <v>103300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>106300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>204100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>203000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>237000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>101000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>107600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>117100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>110200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>138900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>144900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>155200</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>268400</v>
+        <v>188800</v>
       </c>
       <c r="E60" s="3">
-        <v>267800</v>
+        <v>179500</v>
       </c>
       <c r="F60" s="3">
-        <v>183500</v>
+        <v>278700</v>
       </c>
       <c r="G60" s="3">
-        <v>275700</v>
+        <v>278000</v>
       </c>
       <c r="H60" s="3">
-        <v>177900</v>
+        <v>190500</v>
       </c>
       <c r="I60" s="3">
+        <v>309800</v>
+      </c>
+      <c r="J60" s="3">
+        <v>184700</v>
+      </c>
+      <c r="K60" s="3">
         <v>125400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>134300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>229400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>225300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>259700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>146700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>156500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>164900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>158500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>181600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>147500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>163900</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>777900</v>
+        <v>792700</v>
       </c>
       <c r="E61" s="3">
-        <v>778600</v>
+        <v>794700</v>
       </c>
       <c r="F61" s="3">
-        <v>798600</v>
+        <v>807600</v>
       </c>
       <c r="G61" s="3">
-        <v>773900</v>
+        <v>808400</v>
       </c>
       <c r="H61" s="3">
-        <v>780700</v>
+        <v>829100</v>
       </c>
       <c r="I61" s="3">
+        <v>862500</v>
+      </c>
+      <c r="J61" s="3">
+        <v>810500</v>
+      </c>
+      <c r="K61" s="3">
         <v>468400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>264300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>249400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>265000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>220700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>232800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>222600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>230900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>229300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>240500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>243500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>372600</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>47900</v>
+        <v>106300</v>
       </c>
       <c r="E62" s="3">
-        <v>47900</v>
+        <v>127700</v>
       </c>
       <c r="F62" s="3">
-        <v>47900</v>
+        <v>49700</v>
       </c>
       <c r="G62" s="3">
-        <v>71300</v>
+        <v>49700</v>
       </c>
       <c r="H62" s="3">
-        <v>57900</v>
+        <v>49800</v>
       </c>
       <c r="I62" s="3">
+        <v>117800</v>
+      </c>
+      <c r="J62" s="3">
+        <v>60200</v>
+      </c>
+      <c r="K62" s="3">
         <v>500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>15200</v>
-      </c>
-      <c r="L62" s="3">
-        <v>500</v>
-      </c>
-      <c r="M62" s="3">
-        <v>500</v>
       </c>
       <c r="N62" s="3">
         <v>500</v>
       </c>
       <c r="O62" s="3">
+        <v>500</v>
+      </c>
+      <c r="P62" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q62" s="3">
         <v>10500</v>
-      </c>
-      <c r="P62" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>400</v>
       </c>
       <c r="R62" s="3">
         <v>400</v>
       </c>
       <c r="S62" s="3">
-        <v>25600</v>
+        <v>400</v>
       </c>
       <c r="T62" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>25600</v>
+      </c>
+      <c r="V62" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3955,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1417400</v>
+        <v>1455300</v>
       </c>
       <c r="E66" s="3">
-        <v>1421900</v>
+        <v>1470100</v>
       </c>
       <c r="F66" s="3">
-        <v>1350600</v>
+        <v>1471600</v>
       </c>
       <c r="G66" s="3">
-        <v>1436500</v>
+        <v>1476300</v>
       </c>
       <c r="H66" s="3">
-        <v>1327900</v>
+        <v>1402200</v>
       </c>
       <c r="I66" s="3">
+        <v>1647800</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1378700</v>
+      </c>
+      <c r="K66" s="3">
         <v>917100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>717700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>680000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>688600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>706300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>595900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>588700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>537600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>535600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>514500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>525900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>549600</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>890300</v>
+        <v>1005100</v>
       </c>
       <c r="E72" s="3">
-        <v>572200</v>
+        <v>1397200</v>
       </c>
       <c r="F72" s="3">
-        <v>642200</v>
+        <v>924400</v>
       </c>
       <c r="G72" s="3">
-        <v>921900</v>
+        <v>594100</v>
       </c>
       <c r="H72" s="3">
-        <v>533000</v>
+        <v>666800</v>
       </c>
       <c r="I72" s="3">
+        <v>957200</v>
+      </c>
+      <c r="J72" s="3">
+        <v>553400</v>
+      </c>
+      <c r="K72" s="3">
         <v>469500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>706700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>973600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>532500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>568900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>959800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1278000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>812600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>750900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>748900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>1724800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>712100</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4537,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2205700</v>
+        <v>2366000</v>
       </c>
       <c r="E76" s="3">
-        <v>2179600</v>
+        <v>2297500</v>
       </c>
       <c r="F76" s="3">
-        <v>2252900</v>
+        <v>2290100</v>
       </c>
       <c r="G76" s="3">
-        <v>2096400</v>
+        <v>2262900</v>
       </c>
       <c r="H76" s="3">
-        <v>2144400</v>
+        <v>2339000</v>
       </c>
       <c r="I76" s="3">
+        <v>2176500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>2226400</v>
+      </c>
+      <c r="K76" s="3">
         <v>2040400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1988700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1820600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1707600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1975500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>2111600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1993700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1773000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1713800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1602200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1644500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>1410900</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4661,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>27900</v>
+        <v>67100</v>
       </c>
       <c r="E81" s="3">
-        <v>24800</v>
+        <v>13600</v>
       </c>
       <c r="F81" s="3">
-        <v>62900</v>
+        <v>28900</v>
       </c>
       <c r="G81" s="3">
-        <v>48200</v>
+        <v>25800</v>
       </c>
       <c r="H81" s="3">
-        <v>63500</v>
+        <v>65300</v>
       </c>
       <c r="I81" s="3">
+        <v>50100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>66000</v>
+      </c>
+      <c r="K81" s="3">
         <v>51300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>57600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>72500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>54800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>82300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>47000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>68100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>61600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>53800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>42900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>55200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4818,72 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>9300</v>
+        <v>11200</v>
       </c>
       <c r="E83" s="3">
-        <v>7500</v>
+        <v>17000</v>
       </c>
       <c r="F83" s="3">
-        <v>8500</v>
+        <v>9700</v>
       </c>
       <c r="G83" s="3">
-        <v>7500</v>
+        <v>7800</v>
       </c>
       <c r="H83" s="3">
-        <v>10800</v>
+        <v>8800</v>
       </c>
       <c r="I83" s="3">
+        <v>12700</v>
+      </c>
+      <c r="J83" s="3">
+        <v>11200</v>
+      </c>
+      <c r="K83" s="3">
         <v>5300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>5100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>1300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>5000</v>
-      </c>
-      <c r="M83" s="3">
-        <v>6000</v>
-      </c>
-      <c r="N83" s="3">
-        <v>5600</v>
       </c>
       <c r="O83" s="3">
         <v>6000</v>
       </c>
       <c r="P83" s="3">
+        <v>5600</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>6000</v>
+      </c>
+      <c r="R83" s="3">
         <v>5400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>5400</v>
-      </c>
-      <c r="R83" s="3">
-        <v>5100</v>
-      </c>
-      <c r="S83" s="3">
-        <v>5600</v>
       </c>
       <c r="T83" s="3">
         <v>5100</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>5600</v>
+      </c>
+      <c r="V83" s="3">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +5186,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>14400</v>
+        <v>68400</v>
       </c>
       <c r="E89" s="3">
-        <v>111600</v>
+        <v>40800</v>
       </c>
       <c r="F89" s="3">
-        <v>33400</v>
+        <v>15000</v>
       </c>
       <c r="G89" s="3">
-        <v>299900</v>
+        <v>82400</v>
       </c>
       <c r="H89" s="3">
-        <v>88800</v>
+        <v>68100</v>
       </c>
       <c r="I89" s="3">
+        <v>311300</v>
+      </c>
+      <c r="J89" s="3">
+        <v>92200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-59500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-37500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>53000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>118600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>210000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-7100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>94700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>68100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>26300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>87900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>200000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>46700</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5276,72 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="E91" s="3" t="s">
+      <c r="D91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
+      <c r="E91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-1500</v>
       </c>
       <c r="G91" s="3">
-        <v>-3100</v>
+        <v>1900</v>
       </c>
       <c r="H91" s="3">
-        <v>-1900</v>
+        <v>-2900</v>
       </c>
       <c r="I91" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-6800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>3600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-1800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-7800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-1300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-126600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>72700</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5458,76 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-64400</v>
+        <v>23200</v>
       </c>
       <c r="E94" s="3">
-        <v>36200</v>
+        <v>191100</v>
       </c>
       <c r="F94" s="3">
+        <v>-66900</v>
+      </c>
+      <c r="G94" s="3">
+        <v>37600</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>78800</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-431100</v>
-      </c>
       <c r="I94" s="3">
+        <v>484000</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-447600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-113200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>28300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-97000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-195900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>39700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>13100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-499200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-62000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>165700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-52400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-240900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-31200</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5092,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -5110,14 +5577,14 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>91200</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5792,196 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>4800</v>
+        <v>-8200</v>
       </c>
       <c r="E100" s="3">
-        <v>-122500</v>
+        <v>-158200</v>
       </c>
       <c r="F100" s="3">
-        <v>10800</v>
+        <v>5000</v>
       </c>
       <c r="G100" s="3">
-        <v>-357400</v>
+        <v>-127200</v>
       </c>
       <c r="H100" s="3">
-        <v>341100</v>
+        <v>11300</v>
       </c>
       <c r="I100" s="3">
+        <v>-371100</v>
+      </c>
+      <c r="J100" s="3">
+        <v>354200</v>
+      </c>
+      <c r="K100" s="3">
         <v>195100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>23200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>73400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-238700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-1600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>410700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-174500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-38500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>55000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>70100</v>
+        <v>-30700</v>
       </c>
       <c r="E101" s="3">
-        <v>-60400</v>
+        <v>-87300</v>
       </c>
       <c r="F101" s="3">
-        <v>10400</v>
+        <v>72800</v>
       </c>
       <c r="G101" s="3">
-        <v>-171000</v>
+        <v>-174000</v>
       </c>
       <c r="H101" s="3">
-        <v>-128700</v>
+        <v>122100</v>
       </c>
       <c r="I101" s="3">
+        <v>-177500</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-133700</v>
+      </c>
+      <c r="K101" s="3">
         <v>217000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>60800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-121200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>73100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>62800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-1500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>281000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>14000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>54800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>1100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-140600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>24900</v>
+        <v>52800</v>
       </c>
       <c r="E102" s="3">
-        <v>-35100</v>
+        <v>-13500</v>
       </c>
       <c r="F102" s="3">
-        <v>54500</v>
+        <v>25900</v>
       </c>
       <c r="G102" s="3">
-        <v>-149700</v>
+        <v>-47100</v>
       </c>
       <c r="H102" s="3">
-        <v>-129900</v>
+        <v>67200</v>
       </c>
       <c r="I102" s="3">
+        <v>-155400</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-134900</v>
+      </c>
+      <c r="K102" s="3">
         <v>239400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>52800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-146000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>69300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>73800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>2900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>251500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>18500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>72300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-1900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-126500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>42000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PUODY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PUODY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>PUODY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>137200</v>
+        <v>150100</v>
       </c>
       <c r="E8" s="3">
-        <v>162200</v>
+        <v>135600</v>
       </c>
       <c r="F8" s="3">
-        <v>121700</v>
+        <v>160300</v>
       </c>
       <c r="G8" s="3">
-        <v>88200</v>
+        <v>120200</v>
       </c>
       <c r="H8" s="3">
+        <v>87100</v>
+      </c>
+      <c r="I8" s="3">
+        <v>128000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>188000</v>
+      </c>
+      <c r="K8" s="3">
+        <v>147800</v>
+      </c>
+      <c r="L8" s="3">
         <v>129600</v>
       </c>
-      <c r="I8" s="3">
-        <v>190300</v>
-      </c>
-      <c r="J8" s="3">
-        <v>147800</v>
-      </c>
-      <c r="K8" s="3">
-        <v>129600</v>
-      </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>127600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>144800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>135600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>158200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>125500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>133800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>126000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>140900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>116900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>140900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>127500</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>59000</v>
+        <v>61100</v>
       </c>
       <c r="E9" s="3">
-        <v>83200</v>
+        <v>58200</v>
       </c>
       <c r="F9" s="3">
-        <v>58700</v>
+        <v>82200</v>
       </c>
       <c r="G9" s="3">
-        <v>48000</v>
+        <v>58000</v>
       </c>
       <c r="H9" s="3">
-        <v>53300</v>
+        <v>47400</v>
       </c>
       <c r="I9" s="3">
-        <v>104600</v>
+        <v>52700</v>
       </c>
       <c r="J9" s="3">
+        <v>103400</v>
+      </c>
+      <c r="K9" s="3">
         <v>66900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>52900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>50900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>69600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>59700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>63700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>42400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>56000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>50700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>63400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>43500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>61900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>50600</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>78300</v>
+        <v>89000</v>
       </c>
       <c r="E10" s="3">
+        <v>77400</v>
+      </c>
+      <c r="F10" s="3">
+        <v>78100</v>
+      </c>
+      <c r="G10" s="3">
+        <v>62300</v>
+      </c>
+      <c r="H10" s="3">
+        <v>39700</v>
+      </c>
+      <c r="I10" s="3">
+        <v>75400</v>
+      </c>
+      <c r="J10" s="3">
+        <v>84600</v>
+      </c>
+      <c r="K10" s="3">
+        <v>80900</v>
+      </c>
+      <c r="L10" s="3">
+        <v>76600</v>
+      </c>
+      <c r="M10" s="3">
+        <v>76700</v>
+      </c>
+      <c r="N10" s="3">
+        <v>75200</v>
+      </c>
+      <c r="O10" s="3">
+        <v>76000</v>
+      </c>
+      <c r="P10" s="3">
+        <v>94400</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>83100</v>
+      </c>
+      <c r="R10" s="3">
+        <v>77800</v>
+      </c>
+      <c r="S10" s="3">
+        <v>75300</v>
+      </c>
+      <c r="T10" s="3">
+        <v>77400</v>
+      </c>
+      <c r="U10" s="3">
+        <v>73300</v>
+      </c>
+      <c r="V10" s="3">
         <v>79000</v>
       </c>
-      <c r="F10" s="3">
-        <v>63000</v>
-      </c>
-      <c r="G10" s="3">
-        <v>40200</v>
-      </c>
-      <c r="H10" s="3">
-        <v>76300</v>
-      </c>
-      <c r="I10" s="3">
-        <v>85600</v>
-      </c>
-      <c r="J10" s="3">
-        <v>80900</v>
-      </c>
-      <c r="K10" s="3">
-        <v>76600</v>
-      </c>
-      <c r="L10" s="3">
-        <v>76700</v>
-      </c>
-      <c r="M10" s="3">
-        <v>75200</v>
-      </c>
-      <c r="N10" s="3">
-        <v>76000</v>
-      </c>
-      <c r="O10" s="3">
-        <v>94400</v>
-      </c>
-      <c r="P10" s="3">
-        <v>83100</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>77800</v>
-      </c>
-      <c r="R10" s="3">
-        <v>75300</v>
-      </c>
-      <c r="S10" s="3">
-        <v>77400</v>
-      </c>
-      <c r="T10" s="3">
-        <v>73300</v>
-      </c>
-      <c r="U10" s="3">
-        <v>79000</v>
-      </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>77000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1170,19 +1193,19 @@
         <v>100</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
         <v>100</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
       <c r="M15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N15" s="3">
         <v>100</v>
@@ -1193,8 +1216,8 @@
       <c r="P15" s="3">
         <v>100</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>8</v>
+      <c r="Q15" s="3">
+        <v>100</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>8</v>
@@ -1205,14 +1228,17 @@
       <c r="T15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
+      <c r="U15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>59500</v>
+        <v>59800</v>
       </c>
       <c r="E17" s="3">
-        <v>83500</v>
+        <v>58800</v>
       </c>
       <c r="F17" s="3">
-        <v>61600</v>
+        <v>82500</v>
       </c>
       <c r="G17" s="3">
-        <v>47700</v>
+        <v>60900</v>
       </c>
       <c r="H17" s="3">
-        <v>52700</v>
+        <v>47100</v>
       </c>
       <c r="I17" s="3">
-        <v>105600</v>
+        <v>52100</v>
       </c>
       <c r="J17" s="3">
+        <v>104300</v>
+      </c>
+      <c r="K17" s="3">
         <v>67700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>54000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>51300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>70300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>61400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>62900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>40700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>56900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>48300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>63000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>42700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>61500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>49600</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>90300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>76800</v>
+      </c>
+      <c r="F18" s="3">
+        <v>77800</v>
+      </c>
+      <c r="G18" s="3">
+        <v>59400</v>
+      </c>
+      <c r="H18" s="3">
+        <v>40000</v>
+      </c>
+      <c r="I18" s="3">
+        <v>75900</v>
+      </c>
+      <c r="J18" s="3">
+        <v>83700</v>
+      </c>
+      <c r="K18" s="3">
+        <v>80100</v>
+      </c>
+      <c r="L18" s="3">
+        <v>75600</v>
+      </c>
+      <c r="M18" s="3">
+        <v>76300</v>
+      </c>
+      <c r="N18" s="3">
+        <v>74500</v>
+      </c>
+      <c r="O18" s="3">
+        <v>74300</v>
+      </c>
+      <c r="P18" s="3">
+        <v>95300</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>84800</v>
+      </c>
+      <c r="R18" s="3">
+        <v>77000</v>
+      </c>
+      <c r="S18" s="3">
         <v>77700</v>
       </c>
-      <c r="E18" s="3">
-        <v>78700</v>
-      </c>
-      <c r="F18" s="3">
-        <v>60100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>40500</v>
-      </c>
-      <c r="H18" s="3">
-        <v>76900</v>
-      </c>
-      <c r="I18" s="3">
-        <v>84700</v>
-      </c>
-      <c r="J18" s="3">
-        <v>80100</v>
-      </c>
-      <c r="K18" s="3">
-        <v>75600</v>
-      </c>
-      <c r="L18" s="3">
-        <v>76300</v>
-      </c>
-      <c r="M18" s="3">
-        <v>74500</v>
-      </c>
-      <c r="N18" s="3">
-        <v>74300</v>
-      </c>
-      <c r="O18" s="3">
-        <v>95300</v>
-      </c>
-      <c r="P18" s="3">
-        <v>84800</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>77000</v>
-      </c>
-      <c r="R18" s="3">
-        <v>77700</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>77800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>74100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>79500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>77900</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,318 +1413,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>31100</v>
+        <v>-5400</v>
       </c>
       <c r="E20" s="3">
-        <v>-64400</v>
+        <v>30700</v>
       </c>
       <c r="F20" s="3">
+        <v>-63600</v>
+      </c>
+      <c r="G20" s="3">
         <v>2700</v>
       </c>
-      <c r="G20" s="3">
-        <v>9000</v>
-      </c>
       <c r="H20" s="3">
-        <v>38200</v>
+        <v>8900</v>
       </c>
       <c r="I20" s="3">
+        <v>37800</v>
+      </c>
+      <c r="J20" s="3">
+        <v>11800</v>
+      </c>
+      <c r="K20" s="3">
+        <v>30900</v>
+      </c>
+      <c r="L20" s="3">
+        <v>19200</v>
+      </c>
+      <c r="M20" s="3">
+        <v>16600</v>
+      </c>
+      <c r="N20" s="3">
+        <v>44100</v>
+      </c>
+      <c r="O20" s="3">
+        <v>5300</v>
+      </c>
+      <c r="P20" s="3">
+        <v>34500</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="R20" s="3">
+        <v>35700</v>
+      </c>
+      <c r="S20" s="3">
         <v>12000</v>
       </c>
-      <c r="J20" s="3">
-        <v>30900</v>
-      </c>
-      <c r="K20" s="3">
-        <v>19200</v>
-      </c>
-      <c r="L20" s="3">
-        <v>16600</v>
-      </c>
-      <c r="M20" s="3">
-        <v>44100</v>
-      </c>
-      <c r="N20" s="3">
-        <v>5300</v>
-      </c>
-      <c r="O20" s="3">
-        <v>34500</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-7100</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>35700</v>
-      </c>
-      <c r="R20" s="3">
-        <v>12000</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>3100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-11500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>16400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>120100</v>
+        <v>97800</v>
       </c>
       <c r="E21" s="3">
-        <v>31400</v>
+        <v>118600</v>
       </c>
       <c r="F21" s="3">
-        <v>72500</v>
+        <v>31000</v>
       </c>
       <c r="G21" s="3">
-        <v>57300</v>
+        <v>71600</v>
       </c>
       <c r="H21" s="3">
-        <v>123900</v>
+        <v>56600</v>
       </c>
       <c r="I21" s="3">
-        <v>109300</v>
+        <v>122400</v>
       </c>
       <c r="J21" s="3">
+        <v>108000</v>
+      </c>
+      <c r="K21" s="3">
         <v>122200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>100100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>98000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>120000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>84600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>135800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>83300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>118700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>95200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>86300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>67800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>101400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>97700</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>15900</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="3">
+        <v>15800</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3">
-        <v>10100</v>
-      </c>
       <c r="G22" s="3">
-        <v>10000</v>
+        <v>9900</v>
       </c>
       <c r="H22" s="3">
-        <v>12400</v>
+        <v>9900</v>
       </c>
       <c r="I22" s="3">
-        <v>21500</v>
+        <v>12300</v>
       </c>
       <c r="J22" s="3">
+        <v>21200</v>
+      </c>
+      <c r="K22" s="3">
         <v>10600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>8300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>5300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>17900</v>
-      </c>
-      <c r="N22" s="3">
-        <v>4100</v>
       </c>
       <c r="O22" s="3">
         <v>4100</v>
       </c>
       <c r="P22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="Q22" s="3">
         <v>4700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>22000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4000</v>
-      </c>
-      <c r="S22" s="3">
-        <v>3900</v>
       </c>
       <c r="T22" s="3">
         <v>3900</v>
       </c>
       <c r="U22" s="3">
+        <v>3900</v>
+      </c>
+      <c r="V22" s="3">
         <v>44600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>92900</v>
+        <v>69100</v>
       </c>
       <c r="E23" s="3">
-        <v>14300</v>
+        <v>91800</v>
       </c>
       <c r="F23" s="3">
-        <v>52700</v>
+        <v>14100</v>
       </c>
       <c r="G23" s="3">
-        <v>39500</v>
+        <v>52100</v>
       </c>
       <c r="H23" s="3">
-        <v>102700</v>
+        <v>39000</v>
       </c>
       <c r="I23" s="3">
-        <v>75200</v>
+        <v>101400</v>
       </c>
       <c r="J23" s="3">
+        <v>74300</v>
+      </c>
+      <c r="K23" s="3">
         <v>100500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>86500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>87600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>100800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>75400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>125700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>73000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>90700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>85800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>77000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>58700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>51300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>85500</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>19200</v>
+        <v>14900</v>
       </c>
       <c r="E24" s="3">
-        <v>-11000</v>
+        <v>19000</v>
       </c>
       <c r="F24" s="3">
-        <v>15400</v>
+        <v>-10900</v>
       </c>
       <c r="G24" s="3">
-        <v>6900</v>
+        <v>15200</v>
       </c>
       <c r="H24" s="3">
-        <v>27200</v>
+        <v>6800</v>
       </c>
       <c r="I24" s="3">
+        <v>26900</v>
+      </c>
+      <c r="J24" s="3">
+        <v>17300</v>
+      </c>
+      <c r="K24" s="3">
+        <v>26600</v>
+      </c>
+      <c r="L24" s="3">
+        <v>24100</v>
+      </c>
+      <c r="M24" s="3">
+        <v>20400</v>
+      </c>
+      <c r="N24" s="3">
+        <v>19000</v>
+      </c>
+      <c r="O24" s="3">
+        <v>12000</v>
+      </c>
+      <c r="P24" s="3">
+        <v>34000</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>16500</v>
+      </c>
+      <c r="R24" s="3">
+        <v>14700</v>
+      </c>
+      <c r="S24" s="3">
+        <v>18300</v>
+      </c>
+      <c r="T24" s="3">
         <v>17500</v>
       </c>
-      <c r="J24" s="3">
-        <v>26600</v>
-      </c>
-      <c r="K24" s="3">
-        <v>24100</v>
-      </c>
-      <c r="L24" s="3">
-        <v>20400</v>
-      </c>
-      <c r="M24" s="3">
-        <v>19000</v>
-      </c>
-      <c r="N24" s="3">
-        <v>12000</v>
-      </c>
-      <c r="O24" s="3">
-        <v>34000</v>
-      </c>
-      <c r="P24" s="3">
-        <v>16500</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>14700</v>
-      </c>
-      <c r="R24" s="3">
-        <v>18300</v>
-      </c>
-      <c r="S24" s="3">
-        <v>17500</v>
-      </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>11800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-7000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>73700</v>
+        <v>54200</v>
       </c>
       <c r="E26" s="3">
-        <v>25300</v>
+        <v>72800</v>
       </c>
       <c r="F26" s="3">
-        <v>37400</v>
+        <v>25000</v>
       </c>
       <c r="G26" s="3">
-        <v>32600</v>
+        <v>36900</v>
       </c>
       <c r="H26" s="3">
-        <v>75500</v>
+        <v>32200</v>
       </c>
       <c r="I26" s="3">
-        <v>57600</v>
+        <v>74600</v>
       </c>
       <c r="J26" s="3">
+        <v>56900</v>
+      </c>
+      <c r="K26" s="3">
         <v>73800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>62400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>67200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>81700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>63400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>91700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>56500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>76000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>67500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>59600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>46900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>58300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>67100</v>
+        <v>44800</v>
       </c>
       <c r="E27" s="3">
-        <v>13600</v>
+        <v>66300</v>
       </c>
       <c r="F27" s="3">
-        <v>28900</v>
+        <v>13400</v>
       </c>
       <c r="G27" s="3">
-        <v>25800</v>
+        <v>28600</v>
       </c>
       <c r="H27" s="3">
-        <v>65300</v>
+        <v>25500</v>
       </c>
       <c r="I27" s="3">
-        <v>50100</v>
+        <v>64500</v>
       </c>
       <c r="J27" s="3">
+        <v>49500</v>
+      </c>
+      <c r="K27" s="3">
         <v>66000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>51300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>57600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>72500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>54800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>82300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>47000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>68100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>61600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>54200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>42900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>55200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1970,12 +2031,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
@@ -1989,19 +2050,22 @@
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-400</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
         <v>0</v>
       </c>
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-31100</v>
+        <v>5400</v>
       </c>
       <c r="E32" s="3">
-        <v>64400</v>
+        <v>-30700</v>
       </c>
       <c r="F32" s="3">
+        <v>63600</v>
+      </c>
+      <c r="G32" s="3">
         <v>-2700</v>
       </c>
-      <c r="G32" s="3">
-        <v>-9000</v>
-      </c>
       <c r="H32" s="3">
-        <v>-38200</v>
+        <v>-8900</v>
       </c>
       <c r="I32" s="3">
+        <v>-37800</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-30900</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-44100</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-34500</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>7100</v>
+      </c>
+      <c r="R32" s="3">
+        <v>-35700</v>
+      </c>
+      <c r="S32" s="3">
         <v>-12000</v>
       </c>
-      <c r="J32" s="3">
-        <v>-30900</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-19200</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-16600</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-44100</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-5300</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-34500</v>
-      </c>
-      <c r="P32" s="3">
-        <v>7100</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-35700</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-12000</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-3100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>11500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-16400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-14800</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>67100</v>
+        <v>44800</v>
       </c>
       <c r="E33" s="3">
-        <v>13600</v>
+        <v>66300</v>
       </c>
       <c r="F33" s="3">
-        <v>28900</v>
+        <v>13400</v>
       </c>
       <c r="G33" s="3">
-        <v>25800</v>
+        <v>28600</v>
       </c>
       <c r="H33" s="3">
-        <v>65300</v>
+        <v>25500</v>
       </c>
       <c r="I33" s="3">
-        <v>50100</v>
+        <v>64500</v>
       </c>
       <c r="J33" s="3">
+        <v>49500</v>
+      </c>
+      <c r="K33" s="3">
         <v>66000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>51300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>57600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>72500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>54800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>82300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>47000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>68100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>61600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>53800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>42900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>55200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>67100</v>
+        <v>44800</v>
       </c>
       <c r="E35" s="3">
-        <v>13600</v>
+        <v>66300</v>
       </c>
       <c r="F35" s="3">
-        <v>28900</v>
+        <v>13400</v>
       </c>
       <c r="G35" s="3">
-        <v>25800</v>
+        <v>28600</v>
       </c>
       <c r="H35" s="3">
-        <v>65300</v>
+        <v>25500</v>
       </c>
       <c r="I35" s="3">
-        <v>50100</v>
+        <v>64500</v>
       </c>
       <c r="J35" s="3">
+        <v>49500</v>
+      </c>
+      <c r="K35" s="3">
         <v>66000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>51300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>57600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>72500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>54800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>82300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>47000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>68100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>61600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>53800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>42900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>55200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,81 +2573,85 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1391200</v>
+        <v>1383000</v>
       </c>
       <c r="E41" s="3">
-        <v>56900</v>
+        <v>1374600</v>
       </c>
       <c r="F41" s="3">
-        <v>1493900</v>
+        <v>56200</v>
       </c>
       <c r="G41" s="3">
-        <v>1468000</v>
+        <v>1476000</v>
       </c>
       <c r="H41" s="3">
-        <v>1504500</v>
+        <v>1450500</v>
       </c>
       <c r="I41" s="3">
-        <v>24400</v>
+        <v>1486500</v>
       </c>
       <c r="J41" s="3">
+        <v>24100</v>
+      </c>
+      <c r="K41" s="3">
         <v>1429300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1506600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1267200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1091400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1217400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1143600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>23600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>849000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>830500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>758200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>815900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>651900</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="3">
-        <v>1196200</v>
-      </c>
-      <c r="F42" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1181900</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>8</v>
@@ -2569,11 +2659,11 @@
       <c r="H42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="3">
-        <v>1426100</v>
-      </c>
-      <c r="J42" s="3" t="s">
+      <c r="I42" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J42" s="3">
+        <v>1409100</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>8</v>
@@ -2581,11 +2671,11 @@
       <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N42" s="3">
         <v>1131400</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>8</v>
@@ -2593,11 +2683,11 @@
       <c r="P42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R42" s="3">
         <v>1073300</v>
-      </c>
-      <c r="R42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>8</v>
@@ -2605,448 +2695,472 @@
       <c r="T42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U42" s="3">
+      <c r="U42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V42" s="3">
         <v>741000</v>
       </c>
-      <c r="V42" s="3" t="s">
+      <c r="W42" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>73600</v>
+        <v>80100</v>
       </c>
       <c r="E43" s="3">
-        <v>71800</v>
+        <v>72700</v>
       </c>
       <c r="F43" s="3">
-        <v>78700</v>
+        <v>71000</v>
       </c>
       <c r="G43" s="3">
-        <v>85900</v>
+        <v>77800</v>
       </c>
       <c r="H43" s="3">
-        <v>82200</v>
+        <v>84900</v>
       </c>
       <c r="I43" s="3">
-        <v>84300</v>
+        <v>81200</v>
       </c>
       <c r="J43" s="3">
+        <v>83300</v>
+      </c>
+      <c r="K43" s="3">
         <v>79900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>70100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>66000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>68900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>76600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>81300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>100000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>128300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>107700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>110400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>105300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>104500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>85200</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E44" s="3">
         <v>7000</v>
       </c>
-      <c r="E44" s="3">
-        <v>6900</v>
-      </c>
       <c r="F44" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="G44" s="3">
-        <v>6400</v>
+        <v>6600</v>
       </c>
       <c r="H44" s="3">
+        <v>6300</v>
+      </c>
+      <c r="I44" s="3">
+        <v>6100</v>
+      </c>
+      <c r="J44" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K44" s="3">
         <v>6200</v>
       </c>
-      <c r="I44" s="3">
-        <v>7400</v>
-      </c>
-      <c r="J44" s="3">
-        <v>6200</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5900</v>
-      </c>
-      <c r="O44" s="3">
-        <v>5400</v>
       </c>
       <c r="P44" s="3">
         <v>5400</v>
       </c>
       <c r="Q44" s="3">
+        <v>5400</v>
+      </c>
+      <c r="R44" s="3">
         <v>5300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>8400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>20800</v>
+        <v>24800</v>
       </c>
       <c r="E45" s="3">
-        <v>11800</v>
+        <v>20600</v>
       </c>
       <c r="F45" s="3">
-        <v>13300</v>
+        <v>11700</v>
       </c>
       <c r="G45" s="3">
-        <v>44500</v>
+        <v>13200</v>
       </c>
       <c r="H45" s="3">
-        <v>42200</v>
+        <v>43900</v>
       </c>
       <c r="I45" s="3">
-        <v>22900</v>
+        <v>41700</v>
       </c>
       <c r="J45" s="3">
+        <v>22700</v>
+      </c>
+      <c r="K45" s="3">
         <v>38700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>13400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>9900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>27200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>34300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>68800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>25900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>59700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>55400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>50200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>73000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>50700</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1492700</v>
+        <v>1495100</v>
       </c>
       <c r="E46" s="3">
-        <v>1343500</v>
+        <v>1474900</v>
       </c>
       <c r="F46" s="3">
-        <v>1592500</v>
+        <v>1327500</v>
       </c>
       <c r="G46" s="3">
-        <v>1604800</v>
+        <v>1573500</v>
       </c>
       <c r="H46" s="3">
-        <v>1635000</v>
+        <v>1585600</v>
       </c>
       <c r="I46" s="3">
-        <v>1567300</v>
+        <v>1615500</v>
       </c>
       <c r="J46" s="3">
+        <v>1548600</v>
+      </c>
+      <c r="K46" s="3">
         <v>1554200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1595400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1348100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1221300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1201100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1338500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1317800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1256400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1021900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1001900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>919000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>940700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>792800</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>97700</v>
+        <v>96300</v>
       </c>
       <c r="E47" s="3">
-        <v>182700</v>
+        <v>96600</v>
       </c>
       <c r="F47" s="3">
-        <v>156900</v>
+        <v>180500</v>
       </c>
       <c r="G47" s="3">
-        <v>147800</v>
+        <v>155000</v>
       </c>
       <c r="H47" s="3">
-        <v>145000</v>
+        <v>146100</v>
       </c>
       <c r="I47" s="3">
-        <v>96100</v>
+        <v>143300</v>
       </c>
       <c r="J47" s="3">
+        <v>95000</v>
+      </c>
+      <c r="K47" s="3">
         <v>131200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>179200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>180300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>172400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>143300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>162200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>217500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>218000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>208300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>201500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>196000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>205700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>197500</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>71300</v>
+        <v>69900</v>
       </c>
       <c r="E48" s="3">
-        <v>56300</v>
+        <v>70500</v>
       </c>
       <c r="F48" s="3">
+        <v>55700</v>
+      </c>
+      <c r="G48" s="3">
+        <v>49500</v>
+      </c>
+      <c r="H48" s="3">
+        <v>49400</v>
+      </c>
+      <c r="I48" s="3">
+        <v>50500</v>
+      </c>
+      <c r="J48" s="3">
+        <v>57400</v>
+      </c>
+      <c r="K48" s="3">
+        <v>52300</v>
+      </c>
+      <c r="L48" s="3">
         <v>50100</v>
       </c>
-      <c r="G48" s="3">
-        <v>50000</v>
-      </c>
-      <c r="H48" s="3">
-        <v>51100</v>
-      </c>
-      <c r="I48" s="3">
-        <v>58100</v>
-      </c>
-      <c r="J48" s="3">
-        <v>52300</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
+        <v>51000</v>
+      </c>
+      <c r="N48" s="3">
+        <v>47800</v>
+      </c>
+      <c r="O48" s="3">
+        <v>47500</v>
+      </c>
+      <c r="P48" s="3">
+        <v>56200</v>
+      </c>
+      <c r="Q48" s="3">
         <v>50100</v>
       </c>
-      <c r="L48" s="3">
-        <v>51000</v>
-      </c>
-      <c r="M48" s="3">
-        <v>47800</v>
-      </c>
-      <c r="N48" s="3">
-        <v>47500</v>
-      </c>
-      <c r="O48" s="3">
-        <v>56200</v>
-      </c>
-      <c r="P48" s="3">
-        <v>50100</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>54700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>49300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>49900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>50500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>112400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>49000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2025700</v>
+        <v>2008800</v>
       </c>
       <c r="E49" s="3">
-        <v>2015200</v>
+        <v>2001500</v>
       </c>
       <c r="F49" s="3">
-        <v>1822600</v>
+        <v>1991100</v>
       </c>
       <c r="G49" s="3">
-        <v>1810100</v>
+        <v>1800800</v>
       </c>
       <c r="H49" s="3">
-        <v>1803100</v>
+        <v>1788500</v>
       </c>
       <c r="I49" s="3">
-        <v>1986500</v>
+        <v>1781600</v>
       </c>
       <c r="J49" s="3">
+        <v>1962700</v>
+      </c>
+      <c r="K49" s="3">
         <v>1768100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1084600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1057300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>971800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>924600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1071500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1049100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>981900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>957200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>923200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>882000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>882800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>872700</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>133800</v>
+        <v>134000</v>
       </c>
       <c r="E52" s="3">
-        <v>169800</v>
+        <v>132200</v>
       </c>
       <c r="F52" s="3">
-        <v>139600</v>
+        <v>167800</v>
       </c>
       <c r="G52" s="3">
-        <v>126500</v>
+        <v>137900</v>
       </c>
       <c r="H52" s="3">
-        <v>107100</v>
+        <v>125000</v>
       </c>
       <c r="I52" s="3">
-        <v>116300</v>
+        <v>105800</v>
       </c>
       <c r="J52" s="3">
+        <v>114900</v>
+      </c>
+      <c r="K52" s="3">
         <v>99400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>48300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>69800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>87200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>79600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>53300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>73100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>71500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>73900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>72900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>69100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>91600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3821300</v>
+        <v>3804100</v>
       </c>
       <c r="E54" s="3">
-        <v>3767600</v>
+        <v>3775700</v>
       </c>
       <c r="F54" s="3">
-        <v>3761700</v>
+        <v>3722600</v>
       </c>
       <c r="G54" s="3">
-        <v>3739300</v>
+        <v>3716700</v>
       </c>
       <c r="H54" s="3">
-        <v>3741200</v>
+        <v>3694600</v>
       </c>
       <c r="I54" s="3">
-        <v>3824300</v>
+        <v>3696600</v>
       </c>
       <c r="J54" s="3">
+        <v>3778600</v>
+      </c>
+      <c r="K54" s="3">
         <v>3605100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2957500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2706400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2500500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2396100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2681700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2707500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2582400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2310700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2249300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2116700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2170400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1960500</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,353 +3533,369 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>31100</v>
+        <v>30400</v>
       </c>
       <c r="E57" s="3">
-        <v>32200</v>
+        <v>30700</v>
       </c>
       <c r="F57" s="3">
-        <v>29400</v>
+        <v>31800</v>
       </c>
       <c r="G57" s="3">
-        <v>27100</v>
+        <v>29100</v>
       </c>
       <c r="H57" s="3">
-        <v>28500</v>
+        <v>26800</v>
       </c>
       <c r="I57" s="3">
-        <v>30900</v>
+        <v>28200</v>
       </c>
       <c r="J57" s="3">
+        <v>30500</v>
+      </c>
+      <c r="K57" s="3">
         <v>17700</v>
-      </c>
-      <c r="K57" s="3">
-        <v>12500</v>
       </c>
       <c r="L57" s="3">
         <v>12500</v>
       </c>
       <c r="M57" s="3">
+        <v>12500</v>
+      </c>
+      <c r="N57" s="3">
         <v>10800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>11700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>12000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>11100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>12300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>12100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>13400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>8700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>13800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="E58" s="3">
-        <v>32400</v>
+        <v>33600</v>
       </c>
       <c r="F58" s="3">
-        <v>26800</v>
+        <v>32000</v>
       </c>
       <c r="G58" s="3">
-        <v>24000</v>
+        <v>26500</v>
       </c>
       <c r="H58" s="3">
-        <v>11400</v>
+        <v>23700</v>
       </c>
       <c r="I58" s="3">
         <v>11300</v>
       </c>
       <c r="J58" s="3">
+        <v>11200</v>
+      </c>
+      <c r="K58" s="3">
         <v>10100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>15500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>14600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>10600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>10700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>34600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>36700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>35700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>34900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>34000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>31100</v>
       </c>
-      <c r="V58" s="3" t="s">
+      <c r="W58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>123800</v>
+        <v>217600</v>
       </c>
       <c r="E59" s="3">
-        <v>115000</v>
+        <v>122300</v>
       </c>
       <c r="F59" s="3">
-        <v>222400</v>
+        <v>113600</v>
       </c>
       <c r="G59" s="3">
-        <v>226900</v>
+        <v>219800</v>
       </c>
       <c r="H59" s="3">
-        <v>150500</v>
+        <v>224200</v>
       </c>
       <c r="I59" s="3">
-        <v>267600</v>
+        <v>148700</v>
       </c>
       <c r="J59" s="3">
+        <v>264400</v>
+      </c>
+      <c r="K59" s="3">
         <v>156900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>103300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>106300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>204100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>203000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>237000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>101000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>107600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>117100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>110200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>138900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>144900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>155200</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>188800</v>
+        <v>282900</v>
       </c>
       <c r="E60" s="3">
-        <v>179500</v>
+        <v>186600</v>
       </c>
       <c r="F60" s="3">
-        <v>278700</v>
+        <v>177400</v>
       </c>
       <c r="G60" s="3">
-        <v>278000</v>
+        <v>275400</v>
       </c>
       <c r="H60" s="3">
-        <v>190500</v>
+        <v>274700</v>
       </c>
       <c r="I60" s="3">
-        <v>309800</v>
+        <v>188200</v>
       </c>
       <c r="J60" s="3">
+        <v>306100</v>
+      </c>
+      <c r="K60" s="3">
         <v>184700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>125400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>134300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>229400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>225300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>259700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>146700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>156500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>164900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>158500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>181600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>147500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>163900</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>792700</v>
+        <v>772700</v>
       </c>
       <c r="E61" s="3">
-        <v>794700</v>
+        <v>783200</v>
       </c>
       <c r="F61" s="3">
-        <v>807600</v>
+        <v>785200</v>
       </c>
       <c r="G61" s="3">
-        <v>808400</v>
+        <v>798000</v>
       </c>
       <c r="H61" s="3">
-        <v>829100</v>
+        <v>798800</v>
       </c>
       <c r="I61" s="3">
-        <v>862500</v>
+        <v>819200</v>
       </c>
       <c r="J61" s="3">
+        <v>852200</v>
+      </c>
+      <c r="K61" s="3">
         <v>810500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>468400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>264300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>249400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>265000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>220700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>232800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>222600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>230900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>229300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>240500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>243500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>372600</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>106300</v>
+        <v>101600</v>
       </c>
       <c r="E62" s="3">
-        <v>127700</v>
+        <v>105100</v>
       </c>
       <c r="F62" s="3">
-        <v>49700</v>
+        <v>126100</v>
       </c>
       <c r="G62" s="3">
-        <v>49700</v>
+        <v>49100</v>
       </c>
       <c r="H62" s="3">
-        <v>49800</v>
+        <v>49100</v>
       </c>
       <c r="I62" s="3">
-        <v>117800</v>
+        <v>49200</v>
       </c>
       <c r="J62" s="3">
+        <v>116400</v>
+      </c>
+      <c r="K62" s="3">
         <v>60200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>15200</v>
-      </c>
-      <c r="N62" s="3">
-        <v>500</v>
       </c>
       <c r="O62" s="3">
         <v>500</v>
@@ -3758,10 +3904,10 @@
         <v>500</v>
       </c>
       <c r="Q62" s="3">
+        <v>500</v>
+      </c>
+      <c r="R62" s="3">
         <v>10500</v>
-      </c>
-      <c r="R62" s="3">
-        <v>400</v>
       </c>
       <c r="S62" s="3">
         <v>400</v>
@@ -3770,13 +3916,16 @@
         <v>400</v>
       </c>
       <c r="U62" s="3">
+        <v>400</v>
+      </c>
+      <c r="V62" s="3">
         <v>25600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1455300</v>
+        <v>1521000</v>
       </c>
       <c r="E66" s="3">
-        <v>1470100</v>
+        <v>1437900</v>
       </c>
       <c r="F66" s="3">
-        <v>1471600</v>
+        <v>1452500</v>
       </c>
       <c r="G66" s="3">
-        <v>1476300</v>
+        <v>1454000</v>
       </c>
       <c r="H66" s="3">
-        <v>1402200</v>
+        <v>1458700</v>
       </c>
       <c r="I66" s="3">
-        <v>1647800</v>
+        <v>1385500</v>
       </c>
       <c r="J66" s="3">
+        <v>1628100</v>
+      </c>
+      <c r="K66" s="3">
         <v>1378700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>917100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>717700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>680000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>688600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>706300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>595900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>588700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>537600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>535600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>514500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>525900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>549600</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1005100</v>
+        <v>938700</v>
       </c>
       <c r="E72" s="3">
-        <v>1397200</v>
+        <v>993100</v>
       </c>
       <c r="F72" s="3">
-        <v>924400</v>
+        <v>1380500</v>
       </c>
       <c r="G72" s="3">
-        <v>594100</v>
+        <v>913300</v>
       </c>
       <c r="H72" s="3">
-        <v>666800</v>
+        <v>587000</v>
       </c>
       <c r="I72" s="3">
-        <v>957200</v>
+        <v>658800</v>
       </c>
       <c r="J72" s="3">
+        <v>945700</v>
+      </c>
+      <c r="K72" s="3">
         <v>553400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>469500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>706700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>973600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>532500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>568900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>959800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1278000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>812600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>750900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>748900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1724800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>712100</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2366000</v>
+        <v>2283100</v>
       </c>
       <c r="E76" s="3">
-        <v>2297500</v>
+        <v>2337700</v>
       </c>
       <c r="F76" s="3">
-        <v>2290100</v>
+        <v>2270000</v>
       </c>
       <c r="G76" s="3">
-        <v>2262900</v>
+        <v>2262700</v>
       </c>
       <c r="H76" s="3">
-        <v>2339000</v>
+        <v>2235900</v>
       </c>
       <c r="I76" s="3">
-        <v>2176500</v>
+        <v>2311100</v>
       </c>
       <c r="J76" s="3">
+        <v>2150500</v>
+      </c>
+      <c r="K76" s="3">
         <v>2226400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2040400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1988700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1820600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1707600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1975500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2111600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1993700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1773000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1713800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1602200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1644500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1410900</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>67100</v>
+        <v>44800</v>
       </c>
       <c r="E81" s="3">
-        <v>13600</v>
+        <v>66300</v>
       </c>
       <c r="F81" s="3">
-        <v>28900</v>
+        <v>13400</v>
       </c>
       <c r="G81" s="3">
-        <v>25800</v>
+        <v>28600</v>
       </c>
       <c r="H81" s="3">
-        <v>65300</v>
+        <v>25500</v>
       </c>
       <c r="I81" s="3">
-        <v>50100</v>
+        <v>64500</v>
       </c>
       <c r="J81" s="3">
+        <v>49500</v>
+      </c>
+      <c r="K81" s="3">
         <v>66000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>51300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>57600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>72500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>54800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>82300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>47000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>68100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>61600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>53800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>42900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>55200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E83" s="3">
+        <v>11100</v>
+      </c>
+      <c r="F83" s="3">
+        <v>16800</v>
+      </c>
+      <c r="G83" s="3">
+        <v>9600</v>
+      </c>
+      <c r="H83" s="3">
+        <v>7700</v>
+      </c>
+      <c r="I83" s="3">
+        <v>8700</v>
+      </c>
+      <c r="J83" s="3">
+        <v>12500</v>
+      </c>
+      <c r="K83" s="3">
         <v>11200</v>
       </c>
-      <c r="E83" s="3">
-        <v>17000</v>
-      </c>
-      <c r="F83" s="3">
-        <v>9700</v>
-      </c>
-      <c r="G83" s="3">
-        <v>7800</v>
-      </c>
-      <c r="H83" s="3">
-        <v>8800</v>
-      </c>
-      <c r="I83" s="3">
-        <v>12700</v>
-      </c>
-      <c r="J83" s="3">
-        <v>11200</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>5300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>5100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>5000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>6000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>5600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>6000</v>
-      </c>
-      <c r="R83" s="3">
-        <v>5400</v>
       </c>
       <c r="S83" s="3">
         <v>5400</v>
       </c>
       <c r="T83" s="3">
+        <v>5400</v>
+      </c>
+      <c r="U83" s="3">
         <v>5100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>5600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>68400</v>
+        <v>68800</v>
       </c>
       <c r="E89" s="3">
-        <v>40800</v>
+        <v>67600</v>
       </c>
       <c r="F89" s="3">
-        <v>15000</v>
+        <v>40300</v>
       </c>
       <c r="G89" s="3">
-        <v>82400</v>
+        <v>14800</v>
       </c>
       <c r="H89" s="3">
+        <v>81400</v>
+      </c>
+      <c r="I89" s="3">
+        <v>67300</v>
+      </c>
+      <c r="J89" s="3">
+        <v>307600</v>
+      </c>
+      <c r="K89" s="3">
+        <v>92200</v>
+      </c>
+      <c r="L89" s="3">
+        <v>-59500</v>
+      </c>
+      <c r="M89" s="3">
+        <v>-37500</v>
+      </c>
+      <c r="N89" s="3">
+        <v>53000</v>
+      </c>
+      <c r="O89" s="3">
+        <v>118600</v>
+      </c>
+      <c r="P89" s="3">
+        <v>210000</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="R89" s="3">
+        <v>94700</v>
+      </c>
+      <c r="S89" s="3">
         <v>68100</v>
       </c>
-      <c r="I89" s="3">
-        <v>311300</v>
-      </c>
-      <c r="J89" s="3">
-        <v>92200</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-59500</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-37500</v>
-      </c>
-      <c r="M89" s="3">
-        <v>53000</v>
-      </c>
-      <c r="N89" s="3">
-        <v>118600</v>
-      </c>
-      <c r="O89" s="3">
-        <v>210000</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-7100</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>94700</v>
-      </c>
-      <c r="R89" s="3">
-        <v>68100</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>26300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>87900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>200000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>46700</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H91" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="N91" s="3">
+        <v>3600</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="S91" s="3">
         <v>-900</v>
       </c>
-      <c r="F91" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="G91" s="3">
-        <v>1900</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="T91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="U91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
-        <v>-6800</v>
-      </c>
-      <c r="M91" s="3">
-        <v>3600</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-900</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-700</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-400</v>
-      </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-126600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>72700</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>23200</v>
+        <v>-25200</v>
       </c>
       <c r="E94" s="3">
-        <v>191100</v>
+        <v>23000</v>
       </c>
       <c r="F94" s="3">
-        <v>-66900</v>
+        <v>188800</v>
       </c>
       <c r="G94" s="3">
-        <v>37600</v>
+        <v>-66100</v>
       </c>
       <c r="H94" s="3">
+        <v>37200</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>484000</v>
-      </c>
       <c r="J94" s="3">
+        <v>478200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-447600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-113200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>28300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-97000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-195900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>39700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>13100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-499200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-62000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>165700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-52400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-240900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-31200</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5559,11 +5793,11 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-2000</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
@@ -5583,11 +5817,11 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>91200</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-8200</v>
+        <v>-33400</v>
       </c>
       <c r="E100" s="3">
-        <v>-158200</v>
+        <v>-8100</v>
       </c>
       <c r="F100" s="3">
+        <v>-156300</v>
+      </c>
+      <c r="G100" s="3">
         <v>5000</v>
       </c>
-      <c r="G100" s="3">
-        <v>-127200</v>
-      </c>
       <c r="H100" s="3">
-        <v>11300</v>
+        <v>-125700</v>
       </c>
       <c r="I100" s="3">
-        <v>-371100</v>
+        <v>11100</v>
       </c>
       <c r="J100" s="3">
+        <v>-366600</v>
+      </c>
+      <c r="K100" s="3">
         <v>354200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>195100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>23200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>73400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-238700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>410700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-174500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-38500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>55000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-30700</v>
+        <v>-1700</v>
       </c>
       <c r="E101" s="3">
-        <v>-87300</v>
+        <v>-30300</v>
       </c>
       <c r="F101" s="3">
-        <v>72800</v>
+        <v>-86200</v>
       </c>
       <c r="G101" s="3">
-        <v>-174000</v>
+        <v>71900</v>
       </c>
       <c r="H101" s="3">
-        <v>122100</v>
+        <v>-171900</v>
       </c>
       <c r="I101" s="3">
-        <v>-177500</v>
+        <v>120600</v>
       </c>
       <c r="J101" s="3">
+        <v>-175400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-133700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>217000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>60800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-121200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>73100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>62800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>281000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>14000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>54800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-140600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>52100</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="G102" s="3">
+        <v>25600</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-46500</v>
+      </c>
+      <c r="I102" s="3">
+        <v>66400</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-153500</v>
+      </c>
+      <c r="K102" s="3">
+        <v>-134900</v>
+      </c>
+      <c r="L102" s="3">
+        <v>239400</v>
+      </c>
+      <c r="M102" s="3">
         <v>52800</v>
       </c>
-      <c r="E102" s="3">
-        <v>-13500</v>
-      </c>
-      <c r="F102" s="3">
-        <v>25900</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-47100</v>
-      </c>
-      <c r="H102" s="3">
-        <v>67200</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-155400</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-134900</v>
-      </c>
-      <c r="K102" s="3">
-        <v>239400</v>
-      </c>
-      <c r="L102" s="3">
-        <v>52800</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-146000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>69300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>73800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>251500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>18500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>72300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-126500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>42000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PUODY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PUODY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>PUODY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>150100</v>
+        <v>147200</v>
       </c>
       <c r="E8" s="3">
+        <v>139600</v>
+      </c>
+      <c r="F8" s="3">
+        <v>126100</v>
+      </c>
+      <c r="G8" s="3">
+        <v>149100</v>
+      </c>
+      <c r="H8" s="3">
+        <v>111800</v>
+      </c>
+      <c r="I8" s="3">
+        <v>81000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>119100</v>
+      </c>
+      <c r="K8" s="3">
+        <v>188000</v>
+      </c>
+      <c r="L8" s="3">
+        <v>147800</v>
+      </c>
+      <c r="M8" s="3">
+        <v>129600</v>
+      </c>
+      <c r="N8" s="3">
+        <v>127600</v>
+      </c>
+      <c r="O8" s="3">
+        <v>144800</v>
+      </c>
+      <c r="P8" s="3">
         <v>135600</v>
       </c>
-      <c r="F8" s="3">
-        <v>160300</v>
-      </c>
-      <c r="G8" s="3">
-        <v>120200</v>
-      </c>
-      <c r="H8" s="3">
-        <v>87100</v>
-      </c>
-      <c r="I8" s="3">
-        <v>128000</v>
-      </c>
-      <c r="J8" s="3">
-        <v>188000</v>
-      </c>
-      <c r="K8" s="3">
-        <v>147800</v>
-      </c>
-      <c r="L8" s="3">
-        <v>129600</v>
-      </c>
-      <c r="M8" s="3">
-        <v>127600</v>
-      </c>
-      <c r="N8" s="3">
-        <v>144800</v>
-      </c>
-      <c r="O8" s="3">
-        <v>135600</v>
-      </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>158200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>125500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>133800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>126000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>140900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>116900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>140900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>127500</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>61100</v>
+        <v>61500</v>
       </c>
       <c r="E9" s="3">
-        <v>58200</v>
+        <v>56800</v>
       </c>
       <c r="F9" s="3">
-        <v>82200</v>
+        <v>54200</v>
       </c>
       <c r="G9" s="3">
-        <v>58000</v>
+        <v>76400</v>
       </c>
       <c r="H9" s="3">
-        <v>47400</v>
+        <v>53900</v>
       </c>
       <c r="I9" s="3">
-        <v>52700</v>
+        <v>44100</v>
       </c>
       <c r="J9" s="3">
+        <v>49000</v>
+      </c>
+      <c r="K9" s="3">
         <v>103400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>66900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>52900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>50900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>69600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>59700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>63700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>42400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>56000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>50700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>63400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>43500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>61900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>50600</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>89000</v>
+        <v>85700</v>
       </c>
       <c r="E10" s="3">
+        <v>82800</v>
+      </c>
+      <c r="F10" s="3">
+        <v>72000</v>
+      </c>
+      <c r="G10" s="3">
+        <v>72600</v>
+      </c>
+      <c r="H10" s="3">
+        <v>57900</v>
+      </c>
+      <c r="I10" s="3">
+        <v>36900</v>
+      </c>
+      <c r="J10" s="3">
+        <v>70100</v>
+      </c>
+      <c r="K10" s="3">
+        <v>84600</v>
+      </c>
+      <c r="L10" s="3">
+        <v>80900</v>
+      </c>
+      <c r="M10" s="3">
+        <v>76600</v>
+      </c>
+      <c r="N10" s="3">
+        <v>76700</v>
+      </c>
+      <c r="O10" s="3">
+        <v>75200</v>
+      </c>
+      <c r="P10" s="3">
+        <v>76000</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>94400</v>
+      </c>
+      <c r="R10" s="3">
+        <v>83100</v>
+      </c>
+      <c r="S10" s="3">
+        <v>77800</v>
+      </c>
+      <c r="T10" s="3">
+        <v>75300</v>
+      </c>
+      <c r="U10" s="3">
         <v>77400</v>
       </c>
-      <c r="F10" s="3">
-        <v>78100</v>
-      </c>
-      <c r="G10" s="3">
-        <v>62300</v>
-      </c>
-      <c r="H10" s="3">
-        <v>39700</v>
-      </c>
-      <c r="I10" s="3">
-        <v>75400</v>
-      </c>
-      <c r="J10" s="3">
-        <v>84600</v>
-      </c>
-      <c r="K10" s="3">
-        <v>80900</v>
-      </c>
-      <c r="L10" s="3">
-        <v>76600</v>
-      </c>
-      <c r="M10" s="3">
-        <v>76700</v>
-      </c>
-      <c r="N10" s="3">
-        <v>75200</v>
-      </c>
-      <c r="O10" s="3">
-        <v>76000</v>
-      </c>
-      <c r="P10" s="3">
-        <v>94400</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>83100</v>
-      </c>
-      <c r="R10" s="3">
-        <v>77800</v>
-      </c>
-      <c r="S10" s="3">
-        <v>75300</v>
-      </c>
-      <c r="T10" s="3">
-        <v>77400</v>
-      </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>73300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>79000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>77000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1196,19 +1219,19 @@
         <v>100</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
         <v>100</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
       <c r="M15" s="3">
         <v>0</v>
       </c>
       <c r="N15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O15" s="3">
         <v>100</v>
@@ -1219,8 +1242,8 @@
       <c r="Q15" s="3">
         <v>100</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>8</v>
+      <c r="R15" s="3">
+        <v>100</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>8</v>
@@ -1231,14 +1254,17 @@
       <c r="U15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
+      <c r="V15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>59800</v>
+        <v>61900</v>
       </c>
       <c r="E17" s="3">
-        <v>58800</v>
+        <v>55600</v>
       </c>
       <c r="F17" s="3">
-        <v>82500</v>
+        <v>54700</v>
       </c>
       <c r="G17" s="3">
-        <v>60900</v>
+        <v>76700</v>
       </c>
       <c r="H17" s="3">
-        <v>47100</v>
+        <v>56600</v>
       </c>
       <c r="I17" s="3">
-        <v>52100</v>
+        <v>43900</v>
       </c>
       <c r="J17" s="3">
+        <v>48400</v>
+      </c>
+      <c r="K17" s="3">
         <v>104300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>67700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>54000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>51300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>70300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>61400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>62900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>40700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>56900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>48300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>63000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>42700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>61500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>49600</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>90300</v>
+        <v>85300</v>
       </c>
       <c r="E18" s="3">
-        <v>76800</v>
+        <v>84000</v>
       </c>
       <c r="F18" s="3">
+        <v>71400</v>
+      </c>
+      <c r="G18" s="3">
+        <v>72300</v>
+      </c>
+      <c r="H18" s="3">
+        <v>55200</v>
+      </c>
+      <c r="I18" s="3">
+        <v>37200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>70600</v>
+      </c>
+      <c r="K18" s="3">
+        <v>83700</v>
+      </c>
+      <c r="L18" s="3">
+        <v>80100</v>
+      </c>
+      <c r="M18" s="3">
+        <v>75600</v>
+      </c>
+      <c r="N18" s="3">
+        <v>76300</v>
+      </c>
+      <c r="O18" s="3">
+        <v>74500</v>
+      </c>
+      <c r="P18" s="3">
+        <v>74300</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>95300</v>
+      </c>
+      <c r="R18" s="3">
+        <v>84800</v>
+      </c>
+      <c r="S18" s="3">
+        <v>77000</v>
+      </c>
+      <c r="T18" s="3">
+        <v>77700</v>
+      </c>
+      <c r="U18" s="3">
         <v>77800</v>
       </c>
-      <c r="G18" s="3">
-        <v>59400</v>
-      </c>
-      <c r="H18" s="3">
-        <v>40000</v>
-      </c>
-      <c r="I18" s="3">
-        <v>75900</v>
-      </c>
-      <c r="J18" s="3">
-        <v>83700</v>
-      </c>
-      <c r="K18" s="3">
-        <v>80100</v>
-      </c>
-      <c r="L18" s="3">
-        <v>75600</v>
-      </c>
-      <c r="M18" s="3">
-        <v>76300</v>
-      </c>
-      <c r="N18" s="3">
-        <v>74500</v>
-      </c>
-      <c r="O18" s="3">
-        <v>74300</v>
-      </c>
-      <c r="P18" s="3">
-        <v>95300</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>84800</v>
-      </c>
-      <c r="R18" s="3">
-        <v>77000</v>
-      </c>
-      <c r="S18" s="3">
-        <v>77700</v>
-      </c>
-      <c r="T18" s="3">
-        <v>77800</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>74100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>79500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>77900</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,333 +1447,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-5400</v>
+        <v>35200</v>
       </c>
       <c r="E20" s="3">
-        <v>30700</v>
+        <v>-5000</v>
       </c>
       <c r="F20" s="3">
-        <v>-63600</v>
+        <v>28600</v>
       </c>
       <c r="G20" s="3">
-        <v>2700</v>
+        <v>-59200</v>
       </c>
       <c r="H20" s="3">
-        <v>8900</v>
+        <v>2500</v>
       </c>
       <c r="I20" s="3">
-        <v>37800</v>
+        <v>8300</v>
       </c>
       <c r="J20" s="3">
+        <v>35100</v>
+      </c>
+      <c r="K20" s="3">
         <v>11800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>30900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>19200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>16600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>44100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>5300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>34500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-7100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>35700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>12000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>3100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-11500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>16400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>97800</v>
+        <v>132200</v>
       </c>
       <c r="E21" s="3">
-        <v>118600</v>
+        <v>91000</v>
       </c>
       <c r="F21" s="3">
-        <v>31000</v>
+        <v>110300</v>
       </c>
       <c r="G21" s="3">
-        <v>71600</v>
+        <v>28800</v>
       </c>
       <c r="H21" s="3">
-        <v>56600</v>
+        <v>66600</v>
       </c>
       <c r="I21" s="3">
-        <v>122400</v>
+        <v>52600</v>
       </c>
       <c r="J21" s="3">
+        <v>113900</v>
+      </c>
+      <c r="K21" s="3">
         <v>108000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>122200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>100100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>98000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>120000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>84600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>135800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>83300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>118700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>95200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>86300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>67800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>101400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>97700</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>15900</v>
+        <v>14900</v>
       </c>
       <c r="E22" s="3">
-        <v>15800</v>
-      </c>
-      <c r="F22" s="3" t="s">
+        <v>14800</v>
+      </c>
+      <c r="F22" s="3">
+        <v>14600</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="3">
-        <v>9900</v>
-      </c>
       <c r="H22" s="3">
-        <v>9900</v>
+        <v>9200</v>
       </c>
       <c r="I22" s="3">
-        <v>12300</v>
+        <v>9200</v>
       </c>
       <c r="J22" s="3">
+        <v>11400</v>
+      </c>
+      <c r="K22" s="3">
         <v>21200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>10600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>8300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>5300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>17900</v>
-      </c>
-      <c r="O22" s="3">
-        <v>4100</v>
       </c>
       <c r="P22" s="3">
         <v>4100</v>
       </c>
       <c r="Q22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="R22" s="3">
         <v>4700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>22000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>4000</v>
-      </c>
-      <c r="T22" s="3">
-        <v>3900</v>
       </c>
       <c r="U22" s="3">
         <v>3900</v>
       </c>
       <c r="V22" s="3">
+        <v>3900</v>
+      </c>
+      <c r="W22" s="3">
         <v>44600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>69100</v>
+        <v>105600</v>
       </c>
       <c r="E23" s="3">
-        <v>91800</v>
+        <v>64200</v>
       </c>
       <c r="F23" s="3">
-        <v>14100</v>
+        <v>85400</v>
       </c>
       <c r="G23" s="3">
-        <v>52100</v>
+        <v>13100</v>
       </c>
       <c r="H23" s="3">
-        <v>39000</v>
+        <v>48500</v>
       </c>
       <c r="I23" s="3">
-        <v>101400</v>
+        <v>36300</v>
       </c>
       <c r="J23" s="3">
+        <v>94300</v>
+      </c>
+      <c r="K23" s="3">
         <v>74300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>100500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>86500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>87600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>100800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>75400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>125700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>73000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>90700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>85800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>77000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>58700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>51300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>85500</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>14900</v>
+        <v>20800</v>
       </c>
       <c r="E24" s="3">
+        <v>13900</v>
+      </c>
+      <c r="F24" s="3">
+        <v>17700</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="H24" s="3">
+        <v>14100</v>
+      </c>
+      <c r="I24" s="3">
+        <v>6300</v>
+      </c>
+      <c r="J24" s="3">
+        <v>25000</v>
+      </c>
+      <c r="K24" s="3">
+        <v>17300</v>
+      </c>
+      <c r="L24" s="3">
+        <v>26600</v>
+      </c>
+      <c r="M24" s="3">
+        <v>24100</v>
+      </c>
+      <c r="N24" s="3">
+        <v>20400</v>
+      </c>
+      <c r="O24" s="3">
         <v>19000</v>
       </c>
-      <c r="F24" s="3">
-        <v>-10900</v>
-      </c>
-      <c r="G24" s="3">
-        <v>15200</v>
-      </c>
-      <c r="H24" s="3">
-        <v>6800</v>
-      </c>
-      <c r="I24" s="3">
-        <v>26900</v>
-      </c>
-      <c r="J24" s="3">
-        <v>17300</v>
-      </c>
-      <c r="K24" s="3">
-        <v>26600</v>
-      </c>
-      <c r="L24" s="3">
-        <v>24100</v>
-      </c>
-      <c r="M24" s="3">
-        <v>20400</v>
-      </c>
-      <c r="N24" s="3">
-        <v>19000</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>12000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>34000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>16500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>14700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>18300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>17500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>11800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-7000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>54200</v>
+        <v>84800</v>
       </c>
       <c r="E26" s="3">
-        <v>72800</v>
+        <v>50400</v>
       </c>
       <c r="F26" s="3">
-        <v>25000</v>
+        <v>67700</v>
       </c>
       <c r="G26" s="3">
-        <v>36900</v>
+        <v>23300</v>
       </c>
       <c r="H26" s="3">
-        <v>32200</v>
+        <v>34400</v>
       </c>
       <c r="I26" s="3">
-        <v>74600</v>
+        <v>30000</v>
       </c>
       <c r="J26" s="3">
+        <v>69400</v>
+      </c>
+      <c r="K26" s="3">
         <v>56900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>73800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>62400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>67200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>81700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>63400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>91700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>56500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>76000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>67500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>59600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>46900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>58300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>44800</v>
+        <v>74700</v>
       </c>
       <c r="E27" s="3">
-        <v>66300</v>
+        <v>41700</v>
       </c>
       <c r="F27" s="3">
-        <v>13400</v>
+        <v>61700</v>
       </c>
       <c r="G27" s="3">
-        <v>28600</v>
+        <v>12500</v>
       </c>
       <c r="H27" s="3">
-        <v>25500</v>
+        <v>26600</v>
       </c>
       <c r="I27" s="3">
-        <v>64500</v>
+        <v>23700</v>
       </c>
       <c r="J27" s="3">
+        <v>60000</v>
+      </c>
+      <c r="K27" s="3">
         <v>49500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>66000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>51300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>57600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>72500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>54800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>82300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>47000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>68100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>61600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>54200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>42900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>55200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2034,12 +2095,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
@@ -2053,19 +2114,22 @@
         <v>0</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-400</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
       <c r="V29" s="3">
         <v>0</v>
       </c>
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>5400</v>
+        <v>-35200</v>
       </c>
       <c r="E32" s="3">
-        <v>-30700</v>
+        <v>5000</v>
       </c>
       <c r="F32" s="3">
-        <v>63600</v>
+        <v>-28600</v>
       </c>
       <c r="G32" s="3">
-        <v>-2700</v>
+        <v>59200</v>
       </c>
       <c r="H32" s="3">
-        <v>-8900</v>
+        <v>-2500</v>
       </c>
       <c r="I32" s="3">
-        <v>-37800</v>
+        <v>-8300</v>
       </c>
       <c r="J32" s="3">
+        <v>-35100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-11800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-30900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-19200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-16600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-44100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-5300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-34500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>7100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-35700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-12000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-3100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>11500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-16400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-14800</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>44800</v>
+        <v>74700</v>
       </c>
       <c r="E33" s="3">
-        <v>66300</v>
+        <v>41700</v>
       </c>
       <c r="F33" s="3">
-        <v>13400</v>
+        <v>61700</v>
       </c>
       <c r="G33" s="3">
-        <v>28600</v>
+        <v>12500</v>
       </c>
       <c r="H33" s="3">
-        <v>25500</v>
+        <v>26600</v>
       </c>
       <c r="I33" s="3">
-        <v>64500</v>
+        <v>23700</v>
       </c>
       <c r="J33" s="3">
+        <v>60000</v>
+      </c>
+      <c r="K33" s="3">
         <v>49500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>66000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>51300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>57600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>72500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>54800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>82300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>47000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>68100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>61600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>53800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>42900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>55200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>44800</v>
+        <v>74700</v>
       </c>
       <c r="E35" s="3">
-        <v>66300</v>
+        <v>41700</v>
       </c>
       <c r="F35" s="3">
-        <v>13400</v>
+        <v>61700</v>
       </c>
       <c r="G35" s="3">
-        <v>28600</v>
+        <v>12500</v>
       </c>
       <c r="H35" s="3">
-        <v>25500</v>
+        <v>26600</v>
       </c>
       <c r="I35" s="3">
-        <v>64500</v>
+        <v>23700</v>
       </c>
       <c r="J35" s="3">
+        <v>60000</v>
+      </c>
+      <c r="K35" s="3">
         <v>49500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>66000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>51300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>57600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>72500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>54800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>82300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>47000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>68100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>61600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>53800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>42900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>55200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1383000</v>
+        <v>1290400</v>
       </c>
       <c r="E41" s="3">
-        <v>1374600</v>
+        <v>1286300</v>
       </c>
       <c r="F41" s="3">
-        <v>56200</v>
+        <v>1278500</v>
       </c>
       <c r="G41" s="3">
-        <v>1476000</v>
+        <v>52300</v>
       </c>
       <c r="H41" s="3">
-        <v>1450500</v>
+        <v>1372800</v>
       </c>
       <c r="I41" s="3">
-        <v>1486500</v>
+        <v>1349000</v>
       </c>
       <c r="J41" s="3">
+        <v>1382500</v>
+      </c>
+      <c r="K41" s="3">
         <v>24100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1429300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1506600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1267200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1091400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1217400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1143600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>23600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>849000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>830500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>758200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>815900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>651900</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2650,11 +2740,11 @@
       <c r="E42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="3">
-        <v>1181900</v>
-      </c>
-      <c r="G42" s="3" t="s">
+      <c r="F42" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1099200</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>8</v>
@@ -2662,11 +2752,11 @@
       <c r="I42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K42" s="3">
         <v>1409100</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>8</v>
@@ -2674,11 +2764,11 @@
       <c r="M42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O42" s="3">
         <v>1131400</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>8</v>
@@ -2686,11 +2776,11 @@
       <c r="Q42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S42" s="3">
         <v>1073300</v>
-      </c>
-      <c r="S42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>8</v>
@@ -2698,469 +2788,493 @@
       <c r="U42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V42" s="3">
+      <c r="V42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W42" s="3">
         <v>741000</v>
       </c>
-      <c r="W42" s="3" t="s">
+      <c r="X42" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>80100</v>
+        <v>76600</v>
       </c>
       <c r="E43" s="3">
-        <v>72700</v>
+        <v>74500</v>
       </c>
       <c r="F43" s="3">
-        <v>71000</v>
+        <v>67600</v>
       </c>
       <c r="G43" s="3">
-        <v>77800</v>
+        <v>66000</v>
       </c>
       <c r="H43" s="3">
-        <v>84900</v>
+        <v>72300</v>
       </c>
       <c r="I43" s="3">
-        <v>81200</v>
+        <v>78900</v>
       </c>
       <c r="J43" s="3">
+        <v>75500</v>
+      </c>
+      <c r="K43" s="3">
         <v>83300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>79900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>70100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>66000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>68900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>76600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>81300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>100000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>128300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>107700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>110400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>105300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>104500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>85200</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="E44" s="3">
-        <v>7000</v>
+        <v>6700</v>
       </c>
       <c r="F44" s="3">
-        <v>6800</v>
+        <v>6500</v>
       </c>
       <c r="G44" s="3">
-        <v>6600</v>
+        <v>6300</v>
       </c>
       <c r="H44" s="3">
-        <v>6300</v>
+        <v>6100</v>
       </c>
       <c r="I44" s="3">
-        <v>6100</v>
+        <v>5900</v>
       </c>
       <c r="J44" s="3">
+        <v>5700</v>
+      </c>
+      <c r="K44" s="3">
         <v>7300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5900</v>
-      </c>
-      <c r="P44" s="3">
-        <v>5400</v>
       </c>
       <c r="Q44" s="3">
         <v>5400</v>
       </c>
       <c r="R44" s="3">
+        <v>5400</v>
+      </c>
+      <c r="S44" s="3">
         <v>5300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>5300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>8400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>24800</v>
+        <v>23500</v>
       </c>
       <c r="E45" s="3">
-        <v>20600</v>
+        <v>23100</v>
       </c>
       <c r="F45" s="3">
-        <v>11700</v>
+        <v>19200</v>
       </c>
       <c r="G45" s="3">
-        <v>13200</v>
+        <v>10800</v>
       </c>
       <c r="H45" s="3">
-        <v>43900</v>
+        <v>12200</v>
       </c>
       <c r="I45" s="3">
-        <v>41700</v>
+        <v>40900</v>
       </c>
       <c r="J45" s="3">
+        <v>38800</v>
+      </c>
+      <c r="K45" s="3">
         <v>22700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>38700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>13400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>9900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>27200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>34300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>68800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>25900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>59700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>55400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>50200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>73000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>50700</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1495100</v>
+        <v>1397500</v>
       </c>
       <c r="E46" s="3">
-        <v>1474900</v>
+        <v>1390600</v>
       </c>
       <c r="F46" s="3">
-        <v>1327500</v>
+        <v>1371700</v>
       </c>
       <c r="G46" s="3">
-        <v>1573500</v>
+        <v>1234600</v>
       </c>
       <c r="H46" s="3">
-        <v>1585600</v>
+        <v>1463500</v>
       </c>
       <c r="I46" s="3">
-        <v>1615500</v>
+        <v>1474700</v>
       </c>
       <c r="J46" s="3">
+        <v>1502500</v>
+      </c>
+      <c r="K46" s="3">
         <v>1548600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1554200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1595400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1348100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1221300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1201100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1338500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1317800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1256400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1021900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1001900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>919000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>940700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>792800</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>96300</v>
+        <v>93000</v>
       </c>
       <c r="E47" s="3">
-        <v>96600</v>
+        <v>89600</v>
       </c>
       <c r="F47" s="3">
-        <v>180500</v>
+        <v>89800</v>
       </c>
       <c r="G47" s="3">
-        <v>155000</v>
+        <v>167900</v>
       </c>
       <c r="H47" s="3">
-        <v>146100</v>
+        <v>144200</v>
       </c>
       <c r="I47" s="3">
+        <v>135900</v>
+      </c>
+      <c r="J47" s="3">
+        <v>133300</v>
+      </c>
+      <c r="K47" s="3">
+        <v>95000</v>
+      </c>
+      <c r="L47" s="3">
+        <v>131200</v>
+      </c>
+      <c r="M47" s="3">
+        <v>179200</v>
+      </c>
+      <c r="N47" s="3">
+        <v>180300</v>
+      </c>
+      <c r="O47" s="3">
+        <v>172400</v>
+      </c>
+      <c r="P47" s="3">
         <v>143300</v>
       </c>
-      <c r="J47" s="3">
-        <v>95000</v>
-      </c>
-      <c r="K47" s="3">
-        <v>131200</v>
-      </c>
-      <c r="L47" s="3">
-        <v>179200</v>
-      </c>
-      <c r="M47" s="3">
-        <v>180300</v>
-      </c>
-      <c r="N47" s="3">
-        <v>172400</v>
-      </c>
-      <c r="O47" s="3">
-        <v>143300</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>162200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>217500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>218000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>208300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>201500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>196000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>205700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>197500</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>69900</v>
+        <v>64500</v>
       </c>
       <c r="E48" s="3">
-        <v>70500</v>
+        <v>65000</v>
       </c>
       <c r="F48" s="3">
-        <v>55700</v>
+        <v>65500</v>
       </c>
       <c r="G48" s="3">
-        <v>49500</v>
+        <v>51800</v>
       </c>
       <c r="H48" s="3">
-        <v>49400</v>
+        <v>46000</v>
       </c>
       <c r="I48" s="3">
+        <v>45900</v>
+      </c>
+      <c r="J48" s="3">
+        <v>47000</v>
+      </c>
+      <c r="K48" s="3">
+        <v>57400</v>
+      </c>
+      <c r="L48" s="3">
+        <v>52300</v>
+      </c>
+      <c r="M48" s="3">
+        <v>50100</v>
+      </c>
+      <c r="N48" s="3">
+        <v>51000</v>
+      </c>
+      <c r="O48" s="3">
+        <v>47800</v>
+      </c>
+      <c r="P48" s="3">
+        <v>47500</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>56200</v>
+      </c>
+      <c r="R48" s="3">
+        <v>50100</v>
+      </c>
+      <c r="S48" s="3">
+        <v>54700</v>
+      </c>
+      <c r="T48" s="3">
+        <v>49300</v>
+      </c>
+      <c r="U48" s="3">
+        <v>49900</v>
+      </c>
+      <c r="V48" s="3">
         <v>50500</v>
       </c>
-      <c r="J48" s="3">
-        <v>57400</v>
-      </c>
-      <c r="K48" s="3">
-        <v>52300</v>
-      </c>
-      <c r="L48" s="3">
-        <v>50100</v>
-      </c>
-      <c r="M48" s="3">
-        <v>51000</v>
-      </c>
-      <c r="N48" s="3">
-        <v>47800</v>
-      </c>
-      <c r="O48" s="3">
-        <v>47500</v>
-      </c>
-      <c r="P48" s="3">
-        <v>56200</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>50100</v>
-      </c>
-      <c r="R48" s="3">
-        <v>54700</v>
-      </c>
-      <c r="S48" s="3">
-        <v>49300</v>
-      </c>
-      <c r="T48" s="3">
-        <v>49900</v>
-      </c>
-      <c r="U48" s="3">
-        <v>50500</v>
-      </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>112400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>49000</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2008800</v>
+        <v>1878600</v>
       </c>
       <c r="E49" s="3">
-        <v>2001500</v>
+        <v>1868300</v>
       </c>
       <c r="F49" s="3">
-        <v>1991100</v>
+        <v>1861600</v>
       </c>
       <c r="G49" s="3">
-        <v>1800800</v>
+        <v>1851900</v>
       </c>
       <c r="H49" s="3">
-        <v>1788500</v>
+        <v>1674900</v>
       </c>
       <c r="I49" s="3">
-        <v>1781600</v>
+        <v>1663400</v>
       </c>
       <c r="J49" s="3">
+        <v>1657000</v>
+      </c>
+      <c r="K49" s="3">
         <v>1962700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1768100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1084600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1057300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>971800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>924600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1071500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1049100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>981900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>957200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>923200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>882000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>882800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>872700</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>134000</v>
+        <v>117900</v>
       </c>
       <c r="E52" s="3">
-        <v>132200</v>
+        <v>124600</v>
       </c>
       <c r="F52" s="3">
-        <v>167800</v>
+        <v>123000</v>
       </c>
       <c r="G52" s="3">
-        <v>137900</v>
+        <v>156100</v>
       </c>
       <c r="H52" s="3">
-        <v>125000</v>
+        <v>128300</v>
       </c>
       <c r="I52" s="3">
-        <v>105800</v>
+        <v>116300</v>
       </c>
       <c r="J52" s="3">
+        <v>98400</v>
+      </c>
+      <c r="K52" s="3">
         <v>114900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>99400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>48300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>69800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>87200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>79600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>53300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>73100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>71500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>73900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>72900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>69100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>91600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3804100</v>
+        <v>3551400</v>
       </c>
       <c r="E54" s="3">
-        <v>3775700</v>
+        <v>3538100</v>
       </c>
       <c r="F54" s="3">
-        <v>3722600</v>
+        <v>3511600</v>
       </c>
       <c r="G54" s="3">
-        <v>3716700</v>
+        <v>3462200</v>
       </c>
       <c r="H54" s="3">
-        <v>3694600</v>
+        <v>3456800</v>
       </c>
       <c r="I54" s="3">
-        <v>3696600</v>
+        <v>3436200</v>
       </c>
       <c r="J54" s="3">
+        <v>3438000</v>
+      </c>
+      <c r="K54" s="3">
         <v>3778600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3605100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2957500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2706400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2500500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2396100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2681700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2707500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2582400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2310700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2249300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2116700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2170400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1960500</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,371 +3664,387 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>30400</v>
+        <v>25700</v>
       </c>
       <c r="E57" s="3">
-        <v>30700</v>
+        <v>28300</v>
       </c>
       <c r="F57" s="3">
-        <v>31800</v>
+        <v>28600</v>
       </c>
       <c r="G57" s="3">
-        <v>29100</v>
+        <v>29600</v>
       </c>
       <c r="H57" s="3">
-        <v>26800</v>
+        <v>27100</v>
       </c>
       <c r="I57" s="3">
-        <v>28200</v>
+        <v>24900</v>
       </c>
       <c r="J57" s="3">
+        <v>26200</v>
+      </c>
+      <c r="K57" s="3">
         <v>30500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>17700</v>
-      </c>
-      <c r="L57" s="3">
-        <v>12500</v>
       </c>
       <c r="M57" s="3">
         <v>12500</v>
       </c>
       <c r="N57" s="3">
+        <v>12500</v>
+      </c>
+      <c r="O57" s="3">
         <v>10800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>11700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>12000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>11100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>12300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>12100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>13400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>8700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>13800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>35000</v>
+        <v>35400</v>
       </c>
       <c r="E58" s="3">
-        <v>33600</v>
+        <v>32500</v>
       </c>
       <c r="F58" s="3">
-        <v>32000</v>
+        <v>31200</v>
       </c>
       <c r="G58" s="3">
-        <v>26500</v>
+        <v>29800</v>
       </c>
       <c r="H58" s="3">
-        <v>23700</v>
+        <v>24600</v>
       </c>
       <c r="I58" s="3">
-        <v>11300</v>
+        <v>22100</v>
       </c>
       <c r="J58" s="3">
+        <v>10500</v>
+      </c>
+      <c r="K58" s="3">
         <v>11200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>10100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>9600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>15500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>14600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>10600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>10700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>34600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>36700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>35700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>34900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>34000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>31100</v>
       </c>
-      <c r="W58" s="3" t="s">
+      <c r="X58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>217600</v>
+        <v>174900</v>
       </c>
       <c r="E59" s="3">
-        <v>122300</v>
+        <v>202400</v>
       </c>
       <c r="F59" s="3">
-        <v>113600</v>
+        <v>113800</v>
       </c>
       <c r="G59" s="3">
-        <v>219800</v>
+        <v>105700</v>
       </c>
       <c r="H59" s="3">
-        <v>224200</v>
+        <v>204400</v>
       </c>
       <c r="I59" s="3">
-        <v>148700</v>
+        <v>208500</v>
       </c>
       <c r="J59" s="3">
+        <v>138300</v>
+      </c>
+      <c r="K59" s="3">
         <v>264400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>156900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>103300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>106300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>204100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>203000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>237000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>101000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>107600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>117100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>110200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>138900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>144900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>155200</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>282900</v>
+        <v>236000</v>
       </c>
       <c r="E60" s="3">
-        <v>186600</v>
+        <v>263200</v>
       </c>
       <c r="F60" s="3">
-        <v>177400</v>
+        <v>173500</v>
       </c>
       <c r="G60" s="3">
-        <v>275400</v>
+        <v>165000</v>
       </c>
       <c r="H60" s="3">
-        <v>274700</v>
+        <v>256100</v>
       </c>
       <c r="I60" s="3">
-        <v>188200</v>
+        <v>255500</v>
       </c>
       <c r="J60" s="3">
+        <v>175100</v>
+      </c>
+      <c r="K60" s="3">
         <v>306100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>184700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>125400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>134300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>229400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>225300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>259700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>146700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>156500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>164900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>158500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>181600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>147500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>163900</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>772700</v>
+        <v>712700</v>
       </c>
       <c r="E61" s="3">
-        <v>783200</v>
+        <v>718700</v>
       </c>
       <c r="F61" s="3">
-        <v>785200</v>
+        <v>728500</v>
       </c>
       <c r="G61" s="3">
-        <v>798000</v>
+        <v>730300</v>
       </c>
       <c r="H61" s="3">
-        <v>798800</v>
+        <v>742200</v>
       </c>
       <c r="I61" s="3">
-        <v>819200</v>
+        <v>742900</v>
       </c>
       <c r="J61" s="3">
+        <v>761900</v>
+      </c>
+      <c r="K61" s="3">
         <v>852200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>810500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>468400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>264300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>249400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>265000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>220700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>232800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>222600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>230900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>229300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>240500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>243500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>372600</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>101600</v>
+        <v>94300</v>
       </c>
       <c r="E62" s="3">
-        <v>105100</v>
+        <v>94500</v>
       </c>
       <c r="F62" s="3">
-        <v>126100</v>
+        <v>97700</v>
       </c>
       <c r="G62" s="3">
-        <v>49100</v>
+        <v>117300</v>
       </c>
       <c r="H62" s="3">
-        <v>49100</v>
+        <v>45700</v>
       </c>
       <c r="I62" s="3">
-        <v>49200</v>
+        <v>45700</v>
       </c>
       <c r="J62" s="3">
+        <v>45700</v>
+      </c>
+      <c r="K62" s="3">
         <v>116400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>60200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>15200</v>
-      </c>
-      <c r="O62" s="3">
-        <v>500</v>
       </c>
       <c r="P62" s="3">
         <v>500</v>
@@ -3907,10 +4053,10 @@
         <v>500</v>
       </c>
       <c r="R62" s="3">
+        <v>500</v>
+      </c>
+      <c r="S62" s="3">
         <v>10500</v>
-      </c>
-      <c r="S62" s="3">
-        <v>400</v>
       </c>
       <c r="T62" s="3">
         <v>400</v>
@@ -3919,13 +4065,16 @@
         <v>400</v>
       </c>
       <c r="V62" s="3">
+        <v>400</v>
+      </c>
+      <c r="W62" s="3">
         <v>25600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1521000</v>
+        <v>1384800</v>
       </c>
       <c r="E66" s="3">
-        <v>1437900</v>
+        <v>1414600</v>
       </c>
       <c r="F66" s="3">
-        <v>1452500</v>
+        <v>1337400</v>
       </c>
       <c r="G66" s="3">
-        <v>1454000</v>
+        <v>1350900</v>
       </c>
       <c r="H66" s="3">
-        <v>1458700</v>
+        <v>1352300</v>
       </c>
       <c r="I66" s="3">
-        <v>1385500</v>
+        <v>1356700</v>
       </c>
       <c r="J66" s="3">
+        <v>1288600</v>
+      </c>
+      <c r="K66" s="3">
         <v>1628100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1378700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>917100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>717700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>680000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>688600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>706300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>595900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>588700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>537600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>535600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>514500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>525900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>549600</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>938700</v>
+        <v>947700</v>
       </c>
       <c r="E72" s="3">
-        <v>993100</v>
+        <v>873000</v>
       </c>
       <c r="F72" s="3">
-        <v>1380500</v>
+        <v>923700</v>
       </c>
       <c r="G72" s="3">
-        <v>913300</v>
+        <v>1284000</v>
       </c>
       <c r="H72" s="3">
-        <v>587000</v>
+        <v>849500</v>
       </c>
       <c r="I72" s="3">
-        <v>658800</v>
+        <v>546000</v>
       </c>
       <c r="J72" s="3">
+        <v>612700</v>
+      </c>
+      <c r="K72" s="3">
         <v>945700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>553400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>469500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>706700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>973600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>532500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>568900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>959800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1278000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>812600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>750900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>748900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1724800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>712100</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2283100</v>
+        <v>2166600</v>
       </c>
       <c r="E76" s="3">
-        <v>2337700</v>
+        <v>2123500</v>
       </c>
       <c r="F76" s="3">
-        <v>2270000</v>
+        <v>2174300</v>
       </c>
       <c r="G76" s="3">
-        <v>2262700</v>
+        <v>2111300</v>
       </c>
       <c r="H76" s="3">
-        <v>2235900</v>
+        <v>2104500</v>
       </c>
       <c r="I76" s="3">
-        <v>2311100</v>
+        <v>2079500</v>
       </c>
       <c r="J76" s="3">
+        <v>2149500</v>
+      </c>
+      <c r="K76" s="3">
         <v>2150500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2226400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2040400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1988700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1820600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1707600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1975500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2111600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1993700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1773000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1713800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1602200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1644500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1410900</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>44800</v>
+        <v>74700</v>
       </c>
       <c r="E81" s="3">
-        <v>66300</v>
+        <v>41700</v>
       </c>
       <c r="F81" s="3">
-        <v>13400</v>
+        <v>61700</v>
       </c>
       <c r="G81" s="3">
-        <v>28600</v>
+        <v>12500</v>
       </c>
       <c r="H81" s="3">
-        <v>25500</v>
+        <v>26600</v>
       </c>
       <c r="I81" s="3">
-        <v>64500</v>
+        <v>23700</v>
       </c>
       <c r="J81" s="3">
+        <v>60000</v>
+      </c>
+      <c r="K81" s="3">
         <v>49500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>66000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>51300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>57600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>72500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>54800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>82300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>47000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>68100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>61600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>53800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>42900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>55200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>12800</v>
+        <v>11700</v>
       </c>
       <c r="E83" s="3">
-        <v>11100</v>
+        <v>11900</v>
       </c>
       <c r="F83" s="3">
-        <v>16800</v>
+        <v>10300</v>
       </c>
       <c r="G83" s="3">
-        <v>9600</v>
+        <v>15700</v>
       </c>
       <c r="H83" s="3">
-        <v>7700</v>
+        <v>8900</v>
       </c>
       <c r="I83" s="3">
-        <v>8700</v>
+        <v>7200</v>
       </c>
       <c r="J83" s="3">
+        <v>8100</v>
+      </c>
+      <c r="K83" s="3">
         <v>12500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>11200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>5300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>5100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>5000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>6000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>5600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>6000</v>
-      </c>
-      <c r="S83" s="3">
-        <v>5400</v>
       </c>
       <c r="T83" s="3">
         <v>5400</v>
       </c>
       <c r="U83" s="3">
+        <v>5400</v>
+      </c>
+      <c r="V83" s="3">
         <v>5100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>5600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>68800</v>
+        <v>77300</v>
       </c>
       <c r="E89" s="3">
-        <v>67600</v>
+        <v>64000</v>
       </c>
       <c r="F89" s="3">
-        <v>40300</v>
+        <v>62900</v>
       </c>
       <c r="G89" s="3">
-        <v>14800</v>
+        <v>37500</v>
       </c>
       <c r="H89" s="3">
-        <v>81400</v>
+        <v>13700</v>
       </c>
       <c r="I89" s="3">
-        <v>67300</v>
+        <v>75700</v>
       </c>
       <c r="J89" s="3">
+        <v>62600</v>
+      </c>
+      <c r="K89" s="3">
         <v>307600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>92200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-59500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-37500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>53000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>118600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>210000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-7100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>94700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>68100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>26300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>87900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>200000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>46700</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>-1000</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91" s="3">
         <v>-800</v>
       </c>
-      <c r="G91" s="3">
-        <v>-1500</v>
-      </c>
       <c r="H91" s="3">
-        <v>1900</v>
+        <v>-1400</v>
       </c>
       <c r="I91" s="3">
-        <v>-2800</v>
+        <v>1800</v>
       </c>
       <c r="J91" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>3600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-126600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>72700</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-25200</v>
+        <v>36200</v>
       </c>
       <c r="E94" s="3">
-        <v>23000</v>
+        <v>-23500</v>
       </c>
       <c r="F94" s="3">
-        <v>188800</v>
+        <v>21300</v>
       </c>
       <c r="G94" s="3">
-        <v>-66100</v>
+        <v>175600</v>
       </c>
       <c r="H94" s="3">
-        <v>37200</v>
+        <v>-61500</v>
       </c>
       <c r="I94" s="3">
+        <v>34600</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>478200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-447600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-113200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>28300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-97000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-195900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>39700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>13100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-499200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-62000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>165700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-52400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-240900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-31200</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,22 +6017,23 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-46200</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -5820,11 +6054,11 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>91200</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-33400</v>
+        <v>-88200</v>
       </c>
       <c r="E100" s="3">
-        <v>-8100</v>
+        <v>-31000</v>
       </c>
       <c r="F100" s="3">
-        <v>-156300</v>
+        <v>-7500</v>
       </c>
       <c r="G100" s="3">
-        <v>5000</v>
+        <v>-145300</v>
       </c>
       <c r="H100" s="3">
-        <v>-125700</v>
+        <v>4600</v>
       </c>
       <c r="I100" s="3">
-        <v>11100</v>
+        <v>-116900</v>
       </c>
       <c r="J100" s="3">
+        <v>10300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-366600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>354200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>195100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>23200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>73400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-238700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>410700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-174500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-38500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>55000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1700</v>
+        <v>-21200</v>
       </c>
       <c r="E101" s="3">
-        <v>-30300</v>
+        <v>-1600</v>
       </c>
       <c r="F101" s="3">
-        <v>-86200</v>
+        <v>-28200</v>
       </c>
       <c r="G101" s="3">
-        <v>71900</v>
+        <v>-80200</v>
       </c>
       <c r="H101" s="3">
-        <v>-171900</v>
+        <v>66900</v>
       </c>
       <c r="I101" s="3">
-        <v>120600</v>
+        <v>-159900</v>
       </c>
       <c r="J101" s="3">
+        <v>112200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-175400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-133700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>217000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>60800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-121200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>73100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>62800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>281000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>14000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>54800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-140600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>8400</v>
+        <v>4100</v>
       </c>
       <c r="E102" s="3">
-        <v>52100</v>
+        <v>7800</v>
       </c>
       <c r="F102" s="3">
-        <v>-13400</v>
+        <v>48500</v>
       </c>
       <c r="G102" s="3">
-        <v>25600</v>
+        <v>-12400</v>
       </c>
       <c r="H102" s="3">
-        <v>-46500</v>
+        <v>23800</v>
       </c>
       <c r="I102" s="3">
-        <v>66400</v>
+        <v>-43300</v>
       </c>
       <c r="J102" s="3">
+        <v>61800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-153500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-134900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>239400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>52800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-146000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>69300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>73800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>251500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>18500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>72300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-126500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>42000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PUODY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PUODY_QTR_FIN.xlsx
@@ -767,25 +767,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>147200</v>
+        <v>152600</v>
       </c>
       <c r="E8" s="3">
-        <v>139600</v>
+        <v>144700</v>
       </c>
       <c r="F8" s="3">
-        <v>126100</v>
+        <v>130800</v>
       </c>
       <c r="G8" s="3">
-        <v>149100</v>
+        <v>154600</v>
       </c>
       <c r="H8" s="3">
-        <v>111800</v>
+        <v>115900</v>
       </c>
       <c r="I8" s="3">
-        <v>81000</v>
+        <v>84000</v>
       </c>
       <c r="J8" s="3">
-        <v>119100</v>
+        <v>123500</v>
       </c>
       <c r="K8" s="3">
         <v>188000</v>
@@ -835,25 +835,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>61500</v>
+        <v>63700</v>
       </c>
       <c r="E9" s="3">
-        <v>56800</v>
+        <v>58900</v>
       </c>
       <c r="F9" s="3">
-        <v>54200</v>
+        <v>56200</v>
       </c>
       <c r="G9" s="3">
-        <v>76400</v>
+        <v>79300</v>
       </c>
       <c r="H9" s="3">
-        <v>53900</v>
+        <v>55900</v>
       </c>
       <c r="I9" s="3">
-        <v>44100</v>
+        <v>45700</v>
       </c>
       <c r="J9" s="3">
-        <v>49000</v>
+        <v>50800</v>
       </c>
       <c r="K9" s="3">
         <v>103400</v>
@@ -903,25 +903,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>85700</v>
+        <v>88900</v>
       </c>
       <c r="E10" s="3">
-        <v>82800</v>
+        <v>85800</v>
       </c>
       <c r="F10" s="3">
-        <v>72000</v>
+        <v>74600</v>
       </c>
       <c r="G10" s="3">
-        <v>72600</v>
+        <v>75300</v>
       </c>
       <c r="H10" s="3">
-        <v>57900</v>
+        <v>60000</v>
       </c>
       <c r="I10" s="3">
-        <v>36900</v>
+        <v>38300</v>
       </c>
       <c r="J10" s="3">
-        <v>70100</v>
+        <v>72700</v>
       </c>
       <c r="K10" s="3">
         <v>84600</v>
@@ -1292,25 +1292,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>61900</v>
+        <v>64200</v>
       </c>
       <c r="E17" s="3">
-        <v>55600</v>
+        <v>57600</v>
       </c>
       <c r="F17" s="3">
-        <v>54700</v>
+        <v>56700</v>
       </c>
       <c r="G17" s="3">
-        <v>76700</v>
+        <v>79600</v>
       </c>
       <c r="H17" s="3">
-        <v>56600</v>
+        <v>58700</v>
       </c>
       <c r="I17" s="3">
-        <v>43900</v>
+        <v>45500</v>
       </c>
       <c r="J17" s="3">
-        <v>48400</v>
+        <v>50200</v>
       </c>
       <c r="K17" s="3">
         <v>104300</v>
@@ -1360,25 +1360,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>85300</v>
+        <v>88400</v>
       </c>
       <c r="E18" s="3">
-        <v>84000</v>
+        <v>87100</v>
       </c>
       <c r="F18" s="3">
-        <v>71400</v>
+        <v>74100</v>
       </c>
       <c r="G18" s="3">
-        <v>72300</v>
+        <v>75000</v>
       </c>
       <c r="H18" s="3">
-        <v>55200</v>
+        <v>57200</v>
       </c>
       <c r="I18" s="3">
-        <v>37200</v>
+        <v>38500</v>
       </c>
       <c r="J18" s="3">
-        <v>70600</v>
+        <v>73200</v>
       </c>
       <c r="K18" s="3">
         <v>83700</v>
@@ -1454,25 +1454,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>35200</v>
+        <v>36500</v>
       </c>
       <c r="E20" s="3">
-        <v>-5000</v>
+        <v>-5200</v>
       </c>
       <c r="F20" s="3">
-        <v>28600</v>
+        <v>29700</v>
       </c>
       <c r="G20" s="3">
-        <v>-59200</v>
+        <v>-61400</v>
       </c>
       <c r="H20" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="I20" s="3">
-        <v>8300</v>
+        <v>8600</v>
       </c>
       <c r="J20" s="3">
-        <v>35100</v>
+        <v>36400</v>
       </c>
       <c r="K20" s="3">
         <v>11800</v>
@@ -1522,25 +1522,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>132200</v>
+        <v>137100</v>
       </c>
       <c r="E21" s="3">
-        <v>91000</v>
+        <v>94300</v>
       </c>
       <c r="F21" s="3">
-        <v>110300</v>
+        <v>114400</v>
       </c>
       <c r="G21" s="3">
-        <v>28800</v>
+        <v>29900</v>
       </c>
       <c r="H21" s="3">
-        <v>66600</v>
+        <v>69100</v>
       </c>
       <c r="I21" s="3">
-        <v>52600</v>
+        <v>54600</v>
       </c>
       <c r="J21" s="3">
-        <v>113900</v>
+        <v>118100</v>
       </c>
       <c r="K21" s="3">
         <v>108000</v>
@@ -1590,25 +1590,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>14900</v>
+        <v>15500</v>
       </c>
       <c r="E22" s="3">
-        <v>14800</v>
+        <v>15300</v>
       </c>
       <c r="F22" s="3">
-        <v>14600</v>
+        <v>15200</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H22" s="3">
-        <v>9200</v>
+        <v>9600</v>
       </c>
       <c r="I22" s="3">
-        <v>9200</v>
+        <v>9500</v>
       </c>
       <c r="J22" s="3">
-        <v>11400</v>
+        <v>11900</v>
       </c>
       <c r="K22" s="3">
         <v>21200</v>
@@ -1658,25 +1658,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>105600</v>
+        <v>109500</v>
       </c>
       <c r="E23" s="3">
-        <v>64200</v>
+        <v>66600</v>
       </c>
       <c r="F23" s="3">
-        <v>85400</v>
+        <v>88500</v>
       </c>
       <c r="G23" s="3">
-        <v>13100</v>
+        <v>13600</v>
       </c>
       <c r="H23" s="3">
-        <v>48500</v>
+        <v>50300</v>
       </c>
       <c r="I23" s="3">
-        <v>36300</v>
+        <v>37600</v>
       </c>
       <c r="J23" s="3">
-        <v>94300</v>
+        <v>97800</v>
       </c>
       <c r="K23" s="3">
         <v>74300</v>
@@ -1726,25 +1726,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>20800</v>
+        <v>21500</v>
       </c>
       <c r="E24" s="3">
-        <v>13900</v>
+        <v>14400</v>
       </c>
       <c r="F24" s="3">
-        <v>17700</v>
+        <v>18300</v>
       </c>
       <c r="G24" s="3">
-        <v>-10100</v>
+        <v>-10500</v>
       </c>
       <c r="H24" s="3">
-        <v>14100</v>
+        <v>14600</v>
       </c>
       <c r="I24" s="3">
-        <v>6300</v>
+        <v>6600</v>
       </c>
       <c r="J24" s="3">
-        <v>25000</v>
+        <v>25900</v>
       </c>
       <c r="K24" s="3">
         <v>17300</v>
@@ -1862,25 +1862,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>84800</v>
+        <v>87900</v>
       </c>
       <c r="E26" s="3">
-        <v>50400</v>
+        <v>52200</v>
       </c>
       <c r="F26" s="3">
-        <v>67700</v>
+        <v>70200</v>
       </c>
       <c r="G26" s="3">
-        <v>23300</v>
+        <v>24100</v>
       </c>
       <c r="H26" s="3">
-        <v>34400</v>
+        <v>35600</v>
       </c>
       <c r="I26" s="3">
-        <v>30000</v>
+        <v>31100</v>
       </c>
       <c r="J26" s="3">
-        <v>69400</v>
+        <v>71900</v>
       </c>
       <c r="K26" s="3">
         <v>56900</v>
@@ -1930,25 +1930,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>74700</v>
+        <v>77400</v>
       </c>
       <c r="E27" s="3">
-        <v>41700</v>
+        <v>43200</v>
       </c>
       <c r="F27" s="3">
-        <v>61700</v>
+        <v>64000</v>
       </c>
       <c r="G27" s="3">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="H27" s="3">
-        <v>26600</v>
+        <v>27600</v>
       </c>
       <c r="I27" s="3">
-        <v>23700</v>
+        <v>24600</v>
       </c>
       <c r="J27" s="3">
-        <v>60000</v>
+        <v>62200</v>
       </c>
       <c r="K27" s="3">
         <v>49500</v>
@@ -2270,25 +2270,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-35200</v>
+        <v>-36500</v>
       </c>
       <c r="E32" s="3">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="F32" s="3">
-        <v>-28600</v>
+        <v>-29700</v>
       </c>
       <c r="G32" s="3">
-        <v>59200</v>
+        <v>61400</v>
       </c>
       <c r="H32" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="I32" s="3">
-        <v>-8300</v>
+        <v>-8600</v>
       </c>
       <c r="J32" s="3">
-        <v>-35100</v>
+        <v>-36400</v>
       </c>
       <c r="K32" s="3">
         <v>-11800</v>
@@ -2338,25 +2338,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>74700</v>
+        <v>77400</v>
       </c>
       <c r="E33" s="3">
-        <v>41700</v>
+        <v>43200</v>
       </c>
       <c r="F33" s="3">
-        <v>61700</v>
+        <v>64000</v>
       </c>
       <c r="G33" s="3">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="H33" s="3">
-        <v>26600</v>
+        <v>27600</v>
       </c>
       <c r="I33" s="3">
-        <v>23700</v>
+        <v>24600</v>
       </c>
       <c r="J33" s="3">
-        <v>60000</v>
+        <v>62200</v>
       </c>
       <c r="K33" s="3">
         <v>49500</v>
@@ -2474,25 +2474,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>74700</v>
+        <v>77400</v>
       </c>
       <c r="E35" s="3">
-        <v>41700</v>
+        <v>43200</v>
       </c>
       <c r="F35" s="3">
-        <v>61700</v>
+        <v>64000</v>
       </c>
       <c r="G35" s="3">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="H35" s="3">
-        <v>26600</v>
+        <v>27600</v>
       </c>
       <c r="I35" s="3">
-        <v>23700</v>
+        <v>24600</v>
       </c>
       <c r="J35" s="3">
-        <v>60000</v>
+        <v>62200</v>
       </c>
       <c r="K35" s="3">
         <v>49500</v>
@@ -2667,25 +2667,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1290400</v>
+        <v>1337900</v>
       </c>
       <c r="E41" s="3">
-        <v>1286300</v>
+        <v>1333700</v>
       </c>
       <c r="F41" s="3">
-        <v>1278500</v>
+        <v>1325600</v>
       </c>
       <c r="G41" s="3">
-        <v>52300</v>
+        <v>54200</v>
       </c>
       <c r="H41" s="3">
-        <v>1372800</v>
+        <v>1423400</v>
       </c>
       <c r="I41" s="3">
-        <v>1349000</v>
+        <v>1398700</v>
       </c>
       <c r="J41" s="3">
-        <v>1382500</v>
+        <v>1433500</v>
       </c>
       <c r="K41" s="3">
         <v>24100</v>
@@ -2744,7 +2744,7 @@
         <v>8</v>
       </c>
       <c r="G42" s="3">
-        <v>1099200</v>
+        <v>1139700</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>8</v>
@@ -2803,25 +2803,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>76600</v>
+        <v>79400</v>
       </c>
       <c r="E43" s="3">
-        <v>74500</v>
+        <v>77300</v>
       </c>
       <c r="F43" s="3">
-        <v>67600</v>
+        <v>70100</v>
       </c>
       <c r="G43" s="3">
-        <v>66000</v>
+        <v>68400</v>
       </c>
       <c r="H43" s="3">
-        <v>72300</v>
+        <v>75000</v>
       </c>
       <c r="I43" s="3">
-        <v>78900</v>
+        <v>81800</v>
       </c>
       <c r="J43" s="3">
-        <v>75500</v>
+        <v>78300</v>
       </c>
       <c r="K43" s="3">
         <v>83300</v>
@@ -2871,25 +2871,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7100</v>
+        <v>7300</v>
       </c>
       <c r="E44" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F44" s="3">
         <v>6700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>6500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>6300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>6100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>5900</v>
-      </c>
-      <c r="J44" s="3">
-        <v>5700</v>
       </c>
       <c r="K44" s="3">
         <v>7300</v>
@@ -2939,25 +2939,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>23500</v>
+        <v>24300</v>
       </c>
       <c r="E45" s="3">
-        <v>23100</v>
+        <v>23900</v>
       </c>
       <c r="F45" s="3">
-        <v>19200</v>
+        <v>19900</v>
       </c>
       <c r="G45" s="3">
-        <v>10800</v>
+        <v>11200</v>
       </c>
       <c r="H45" s="3">
-        <v>12200</v>
+        <v>12700</v>
       </c>
       <c r="I45" s="3">
-        <v>40900</v>
+        <v>42400</v>
       </c>
       <c r="J45" s="3">
-        <v>38800</v>
+        <v>40200</v>
       </c>
       <c r="K45" s="3">
         <v>22700</v>
@@ -3007,25 +3007,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1397500</v>
+        <v>1448900</v>
       </c>
       <c r="E46" s="3">
-        <v>1390600</v>
+        <v>1441800</v>
       </c>
       <c r="F46" s="3">
-        <v>1371700</v>
+        <v>1422300</v>
       </c>
       <c r="G46" s="3">
-        <v>1234600</v>
+        <v>1280100</v>
       </c>
       <c r="H46" s="3">
-        <v>1463500</v>
+        <v>1517400</v>
       </c>
       <c r="I46" s="3">
-        <v>1474700</v>
+        <v>1529000</v>
       </c>
       <c r="J46" s="3">
-        <v>1502500</v>
+        <v>1557800</v>
       </c>
       <c r="K46" s="3">
         <v>1548600</v>
@@ -3075,25 +3075,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>93000</v>
+        <v>96400</v>
       </c>
       <c r="E47" s="3">
-        <v>89600</v>
+        <v>92900</v>
       </c>
       <c r="F47" s="3">
-        <v>89800</v>
+        <v>93100</v>
       </c>
       <c r="G47" s="3">
-        <v>167900</v>
+        <v>174000</v>
       </c>
       <c r="H47" s="3">
-        <v>144200</v>
+        <v>149500</v>
       </c>
       <c r="I47" s="3">
-        <v>135900</v>
+        <v>140900</v>
       </c>
       <c r="J47" s="3">
-        <v>133300</v>
+        <v>138200</v>
       </c>
       <c r="K47" s="3">
         <v>95000</v>
@@ -3143,25 +3143,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>64500</v>
+        <v>66800</v>
       </c>
       <c r="E48" s="3">
-        <v>65000</v>
+        <v>67400</v>
       </c>
       <c r="F48" s="3">
-        <v>65500</v>
+        <v>68000</v>
       </c>
       <c r="G48" s="3">
-        <v>51800</v>
+        <v>53700</v>
       </c>
       <c r="H48" s="3">
-        <v>46000</v>
+        <v>47700</v>
       </c>
       <c r="I48" s="3">
-        <v>45900</v>
+        <v>47600</v>
       </c>
       <c r="J48" s="3">
-        <v>47000</v>
+        <v>48700</v>
       </c>
       <c r="K48" s="3">
         <v>57400</v>
@@ -3211,25 +3211,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1878600</v>
+        <v>1947800</v>
       </c>
       <c r="E49" s="3">
-        <v>1868300</v>
+        <v>1937200</v>
       </c>
       <c r="F49" s="3">
-        <v>1861600</v>
+        <v>1930100</v>
       </c>
       <c r="G49" s="3">
-        <v>1851900</v>
+        <v>1920100</v>
       </c>
       <c r="H49" s="3">
-        <v>1674900</v>
+        <v>1736600</v>
       </c>
       <c r="I49" s="3">
-        <v>1663400</v>
+        <v>1724700</v>
       </c>
       <c r="J49" s="3">
-        <v>1657000</v>
+        <v>1718000</v>
       </c>
       <c r="K49" s="3">
         <v>1962700</v>
@@ -3415,25 +3415,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>117900</v>
+        <v>122300</v>
       </c>
       <c r="E52" s="3">
-        <v>124600</v>
+        <v>129200</v>
       </c>
       <c r="F52" s="3">
-        <v>123000</v>
+        <v>127500</v>
       </c>
       <c r="G52" s="3">
-        <v>156100</v>
+        <v>161800</v>
       </c>
       <c r="H52" s="3">
-        <v>128300</v>
+        <v>133000</v>
       </c>
       <c r="I52" s="3">
-        <v>116300</v>
+        <v>120600</v>
       </c>
       <c r="J52" s="3">
-        <v>98400</v>
+        <v>102000</v>
       </c>
       <c r="K52" s="3">
         <v>114900</v>
@@ -3551,25 +3551,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3551400</v>
+        <v>3682200</v>
       </c>
       <c r="E54" s="3">
-        <v>3538100</v>
+        <v>3668400</v>
       </c>
       <c r="F54" s="3">
-        <v>3511600</v>
+        <v>3641000</v>
       </c>
       <c r="G54" s="3">
-        <v>3462200</v>
+        <v>3589800</v>
       </c>
       <c r="H54" s="3">
-        <v>3456800</v>
+        <v>3584100</v>
       </c>
       <c r="I54" s="3">
-        <v>3436200</v>
+        <v>3562800</v>
       </c>
       <c r="J54" s="3">
-        <v>3438000</v>
+        <v>3564700</v>
       </c>
       <c r="K54" s="3">
         <v>3778600</v>
@@ -3671,25 +3671,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>25700</v>
+        <v>26700</v>
       </c>
       <c r="E57" s="3">
-        <v>28300</v>
+        <v>29300</v>
       </c>
       <c r="F57" s="3">
-        <v>28600</v>
+        <v>29600</v>
       </c>
       <c r="G57" s="3">
-        <v>29600</v>
+        <v>30700</v>
       </c>
       <c r="H57" s="3">
-        <v>27100</v>
+        <v>28100</v>
       </c>
       <c r="I57" s="3">
-        <v>24900</v>
+        <v>25800</v>
       </c>
       <c r="J57" s="3">
-        <v>26200</v>
+        <v>27200</v>
       </c>
       <c r="K57" s="3">
         <v>30500</v>
@@ -3739,25 +3739,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>35400</v>
+        <v>36700</v>
       </c>
       <c r="E58" s="3">
-        <v>32500</v>
+        <v>33700</v>
       </c>
       <c r="F58" s="3">
-        <v>31200</v>
+        <v>32400</v>
       </c>
       <c r="G58" s="3">
-        <v>29800</v>
+        <v>30800</v>
       </c>
       <c r="H58" s="3">
-        <v>24600</v>
+        <v>25600</v>
       </c>
       <c r="I58" s="3">
-        <v>22100</v>
+        <v>22900</v>
       </c>
       <c r="J58" s="3">
-        <v>10500</v>
+        <v>10900</v>
       </c>
       <c r="K58" s="3">
         <v>11200</v>
@@ -3807,25 +3807,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>174900</v>
+        <v>181300</v>
       </c>
       <c r="E59" s="3">
-        <v>202400</v>
+        <v>209800</v>
       </c>
       <c r="F59" s="3">
-        <v>113800</v>
+        <v>118000</v>
       </c>
       <c r="G59" s="3">
-        <v>105700</v>
+        <v>109600</v>
       </c>
       <c r="H59" s="3">
-        <v>204400</v>
+        <v>211900</v>
       </c>
       <c r="I59" s="3">
-        <v>208500</v>
+        <v>216200</v>
       </c>
       <c r="J59" s="3">
-        <v>138300</v>
+        <v>143400</v>
       </c>
       <c r="K59" s="3">
         <v>264400</v>
@@ -3875,25 +3875,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>236000</v>
+        <v>244700</v>
       </c>
       <c r="E60" s="3">
-        <v>263200</v>
+        <v>272900</v>
       </c>
       <c r="F60" s="3">
-        <v>173500</v>
+        <v>179900</v>
       </c>
       <c r="G60" s="3">
-        <v>165000</v>
+        <v>171100</v>
       </c>
       <c r="H60" s="3">
-        <v>256100</v>
+        <v>265500</v>
       </c>
       <c r="I60" s="3">
-        <v>255500</v>
+        <v>264900</v>
       </c>
       <c r="J60" s="3">
-        <v>175100</v>
+        <v>181500</v>
       </c>
       <c r="K60" s="3">
         <v>306100</v>
@@ -3943,25 +3943,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>712700</v>
+        <v>738900</v>
       </c>
       <c r="E61" s="3">
-        <v>718700</v>
+        <v>745100</v>
       </c>
       <c r="F61" s="3">
-        <v>728500</v>
+        <v>755300</v>
       </c>
       <c r="G61" s="3">
-        <v>730300</v>
+        <v>757200</v>
       </c>
       <c r="H61" s="3">
-        <v>742200</v>
+        <v>769500</v>
       </c>
       <c r="I61" s="3">
-        <v>742900</v>
+        <v>770300</v>
       </c>
       <c r="J61" s="3">
-        <v>761900</v>
+        <v>790000</v>
       </c>
       <c r="K61" s="3">
         <v>852200</v>
@@ -4011,25 +4011,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>94300</v>
+        <v>97700</v>
       </c>
       <c r="E62" s="3">
-        <v>94500</v>
+        <v>98000</v>
       </c>
       <c r="F62" s="3">
-        <v>97700</v>
+        <v>101300</v>
       </c>
       <c r="G62" s="3">
-        <v>117300</v>
+        <v>121600</v>
       </c>
       <c r="H62" s="3">
-        <v>45700</v>
+        <v>47400</v>
       </c>
       <c r="I62" s="3">
-        <v>45700</v>
+        <v>47400</v>
       </c>
       <c r="J62" s="3">
-        <v>45700</v>
+        <v>47400</v>
       </c>
       <c r="K62" s="3">
         <v>116400</v>
@@ -4283,25 +4283,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1384800</v>
+        <v>1435800</v>
       </c>
       <c r="E66" s="3">
-        <v>1414600</v>
+        <v>1466700</v>
       </c>
       <c r="F66" s="3">
-        <v>1337400</v>
+        <v>1386600</v>
       </c>
       <c r="G66" s="3">
-        <v>1350900</v>
+        <v>1400700</v>
       </c>
       <c r="H66" s="3">
-        <v>1352300</v>
+        <v>1402100</v>
       </c>
       <c r="I66" s="3">
-        <v>1356700</v>
+        <v>1406700</v>
       </c>
       <c r="J66" s="3">
-        <v>1288600</v>
+        <v>1336000</v>
       </c>
       <c r="K66" s="3">
         <v>1628100</v>
@@ -4649,25 +4649,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>947700</v>
+        <v>982600</v>
       </c>
       <c r="E72" s="3">
-        <v>873000</v>
+        <v>905200</v>
       </c>
       <c r="F72" s="3">
-        <v>923700</v>
+        <v>957700</v>
       </c>
       <c r="G72" s="3">
-        <v>1284000</v>
+        <v>1331300</v>
       </c>
       <c r="H72" s="3">
-        <v>849500</v>
+        <v>880800</v>
       </c>
       <c r="I72" s="3">
-        <v>546000</v>
+        <v>566100</v>
       </c>
       <c r="J72" s="3">
-        <v>612700</v>
+        <v>635300</v>
       </c>
       <c r="K72" s="3">
         <v>945700</v>
@@ -4921,25 +4921,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2166600</v>
+        <v>2246400</v>
       </c>
       <c r="E76" s="3">
-        <v>2123500</v>
+        <v>2201700</v>
       </c>
       <c r="F76" s="3">
-        <v>2174300</v>
+        <v>2254300</v>
       </c>
       <c r="G76" s="3">
-        <v>2111300</v>
+        <v>2189100</v>
       </c>
       <c r="H76" s="3">
-        <v>2104500</v>
+        <v>2182000</v>
       </c>
       <c r="I76" s="3">
-        <v>2079500</v>
+        <v>2156100</v>
       </c>
       <c r="J76" s="3">
-        <v>2149500</v>
+        <v>2228700</v>
       </c>
       <c r="K76" s="3">
         <v>2150500</v>
@@ -5130,25 +5130,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>74700</v>
+        <v>77400</v>
       </c>
       <c r="E81" s="3">
-        <v>41700</v>
+        <v>43200</v>
       </c>
       <c r="F81" s="3">
-        <v>61700</v>
+        <v>64000</v>
       </c>
       <c r="G81" s="3">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="H81" s="3">
-        <v>26600</v>
+        <v>27600</v>
       </c>
       <c r="I81" s="3">
-        <v>23700</v>
+        <v>24600</v>
       </c>
       <c r="J81" s="3">
-        <v>60000</v>
+        <v>62200</v>
       </c>
       <c r="K81" s="3">
         <v>49500</v>
@@ -5224,25 +5224,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>11700</v>
+        <v>12100</v>
       </c>
       <c r="E83" s="3">
-        <v>11900</v>
+        <v>12400</v>
       </c>
       <c r="F83" s="3">
-        <v>10300</v>
+        <v>10700</v>
       </c>
       <c r="G83" s="3">
-        <v>15700</v>
+        <v>16200</v>
       </c>
       <c r="H83" s="3">
-        <v>8900</v>
+        <v>9200</v>
       </c>
       <c r="I83" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="J83" s="3">
-        <v>8100</v>
+        <v>8400</v>
       </c>
       <c r="K83" s="3">
         <v>12500</v>
@@ -5632,25 +5632,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>77300</v>
+        <v>80100</v>
       </c>
       <c r="E89" s="3">
-        <v>64000</v>
+        <v>66300</v>
       </c>
       <c r="F89" s="3">
-        <v>62900</v>
+        <v>65200</v>
       </c>
       <c r="G89" s="3">
-        <v>37500</v>
+        <v>38900</v>
       </c>
       <c r="H89" s="3">
-        <v>13700</v>
+        <v>14200</v>
       </c>
       <c r="I89" s="3">
-        <v>75700</v>
+        <v>78500</v>
       </c>
       <c r="J89" s="3">
-        <v>62600</v>
+        <v>64900</v>
       </c>
       <c r="K89" s="3">
         <v>307600</v>
@@ -5744,7 +5744,7 @@
         <v>1800</v>
       </c>
       <c r="J91" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="K91" s="3">
         <v>-3100</v>
@@ -5930,22 +5930,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>36200</v>
+        <v>37500</v>
       </c>
       <c r="E94" s="3">
-        <v>-23500</v>
+        <v>-24300</v>
       </c>
       <c r="F94" s="3">
-        <v>21300</v>
+        <v>22100</v>
       </c>
       <c r="G94" s="3">
-        <v>175600</v>
+        <v>182100</v>
       </c>
       <c r="H94" s="3">
-        <v>-61500</v>
+        <v>-63800</v>
       </c>
       <c r="I94" s="3">
-        <v>34600</v>
+        <v>35800</v>
       </c>
       <c r="J94" s="3">
         <v>-100</v>
@@ -6024,7 +6024,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-46200</v>
+        <v>-47900</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -6033,7 +6033,7 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -6296,25 +6296,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-88200</v>
+        <v>-91400</v>
       </c>
       <c r="E100" s="3">
-        <v>-31000</v>
+        <v>-32200</v>
       </c>
       <c r="F100" s="3">
-        <v>-7500</v>
+        <v>-7800</v>
       </c>
       <c r="G100" s="3">
-        <v>-145300</v>
+        <v>-150700</v>
       </c>
       <c r="H100" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="I100" s="3">
-        <v>-116900</v>
+        <v>-121200</v>
       </c>
       <c r="J100" s="3">
-        <v>10300</v>
+        <v>10700</v>
       </c>
       <c r="K100" s="3">
         <v>-366600</v>
@@ -6364,25 +6364,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-21200</v>
+        <v>-22000</v>
       </c>
       <c r="E101" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="F101" s="3">
-        <v>-28200</v>
+        <v>-29300</v>
       </c>
       <c r="G101" s="3">
-        <v>-80200</v>
+        <v>-83100</v>
       </c>
       <c r="H101" s="3">
-        <v>66900</v>
+        <v>69400</v>
       </c>
       <c r="I101" s="3">
-        <v>-159900</v>
+        <v>-165800</v>
       </c>
       <c r="J101" s="3">
-        <v>112200</v>
+        <v>116300</v>
       </c>
       <c r="K101" s="3">
         <v>-175400</v>
@@ -6432,25 +6432,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="E102" s="3">
-        <v>7800</v>
+        <v>8100</v>
       </c>
       <c r="F102" s="3">
-        <v>48500</v>
+        <v>50300</v>
       </c>
       <c r="G102" s="3">
-        <v>-12400</v>
+        <v>-12900</v>
       </c>
       <c r="H102" s="3">
-        <v>23800</v>
+        <v>24600</v>
       </c>
       <c r="I102" s="3">
-        <v>-43300</v>
+        <v>-44900</v>
       </c>
       <c r="J102" s="3">
-        <v>61800</v>
+        <v>64100</v>
       </c>
       <c r="K102" s="3">
         <v>-153500</v>

--- a/AAII_Financials/Quarterly/PUODY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PUODY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>PUODY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,333 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>152600</v>
+        <v>176600</v>
       </c>
       <c r="E8" s="3">
-        <v>144700</v>
+        <v>172000</v>
       </c>
       <c r="F8" s="3">
-        <v>130800</v>
+        <v>157600</v>
       </c>
       <c r="G8" s="3">
-        <v>154600</v>
+        <v>149400</v>
       </c>
       <c r="H8" s="3">
-        <v>115900</v>
+        <v>135000</v>
       </c>
       <c r="I8" s="3">
+        <v>159600</v>
+      </c>
+      <c r="J8" s="3">
+        <v>119700</v>
+      </c>
+      <c r="K8" s="3">
         <v>84000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>123500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>188000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>147800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>129600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>127600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>144800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>135600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>158200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>125500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>133800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>126000</v>
-      </c>
-      <c r="U8" s="3">
-        <v>140900</v>
-      </c>
-      <c r="V8" s="3">
-        <v>116900</v>
       </c>
       <c r="W8" s="3">
         <v>140900</v>
       </c>
       <c r="X8" s="3">
+        <v>116900</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>140900</v>
+      </c>
+      <c r="Z8" s="3">
         <v>127500</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>78300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>73300</v>
+      </c>
+      <c r="F9" s="3">
+        <v>65800</v>
+      </c>
+      <c r="G9" s="3">
+        <v>60800</v>
+      </c>
+      <c r="H9" s="3">
+        <v>58000</v>
+      </c>
+      <c r="I9" s="3">
+        <v>81800</v>
+      </c>
+      <c r="J9" s="3">
+        <v>57700</v>
+      </c>
+      <c r="K9" s="3">
+        <v>45700</v>
+      </c>
+      <c r="L9" s="3">
+        <v>50800</v>
+      </c>
+      <c r="M9" s="3">
+        <v>103400</v>
+      </c>
+      <c r="N9" s="3">
+        <v>66900</v>
+      </c>
+      <c r="O9" s="3">
+        <v>52900</v>
+      </c>
+      <c r="P9" s="3">
+        <v>50900</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>69600</v>
+      </c>
+      <c r="R9" s="3">
+        <v>59700</v>
+      </c>
+      <c r="S9" s="3">
         <v>63700</v>
       </c>
-      <c r="E9" s="3">
-        <v>58900</v>
-      </c>
-      <c r="F9" s="3">
-        <v>56200</v>
-      </c>
-      <c r="G9" s="3">
-        <v>79300</v>
-      </c>
-      <c r="H9" s="3">
-        <v>55900</v>
-      </c>
-      <c r="I9" s="3">
-        <v>45700</v>
-      </c>
-      <c r="J9" s="3">
-        <v>50800</v>
-      </c>
-      <c r="K9" s="3">
-        <v>103400</v>
-      </c>
-      <c r="L9" s="3">
-        <v>66900</v>
-      </c>
-      <c r="M9" s="3">
-        <v>52900</v>
-      </c>
-      <c r="N9" s="3">
-        <v>50900</v>
-      </c>
-      <c r="O9" s="3">
-        <v>69600</v>
-      </c>
-      <c r="P9" s="3">
-        <v>59700</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>63700</v>
-      </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>42400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>56000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>50700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>63400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>43500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>61900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>50600</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>88900</v>
+        <v>98300</v>
       </c>
       <c r="E10" s="3">
-        <v>85800</v>
+        <v>98600</v>
       </c>
       <c r="F10" s="3">
-        <v>74600</v>
+        <v>91800</v>
       </c>
       <c r="G10" s="3">
+        <v>88600</v>
+      </c>
+      <c r="H10" s="3">
+        <v>77000</v>
+      </c>
+      <c r="I10" s="3">
+        <v>77700</v>
+      </c>
+      <c r="J10" s="3">
+        <v>62000</v>
+      </c>
+      <c r="K10" s="3">
+        <v>38300</v>
+      </c>
+      <c r="L10" s="3">
+        <v>72700</v>
+      </c>
+      <c r="M10" s="3">
+        <v>84600</v>
+      </c>
+      <c r="N10" s="3">
+        <v>80900</v>
+      </c>
+      <c r="O10" s="3">
+        <v>76600</v>
+      </c>
+      <c r="P10" s="3">
+        <v>76700</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>75200</v>
+      </c>
+      <c r="R10" s="3">
+        <v>76000</v>
+      </c>
+      <c r="S10" s="3">
+        <v>94400</v>
+      </c>
+      <c r="T10" s="3">
+        <v>83100</v>
+      </c>
+      <c r="U10" s="3">
+        <v>77800</v>
+      </c>
+      <c r="V10" s="3">
         <v>75300</v>
       </c>
-      <c r="H10" s="3">
-        <v>60000</v>
-      </c>
-      <c r="I10" s="3">
-        <v>38300</v>
-      </c>
-      <c r="J10" s="3">
-        <v>72700</v>
-      </c>
-      <c r="K10" s="3">
-        <v>84600</v>
-      </c>
-      <c r="L10" s="3">
-        <v>80900</v>
-      </c>
-      <c r="M10" s="3">
-        <v>76600</v>
-      </c>
-      <c r="N10" s="3">
-        <v>76700</v>
-      </c>
-      <c r="O10" s="3">
-        <v>75200</v>
-      </c>
-      <c r="P10" s="3">
-        <v>76000</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>94400</v>
-      </c>
-      <c r="R10" s="3">
-        <v>83100</v>
-      </c>
-      <c r="S10" s="3">
-        <v>77800</v>
-      </c>
-      <c r="T10" s="3">
-        <v>75300</v>
-      </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>77400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>73300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>79000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>77000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1016,10 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1086,14 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1160,14 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,8 +1234,14 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1204,7 +1249,7 @@
         <v>100</v>
       </c>
       <c r="E15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F15" s="3">
         <v>100</v>
@@ -1222,7 +1267,7 @@
         <v>100</v>
       </c>
       <c r="K15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L15" s="3">
         <v>100</v>
@@ -1231,13 +1276,13 @@
         <v>0</v>
       </c>
       <c r="N15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="3">
         <v>100</v>
@@ -1245,11 +1290,11 @@
       <c r="R15" s="3">
         <v>100</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>8</v>
+      <c r="S15" s="3">
+        <v>100</v>
+      </c>
+      <c r="T15" s="3">
+        <v>100</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>8</v>
@@ -1257,14 +1302,20 @@
       <c r="V15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W15" s="3">
-        <v>0</v>
-      </c>
-      <c r="X15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="W15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1337,158 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>64200</v>
+        <v>76700</v>
       </c>
       <c r="E17" s="3">
-        <v>57600</v>
+        <v>74600</v>
       </c>
       <c r="F17" s="3">
-        <v>56700</v>
+        <v>66300</v>
       </c>
       <c r="G17" s="3">
-        <v>79600</v>
+        <v>59500</v>
       </c>
       <c r="H17" s="3">
-        <v>58700</v>
+        <v>58600</v>
       </c>
       <c r="I17" s="3">
+        <v>82100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>60600</v>
+      </c>
+      <c r="K17" s="3">
         <v>45500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>50200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>104300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>67700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>54000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>51300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>70300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>61400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>62900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>40700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>56900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>48300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>63000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>42700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>61500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>49600</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>88400</v>
+        <v>99900</v>
       </c>
       <c r="E18" s="3">
-        <v>87100</v>
+        <v>97300</v>
       </c>
       <c r="F18" s="3">
+        <v>91300</v>
+      </c>
+      <c r="G18" s="3">
+        <v>89900</v>
+      </c>
+      <c r="H18" s="3">
+        <v>76500</v>
+      </c>
+      <c r="I18" s="3">
+        <v>77400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>59100</v>
+      </c>
+      <c r="K18" s="3">
+        <v>38500</v>
+      </c>
+      <c r="L18" s="3">
+        <v>73200</v>
+      </c>
+      <c r="M18" s="3">
+        <v>83700</v>
+      </c>
+      <c r="N18" s="3">
+        <v>80100</v>
+      </c>
+      <c r="O18" s="3">
+        <v>75600</v>
+      </c>
+      <c r="P18" s="3">
+        <v>76300</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>74500</v>
+      </c>
+      <c r="R18" s="3">
+        <v>74300</v>
+      </c>
+      <c r="S18" s="3">
+        <v>95300</v>
+      </c>
+      <c r="T18" s="3">
+        <v>84800</v>
+      </c>
+      <c r="U18" s="3">
+        <v>77000</v>
+      </c>
+      <c r="V18" s="3">
+        <v>77700</v>
+      </c>
+      <c r="W18" s="3">
+        <v>77800</v>
+      </c>
+      <c r="X18" s="3">
         <v>74100</v>
       </c>
-      <c r="G18" s="3">
-        <v>75000</v>
-      </c>
-      <c r="H18" s="3">
-        <v>57200</v>
-      </c>
-      <c r="I18" s="3">
-        <v>38500</v>
-      </c>
-      <c r="J18" s="3">
-        <v>73200</v>
-      </c>
-      <c r="K18" s="3">
-        <v>83700</v>
-      </c>
-      <c r="L18" s="3">
-        <v>80100</v>
-      </c>
-      <c r="M18" s="3">
-        <v>75600</v>
-      </c>
-      <c r="N18" s="3">
-        <v>76300</v>
-      </c>
-      <c r="O18" s="3">
-        <v>74500</v>
-      </c>
-      <c r="P18" s="3">
-        <v>74300</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>95300</v>
-      </c>
-      <c r="R18" s="3">
-        <v>84800</v>
-      </c>
-      <c r="S18" s="3">
-        <v>77000</v>
-      </c>
-      <c r="T18" s="3">
-        <v>77700</v>
-      </c>
-      <c r="U18" s="3">
-        <v>77800</v>
-      </c>
-      <c r="V18" s="3">
-        <v>74100</v>
-      </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>79500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>77900</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,348 +1513,380 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>36500</v>
+        <v>-3200</v>
       </c>
       <c r="E20" s="3">
-        <v>-5200</v>
+        <v>16200</v>
       </c>
       <c r="F20" s="3">
-        <v>29700</v>
+        <v>37700</v>
       </c>
       <c r="G20" s="3">
-        <v>-61400</v>
+        <v>-5300</v>
       </c>
       <c r="H20" s="3">
-        <v>2600</v>
+        <v>30600</v>
       </c>
       <c r="I20" s="3">
+        <v>-63400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K20" s="3">
         <v>8600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>36400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>11800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>30900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>19200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>16600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>44100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>5300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>34500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-7100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>35700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>12000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>3100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-11500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>16400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>137100</v>
+        <v>110400</v>
       </c>
       <c r="E21" s="3">
-        <v>94300</v>
+        <v>128500</v>
       </c>
       <c r="F21" s="3">
-        <v>114400</v>
+        <v>141500</v>
       </c>
       <c r="G21" s="3">
-        <v>29900</v>
+        <v>97400</v>
       </c>
       <c r="H21" s="3">
-        <v>69100</v>
+        <v>118100</v>
       </c>
       <c r="I21" s="3">
+        <v>30800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>71300</v>
+      </c>
+      <c r="K21" s="3">
         <v>54600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>118100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>108000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>122200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>100100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>98000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>120000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>84600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>135800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>83300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>118700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>95200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>86300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>67800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>101400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>97700</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>15500</v>
+        <v>15800</v>
       </c>
       <c r="E22" s="3">
-        <v>15300</v>
+        <v>15900</v>
       </c>
       <c r="F22" s="3">
-        <v>15200</v>
-      </c>
-      <c r="G22" s="3" t="s">
+        <v>16000</v>
+      </c>
+      <c r="G22" s="3">
+        <v>15800</v>
+      </c>
+      <c r="H22" s="3">
+        <v>15700</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="3">
-        <v>9600</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
+        <v>9900</v>
+      </c>
+      <c r="K22" s="3">
         <v>9500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>11900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>21200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>10600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>8300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>5300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>17900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>4100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>4100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>4700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>22000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>4000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>3900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>3900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>44600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>109500</v>
+        <v>81000</v>
       </c>
       <c r="E23" s="3">
-        <v>66600</v>
+        <v>97500</v>
       </c>
       <c r="F23" s="3">
-        <v>88500</v>
+        <v>113000</v>
       </c>
       <c r="G23" s="3">
-        <v>13600</v>
+        <v>68700</v>
       </c>
       <c r="H23" s="3">
-        <v>50300</v>
+        <v>91400</v>
       </c>
       <c r="I23" s="3">
+        <v>14100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>51900</v>
+      </c>
+      <c r="K23" s="3">
         <v>37600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>97800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>74300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>100500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>86500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>87600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>100800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>75400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>125700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>73000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>90700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>85800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>77000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>58700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>51300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>85500</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>21500</v>
+        <v>13800</v>
       </c>
       <c r="E24" s="3">
-        <v>14400</v>
+        <v>-1100</v>
       </c>
       <c r="F24" s="3">
+        <v>22200</v>
+      </c>
+      <c r="G24" s="3">
+        <v>14800</v>
+      </c>
+      <c r="H24" s="3">
+        <v>18900</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="J24" s="3">
+        <v>15100</v>
+      </c>
+      <c r="K24" s="3">
+        <v>6600</v>
+      </c>
+      <c r="L24" s="3">
+        <v>25900</v>
+      </c>
+      <c r="M24" s="3">
+        <v>17300</v>
+      </c>
+      <c r="N24" s="3">
+        <v>26600</v>
+      </c>
+      <c r="O24" s="3">
+        <v>24100</v>
+      </c>
+      <c r="P24" s="3">
+        <v>20400</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>19000</v>
+      </c>
+      <c r="R24" s="3">
+        <v>12000</v>
+      </c>
+      <c r="S24" s="3">
+        <v>34000</v>
+      </c>
+      <c r="T24" s="3">
+        <v>16500</v>
+      </c>
+      <c r="U24" s="3">
+        <v>14700</v>
+      </c>
+      <c r="V24" s="3">
         <v>18300</v>
       </c>
-      <c r="G24" s="3">
-        <v>-10500</v>
-      </c>
-      <c r="H24" s="3">
-        <v>14600</v>
-      </c>
-      <c r="I24" s="3">
-        <v>6600</v>
-      </c>
-      <c r="J24" s="3">
-        <v>25900</v>
-      </c>
-      <c r="K24" s="3">
-        <v>17300</v>
-      </c>
-      <c r="L24" s="3">
-        <v>26600</v>
-      </c>
-      <c r="M24" s="3">
-        <v>24100</v>
-      </c>
-      <c r="N24" s="3">
-        <v>20400</v>
-      </c>
-      <c r="O24" s="3">
-        <v>19000</v>
-      </c>
-      <c r="P24" s="3">
-        <v>12000</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>34000</v>
-      </c>
-      <c r="R24" s="3">
-        <v>16500</v>
-      </c>
-      <c r="S24" s="3">
-        <v>14700</v>
-      </c>
-      <c r="T24" s="3">
-        <v>18300</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>17500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>11800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>-7000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1953,162 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>87900</v>
+        <v>67200</v>
       </c>
       <c r="E26" s="3">
-        <v>52200</v>
+        <v>98600</v>
       </c>
       <c r="F26" s="3">
-        <v>70200</v>
+        <v>90800</v>
       </c>
       <c r="G26" s="3">
-        <v>24100</v>
+        <v>53900</v>
       </c>
       <c r="H26" s="3">
-        <v>35600</v>
+        <v>72500</v>
       </c>
       <c r="I26" s="3">
+        <v>24900</v>
+      </c>
+      <c r="J26" s="3">
+        <v>36800</v>
+      </c>
+      <c r="K26" s="3">
         <v>31100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>71900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>56900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>73800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>62400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>67200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>81700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>63400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>91700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>56500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>76000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>67500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>59600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>46900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>58300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>77400</v>
+        <v>56700</v>
       </c>
       <c r="E27" s="3">
-        <v>43200</v>
+        <v>86800</v>
       </c>
       <c r="F27" s="3">
-        <v>64000</v>
+        <v>79900</v>
       </c>
       <c r="G27" s="3">
-        <v>13000</v>
+        <v>44600</v>
       </c>
       <c r="H27" s="3">
-        <v>27600</v>
+        <v>66000</v>
       </c>
       <c r="I27" s="3">
+        <v>13400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>28500</v>
+      </c>
+      <c r="K27" s="3">
         <v>24600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>62200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>49500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>66000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>51300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>57600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>72500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>54800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>82300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>47000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>68100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>61600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>54200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>42900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>55200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2175,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2098,15 +2219,15 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
@@ -2117,19 +2238,25 @@
         <v>0</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>-400</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2323,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2397,162 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-36500</v>
+        <v>3200</v>
       </c>
       <c r="E32" s="3">
-        <v>5200</v>
+        <v>-16200</v>
       </c>
       <c r="F32" s="3">
-        <v>-29700</v>
+        <v>-37700</v>
       </c>
       <c r="G32" s="3">
-        <v>61400</v>
+        <v>5300</v>
       </c>
       <c r="H32" s="3">
-        <v>-2600</v>
+        <v>-30600</v>
       </c>
       <c r="I32" s="3">
+        <v>63400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-8600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-36400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-11800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-30900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-19200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-16600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-44100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-34500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>7100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-35700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-12000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-3100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>11500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-16400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-14800</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>77400</v>
+        <v>56700</v>
       </c>
       <c r="E33" s="3">
-        <v>43200</v>
+        <v>86800</v>
       </c>
       <c r="F33" s="3">
-        <v>64000</v>
+        <v>79900</v>
       </c>
       <c r="G33" s="3">
-        <v>13000</v>
+        <v>44600</v>
       </c>
       <c r="H33" s="3">
-        <v>27600</v>
+        <v>66000</v>
       </c>
       <c r="I33" s="3">
+        <v>13400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>28500</v>
+      </c>
+      <c r="K33" s="3">
         <v>24600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>62200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>49500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>66000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>51300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>57600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>72500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>54800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>82300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>47000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>68100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>61600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>53800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>42900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>55200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2619,167 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>77400</v>
+        <v>56700</v>
       </c>
       <c r="E35" s="3">
-        <v>43200</v>
+        <v>86800</v>
       </c>
       <c r="F35" s="3">
-        <v>64000</v>
+        <v>79900</v>
       </c>
       <c r="G35" s="3">
-        <v>13000</v>
+        <v>44600</v>
       </c>
       <c r="H35" s="3">
-        <v>27600</v>
+        <v>66000</v>
       </c>
       <c r="I35" s="3">
+        <v>13400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>28500</v>
+      </c>
+      <c r="K35" s="3">
         <v>24600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>62200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>49500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>66000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>51300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>57600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>72500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>54800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>82300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>47000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>68100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>61600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>53800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>42900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>55200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2804,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2832,84 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1337900</v>
+        <v>1364800</v>
       </c>
       <c r="E41" s="3">
-        <v>1333700</v>
+        <v>1361500</v>
       </c>
       <c r="F41" s="3">
-        <v>1325600</v>
+        <v>1381200</v>
       </c>
       <c r="G41" s="3">
-        <v>54200</v>
+        <v>1376900</v>
       </c>
       <c r="H41" s="3">
-        <v>1423400</v>
+        <v>1368500</v>
       </c>
       <c r="I41" s="3">
+        <v>55900</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1469500</v>
+      </c>
+      <c r="K41" s="3">
         <v>1398700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1433500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>24100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1429300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1506600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1267200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>10200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1091400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1217400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>1143600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>23600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>849000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>830500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>758200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>815900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>651900</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2743,538 +2922,586 @@
       <c r="F42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="3">
-        <v>1139700</v>
+      <c r="G42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
+      <c r="I42" s="3">
+        <v>1176700</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="3">
-        <v>1409100</v>
+      <c r="K42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>8</v>
+      <c r="M42" s="3">
+        <v>1409100</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O42" s="3">
-        <v>1131400</v>
+      <c r="O42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>8</v>
+      <c r="Q42" s="3">
+        <v>1131400</v>
       </c>
       <c r="R42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S42" s="3">
-        <v>1073300</v>
+      <c r="S42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>8</v>
+      <c r="U42" s="3">
+        <v>1073300</v>
       </c>
       <c r="V42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W42" s="3">
-        <v>741000</v>
+      <c r="W42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>741000</v>
+      </c>
+      <c r="Z42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>79400</v>
+        <v>75900</v>
       </c>
       <c r="E43" s="3">
-        <v>77300</v>
+        <v>89000</v>
       </c>
       <c r="F43" s="3">
+        <v>81900</v>
+      </c>
+      <c r="G43" s="3">
+        <v>79800</v>
+      </c>
+      <c r="H43" s="3">
+        <v>72400</v>
+      </c>
+      <c r="I43" s="3">
+        <v>70600</v>
+      </c>
+      <c r="J43" s="3">
+        <v>77400</v>
+      </c>
+      <c r="K43" s="3">
+        <v>81800</v>
+      </c>
+      <c r="L43" s="3">
+        <v>78300</v>
+      </c>
+      <c r="M43" s="3">
+        <v>83300</v>
+      </c>
+      <c r="N43" s="3">
+        <v>79900</v>
+      </c>
+      <c r="O43" s="3">
         <v>70100</v>
       </c>
-      <c r="G43" s="3">
-        <v>68400</v>
-      </c>
-      <c r="H43" s="3">
-        <v>75000</v>
-      </c>
-      <c r="I43" s="3">
-        <v>81800</v>
-      </c>
-      <c r="J43" s="3">
-        <v>78300</v>
-      </c>
-      <c r="K43" s="3">
-        <v>83300</v>
-      </c>
-      <c r="L43" s="3">
-        <v>79900</v>
-      </c>
-      <c r="M43" s="3">
-        <v>70100</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>66000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>68900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>76600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>81300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>100000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>128300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>107700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>110400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>105300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>104500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>85200</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E44" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F44" s="3">
+        <v>7600</v>
+      </c>
+      <c r="G44" s="3">
+        <v>7200</v>
+      </c>
+      <c r="H44" s="3">
+        <v>6900</v>
+      </c>
+      <c r="I44" s="3">
+        <v>6700</v>
+      </c>
+      <c r="J44" s="3">
+        <v>6500</v>
+      </c>
+      <c r="K44" s="3">
+        <v>6100</v>
+      </c>
+      <c r="L44" s="3">
+        <v>5900</v>
+      </c>
+      <c r="M44" s="3">
         <v>7300</v>
       </c>
-      <c r="E44" s="3">
-        <v>6900</v>
-      </c>
-      <c r="F44" s="3">
-        <v>6700</v>
-      </c>
-      <c r="G44" s="3">
-        <v>6500</v>
-      </c>
-      <c r="H44" s="3">
-        <v>6300</v>
-      </c>
-      <c r="I44" s="3">
-        <v>6100</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="N44" s="3">
+        <v>6200</v>
+      </c>
+      <c r="O44" s="3">
+        <v>5300</v>
+      </c>
+      <c r="P44" s="3">
+        <v>5000</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>4500</v>
+      </c>
+      <c r="R44" s="3">
         <v>5900</v>
       </c>
-      <c r="K44" s="3">
-        <v>7300</v>
-      </c>
-      <c r="L44" s="3">
-        <v>6200</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="S44" s="3">
+        <v>5400</v>
+      </c>
+      <c r="T44" s="3">
+        <v>5400</v>
+      </c>
+      <c r="U44" s="3">
         <v>5300</v>
       </c>
-      <c r="N44" s="3">
-        <v>5000</v>
-      </c>
-      <c r="O44" s="3">
-        <v>4500</v>
-      </c>
-      <c r="P44" s="3">
-        <v>5900</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>5400</v>
-      </c>
-      <c r="R44" s="3">
-        <v>5400</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="V44" s="3">
+        <v>5500</v>
+      </c>
+      <c r="W44" s="3">
+        <v>5600</v>
+      </c>
+      <c r="X44" s="3">
         <v>5300</v>
       </c>
-      <c r="T44" s="3">
-        <v>5500</v>
-      </c>
-      <c r="U44" s="3">
-        <v>5600</v>
-      </c>
-      <c r="V44" s="3">
-        <v>5300</v>
-      </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>8400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>24300</v>
+        <v>32900</v>
       </c>
       <c r="E45" s="3">
-        <v>23900</v>
+        <v>14300</v>
       </c>
       <c r="F45" s="3">
-        <v>19900</v>
+        <v>25100</v>
       </c>
       <c r="G45" s="3">
-        <v>11200</v>
+        <v>24700</v>
       </c>
       <c r="H45" s="3">
-        <v>12700</v>
+        <v>20500</v>
       </c>
       <c r="I45" s="3">
+        <v>11600</v>
+      </c>
+      <c r="J45" s="3">
+        <v>13100</v>
+      </c>
+      <c r="K45" s="3">
         <v>42400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>40200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>22700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>38700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>13400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>9900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>6300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>27200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>34300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>68800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>25900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>59700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>55400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>50200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>73000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>50700</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1448900</v>
+        <v>1481300</v>
       </c>
       <c r="E46" s="3">
-        <v>1441800</v>
+        <v>1472300</v>
       </c>
       <c r="F46" s="3">
-        <v>1422300</v>
+        <v>1495900</v>
       </c>
       <c r="G46" s="3">
-        <v>1280100</v>
+        <v>1488500</v>
       </c>
       <c r="H46" s="3">
-        <v>1517400</v>
+        <v>1468300</v>
       </c>
       <c r="I46" s="3">
+        <v>1321600</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1566500</v>
+      </c>
+      <c r="K46" s="3">
         <v>1529000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1557800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1548600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1554200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1595400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1348100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1221300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1201100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1338500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1317800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1256400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1021900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1001900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>919000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>940700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>792800</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>96400</v>
+        <v>97700</v>
       </c>
       <c r="E47" s="3">
-        <v>92900</v>
+        <v>95800</v>
       </c>
       <c r="F47" s="3">
-        <v>93100</v>
+        <v>99500</v>
       </c>
       <c r="G47" s="3">
-        <v>174000</v>
+        <v>95900</v>
       </c>
       <c r="H47" s="3">
-        <v>149500</v>
+        <v>96100</v>
       </c>
       <c r="I47" s="3">
+        <v>179700</v>
+      </c>
+      <c r="J47" s="3">
+        <v>154300</v>
+      </c>
+      <c r="K47" s="3">
         <v>140900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>138200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>95000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>131200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>179200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>180300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>172400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>143300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>162200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>217500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>218000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>208300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>201500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>196000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>205700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>197500</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>66800</v>
+        <v>67600</v>
       </c>
       <c r="E48" s="3">
-        <v>67400</v>
+        <v>68400</v>
       </c>
       <c r="F48" s="3">
-        <v>68000</v>
+        <v>69000</v>
       </c>
       <c r="G48" s="3">
-        <v>53700</v>
+        <v>69500</v>
       </c>
       <c r="H48" s="3">
-        <v>47700</v>
+        <v>70200</v>
       </c>
       <c r="I48" s="3">
+        <v>55400</v>
+      </c>
+      <c r="J48" s="3">
+        <v>49300</v>
+      </c>
+      <c r="K48" s="3">
         <v>47600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>48700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>57400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>52300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>50100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>51000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>47800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>47500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>56200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>50100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>54700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>49300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>49900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>50500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>112400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>49000</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1947800</v>
+        <v>2040200</v>
       </c>
       <c r="E49" s="3">
-        <v>1937200</v>
+        <v>2016800</v>
       </c>
       <c r="F49" s="3">
-        <v>1930100</v>
+        <v>2010900</v>
       </c>
       <c r="G49" s="3">
-        <v>1920100</v>
+        <v>1999900</v>
       </c>
       <c r="H49" s="3">
-        <v>1736600</v>
+        <v>1992600</v>
       </c>
       <c r="I49" s="3">
+        <v>1982300</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1792800</v>
+      </c>
+      <c r="K49" s="3">
         <v>1724700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1718000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1962700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1768100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1084600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1057300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>971800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>924600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>1071500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>1049100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>981900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>957200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>923200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>882000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>882800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>872700</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3568,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3642,88 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>122300</v>
+        <v>139300</v>
       </c>
       <c r="E52" s="3">
-        <v>129200</v>
+        <v>134700</v>
       </c>
       <c r="F52" s="3">
-        <v>127500</v>
+        <v>126200</v>
       </c>
       <c r="G52" s="3">
-        <v>161800</v>
+        <v>133400</v>
       </c>
       <c r="H52" s="3">
-        <v>133000</v>
+        <v>131600</v>
       </c>
       <c r="I52" s="3">
+        <v>167100</v>
+      </c>
+      <c r="J52" s="3">
+        <v>137300</v>
+      </c>
+      <c r="K52" s="3">
         <v>120600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>102000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>114900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>99400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>48300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>69800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>87200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>79600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>53300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>73100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>71500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>73900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>72900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>69100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>91600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3790,88 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3682200</v>
+        <v>3826100</v>
       </c>
       <c r="E54" s="3">
-        <v>3668400</v>
+        <v>3788000</v>
       </c>
       <c r="F54" s="3">
-        <v>3641000</v>
+        <v>3801500</v>
       </c>
       <c r="G54" s="3">
-        <v>3589800</v>
+        <v>3787200</v>
       </c>
       <c r="H54" s="3">
-        <v>3584100</v>
+        <v>3758900</v>
       </c>
       <c r="I54" s="3">
+        <v>3706100</v>
+      </c>
+      <c r="J54" s="3">
+        <v>3700200</v>
+      </c>
+      <c r="K54" s="3">
         <v>3562800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3564700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3778600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3605100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2957500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2706400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2500500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2396100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2681700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2707500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>2582400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>2310700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>2249300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>2116700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>2170400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>1960500</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3896,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,416 +3924,454 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>26700</v>
+        <v>36000</v>
       </c>
       <c r="E57" s="3">
-        <v>29300</v>
+        <v>29100</v>
       </c>
       <c r="F57" s="3">
-        <v>29600</v>
+        <v>27500</v>
       </c>
       <c r="G57" s="3">
-        <v>30700</v>
+        <v>30300</v>
       </c>
       <c r="H57" s="3">
-        <v>28100</v>
+        <v>30600</v>
       </c>
       <c r="I57" s="3">
+        <v>31600</v>
+      </c>
+      <c r="J57" s="3">
+        <v>29000</v>
+      </c>
+      <c r="K57" s="3">
         <v>25800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>27200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>30500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>17700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>12500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>12500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>10800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>11700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>12000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>11100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>12300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>12100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>13400</v>
-      </c>
-      <c r="V57" s="3">
-        <v>8700</v>
-      </c>
-      <c r="W57" s="3">
-        <v>13800</v>
       </c>
       <c r="X57" s="3">
         <v>8700</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>13800</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>8700</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>41300</v>
+      </c>
+      <c r="E58" s="3">
+        <v>39900</v>
+      </c>
+      <c r="F58" s="3">
+        <v>37900</v>
+      </c>
+      <c r="G58" s="3">
+        <v>34800</v>
+      </c>
+      <c r="H58" s="3">
+        <v>33400</v>
+      </c>
+      <c r="I58" s="3">
+        <v>31800</v>
+      </c>
+      <c r="J58" s="3">
+        <v>26400</v>
+      </c>
+      <c r="K58" s="3">
+        <v>22900</v>
+      </c>
+      <c r="L58" s="3">
+        <v>10900</v>
+      </c>
+      <c r="M58" s="3">
+        <v>11200</v>
+      </c>
+      <c r="N58" s="3">
+        <v>10100</v>
+      </c>
+      <c r="O58" s="3">
+        <v>9600</v>
+      </c>
+      <c r="P58" s="3">
+        <v>15500</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>14600</v>
+      </c>
+      <c r="R58" s="3">
+        <v>10600</v>
+      </c>
+      <c r="S58" s="3">
+        <v>10700</v>
+      </c>
+      <c r="T58" s="3">
+        <v>34600</v>
+      </c>
+      <c r="U58" s="3">
         <v>36700</v>
       </c>
-      <c r="E58" s="3">
-        <v>33700</v>
-      </c>
-      <c r="F58" s="3">
-        <v>32400</v>
-      </c>
-      <c r="G58" s="3">
-        <v>30800</v>
-      </c>
-      <c r="H58" s="3">
-        <v>25600</v>
-      </c>
-      <c r="I58" s="3">
-        <v>22900</v>
-      </c>
-      <c r="J58" s="3">
-        <v>10900</v>
-      </c>
-      <c r="K58" s="3">
-        <v>11200</v>
-      </c>
-      <c r="L58" s="3">
-        <v>10100</v>
-      </c>
-      <c r="M58" s="3">
-        <v>9600</v>
-      </c>
-      <c r="N58" s="3">
-        <v>15500</v>
-      </c>
-      <c r="O58" s="3">
-        <v>14600</v>
-      </c>
-      <c r="P58" s="3">
-        <v>10600</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>10700</v>
-      </c>
-      <c r="R58" s="3">
-        <v>34600</v>
-      </c>
-      <c r="S58" s="3">
-        <v>36700</v>
-      </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>35700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>34900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>34000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>31100</v>
       </c>
-      <c r="X58" s="3" t="s">
+      <c r="Z58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>181300</v>
+        <v>279300</v>
       </c>
       <c r="E59" s="3">
-        <v>209800</v>
+        <v>125500</v>
       </c>
       <c r="F59" s="3">
-        <v>118000</v>
+        <v>187200</v>
       </c>
       <c r="G59" s="3">
-        <v>109600</v>
+        <v>216600</v>
       </c>
       <c r="H59" s="3">
-        <v>211900</v>
+        <v>121800</v>
       </c>
       <c r="I59" s="3">
+        <v>113100</v>
+      </c>
+      <c r="J59" s="3">
+        <v>218800</v>
+      </c>
+      <c r="K59" s="3">
         <v>216200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>143400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>264400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>156900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>103300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>106300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>204100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>203000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>237000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>101000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>107600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>117100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>110200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>138900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>144900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>155200</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>244700</v>
+        <v>356700</v>
       </c>
       <c r="E60" s="3">
-        <v>272900</v>
+        <v>194500</v>
       </c>
       <c r="F60" s="3">
-        <v>179900</v>
+        <v>252600</v>
       </c>
       <c r="G60" s="3">
-        <v>171100</v>
+        <v>281700</v>
       </c>
       <c r="H60" s="3">
-        <v>265500</v>
+        <v>185800</v>
       </c>
       <c r="I60" s="3">
+        <v>176600</v>
+      </c>
+      <c r="J60" s="3">
+        <v>274100</v>
+      </c>
+      <c r="K60" s="3">
         <v>264900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>181500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>306100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>184700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>125400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>134300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>229400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>225300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>259700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>146700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>156500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>164900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>158500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>181600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>147500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>163900</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>738900</v>
+        <v>743100</v>
       </c>
       <c r="E61" s="3">
-        <v>745100</v>
+        <v>751000</v>
       </c>
       <c r="F61" s="3">
-        <v>755300</v>
+        <v>762900</v>
       </c>
       <c r="G61" s="3">
-        <v>757200</v>
+        <v>769300</v>
       </c>
       <c r="H61" s="3">
-        <v>769500</v>
+        <v>779800</v>
       </c>
       <c r="I61" s="3">
+        <v>781800</v>
+      </c>
+      <c r="J61" s="3">
+        <v>794400</v>
+      </c>
+      <c r="K61" s="3">
         <v>770300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>790000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>852200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>810500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>468400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>264300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>249400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>265000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>220700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>232800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>222600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>230900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>229300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>240500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>243500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>372600</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>97700</v>
+        <v>91500</v>
       </c>
       <c r="E62" s="3">
-        <v>98000</v>
+        <v>101000</v>
       </c>
       <c r="F62" s="3">
-        <v>101300</v>
+        <v>100900</v>
       </c>
       <c r="G62" s="3">
-        <v>121600</v>
+        <v>101200</v>
       </c>
       <c r="H62" s="3">
+        <v>104600</v>
+      </c>
+      <c r="I62" s="3">
+        <v>125600</v>
+      </c>
+      <c r="J62" s="3">
+        <v>48900</v>
+      </c>
+      <c r="K62" s="3">
         <v>47400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="L62" s="3">
         <v>47400</v>
       </c>
-      <c r="J62" s="3">
-        <v>47400</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>116400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>60200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>15200</v>
-      </c>
-      <c r="P62" s="3">
-        <v>500</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>500</v>
       </c>
       <c r="R62" s="3">
         <v>500</v>
       </c>
       <c r="S62" s="3">
+        <v>500</v>
+      </c>
+      <c r="T62" s="3">
+        <v>500</v>
+      </c>
+      <c r="U62" s="3">
         <v>10500</v>
-      </c>
-      <c r="T62" s="3">
-        <v>400</v>
-      </c>
-      <c r="U62" s="3">
-        <v>400</v>
       </c>
       <c r="V62" s="3">
         <v>400</v>
       </c>
       <c r="W62" s="3">
-        <v>25600</v>
+        <v>400</v>
       </c>
       <c r="X62" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>25600</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4438,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4512,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4586,88 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1435800</v>
+        <v>1557300</v>
       </c>
       <c r="E66" s="3">
-        <v>1466700</v>
+        <v>1416100</v>
       </c>
       <c r="F66" s="3">
-        <v>1386600</v>
+        <v>1482300</v>
       </c>
       <c r="G66" s="3">
-        <v>1400700</v>
+        <v>1514200</v>
       </c>
       <c r="H66" s="3">
-        <v>1402100</v>
+        <v>1431500</v>
       </c>
       <c r="I66" s="3">
+        <v>1446100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1447500</v>
+      </c>
+      <c r="K66" s="3">
         <v>1406700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1336000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1628100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1378700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>917100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>717700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>680000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>688600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>706300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>595900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>588700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>537600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>535600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>514500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>525900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>549600</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4692,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4762,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4836,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4910,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4984,88 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>982600</v>
+        <v>1009700</v>
       </c>
       <c r="E72" s="3">
-        <v>905200</v>
+        <v>1101200</v>
       </c>
       <c r="F72" s="3">
-        <v>957700</v>
+        <v>1014400</v>
       </c>
       <c r="G72" s="3">
-        <v>1331300</v>
+        <v>934500</v>
       </c>
       <c r="H72" s="3">
-        <v>880800</v>
+        <v>988700</v>
       </c>
       <c r="I72" s="3">
+        <v>1374400</v>
+      </c>
+      <c r="J72" s="3">
+        <v>909300</v>
+      </c>
+      <c r="K72" s="3">
         <v>566100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>635300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>945700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>553400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>469500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>706700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>973600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>532500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>568900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>959800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>1278000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>812600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>750900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>748900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>1724800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>712100</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5132,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5206,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5280,88 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2246400</v>
+        <v>2268900</v>
       </c>
       <c r="E76" s="3">
-        <v>2201700</v>
+        <v>2372000</v>
       </c>
       <c r="F76" s="3">
-        <v>2254300</v>
+        <v>2319200</v>
       </c>
       <c r="G76" s="3">
-        <v>2189100</v>
+        <v>2273000</v>
       </c>
       <c r="H76" s="3">
-        <v>2182000</v>
+        <v>2327400</v>
       </c>
       <c r="I76" s="3">
+        <v>2260000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>2252700</v>
+      </c>
+      <c r="K76" s="3">
         <v>2156100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2228700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2150500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2226400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>2040400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1988700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1820600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1707600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1975500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>2111600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1993700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>1773000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>1713800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>1602200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>1644500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>1410900</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5428,167 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>77400</v>
+        <v>56700</v>
       </c>
       <c r="E81" s="3">
-        <v>43200</v>
+        <v>86800</v>
       </c>
       <c r="F81" s="3">
-        <v>64000</v>
+        <v>79900</v>
       </c>
       <c r="G81" s="3">
-        <v>13000</v>
+        <v>44600</v>
       </c>
       <c r="H81" s="3">
-        <v>27600</v>
+        <v>66000</v>
       </c>
       <c r="I81" s="3">
+        <v>13400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>28500</v>
+      </c>
+      <c r="K81" s="3">
         <v>24600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>62200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>49500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>66000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>51300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>57600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>72500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>54800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>82300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>47000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>68100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>61600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>53800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>42900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>55200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5613,84 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>12100</v>
+        <v>13700</v>
       </c>
       <c r="E83" s="3">
-        <v>12400</v>
+        <v>15000</v>
       </c>
       <c r="F83" s="3">
-        <v>10700</v>
+        <v>12500</v>
       </c>
       <c r="G83" s="3">
-        <v>16200</v>
+        <v>12800</v>
       </c>
       <c r="H83" s="3">
-        <v>9200</v>
+        <v>11000</v>
       </c>
       <c r="I83" s="3">
+        <v>16800</v>
+      </c>
+      <c r="J83" s="3">
+        <v>9500</v>
+      </c>
+      <c r="K83" s="3">
         <v>7400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>8400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>12500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>11200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>5300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>5100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>1300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>5000</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>6000</v>
-      </c>
-      <c r="R83" s="3">
-        <v>5600</v>
       </c>
       <c r="S83" s="3">
         <v>6000</v>
       </c>
       <c r="T83" s="3">
+        <v>5600</v>
+      </c>
+      <c r="U83" s="3">
+        <v>6000</v>
+      </c>
+      <c r="V83" s="3">
         <v>5400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>5400</v>
-      </c>
-      <c r="V83" s="3">
-        <v>5100</v>
-      </c>
-      <c r="W83" s="3">
-        <v>5600</v>
       </c>
       <c r="X83" s="3">
         <v>5100</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>5600</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5757,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5831,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5905,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5979,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +6053,88 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>80100</v>
+        <v>21000</v>
       </c>
       <c r="E89" s="3">
-        <v>66300</v>
+        <v>-37500</v>
       </c>
       <c r="F89" s="3">
-        <v>65200</v>
+        <v>82700</v>
       </c>
       <c r="G89" s="3">
-        <v>38900</v>
+        <v>68500</v>
       </c>
       <c r="H89" s="3">
-        <v>14200</v>
+        <v>67300</v>
       </c>
       <c r="I89" s="3">
+        <v>40100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>14700</v>
+      </c>
+      <c r="K89" s="3">
         <v>78500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>64900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>307600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>92200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-59500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-37500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>53000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>118600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>210000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-7100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>94700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>68100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>26300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>87900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>200000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>46700</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +6159,84 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="E91" s="3" t="s">
+        <v>-900</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F91" s="3" t="s">
+      <c r="H91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-800</v>
       </c>
-      <c r="H91" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K91" s="3">
         <v>1800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-2700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-3100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-2000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-6800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>3600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-7800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-1300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-126600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>72700</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6303,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6377,88 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>37500</v>
+        <v>-28900</v>
       </c>
       <c r="E94" s="3">
-        <v>-24300</v>
+        <v>-15300</v>
       </c>
       <c r="F94" s="3">
-        <v>22100</v>
+        <v>38700</v>
       </c>
       <c r="G94" s="3">
-        <v>182100</v>
+        <v>-25100</v>
       </c>
       <c r="H94" s="3">
-        <v>-63800</v>
+        <v>22800</v>
       </c>
       <c r="I94" s="3">
+        <v>188000</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-65800</v>
+      </c>
+      <c r="K94" s="3">
         <v>35800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>478200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-447600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-113200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>28300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-97000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-195900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>39700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>13100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-499200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-62000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>165700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-52400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-240900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-31200</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,28 +6483,30 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-47900</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>49400</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-49400</v>
       </c>
       <c r="G96" s="3">
-        <v>-1900</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -6057,14 +6524,14 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>91200</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
@@ -6086,8 +6553,14 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6627,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6701,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6775,232 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-91400</v>
+        <v>-27900</v>
       </c>
       <c r="E100" s="3">
-        <v>-32200</v>
+        <v>-18600</v>
       </c>
       <c r="F100" s="3">
-        <v>-7800</v>
+        <v>-94400</v>
       </c>
       <c r="G100" s="3">
-        <v>-150700</v>
+        <v>-33200</v>
       </c>
       <c r="H100" s="3">
-        <v>4800</v>
+        <v>-8000</v>
       </c>
       <c r="I100" s="3">
+        <v>-155600</v>
+      </c>
+      <c r="J100" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-121200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>10700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-366600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>354200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>195100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>1300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>23200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>73400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-238700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-1600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>410700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-1700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-174500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-38500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>55000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-22000</v>
+        <v>39200</v>
       </c>
       <c r="E101" s="3">
+        <v>51600</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="G101" s="3">
         <v>-1700</v>
       </c>
-      <c r="F101" s="3">
-        <v>-29300</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-83100</v>
-      </c>
       <c r="H101" s="3">
-        <v>69400</v>
+        <v>-30200</v>
       </c>
       <c r="I101" s="3">
+        <v>-85800</v>
+      </c>
+      <c r="J101" s="3">
+        <v>71600</v>
+      </c>
+      <c r="K101" s="3">
         <v>-165800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>116300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-175400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-133700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>217000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>60800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-121200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>73100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>62800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-1500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>281000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>14000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>54800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>1100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-140600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>4200</v>
+        <v>3400</v>
       </c>
       <c r="E102" s="3">
-        <v>8100</v>
+        <v>-19800</v>
       </c>
       <c r="F102" s="3">
-        <v>50300</v>
+        <v>4300</v>
       </c>
       <c r="G102" s="3">
-        <v>-12900</v>
+        <v>8400</v>
       </c>
       <c r="H102" s="3">
-        <v>24600</v>
+        <v>51900</v>
       </c>
       <c r="I102" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="J102" s="3">
+        <v>25400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-44900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>64100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-153500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-134900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>239400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>52800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-146000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>69300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>73800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>2900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>251500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>18500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>72300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-1900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-126500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>42000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PUODY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PUODY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>PUODY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>176600</v>
+        <v>177300</v>
       </c>
       <c r="E8" s="3">
-        <v>172000</v>
+        <v>179500</v>
       </c>
       <c r="F8" s="3">
-        <v>157600</v>
+        <v>174400</v>
       </c>
       <c r="G8" s="3">
-        <v>149400</v>
+        <v>160200</v>
       </c>
       <c r="H8" s="3">
-        <v>135000</v>
+        <v>151900</v>
       </c>
       <c r="I8" s="3">
-        <v>159600</v>
+        <v>137200</v>
       </c>
       <c r="J8" s="3">
+        <v>162200</v>
+      </c>
+      <c r="K8" s="3">
         <v>119700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>84000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>123500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>188000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>147800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>129600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>127600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>144800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>135600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>158200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>125500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>133800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>126000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>140900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>116900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>140900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>127500</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>78300</v>
+        <v>72900</v>
       </c>
       <c r="E9" s="3">
-        <v>73300</v>
+        <v>79600</v>
       </c>
       <c r="F9" s="3">
-        <v>65800</v>
+        <v>92500</v>
       </c>
       <c r="G9" s="3">
-        <v>60800</v>
+        <v>66900</v>
       </c>
       <c r="H9" s="3">
-        <v>58000</v>
+        <v>61800</v>
       </c>
       <c r="I9" s="3">
-        <v>81800</v>
+        <v>59000</v>
       </c>
       <c r="J9" s="3">
+        <v>83200</v>
+      </c>
+      <c r="K9" s="3">
         <v>57700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>45700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>50800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>103400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>66900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>52900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>50900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>69600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>59700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>63700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>42400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>56000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>50700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>63400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>43500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>61900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>50600</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>98300</v>
+        <v>104300</v>
       </c>
       <c r="E10" s="3">
-        <v>98600</v>
+        <v>100000</v>
       </c>
       <c r="F10" s="3">
-        <v>91800</v>
+        <v>81900</v>
       </c>
       <c r="G10" s="3">
-        <v>88600</v>
+        <v>93300</v>
       </c>
       <c r="H10" s="3">
+        <v>90100</v>
+      </c>
+      <c r="I10" s="3">
+        <v>78300</v>
+      </c>
+      <c r="J10" s="3">
+        <v>79000</v>
+      </c>
+      <c r="K10" s="3">
+        <v>62000</v>
+      </c>
+      <c r="L10" s="3">
+        <v>38300</v>
+      </c>
+      <c r="M10" s="3">
+        <v>72700</v>
+      </c>
+      <c r="N10" s="3">
+        <v>84600</v>
+      </c>
+      <c r="O10" s="3">
+        <v>80900</v>
+      </c>
+      <c r="P10" s="3">
+        <v>76600</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>76700</v>
+      </c>
+      <c r="R10" s="3">
+        <v>75200</v>
+      </c>
+      <c r="S10" s="3">
+        <v>76000</v>
+      </c>
+      <c r="T10" s="3">
+        <v>94400</v>
+      </c>
+      <c r="U10" s="3">
+        <v>83100</v>
+      </c>
+      <c r="V10" s="3">
+        <v>77800</v>
+      </c>
+      <c r="W10" s="3">
+        <v>75300</v>
+      </c>
+      <c r="X10" s="3">
+        <v>77400</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>73300</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>79000</v>
+      </c>
+      <c r="AA10" s="3">
         <v>77000</v>
       </c>
-      <c r="I10" s="3">
-        <v>77700</v>
-      </c>
-      <c r="J10" s="3">
-        <v>62000</v>
-      </c>
-      <c r="K10" s="3">
-        <v>38300</v>
-      </c>
-      <c r="L10" s="3">
-        <v>72700</v>
-      </c>
-      <c r="M10" s="3">
-        <v>84600</v>
-      </c>
-      <c r="N10" s="3">
-        <v>80900</v>
-      </c>
-      <c r="O10" s="3">
-        <v>76600</v>
-      </c>
-      <c r="P10" s="3">
-        <v>76700</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>75200</v>
-      </c>
-      <c r="R10" s="3">
-        <v>76000</v>
-      </c>
-      <c r="S10" s="3">
-        <v>94400</v>
-      </c>
-      <c r="T10" s="3">
-        <v>83100</v>
-      </c>
-      <c r="U10" s="3">
-        <v>77800</v>
-      </c>
-      <c r="V10" s="3">
-        <v>75300</v>
-      </c>
-      <c r="W10" s="3">
-        <v>77400</v>
-      </c>
-      <c r="X10" s="3">
-        <v>73300</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>79000</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>77000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1240,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1249,10 +1272,10 @@
         <v>100</v>
       </c>
       <c r="E15" s="3">
+        <v>100</v>
+      </c>
+      <c r="F15" s="3">
         <v>200</v>
-      </c>
-      <c r="F15" s="3">
-        <v>100</v>
       </c>
       <c r="G15" s="3">
         <v>100</v>
@@ -1273,19 +1296,19 @@
         <v>100</v>
       </c>
       <c r="M15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
         <v>100</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
       <c r="P15" s="3">
         <v>0</v>
       </c>
       <c r="Q15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R15" s="3">
         <v>100</v>
@@ -1296,8 +1319,8 @@
       <c r="T15" s="3">
         <v>100</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>8</v>
+      <c r="U15" s="3">
+        <v>100</v>
       </c>
       <c r="V15" s="3" t="s">
         <v>8</v>
@@ -1308,14 +1331,17 @@
       <c r="X15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y15" s="3">
-        <v>0</v>
+      <c r="Y15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>76700</v>
+        <v>75400</v>
       </c>
       <c r="E17" s="3">
-        <v>74600</v>
+        <v>77900</v>
       </c>
       <c r="F17" s="3">
-        <v>66300</v>
+        <v>99500</v>
       </c>
       <c r="G17" s="3">
+        <v>67400</v>
+      </c>
+      <c r="H17" s="3">
+        <v>60500</v>
+      </c>
+      <c r="I17" s="3">
         <v>59500</v>
       </c>
-      <c r="H17" s="3">
-        <v>58600</v>
-      </c>
-      <c r="I17" s="3">
-        <v>82100</v>
-      </c>
       <c r="J17" s="3">
+        <v>83500</v>
+      </c>
+      <c r="K17" s="3">
         <v>60600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>45500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>50200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>104300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>67700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>54000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>51300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>70300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>61400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>62900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>40700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>56900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>48300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>63000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>42700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>61500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>49600</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>99900</v>
+        <v>101900</v>
       </c>
       <c r="E18" s="3">
-        <v>97300</v>
+        <v>101600</v>
       </c>
       <c r="F18" s="3">
-        <v>91300</v>
+        <v>74900</v>
       </c>
       <c r="G18" s="3">
-        <v>89900</v>
+        <v>92800</v>
       </c>
       <c r="H18" s="3">
-        <v>76500</v>
+        <v>91400</v>
       </c>
       <c r="I18" s="3">
-        <v>77400</v>
+        <v>77700</v>
       </c>
       <c r="J18" s="3">
+        <v>78700</v>
+      </c>
+      <c r="K18" s="3">
         <v>59100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>38500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>73200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>83700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>80100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>75600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>76300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>74500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>74300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>95300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>84800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>77000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>77700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>77800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>74100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>79500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>77900</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,378 +1548,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3200</v>
       </c>
-      <c r="E20" s="3">
-        <v>16200</v>
-      </c>
       <c r="F20" s="3">
-        <v>37700</v>
+        <v>74800</v>
       </c>
       <c r="G20" s="3">
-        <v>-5300</v>
+        <v>38300</v>
       </c>
       <c r="H20" s="3">
-        <v>30600</v>
+        <v>-5400</v>
       </c>
       <c r="I20" s="3">
-        <v>-63400</v>
+        <v>31100</v>
       </c>
       <c r="J20" s="3">
+        <v>-64400</v>
+      </c>
+      <c r="K20" s="3">
         <v>2700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>8600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>36400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>11800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>30900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>19200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>16600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>44100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>5300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>34500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-7100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>35700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>12000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>3100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-11500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>16400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>110400</v>
+        <v>122700</v>
       </c>
       <c r="E21" s="3">
-        <v>128500</v>
+        <v>112300</v>
       </c>
       <c r="F21" s="3">
-        <v>141500</v>
+        <v>164900</v>
       </c>
       <c r="G21" s="3">
-        <v>97400</v>
+        <v>143900</v>
       </c>
       <c r="H21" s="3">
+        <v>99000</v>
+      </c>
+      <c r="I21" s="3">
+        <v>120100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>31400</v>
+      </c>
+      <c r="K21" s="3">
+        <v>71300</v>
+      </c>
+      <c r="L21" s="3">
+        <v>54600</v>
+      </c>
+      <c r="M21" s="3">
         <v>118100</v>
       </c>
-      <c r="I21" s="3">
-        <v>30800</v>
-      </c>
-      <c r="J21" s="3">
-        <v>71300</v>
-      </c>
-      <c r="K21" s="3">
-        <v>54600</v>
-      </c>
-      <c r="L21" s="3">
-        <v>118100</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>108000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>122200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>100100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>98000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>120000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>84600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>135800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>83300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>118700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>95200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>86300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>67800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>101400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>97700</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>15800</v>
+        <v>17200</v>
       </c>
       <c r="E22" s="3">
+        <v>16000</v>
+      </c>
+      <c r="F22" s="3">
+        <v>79400</v>
+      </c>
+      <c r="G22" s="3">
+        <v>16200</v>
+      </c>
+      <c r="H22" s="3">
+        <v>16100</v>
+      </c>
+      <c r="I22" s="3">
         <v>15900</v>
       </c>
-      <c r="F22" s="3">
-        <v>16000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>15800</v>
-      </c>
-      <c r="H22" s="3">
-        <v>15700</v>
-      </c>
-      <c r="I22" s="3" t="s">
+      <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>9900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>9500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>11900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>21200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>10600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>8300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>5300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>17900</v>
-      </c>
-      <c r="R22" s="3">
-        <v>4100</v>
       </c>
       <c r="S22" s="3">
         <v>4100</v>
       </c>
       <c r="T22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="U22" s="3">
         <v>4700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>22000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>4000</v>
-      </c>
-      <c r="W22" s="3">
-        <v>3900</v>
       </c>
       <c r="X22" s="3">
         <v>3900</v>
       </c>
       <c r="Y22" s="3">
+        <v>3900</v>
+      </c>
+      <c r="Z22" s="3">
         <v>44600</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>81000</v>
+        <v>88900</v>
       </c>
       <c r="E23" s="3">
-        <v>97500</v>
+        <v>82400</v>
       </c>
       <c r="F23" s="3">
-        <v>113000</v>
+        <v>70300</v>
       </c>
       <c r="G23" s="3">
-        <v>68700</v>
+        <v>114900</v>
       </c>
       <c r="H23" s="3">
-        <v>91400</v>
+        <v>69900</v>
       </c>
       <c r="I23" s="3">
-        <v>14100</v>
+        <v>92900</v>
       </c>
       <c r="J23" s="3">
+        <v>14300</v>
+      </c>
+      <c r="K23" s="3">
         <v>51900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>37600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>97800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>74300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>100500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>86500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>87600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>100800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>75400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>125700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>73000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>90700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>85800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>77000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>58700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>51300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>85500</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>13800</v>
+        <v>14100</v>
       </c>
       <c r="E24" s="3">
-        <v>-1100</v>
+        <v>14000</v>
       </c>
       <c r="F24" s="3">
-        <v>22200</v>
+        <v>-35600</v>
       </c>
       <c r="G24" s="3">
-        <v>14800</v>
+        <v>22600</v>
       </c>
       <c r="H24" s="3">
-        <v>18900</v>
+        <v>15100</v>
       </c>
       <c r="I24" s="3">
-        <v>-10800</v>
+        <v>19200</v>
       </c>
       <c r="J24" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="K24" s="3">
         <v>15100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>25900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>17300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>26600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>24100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>20400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>19000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>12000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>34000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>16500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>14700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>18300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>17500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>11800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-7000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>74800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>68300</v>
+      </c>
+      <c r="F26" s="3">
+        <v>105900</v>
+      </c>
+      <c r="G26" s="3">
+        <v>92300</v>
+      </c>
+      <c r="H26" s="3">
+        <v>54800</v>
+      </c>
+      <c r="I26" s="3">
+        <v>73700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>25300</v>
+      </c>
+      <c r="K26" s="3">
+        <v>36800</v>
+      </c>
+      <c r="L26" s="3">
+        <v>31100</v>
+      </c>
+      <c r="M26" s="3">
+        <v>71900</v>
+      </c>
+      <c r="N26" s="3">
+        <v>56900</v>
+      </c>
+      <c r="O26" s="3">
+        <v>73800</v>
+      </c>
+      <c r="P26" s="3">
+        <v>62400</v>
+      </c>
+      <c r="Q26" s="3">
         <v>67200</v>
       </c>
-      <c r="E26" s="3">
-        <v>98600</v>
-      </c>
-      <c r="F26" s="3">
-        <v>90800</v>
-      </c>
-      <c r="G26" s="3">
-        <v>53900</v>
-      </c>
-      <c r="H26" s="3">
-        <v>72500</v>
-      </c>
-      <c r="I26" s="3">
-        <v>24900</v>
-      </c>
-      <c r="J26" s="3">
-        <v>36800</v>
-      </c>
-      <c r="K26" s="3">
-        <v>31100</v>
-      </c>
-      <c r="L26" s="3">
-        <v>71900</v>
-      </c>
-      <c r="M26" s="3">
-        <v>56900</v>
-      </c>
-      <c r="N26" s="3">
-        <v>73800</v>
-      </c>
-      <c r="O26" s="3">
-        <v>62400</v>
-      </c>
-      <c r="P26" s="3">
-        <v>67200</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>81700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>63400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>91700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>56500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>76000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>67500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>59600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>46900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>58300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>56700</v>
+        <v>61100</v>
       </c>
       <c r="E27" s="3">
-        <v>86800</v>
+        <v>57600</v>
       </c>
       <c r="F27" s="3">
-        <v>79900</v>
+        <v>87800</v>
       </c>
       <c r="G27" s="3">
-        <v>44600</v>
+        <v>81200</v>
       </c>
       <c r="H27" s="3">
+        <v>45300</v>
+      </c>
+      <c r="I27" s="3">
+        <v>67100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>13600</v>
+      </c>
+      <c r="K27" s="3">
+        <v>28500</v>
+      </c>
+      <c r="L27" s="3">
+        <v>24600</v>
+      </c>
+      <c r="M27" s="3">
+        <v>62200</v>
+      </c>
+      <c r="N27" s="3">
+        <v>49500</v>
+      </c>
+      <c r="O27" s="3">
         <v>66000</v>
       </c>
-      <c r="I27" s="3">
-        <v>13400</v>
-      </c>
-      <c r="J27" s="3">
-        <v>28500</v>
-      </c>
-      <c r="K27" s="3">
-        <v>24600</v>
-      </c>
-      <c r="L27" s="3">
-        <v>62200</v>
-      </c>
-      <c r="M27" s="3">
-        <v>49500</v>
-      </c>
-      <c r="N27" s="3">
-        <v>66000</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>51300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>57600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>72500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>54800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>82300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>47000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>68100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>61600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>54200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>42900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>55200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2225,12 +2286,12 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
@@ -2244,19 +2305,22 @@
         <v>0</v>
       </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>-400</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
       <c r="Y29" s="3">
         <v>0</v>
       </c>
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E32" s="3">
         <v>3200</v>
       </c>
-      <c r="E32" s="3">
-        <v>-16200</v>
-      </c>
       <c r="F32" s="3">
-        <v>-37700</v>
+        <v>-74800</v>
       </c>
       <c r="G32" s="3">
-        <v>5300</v>
+        <v>-38300</v>
       </c>
       <c r="H32" s="3">
-        <v>-30600</v>
+        <v>5400</v>
       </c>
       <c r="I32" s="3">
-        <v>63400</v>
+        <v>-31100</v>
       </c>
       <c r="J32" s="3">
+        <v>64400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-8600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-36400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-11800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-30900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-19200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-16600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-44100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-5300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-34500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>7100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-35700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-12000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-3100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>11500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-16400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-14800</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>56700</v>
+        <v>61100</v>
       </c>
       <c r="E33" s="3">
-        <v>86800</v>
+        <v>57600</v>
       </c>
       <c r="F33" s="3">
-        <v>79900</v>
+        <v>87800</v>
       </c>
       <c r="G33" s="3">
-        <v>44600</v>
+        <v>81200</v>
       </c>
       <c r="H33" s="3">
+        <v>45300</v>
+      </c>
+      <c r="I33" s="3">
+        <v>67100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>13600</v>
+      </c>
+      <c r="K33" s="3">
+        <v>28500</v>
+      </c>
+      <c r="L33" s="3">
+        <v>24600</v>
+      </c>
+      <c r="M33" s="3">
+        <v>62200</v>
+      </c>
+      <c r="N33" s="3">
+        <v>49500</v>
+      </c>
+      <c r="O33" s="3">
         <v>66000</v>
       </c>
-      <c r="I33" s="3">
-        <v>13400</v>
-      </c>
-      <c r="J33" s="3">
-        <v>28500</v>
-      </c>
-      <c r="K33" s="3">
-        <v>24600</v>
-      </c>
-      <c r="L33" s="3">
-        <v>62200</v>
-      </c>
-      <c r="M33" s="3">
-        <v>49500</v>
-      </c>
-      <c r="N33" s="3">
-        <v>66000</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>51300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>57600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>72500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>54800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>82300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>47000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>68100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>61600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>53800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>42900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>55200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>56700</v>
+        <v>61100</v>
       </c>
       <c r="E35" s="3">
-        <v>86800</v>
+        <v>57600</v>
       </c>
       <c r="F35" s="3">
-        <v>79900</v>
+        <v>87800</v>
       </c>
       <c r="G35" s="3">
-        <v>44600</v>
+        <v>81200</v>
       </c>
       <c r="H35" s="3">
+        <v>45300</v>
+      </c>
+      <c r="I35" s="3">
+        <v>67100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>13600</v>
+      </c>
+      <c r="K35" s="3">
+        <v>28500</v>
+      </c>
+      <c r="L35" s="3">
+        <v>24600</v>
+      </c>
+      <c r="M35" s="3">
+        <v>62200</v>
+      </c>
+      <c r="N35" s="3">
+        <v>49500</v>
+      </c>
+      <c r="O35" s="3">
         <v>66000</v>
       </c>
-      <c r="I35" s="3">
-        <v>13400</v>
-      </c>
-      <c r="J35" s="3">
-        <v>28500</v>
-      </c>
-      <c r="K35" s="3">
-        <v>24600</v>
-      </c>
-      <c r="L35" s="3">
-        <v>62200</v>
-      </c>
-      <c r="M35" s="3">
-        <v>49500</v>
-      </c>
-      <c r="N35" s="3">
-        <v>66000</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>51300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>57600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>72500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>54800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>82300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>47000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>68100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>61600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>53800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>42900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>55200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,82 +2920,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1364800</v>
+        <v>1303600</v>
       </c>
       <c r="E41" s="3">
-        <v>1361500</v>
+        <v>1387500</v>
       </c>
       <c r="F41" s="3">
-        <v>1381200</v>
+        <v>133500</v>
       </c>
       <c r="G41" s="3">
-        <v>1376900</v>
+        <v>1404200</v>
       </c>
       <c r="H41" s="3">
-        <v>1368500</v>
+        <v>1399700</v>
       </c>
       <c r="I41" s="3">
-        <v>55900</v>
+        <v>1391200</v>
       </c>
       <c r="J41" s="3">
+        <v>56900</v>
+      </c>
+      <c r="K41" s="3">
         <v>1469500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1398700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1433500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>24100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1429300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1506600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1267200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>10200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1091400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1217400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1143600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>23600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>849000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>830500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>758200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>815900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>651900</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2919,8 +3009,8 @@
       <c r="E42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
+      <c r="F42" s="3">
+        <v>1144500</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>8</v>
@@ -2928,11 +3018,11 @@
       <c r="H42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="3">
-        <v>1176700</v>
-      </c>
-      <c r="J42" s="3" t="s">
+      <c r="I42" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J42" s="3">
+        <v>1196200</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>8</v>
@@ -2940,11 +3030,11 @@
       <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N42" s="3">
         <v>1409100</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>8</v>
@@ -2952,11 +3042,11 @@
       <c r="P42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R42" s="3">
         <v>1131400</v>
-      </c>
-      <c r="R42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>8</v>
@@ -2964,11 +3054,11 @@
       <c r="T42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U42" s="3">
+      <c r="U42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V42" s="3">
         <v>1073300</v>
-      </c>
-      <c r="V42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W42" s="3" t="s">
         <v>8</v>
@@ -2976,532 +3066,556 @@
       <c r="X42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Y42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z42" s="3">
         <v>741000</v>
       </c>
-      <c r="Z42" s="3" t="s">
+      <c r="AA42" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>75900</v>
+        <v>75200</v>
       </c>
       <c r="E43" s="3">
-        <v>89000</v>
+        <v>77200</v>
       </c>
       <c r="F43" s="3">
-        <v>81900</v>
+        <v>133700</v>
       </c>
       <c r="G43" s="3">
-        <v>79800</v>
+        <v>83300</v>
       </c>
       <c r="H43" s="3">
-        <v>72400</v>
+        <v>81100</v>
       </c>
       <c r="I43" s="3">
-        <v>70600</v>
+        <v>73600</v>
       </c>
       <c r="J43" s="3">
+        <v>71800</v>
+      </c>
+      <c r="K43" s="3">
         <v>77400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>81800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>78300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>83300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>79900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>70100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>66000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>68900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>76600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>81300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>100000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>128300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>107700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>110400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>105300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>104500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>85200</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7600</v>
+        <v>8400</v>
       </c>
       <c r="E44" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="F44" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="G44" s="3">
-        <v>7200</v>
+        <v>7700</v>
       </c>
       <c r="H44" s="3">
+        <v>7300</v>
+      </c>
+      <c r="I44" s="3">
+        <v>7000</v>
+      </c>
+      <c r="J44" s="3">
         <v>6900</v>
       </c>
-      <c r="I44" s="3">
-        <v>6700</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>6500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>7300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>6200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5900</v>
-      </c>
-      <c r="S44" s="3">
-        <v>5400</v>
       </c>
       <c r="T44" s="3">
         <v>5400</v>
       </c>
       <c r="U44" s="3">
+        <v>5400</v>
+      </c>
+      <c r="V44" s="3">
         <v>5300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>5500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>5600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>5300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>8400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>32900</v>
+        <v>99900</v>
       </c>
       <c r="E45" s="3">
-        <v>14300</v>
+        <v>33500</v>
       </c>
       <c r="F45" s="3">
+        <v>15200</v>
+      </c>
+      <c r="G45" s="3">
+        <v>25600</v>
+      </c>
+      <c r="H45" s="3">
         <v>25100</v>
       </c>
-      <c r="G45" s="3">
-        <v>24700</v>
-      </c>
-      <c r="H45" s="3">
-        <v>20500</v>
-      </c>
       <c r="I45" s="3">
-        <v>11600</v>
+        <v>20800</v>
       </c>
       <c r="J45" s="3">
+        <v>11800</v>
+      </c>
+      <c r="K45" s="3">
         <v>13100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>42400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>40200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>22700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>38700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>13400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>9900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>6300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>27200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>34300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>68800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>25900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>59700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>55400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>50200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>73000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>50700</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1481300</v>
+        <v>1487100</v>
       </c>
       <c r="E46" s="3">
-        <v>1472300</v>
+        <v>1505900</v>
       </c>
       <c r="F46" s="3">
-        <v>1495900</v>
+        <v>1434600</v>
       </c>
       <c r="G46" s="3">
-        <v>1488500</v>
+        <v>1520700</v>
       </c>
       <c r="H46" s="3">
-        <v>1468300</v>
+        <v>1513200</v>
       </c>
       <c r="I46" s="3">
-        <v>1321600</v>
+        <v>1492700</v>
       </c>
       <c r="J46" s="3">
+        <v>1343500</v>
+      </c>
+      <c r="K46" s="3">
         <v>1566500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1529000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1557800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1548600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1554200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1595400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1348100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1221300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1201100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1338500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1317800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1256400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1021900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1001900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>919000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>940700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>792800</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>71100</v>
+      </c>
+      <c r="E47" s="3">
+        <v>99300</v>
+      </c>
+      <c r="F47" s="3">
+        <v>152500</v>
+      </c>
+      <c r="G47" s="3">
+        <v>101200</v>
+      </c>
+      <c r="H47" s="3">
+        <v>97500</v>
+      </c>
+      <c r="I47" s="3">
         <v>97700</v>
       </c>
-      <c r="E47" s="3">
-        <v>95800</v>
-      </c>
-      <c r="F47" s="3">
-        <v>99500</v>
-      </c>
-      <c r="G47" s="3">
-        <v>95900</v>
-      </c>
-      <c r="H47" s="3">
-        <v>96100</v>
-      </c>
-      <c r="I47" s="3">
-        <v>179700</v>
-      </c>
       <c r="J47" s="3">
+        <v>182700</v>
+      </c>
+      <c r="K47" s="3">
         <v>154300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>140900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>138200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>95000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>131200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>179200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>180300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>172400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>143300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>162200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>217500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>218000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>208300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>201500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>196000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>205700</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>197500</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>67600</v>
+        <v>127700</v>
       </c>
       <c r="E48" s="3">
-        <v>68400</v>
+        <v>68700</v>
       </c>
       <c r="F48" s="3">
-        <v>69000</v>
+        <v>124200</v>
       </c>
       <c r="G48" s="3">
-        <v>69500</v>
+        <v>70100</v>
       </c>
       <c r="H48" s="3">
-        <v>70200</v>
+        <v>70700</v>
       </c>
       <c r="I48" s="3">
-        <v>55400</v>
+        <v>71300</v>
       </c>
       <c r="J48" s="3">
+        <v>56300</v>
+      </c>
+      <c r="K48" s="3">
         <v>49300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>47600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>48700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>57400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>52300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>50100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>51000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>47800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>47500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>56200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>50100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>54700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>49300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>49900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>50500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>112400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>49000</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2040200</v>
+        <v>2029400</v>
       </c>
       <c r="E49" s="3">
-        <v>2016800</v>
+        <v>2074100</v>
       </c>
       <c r="F49" s="3">
-        <v>2010900</v>
+        <v>1962800</v>
       </c>
       <c r="G49" s="3">
-        <v>1999900</v>
+        <v>2044300</v>
       </c>
       <c r="H49" s="3">
-        <v>1992600</v>
+        <v>2033100</v>
       </c>
       <c r="I49" s="3">
-        <v>1982300</v>
+        <v>2025700</v>
       </c>
       <c r="J49" s="3">
+        <v>2015200</v>
+      </c>
+      <c r="K49" s="3">
         <v>1792800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1724700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1718000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1962700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1768100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1084600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1057300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>971800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>924600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1071500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1049100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>981900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>957200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>923200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>882000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>882800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>872700</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>139300</v>
+        <v>199400</v>
       </c>
       <c r="E52" s="3">
-        <v>134700</v>
+        <v>141700</v>
       </c>
       <c r="F52" s="3">
-        <v>126200</v>
+        <v>184900</v>
       </c>
       <c r="G52" s="3">
-        <v>133400</v>
+        <v>128300</v>
       </c>
       <c r="H52" s="3">
-        <v>131600</v>
+        <v>135600</v>
       </c>
       <c r="I52" s="3">
-        <v>167100</v>
+        <v>133800</v>
       </c>
       <c r="J52" s="3">
+        <v>169800</v>
+      </c>
+      <c r="K52" s="3">
         <v>137300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>120600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>102000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>114900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>99400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>48300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>69800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>87200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>79600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>53300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>73100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>71500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>73900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>72900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>69100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>91600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3826100</v>
+        <v>3914700</v>
       </c>
       <c r="E54" s="3">
-        <v>3788000</v>
+        <v>3889700</v>
       </c>
       <c r="F54" s="3">
-        <v>3801500</v>
+        <v>3859100</v>
       </c>
       <c r="G54" s="3">
-        <v>3787200</v>
+        <v>3864600</v>
       </c>
       <c r="H54" s="3">
-        <v>3758900</v>
+        <v>3850100</v>
       </c>
       <c r="I54" s="3">
-        <v>3706100</v>
+        <v>3821300</v>
       </c>
       <c r="J54" s="3">
+        <v>3767600</v>
+      </c>
+      <c r="K54" s="3">
         <v>3700200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3562800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3564700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3778600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3605100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2957500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2706400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2500500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2396100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2681700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2707500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2582400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2310700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2249300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2116700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2170400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1960500</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,425 +4056,441 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>36000</v>
+        <v>34400</v>
       </c>
       <c r="E57" s="3">
-        <v>29100</v>
+        <v>36600</v>
       </c>
       <c r="F57" s="3">
-        <v>27500</v>
+        <v>29600</v>
       </c>
       <c r="G57" s="3">
-        <v>30300</v>
+        <v>28000</v>
       </c>
       <c r="H57" s="3">
-        <v>30600</v>
+        <v>30800</v>
       </c>
       <c r="I57" s="3">
-        <v>31600</v>
+        <v>31100</v>
       </c>
       <c r="J57" s="3">
+        <v>32200</v>
+      </c>
+      <c r="K57" s="3">
         <v>29000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>25800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>27200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>30500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>17700</v>
-      </c>
-      <c r="O57" s="3">
-        <v>12500</v>
       </c>
       <c r="P57" s="3">
         <v>12500</v>
       </c>
       <c r="Q57" s="3">
+        <v>12500</v>
+      </c>
+      <c r="R57" s="3">
         <v>10800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>11700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>12000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>11100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>12300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>12100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>13400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>8700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>13800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>41300</v>
+        <v>35500</v>
       </c>
       <c r="E58" s="3">
-        <v>39900</v>
+        <v>42000</v>
       </c>
       <c r="F58" s="3">
-        <v>37900</v>
+        <v>27100</v>
       </c>
       <c r="G58" s="3">
-        <v>34800</v>
+        <v>38500</v>
       </c>
       <c r="H58" s="3">
-        <v>33400</v>
+        <v>35400</v>
       </c>
       <c r="I58" s="3">
-        <v>31800</v>
+        <v>34000</v>
       </c>
       <c r="J58" s="3">
+        <v>20200</v>
+      </c>
+      <c r="K58" s="3">
         <v>26400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>22900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>10900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>11200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>10100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>9600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>15500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>14600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>10600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>10700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>34600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>36700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>35700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>34900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>34000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>31100</v>
       </c>
-      <c r="Z58" s="3" t="s">
+      <c r="AA58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>279300</v>
+        <v>296900</v>
       </c>
       <c r="E59" s="3">
-        <v>125500</v>
+        <v>284000</v>
       </c>
       <c r="F59" s="3">
-        <v>187200</v>
+        <v>149300</v>
       </c>
       <c r="G59" s="3">
-        <v>216600</v>
+        <v>190300</v>
       </c>
       <c r="H59" s="3">
-        <v>121800</v>
+        <v>220200</v>
       </c>
       <c r="I59" s="3">
-        <v>113100</v>
+        <v>123800</v>
       </c>
       <c r="J59" s="3">
+        <v>127200</v>
+      </c>
+      <c r="K59" s="3">
         <v>218800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>216200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>143400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>264400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>156900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>103300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>106300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>204100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>203000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>237000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>101000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>107600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>117100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>110200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>138900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>144900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>155200</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>356700</v>
+        <v>366800</v>
       </c>
       <c r="E60" s="3">
-        <v>194500</v>
+        <v>362600</v>
       </c>
       <c r="F60" s="3">
-        <v>252600</v>
+        <v>206000</v>
       </c>
       <c r="G60" s="3">
-        <v>281700</v>
+        <v>256800</v>
       </c>
       <c r="H60" s="3">
-        <v>185800</v>
+        <v>286400</v>
       </c>
       <c r="I60" s="3">
-        <v>176600</v>
+        <v>188800</v>
       </c>
       <c r="J60" s="3">
+        <v>179500</v>
+      </c>
+      <c r="K60" s="3">
         <v>274100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>264900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>181500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>306100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>184700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>125400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>134300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>229400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>225300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>259700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>146700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>156500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>164900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>158500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>181600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>147500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>163900</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>743100</v>
+        <v>761500</v>
       </c>
       <c r="E61" s="3">
-        <v>751000</v>
+        <v>755400</v>
       </c>
       <c r="F61" s="3">
-        <v>762900</v>
+        <v>771900</v>
       </c>
       <c r="G61" s="3">
-        <v>769300</v>
+        <v>775500</v>
       </c>
       <c r="H61" s="3">
-        <v>779800</v>
+        <v>782000</v>
       </c>
       <c r="I61" s="3">
-        <v>781800</v>
+        <v>792700</v>
       </c>
       <c r="J61" s="3">
+        <v>794700</v>
+      </c>
+      <c r="K61" s="3">
         <v>794400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>770300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>790000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>852200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>810500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>468400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>264300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>249400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>265000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>220700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>232800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>222600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>230900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>229300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>240500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>243500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>372600</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>91500</v>
+        <v>99900</v>
       </c>
       <c r="E62" s="3">
-        <v>101000</v>
+        <v>93000</v>
       </c>
       <c r="F62" s="3">
-        <v>100900</v>
+        <v>76300</v>
       </c>
       <c r="G62" s="3">
-        <v>101200</v>
+        <v>102600</v>
       </c>
       <c r="H62" s="3">
-        <v>104600</v>
+        <v>102900</v>
       </c>
       <c r="I62" s="3">
-        <v>125600</v>
+        <v>106300</v>
       </c>
       <c r="J62" s="3">
+        <v>127700</v>
+      </c>
+      <c r="K62" s="3">
         <v>48900</v>
-      </c>
-      <c r="K62" s="3">
-        <v>47400</v>
       </c>
       <c r="L62" s="3">
         <v>47400</v>
       </c>
       <c r="M62" s="3">
+        <v>47400</v>
+      </c>
+      <c r="N62" s="3">
         <v>116400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>60200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>15200</v>
-      </c>
-      <c r="R62" s="3">
-        <v>500</v>
       </c>
       <c r="S62" s="3">
         <v>500</v>
@@ -4353,10 +4499,10 @@
         <v>500</v>
       </c>
       <c r="U62" s="3">
+        <v>500</v>
+      </c>
+      <c r="V62" s="3">
         <v>10500</v>
-      </c>
-      <c r="V62" s="3">
-        <v>400</v>
       </c>
       <c r="W62" s="3">
         <v>400</v>
@@ -4365,13 +4511,16 @@
         <v>400</v>
       </c>
       <c r="Y62" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z62" s="3">
         <v>25600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1557300</v>
+        <v>1624700</v>
       </c>
       <c r="E66" s="3">
-        <v>1416100</v>
+        <v>1583100</v>
       </c>
       <c r="F66" s="3">
-        <v>1482300</v>
+        <v>1441300</v>
       </c>
       <c r="G66" s="3">
-        <v>1514200</v>
+        <v>1507000</v>
       </c>
       <c r="H66" s="3">
-        <v>1431500</v>
+        <v>1539300</v>
       </c>
       <c r="I66" s="3">
-        <v>1446100</v>
+        <v>1455300</v>
       </c>
       <c r="J66" s="3">
+        <v>1470100</v>
+      </c>
+      <c r="K66" s="3">
         <v>1447500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1406700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1336000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1628100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1378700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>917100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>717700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>680000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>688600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>706300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>595900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>588700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>537600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>535600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>514500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>525900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>549600</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1009700</v>
+        <v>1087100</v>
       </c>
       <c r="E72" s="3">
-        <v>1101200</v>
+        <v>1026500</v>
       </c>
       <c r="F72" s="3">
-        <v>1014400</v>
+        <v>1578300</v>
       </c>
       <c r="G72" s="3">
-        <v>934500</v>
+        <v>1031300</v>
       </c>
       <c r="H72" s="3">
-        <v>988700</v>
+        <v>950000</v>
       </c>
       <c r="I72" s="3">
-        <v>1374400</v>
+        <v>1005100</v>
       </c>
       <c r="J72" s="3">
+        <v>1397200</v>
+      </c>
+      <c r="K72" s="3">
         <v>909300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>566100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>635300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>945700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>553400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>469500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>706700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>973600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>532500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>568900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>959800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1278000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>812600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>750900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>748900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1724800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>712100</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2268900</v>
+        <v>2289900</v>
       </c>
       <c r="E76" s="3">
-        <v>2372000</v>
+        <v>2306500</v>
       </c>
       <c r="F76" s="3">
-        <v>2319200</v>
+        <v>2417800</v>
       </c>
       <c r="G76" s="3">
-        <v>2273000</v>
+        <v>2357700</v>
       </c>
       <c r="H76" s="3">
-        <v>2327400</v>
+        <v>2310800</v>
       </c>
       <c r="I76" s="3">
-        <v>2260000</v>
+        <v>2366000</v>
       </c>
       <c r="J76" s="3">
+        <v>2297500</v>
+      </c>
+      <c r="K76" s="3">
         <v>2252700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2156100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2228700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2150500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2226400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2040400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1988700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1820600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1707600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1975500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2111600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1993700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1773000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1713800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1602200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1644500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1410900</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>56700</v>
+        <v>61100</v>
       </c>
       <c r="E81" s="3">
-        <v>86800</v>
+        <v>57600</v>
       </c>
       <c r="F81" s="3">
-        <v>79900</v>
+        <v>87800</v>
       </c>
       <c r="G81" s="3">
-        <v>44600</v>
+        <v>81200</v>
       </c>
       <c r="H81" s="3">
+        <v>45300</v>
+      </c>
+      <c r="I81" s="3">
+        <v>67100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>13600</v>
+      </c>
+      <c r="K81" s="3">
+        <v>28500</v>
+      </c>
+      <c r="L81" s="3">
+        <v>24600</v>
+      </c>
+      <c r="M81" s="3">
+        <v>62200</v>
+      </c>
+      <c r="N81" s="3">
+        <v>49500</v>
+      </c>
+      <c r="O81" s="3">
         <v>66000</v>
       </c>
-      <c r="I81" s="3">
-        <v>13400</v>
-      </c>
-      <c r="J81" s="3">
-        <v>28500</v>
-      </c>
-      <c r="K81" s="3">
-        <v>24600</v>
-      </c>
-      <c r="L81" s="3">
-        <v>62200</v>
-      </c>
-      <c r="M81" s="3">
-        <v>49500</v>
-      </c>
-      <c r="N81" s="3">
-        <v>66000</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>51300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>57600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>72500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>54800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>82300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>47000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>68100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>61600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>53800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>42900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>55200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>13700</v>
+        <v>16600</v>
       </c>
       <c r="E83" s="3">
-        <v>15000</v>
+        <v>13900</v>
       </c>
       <c r="F83" s="3">
+        <v>15200</v>
+      </c>
+      <c r="G83" s="3">
+        <v>12700</v>
+      </c>
+      <c r="H83" s="3">
+        <v>13000</v>
+      </c>
+      <c r="I83" s="3">
+        <v>11200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>17000</v>
+      </c>
+      <c r="K83" s="3">
+        <v>9500</v>
+      </c>
+      <c r="L83" s="3">
+        <v>7400</v>
+      </c>
+      <c r="M83" s="3">
+        <v>8400</v>
+      </c>
+      <c r="N83" s="3">
         <v>12500</v>
       </c>
-      <c r="G83" s="3">
-        <v>12800</v>
-      </c>
-      <c r="H83" s="3">
-        <v>11000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>16800</v>
-      </c>
-      <c r="J83" s="3">
-        <v>9500</v>
-      </c>
-      <c r="K83" s="3">
-        <v>7400</v>
-      </c>
-      <c r="L83" s="3">
-        <v>8400</v>
-      </c>
-      <c r="M83" s="3">
-        <v>12500</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>11200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>5300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>5100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>5000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>6000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>5600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>6000</v>
-      </c>
-      <c r="V83" s="3">
-        <v>5400</v>
       </c>
       <c r="W83" s="3">
         <v>5400</v>
       </c>
       <c r="X83" s="3">
+        <v>5400</v>
+      </c>
+      <c r="Y83" s="3">
         <v>5100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>5600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>21000</v>
+        <v>123900</v>
       </c>
       <c r="E89" s="3">
+        <v>21300</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-38100</v>
+      </c>
+      <c r="G89" s="3">
+        <v>84100</v>
+      </c>
+      <c r="H89" s="3">
+        <v>69600</v>
+      </c>
+      <c r="I89" s="3">
+        <v>68400</v>
+      </c>
+      <c r="J89" s="3">
+        <v>40800</v>
+      </c>
+      <c r="K89" s="3">
+        <v>14700</v>
+      </c>
+      <c r="L89" s="3">
+        <v>78500</v>
+      </c>
+      <c r="M89" s="3">
+        <v>64900</v>
+      </c>
+      <c r="N89" s="3">
+        <v>307600</v>
+      </c>
+      <c r="O89" s="3">
+        <v>92200</v>
+      </c>
+      <c r="P89" s="3">
+        <v>-59500</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-37500</v>
       </c>
-      <c r="F89" s="3">
-        <v>82700</v>
-      </c>
-      <c r="G89" s="3">
-        <v>68500</v>
-      </c>
-      <c r="H89" s="3">
-        <v>67300</v>
-      </c>
-      <c r="I89" s="3">
-        <v>40100</v>
-      </c>
-      <c r="J89" s="3">
-        <v>14700</v>
-      </c>
-      <c r="K89" s="3">
-        <v>78500</v>
-      </c>
-      <c r="L89" s="3">
-        <v>64900</v>
-      </c>
-      <c r="M89" s="3">
-        <v>307600</v>
-      </c>
-      <c r="N89" s="3">
-        <v>92200</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-59500</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-37500</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>53000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>118600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>210000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-7100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>94700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>68100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>26300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>87900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>200000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>46700</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1100</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I91" s="3">
-        <v>-800</v>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>1800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>3600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-7800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-126600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>72700</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-28900</v>
+        <v>-83500</v>
       </c>
       <c r="E94" s="3">
-        <v>-15300</v>
+        <v>-29400</v>
       </c>
       <c r="F94" s="3">
-        <v>38700</v>
+        <v>-15600</v>
       </c>
       <c r="G94" s="3">
-        <v>-25100</v>
+        <v>39400</v>
       </c>
       <c r="H94" s="3">
-        <v>22800</v>
+        <v>-25600</v>
       </c>
       <c r="I94" s="3">
-        <v>188000</v>
+        <v>23200</v>
       </c>
       <c r="J94" s="3">
+        <v>191100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-65800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>35800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>478200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-447600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-113200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>28300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-97000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-195900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>39700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>13100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-499200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-62000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>165700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-52400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-240900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-31200</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6494,23 +6728,23 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>49400</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-49400</v>
+        <v>50200</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-50200</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-2000</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
@@ -6530,11 +6764,11 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>91200</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,226 +7024,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-27900</v>
+        <v>-94600</v>
       </c>
       <c r="E100" s="3">
-        <v>-18600</v>
+        <v>-28300</v>
       </c>
       <c r="F100" s="3">
-        <v>-94400</v>
+        <v>-18900</v>
       </c>
       <c r="G100" s="3">
-        <v>-33200</v>
+        <v>-95900</v>
       </c>
       <c r="H100" s="3">
-        <v>-8000</v>
+        <v>-33800</v>
       </c>
       <c r="I100" s="3">
-        <v>-155600</v>
+        <v>-8200</v>
       </c>
       <c r="J100" s="3">
+        <v>-158200</v>
+      </c>
+      <c r="K100" s="3">
         <v>4900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-121200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>10700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-366600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>354200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>195100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>23200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>73400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-238700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>410700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-174500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-38500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>55000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>39200</v>
+        <v>-9400</v>
       </c>
       <c r="E101" s="3">
-        <v>51600</v>
+        <v>39800</v>
       </c>
       <c r="F101" s="3">
-        <v>-22700</v>
+        <v>52500</v>
       </c>
       <c r="G101" s="3">
-        <v>-1700</v>
+        <v>-23100</v>
       </c>
       <c r="H101" s="3">
-        <v>-30200</v>
+        <v>-1800</v>
       </c>
       <c r="I101" s="3">
-        <v>-85800</v>
+        <v>-30700</v>
       </c>
       <c r="J101" s="3">
+        <v>-87300</v>
+      </c>
+      <c r="K101" s="3">
         <v>71600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-165800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>116300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-175400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-133700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>217000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>60800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-121200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>73100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>62800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>281000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>14000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>54800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>1100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-140600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-63600</v>
+      </c>
+      <c r="E102" s="3">
         <v>3400</v>
       </c>
-      <c r="E102" s="3">
-        <v>-19800</v>
-      </c>
       <c r="F102" s="3">
-        <v>4300</v>
+        <v>-20100</v>
       </c>
       <c r="G102" s="3">
-        <v>8400</v>
+        <v>4400</v>
       </c>
       <c r="H102" s="3">
-        <v>51900</v>
+        <v>8500</v>
       </c>
       <c r="I102" s="3">
-        <v>-13300</v>
+        <v>52800</v>
       </c>
       <c r="J102" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="K102" s="3">
         <v>25400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-44900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>64100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-153500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-134900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>239400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>52800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-146000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>69300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>73800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>251500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>18500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>72300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-126500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>42000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PUODY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PUODY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>PUODY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>177300</v>
+        <v>183800</v>
       </c>
       <c r="E8" s="3">
-        <v>179500</v>
+        <v>182800</v>
       </c>
       <c r="F8" s="3">
-        <v>174400</v>
+        <v>185100</v>
       </c>
       <c r="G8" s="3">
-        <v>160200</v>
+        <v>179800</v>
       </c>
       <c r="H8" s="3">
-        <v>151900</v>
+        <v>165200</v>
       </c>
       <c r="I8" s="3">
-        <v>137200</v>
+        <v>156700</v>
       </c>
       <c r="J8" s="3">
+        <v>141500</v>
+      </c>
+      <c r="K8" s="3">
         <v>162200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>119700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>84000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>123500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>188000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>147800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>129600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>127600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>144800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>135600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>158200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>125500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>133800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>126000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>140900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>116900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>140900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>127500</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>72900</v>
+        <v>67700</v>
       </c>
       <c r="E9" s="3">
-        <v>79600</v>
+        <v>75200</v>
       </c>
       <c r="F9" s="3">
-        <v>92500</v>
+        <v>82100</v>
       </c>
       <c r="G9" s="3">
+        <v>95400</v>
+      </c>
+      <c r="H9" s="3">
+        <v>69000</v>
+      </c>
+      <c r="I9" s="3">
+        <v>63800</v>
+      </c>
+      <c r="J9" s="3">
+        <v>60800</v>
+      </c>
+      <c r="K9" s="3">
+        <v>83200</v>
+      </c>
+      <c r="L9" s="3">
+        <v>57700</v>
+      </c>
+      <c r="M9" s="3">
+        <v>45700</v>
+      </c>
+      <c r="N9" s="3">
+        <v>50800</v>
+      </c>
+      <c r="O9" s="3">
+        <v>103400</v>
+      </c>
+      <c r="P9" s="3">
         <v>66900</v>
       </c>
-      <c r="H9" s="3">
-        <v>61800</v>
-      </c>
-      <c r="I9" s="3">
-        <v>59000</v>
-      </c>
-      <c r="J9" s="3">
-        <v>83200</v>
-      </c>
-      <c r="K9" s="3">
-        <v>57700</v>
-      </c>
-      <c r="L9" s="3">
-        <v>45700</v>
-      </c>
-      <c r="M9" s="3">
-        <v>50800</v>
-      </c>
-      <c r="N9" s="3">
-        <v>103400</v>
-      </c>
-      <c r="O9" s="3">
-        <v>66900</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>52900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>50900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>69600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>59700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>63700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>42400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>56000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>50700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>63400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>43500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>61900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>50600</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>104300</v>
+        <v>116000</v>
       </c>
       <c r="E10" s="3">
-        <v>100000</v>
+        <v>107600</v>
       </c>
       <c r="F10" s="3">
-        <v>81900</v>
+        <v>103100</v>
       </c>
       <c r="G10" s="3">
-        <v>93300</v>
+        <v>84400</v>
       </c>
       <c r="H10" s="3">
-        <v>90100</v>
+        <v>96200</v>
       </c>
       <c r="I10" s="3">
-        <v>78300</v>
+        <v>92900</v>
       </c>
       <c r="J10" s="3">
+        <v>80700</v>
+      </c>
+      <c r="K10" s="3">
         <v>79000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>62000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>38300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>72700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>84600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>80900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>76600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>76700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>75200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>76000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>94400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>83100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>77800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>75300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>77400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>73300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>79000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>77000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1275,10 +1298,10 @@
         <v>100</v>
       </c>
       <c r="F15" s="3">
+        <v>100</v>
+      </c>
+      <c r="G15" s="3">
         <v>200</v>
-      </c>
-      <c r="G15" s="3">
-        <v>100</v>
       </c>
       <c r="H15" s="3">
         <v>100</v>
@@ -1299,19 +1322,19 @@
         <v>100</v>
       </c>
       <c r="N15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
         <v>100</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
       <c r="Q15" s="3">
         <v>0</v>
       </c>
       <c r="R15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S15" s="3">
         <v>100</v>
@@ -1322,8 +1345,8 @@
       <c r="U15" s="3">
         <v>100</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>8</v>
+      <c r="V15" s="3">
+        <v>100</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>8</v>
@@ -1334,14 +1357,17 @@
       <c r="Y15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z15" s="3">
-        <v>0</v>
+      <c r="Z15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>75400</v>
+        <v>69600</v>
       </c>
       <c r="E17" s="3">
-        <v>77900</v>
+        <v>77700</v>
       </c>
       <c r="F17" s="3">
-        <v>99500</v>
+        <v>80400</v>
       </c>
       <c r="G17" s="3">
-        <v>67400</v>
+        <v>102600</v>
       </c>
       <c r="H17" s="3">
-        <v>60500</v>
+        <v>69500</v>
       </c>
       <c r="I17" s="3">
-        <v>59500</v>
+        <v>62400</v>
       </c>
       <c r="J17" s="3">
+        <v>61400</v>
+      </c>
+      <c r="K17" s="3">
         <v>83500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>60600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>45500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>50200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>104300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>67700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>54000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>51300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>70300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>61400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>62900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>40700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>56900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>48300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>63000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>42700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>61500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>49600</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>101900</v>
+        <v>114200</v>
       </c>
       <c r="E18" s="3">
-        <v>101600</v>
+        <v>105100</v>
       </c>
       <c r="F18" s="3">
-        <v>74900</v>
+        <v>104800</v>
       </c>
       <c r="G18" s="3">
-        <v>92800</v>
+        <v>77200</v>
       </c>
       <c r="H18" s="3">
-        <v>91400</v>
+        <v>95700</v>
       </c>
       <c r="I18" s="3">
+        <v>94300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>80100</v>
+      </c>
+      <c r="K18" s="3">
+        <v>78700</v>
+      </c>
+      <c r="L18" s="3">
+        <v>59100</v>
+      </c>
+      <c r="M18" s="3">
+        <v>38500</v>
+      </c>
+      <c r="N18" s="3">
+        <v>73200</v>
+      </c>
+      <c r="O18" s="3">
+        <v>83700</v>
+      </c>
+      <c r="P18" s="3">
+        <v>80100</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>75600</v>
+      </c>
+      <c r="R18" s="3">
+        <v>76300</v>
+      </c>
+      <c r="S18" s="3">
+        <v>74500</v>
+      </c>
+      <c r="T18" s="3">
+        <v>74300</v>
+      </c>
+      <c r="U18" s="3">
+        <v>95300</v>
+      </c>
+      <c r="V18" s="3">
+        <v>84800</v>
+      </c>
+      <c r="W18" s="3">
+        <v>77000</v>
+      </c>
+      <c r="X18" s="3">
         <v>77700</v>
       </c>
-      <c r="J18" s="3">
-        <v>78700</v>
-      </c>
-      <c r="K18" s="3">
-        <v>59100</v>
-      </c>
-      <c r="L18" s="3">
-        <v>38500</v>
-      </c>
-      <c r="M18" s="3">
-        <v>73200</v>
-      </c>
-      <c r="N18" s="3">
-        <v>83700</v>
-      </c>
-      <c r="O18" s="3">
-        <v>80100</v>
-      </c>
-      <c r="P18" s="3">
-        <v>75600</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>76300</v>
-      </c>
-      <c r="R18" s="3">
-        <v>74500</v>
-      </c>
-      <c r="S18" s="3">
-        <v>74300</v>
-      </c>
-      <c r="T18" s="3">
-        <v>95300</v>
-      </c>
-      <c r="U18" s="3">
-        <v>84800</v>
-      </c>
-      <c r="V18" s="3">
-        <v>77000</v>
-      </c>
-      <c r="W18" s="3">
-        <v>77700</v>
-      </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>77800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>74100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>79500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>77900</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,393 +1582,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>4200</v>
+        <v>26200</v>
       </c>
       <c r="E20" s="3">
-        <v>-3200</v>
+        <v>4300</v>
       </c>
       <c r="F20" s="3">
-        <v>74800</v>
+        <v>-3300</v>
       </c>
       <c r="G20" s="3">
-        <v>38300</v>
+        <v>77200</v>
       </c>
       <c r="H20" s="3">
-        <v>-5400</v>
+        <v>39500</v>
       </c>
       <c r="I20" s="3">
-        <v>31100</v>
+        <v>-5600</v>
       </c>
       <c r="J20" s="3">
+        <v>32100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-64400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>8600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>36400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>11800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>30900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>19200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>16600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>44100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>5300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>34500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-7100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>35700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>12000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>3100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-11500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>16400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>122700</v>
+        <v>155000</v>
       </c>
       <c r="E21" s="3">
-        <v>112300</v>
+        <v>126500</v>
       </c>
       <c r="F21" s="3">
-        <v>164900</v>
+        <v>115800</v>
       </c>
       <c r="G21" s="3">
-        <v>143900</v>
+        <v>170100</v>
       </c>
       <c r="H21" s="3">
-        <v>99000</v>
+        <v>148400</v>
       </c>
       <c r="I21" s="3">
-        <v>120100</v>
+        <v>102100</v>
       </c>
       <c r="J21" s="3">
+        <v>123800</v>
+      </c>
+      <c r="K21" s="3">
         <v>31400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>71300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>54600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>118100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>108000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>122200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>100100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>98000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>120000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>84600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>135800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>83300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>118700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>95200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>86300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>67800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>101400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>97700</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>17200</v>
+        <v>17900</v>
       </c>
       <c r="E22" s="3">
-        <v>16000</v>
+        <v>17700</v>
       </c>
       <c r="F22" s="3">
-        <v>79400</v>
+        <v>16500</v>
       </c>
       <c r="G22" s="3">
-        <v>16200</v>
+        <v>81900</v>
       </c>
       <c r="H22" s="3">
-        <v>16100</v>
+        <v>16700</v>
       </c>
       <c r="I22" s="3">
-        <v>15900</v>
-      </c>
-      <c r="J22" s="3" t="s">
+        <v>16600</v>
+      </c>
+      <c r="J22" s="3">
+        <v>16400</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>9900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>9500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>11900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>21200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>10600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>8300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>5300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>17900</v>
-      </c>
-      <c r="S22" s="3">
-        <v>4100</v>
       </c>
       <c r="T22" s="3">
         <v>4100</v>
       </c>
       <c r="U22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="V22" s="3">
         <v>4700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>22000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>4000</v>
-      </c>
-      <c r="X22" s="3">
-        <v>3900</v>
       </c>
       <c r="Y22" s="3">
         <v>3900</v>
       </c>
       <c r="Z22" s="3">
+        <v>3900</v>
+      </c>
+      <c r="AA22" s="3">
         <v>44600</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>88900</v>
+        <v>122500</v>
       </c>
       <c r="E23" s="3">
-        <v>82400</v>
+        <v>91700</v>
       </c>
       <c r="F23" s="3">
-        <v>70300</v>
+        <v>84900</v>
       </c>
       <c r="G23" s="3">
-        <v>114900</v>
+        <v>72500</v>
       </c>
       <c r="H23" s="3">
-        <v>69900</v>
+        <v>118500</v>
       </c>
       <c r="I23" s="3">
-        <v>92900</v>
+        <v>72100</v>
       </c>
       <c r="J23" s="3">
+        <v>95800</v>
+      </c>
+      <c r="K23" s="3">
         <v>14300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>51900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>37600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>97800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>74300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>100500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>86500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>87600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>100800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>75400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>125700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>73000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>90700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>85800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>77000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>58700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>51300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>85500</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>14100</v>
+        <v>18200</v>
       </c>
       <c r="E24" s="3">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="F24" s="3">
-        <v>-35600</v>
+        <v>14500</v>
       </c>
       <c r="G24" s="3">
-        <v>22600</v>
+        <v>-36700</v>
       </c>
       <c r="H24" s="3">
+        <v>23300</v>
+      </c>
+      <c r="I24" s="3">
+        <v>15600</v>
+      </c>
+      <c r="J24" s="3">
+        <v>19800</v>
+      </c>
+      <c r="K24" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="L24" s="3">
         <v>15100</v>
       </c>
-      <c r="I24" s="3">
-        <v>19200</v>
-      </c>
-      <c r="J24" s="3">
-        <v>-11000</v>
-      </c>
-      <c r="K24" s="3">
-        <v>15100</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>6600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>25900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>17300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>26600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>24100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>20400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>19000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>12000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>34000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>16500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>14700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>18300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>17500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>11800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-7000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>74800</v>
+        <v>104300</v>
       </c>
       <c r="E26" s="3">
-        <v>68300</v>
+        <v>77200</v>
       </c>
       <c r="F26" s="3">
-        <v>105900</v>
+        <v>70500</v>
       </c>
       <c r="G26" s="3">
-        <v>92300</v>
+        <v>109200</v>
       </c>
       <c r="H26" s="3">
-        <v>54800</v>
+        <v>95200</v>
       </c>
       <c r="I26" s="3">
-        <v>73700</v>
+        <v>56500</v>
       </c>
       <c r="J26" s="3">
+        <v>76000</v>
+      </c>
+      <c r="K26" s="3">
         <v>25300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>36800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>31100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>71900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>56900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>73800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>62400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>67200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>81700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>63400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>91700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>56500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>76000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>67500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>59600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>46900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>58300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>61100</v>
+        <v>91300</v>
       </c>
       <c r="E27" s="3">
+        <v>63000</v>
+      </c>
+      <c r="F27" s="3">
+        <v>59400</v>
+      </c>
+      <c r="G27" s="3">
+        <v>90500</v>
+      </c>
+      <c r="H27" s="3">
+        <v>83800</v>
+      </c>
+      <c r="I27" s="3">
+        <v>46800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>69200</v>
+      </c>
+      <c r="K27" s="3">
+        <v>13600</v>
+      </c>
+      <c r="L27" s="3">
+        <v>28500</v>
+      </c>
+      <c r="M27" s="3">
+        <v>24600</v>
+      </c>
+      <c r="N27" s="3">
+        <v>62200</v>
+      </c>
+      <c r="O27" s="3">
+        <v>49500</v>
+      </c>
+      <c r="P27" s="3">
+        <v>66000</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>51300</v>
+      </c>
+      <c r="R27" s="3">
         <v>57600</v>
       </c>
-      <c r="F27" s="3">
-        <v>87800</v>
-      </c>
-      <c r="G27" s="3">
-        <v>81200</v>
-      </c>
-      <c r="H27" s="3">
-        <v>45300</v>
-      </c>
-      <c r="I27" s="3">
-        <v>67100</v>
-      </c>
-      <c r="J27" s="3">
-        <v>13600</v>
-      </c>
-      <c r="K27" s="3">
-        <v>28500</v>
-      </c>
-      <c r="L27" s="3">
-        <v>24600</v>
-      </c>
-      <c r="M27" s="3">
-        <v>62200</v>
-      </c>
-      <c r="N27" s="3">
-        <v>49500</v>
-      </c>
-      <c r="O27" s="3">
-        <v>66000</v>
-      </c>
-      <c r="P27" s="3">
-        <v>51300</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>57600</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>72500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>54800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>82300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>47000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>68100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>61600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>54200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>42900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>55200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2289,12 +2350,12 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
@@ -2308,19 +2369,22 @@
         <v>0</v>
       </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-400</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
-      </c>
       <c r="Z29" s="3">
         <v>0</v>
       </c>
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-4200</v>
+        <v>-26200</v>
       </c>
       <c r="E32" s="3">
-        <v>3200</v>
+        <v>-4300</v>
       </c>
       <c r="F32" s="3">
-        <v>-74800</v>
+        <v>3300</v>
       </c>
       <c r="G32" s="3">
-        <v>-38300</v>
+        <v>-77200</v>
       </c>
       <c r="H32" s="3">
-        <v>5400</v>
+        <v>-39500</v>
       </c>
       <c r="I32" s="3">
-        <v>-31100</v>
+        <v>5600</v>
       </c>
       <c r="J32" s="3">
+        <v>-32100</v>
+      </c>
+      <c r="K32" s="3">
         <v>64400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-8600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-36400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-11800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-30900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-19200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-16600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-44100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-5300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-34500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>7100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-35700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-12000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-3100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>11500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-16400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-14800</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>61100</v>
+        <v>91300</v>
       </c>
       <c r="E33" s="3">
+        <v>63000</v>
+      </c>
+      <c r="F33" s="3">
+        <v>59400</v>
+      </c>
+      <c r="G33" s="3">
+        <v>90500</v>
+      </c>
+      <c r="H33" s="3">
+        <v>83800</v>
+      </c>
+      <c r="I33" s="3">
+        <v>46800</v>
+      </c>
+      <c r="J33" s="3">
+        <v>69200</v>
+      </c>
+      <c r="K33" s="3">
+        <v>13600</v>
+      </c>
+      <c r="L33" s="3">
+        <v>28500</v>
+      </c>
+      <c r="M33" s="3">
+        <v>24600</v>
+      </c>
+      <c r="N33" s="3">
+        <v>62200</v>
+      </c>
+      <c r="O33" s="3">
+        <v>49500</v>
+      </c>
+      <c r="P33" s="3">
+        <v>66000</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>51300</v>
+      </c>
+      <c r="R33" s="3">
         <v>57600</v>
       </c>
-      <c r="F33" s="3">
-        <v>87800</v>
-      </c>
-      <c r="G33" s="3">
-        <v>81200</v>
-      </c>
-      <c r="H33" s="3">
-        <v>45300</v>
-      </c>
-      <c r="I33" s="3">
-        <v>67100</v>
-      </c>
-      <c r="J33" s="3">
-        <v>13600</v>
-      </c>
-      <c r="K33" s="3">
-        <v>28500</v>
-      </c>
-      <c r="L33" s="3">
-        <v>24600</v>
-      </c>
-      <c r="M33" s="3">
-        <v>62200</v>
-      </c>
-      <c r="N33" s="3">
-        <v>49500</v>
-      </c>
-      <c r="O33" s="3">
-        <v>66000</v>
-      </c>
-      <c r="P33" s="3">
-        <v>51300</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>57600</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>72500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>54800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>82300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>47000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>68100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>61600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>53800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>42900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>55200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>61100</v>
+        <v>91300</v>
       </c>
       <c r="E35" s="3">
+        <v>63000</v>
+      </c>
+      <c r="F35" s="3">
+        <v>59400</v>
+      </c>
+      <c r="G35" s="3">
+        <v>90500</v>
+      </c>
+      <c r="H35" s="3">
+        <v>83800</v>
+      </c>
+      <c r="I35" s="3">
+        <v>46800</v>
+      </c>
+      <c r="J35" s="3">
+        <v>69200</v>
+      </c>
+      <c r="K35" s="3">
+        <v>13600</v>
+      </c>
+      <c r="L35" s="3">
+        <v>28500</v>
+      </c>
+      <c r="M35" s="3">
+        <v>24600</v>
+      </c>
+      <c r="N35" s="3">
+        <v>62200</v>
+      </c>
+      <c r="O35" s="3">
+        <v>49500</v>
+      </c>
+      <c r="P35" s="3">
+        <v>66000</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>51300</v>
+      </c>
+      <c r="R35" s="3">
         <v>57600</v>
       </c>
-      <c r="F35" s="3">
-        <v>87800</v>
-      </c>
-      <c r="G35" s="3">
-        <v>81200</v>
-      </c>
-      <c r="H35" s="3">
-        <v>45300</v>
-      </c>
-      <c r="I35" s="3">
-        <v>67100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>13600</v>
-      </c>
-      <c r="K35" s="3">
-        <v>28500</v>
-      </c>
-      <c r="L35" s="3">
-        <v>24600</v>
-      </c>
-      <c r="M35" s="3">
-        <v>62200</v>
-      </c>
-      <c r="N35" s="3">
-        <v>49500</v>
-      </c>
-      <c r="O35" s="3">
-        <v>66000</v>
-      </c>
-      <c r="P35" s="3">
-        <v>51300</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>57600</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>72500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>54800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>82300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>47000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>68100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>61600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>53800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>42900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>55200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3007,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1303600</v>
+        <v>1334700</v>
       </c>
       <c r="E41" s="3">
-        <v>1387500</v>
+        <v>1344300</v>
       </c>
       <c r="F41" s="3">
-        <v>133500</v>
+        <v>1430900</v>
       </c>
       <c r="G41" s="3">
-        <v>1404200</v>
+        <v>137600</v>
       </c>
       <c r="H41" s="3">
-        <v>1399700</v>
+        <v>1448100</v>
       </c>
       <c r="I41" s="3">
-        <v>1391200</v>
+        <v>1443500</v>
       </c>
       <c r="J41" s="3">
+        <v>1434700</v>
+      </c>
+      <c r="K41" s="3">
         <v>56900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1469500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1398700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1433500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>24100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1429300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1506600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1267200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>10200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1091400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1217400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1143600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>23600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>849000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>830500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>758200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>815900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>651900</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3009,11 +3099,11 @@
       <c r="E42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="3">
-        <v>1144500</v>
-      </c>
-      <c r="G42" s="3" t="s">
+      <c r="F42" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1180300</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>8</v>
@@ -3021,11 +3111,11 @@
       <c r="I42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K42" s="3">
         <v>1196200</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>8</v>
@@ -3033,11 +3123,11 @@
       <c r="M42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O42" s="3">
         <v>1409100</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>8</v>
@@ -3045,11 +3135,11 @@
       <c r="Q42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S42" s="3">
         <v>1131400</v>
-      </c>
-      <c r="S42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>8</v>
@@ -3057,11 +3147,11 @@
       <c r="U42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V42" s="3">
+      <c r="V42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W42" s="3">
         <v>1073300</v>
-      </c>
-      <c r="W42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X42" s="3" t="s">
         <v>8</v>
@@ -3069,553 +3159,577 @@
       <c r="Y42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="Z42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA42" s="3">
         <v>741000</v>
       </c>
-      <c r="AA42" s="3" t="s">
+      <c r="AB42" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>75200</v>
+        <v>71100</v>
       </c>
       <c r="E43" s="3">
-        <v>77200</v>
+        <v>77600</v>
       </c>
       <c r="F43" s="3">
-        <v>133700</v>
+        <v>79600</v>
       </c>
       <c r="G43" s="3">
+        <v>137900</v>
+      </c>
+      <c r="H43" s="3">
+        <v>85900</v>
+      </c>
+      <c r="I43" s="3">
+        <v>83600</v>
+      </c>
+      <c r="J43" s="3">
+        <v>75900</v>
+      </c>
+      <c r="K43" s="3">
+        <v>71800</v>
+      </c>
+      <c r="L43" s="3">
+        <v>77400</v>
+      </c>
+      <c r="M43" s="3">
+        <v>81800</v>
+      </c>
+      <c r="N43" s="3">
+        <v>78300</v>
+      </c>
+      <c r="O43" s="3">
         <v>83300</v>
       </c>
-      <c r="H43" s="3">
-        <v>81100</v>
-      </c>
-      <c r="I43" s="3">
-        <v>73600</v>
-      </c>
-      <c r="J43" s="3">
-        <v>71800</v>
-      </c>
-      <c r="K43" s="3">
-        <v>77400</v>
-      </c>
-      <c r="L43" s="3">
-        <v>81800</v>
-      </c>
-      <c r="M43" s="3">
-        <v>78300</v>
-      </c>
-      <c r="N43" s="3">
-        <v>83300</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>79900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>70100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>66000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>68900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>76600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>81300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>100000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>128300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>107700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>110400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>105300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>104500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>85200</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8400</v>
+        <v>9200</v>
       </c>
       <c r="E44" s="3">
-        <v>7700</v>
+        <v>8700</v>
       </c>
       <c r="F44" s="3">
-        <v>7700</v>
+        <v>8000</v>
       </c>
       <c r="G44" s="3">
-        <v>7700</v>
+        <v>7900</v>
       </c>
       <c r="H44" s="3">
+        <v>7900</v>
+      </c>
+      <c r="I44" s="3">
+        <v>7500</v>
+      </c>
+      <c r="J44" s="3">
         <v>7300</v>
       </c>
-      <c r="I44" s="3">
-        <v>7000</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>6900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>7300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>6200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5900</v>
-      </c>
-      <c r="T44" s="3">
-        <v>5400</v>
       </c>
       <c r="U44" s="3">
         <v>5400</v>
       </c>
       <c r="V44" s="3">
+        <v>5400</v>
+      </c>
+      <c r="W44" s="3">
         <v>5300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>5500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>5600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>5300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>8400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>99900</v>
+        <v>107200</v>
       </c>
       <c r="E45" s="3">
-        <v>33500</v>
+        <v>103000</v>
       </c>
       <c r="F45" s="3">
-        <v>15200</v>
+        <v>34500</v>
       </c>
       <c r="G45" s="3">
-        <v>25600</v>
+        <v>15700</v>
       </c>
       <c r="H45" s="3">
-        <v>25100</v>
+        <v>26300</v>
       </c>
       <c r="I45" s="3">
-        <v>20800</v>
+        <v>25900</v>
       </c>
       <c r="J45" s="3">
+        <v>21500</v>
+      </c>
+      <c r="K45" s="3">
         <v>11800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>13100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>42400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>40200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>22700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>38700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>13400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>9900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>6300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>27200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>34300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>68800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>25900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>59700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>55400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>50200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>73000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>50700</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1487100</v>
+        <v>1522300</v>
       </c>
       <c r="E46" s="3">
-        <v>1505900</v>
+        <v>1533600</v>
       </c>
       <c r="F46" s="3">
-        <v>1434600</v>
+        <v>1553000</v>
       </c>
       <c r="G46" s="3">
-        <v>1520700</v>
+        <v>1479400</v>
       </c>
       <c r="H46" s="3">
-        <v>1513200</v>
+        <v>1568300</v>
       </c>
       <c r="I46" s="3">
-        <v>1492700</v>
+        <v>1560500</v>
       </c>
       <c r="J46" s="3">
+        <v>1539400</v>
+      </c>
+      <c r="K46" s="3">
         <v>1343500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1566500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1529000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1557800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1548600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1554200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1595400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1348100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1221300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1201100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1338500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1317800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1256400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1021900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1001900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>919000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>940700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>792800</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>71100</v>
+        <v>72600</v>
       </c>
       <c r="E47" s="3">
-        <v>99300</v>
+        <v>73400</v>
       </c>
       <c r="F47" s="3">
-        <v>152500</v>
+        <v>102400</v>
       </c>
       <c r="G47" s="3">
-        <v>101200</v>
+        <v>157300</v>
       </c>
       <c r="H47" s="3">
-        <v>97500</v>
+        <v>104300</v>
       </c>
       <c r="I47" s="3">
-        <v>97700</v>
+        <v>100500</v>
       </c>
       <c r="J47" s="3">
+        <v>100800</v>
+      </c>
+      <c r="K47" s="3">
         <v>182700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>154300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>140900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>138200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>95000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>131200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>179200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>180300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>172400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>143300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>162200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>217500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>218000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>208300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>201500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>196000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>205700</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>197500</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>127700</v>
+        <v>139200</v>
       </c>
       <c r="E48" s="3">
-        <v>68700</v>
+        <v>131700</v>
       </c>
       <c r="F48" s="3">
-        <v>124200</v>
+        <v>70900</v>
       </c>
       <c r="G48" s="3">
-        <v>70100</v>
+        <v>128100</v>
       </c>
       <c r="H48" s="3">
-        <v>70700</v>
+        <v>72300</v>
       </c>
       <c r="I48" s="3">
-        <v>71300</v>
+        <v>72900</v>
       </c>
       <c r="J48" s="3">
+        <v>73600</v>
+      </c>
+      <c r="K48" s="3">
         <v>56300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>49300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>47600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>48700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>57400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>52300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>50100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>51000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>47800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>47500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>56200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>50100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>54700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>49300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>49900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>50500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>112400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>49000</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2029400</v>
+        <v>2059600</v>
       </c>
       <c r="E49" s="3">
-        <v>2074100</v>
+        <v>2092800</v>
       </c>
       <c r="F49" s="3">
-        <v>1962800</v>
+        <v>2138900</v>
       </c>
       <c r="G49" s="3">
-        <v>2044300</v>
+        <v>2024200</v>
       </c>
       <c r="H49" s="3">
-        <v>2033100</v>
+        <v>2108200</v>
       </c>
       <c r="I49" s="3">
-        <v>2025700</v>
+        <v>2096700</v>
       </c>
       <c r="J49" s="3">
+        <v>2089100</v>
+      </c>
+      <c r="K49" s="3">
         <v>2015200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1792800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1724700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1718000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1962700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1768100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1084600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1057300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>971800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>924600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1071500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1049100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>981900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>957200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>923200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>882000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>882800</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>872700</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>199400</v>
+        <v>206000</v>
       </c>
       <c r="E52" s="3">
-        <v>141700</v>
+        <v>205600</v>
       </c>
       <c r="F52" s="3">
-        <v>184900</v>
+        <v>146100</v>
       </c>
       <c r="G52" s="3">
-        <v>128300</v>
+        <v>190700</v>
       </c>
       <c r="H52" s="3">
-        <v>135600</v>
+        <v>132300</v>
       </c>
       <c r="I52" s="3">
-        <v>133800</v>
+        <v>139900</v>
       </c>
       <c r="J52" s="3">
+        <v>138000</v>
+      </c>
+      <c r="K52" s="3">
         <v>169800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>137300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>120600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>102000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>114900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>99400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>48300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>69800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>87200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>79600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>53300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>73100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>71500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>73900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>72900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>69100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>91600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3914700</v>
+        <v>3999600</v>
       </c>
       <c r="E54" s="3">
-        <v>3889700</v>
+        <v>4037100</v>
       </c>
       <c r="F54" s="3">
-        <v>3859100</v>
+        <v>4011300</v>
       </c>
       <c r="G54" s="3">
-        <v>3864600</v>
+        <v>3979700</v>
       </c>
       <c r="H54" s="3">
-        <v>3850100</v>
+        <v>3985400</v>
       </c>
       <c r="I54" s="3">
-        <v>3821300</v>
+        <v>3970500</v>
       </c>
       <c r="J54" s="3">
+        <v>3940800</v>
+      </c>
+      <c r="K54" s="3">
         <v>3767600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3700200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3562800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3564700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3778600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3605100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2957500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2706400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2500500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2396100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2681700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2707500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2582400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2310700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2249300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2116700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2170400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1960500</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,443 +4187,459 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>34400</v>
+        <v>44200</v>
       </c>
       <c r="E57" s="3">
-        <v>36600</v>
+        <v>35500</v>
       </c>
       <c r="F57" s="3">
-        <v>29600</v>
+        <v>37800</v>
       </c>
       <c r="G57" s="3">
-        <v>28000</v>
+        <v>30500</v>
       </c>
       <c r="H57" s="3">
-        <v>30800</v>
+        <v>28900</v>
       </c>
       <c r="I57" s="3">
-        <v>31100</v>
+        <v>31700</v>
       </c>
       <c r="J57" s="3">
+        <v>32000</v>
+      </c>
+      <c r="K57" s="3">
         <v>32200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>29000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>25800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>27200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>30500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>17700</v>
-      </c>
-      <c r="P57" s="3">
-        <v>12500</v>
       </c>
       <c r="Q57" s="3">
         <v>12500</v>
       </c>
       <c r="R57" s="3">
+        <v>12500</v>
+      </c>
+      <c r="S57" s="3">
         <v>10800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>11700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>12000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>11100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>12300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>12100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>13400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>8700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>13800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>35500</v>
+        <v>38200</v>
       </c>
       <c r="E58" s="3">
-        <v>42000</v>
+        <v>36600</v>
       </c>
       <c r="F58" s="3">
-        <v>27100</v>
+        <v>43300</v>
       </c>
       <c r="G58" s="3">
-        <v>38500</v>
+        <v>28000</v>
       </c>
       <c r="H58" s="3">
-        <v>35400</v>
+        <v>39700</v>
       </c>
       <c r="I58" s="3">
+        <v>36500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>35000</v>
+      </c>
+      <c r="K58" s="3">
+        <v>20200</v>
+      </c>
+      <c r="L58" s="3">
+        <v>26400</v>
+      </c>
+      <c r="M58" s="3">
+        <v>22900</v>
+      </c>
+      <c r="N58" s="3">
+        <v>10900</v>
+      </c>
+      <c r="O58" s="3">
+        <v>11200</v>
+      </c>
+      <c r="P58" s="3">
+        <v>10100</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>9600</v>
+      </c>
+      <c r="R58" s="3">
+        <v>15500</v>
+      </c>
+      <c r="S58" s="3">
+        <v>14600</v>
+      </c>
+      <c r="T58" s="3">
+        <v>10600</v>
+      </c>
+      <c r="U58" s="3">
+        <v>10700</v>
+      </c>
+      <c r="V58" s="3">
+        <v>34600</v>
+      </c>
+      <c r="W58" s="3">
+        <v>36700</v>
+      </c>
+      <c r="X58" s="3">
+        <v>35700</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>34900</v>
+      </c>
+      <c r="Z58" s="3">
         <v>34000</v>
       </c>
-      <c r="J58" s="3">
-        <v>20200</v>
-      </c>
-      <c r="K58" s="3">
-        <v>26400</v>
-      </c>
-      <c r="L58" s="3">
-        <v>22900</v>
-      </c>
-      <c r="M58" s="3">
-        <v>10900</v>
-      </c>
-      <c r="N58" s="3">
-        <v>11200</v>
-      </c>
-      <c r="O58" s="3">
-        <v>10100</v>
-      </c>
-      <c r="P58" s="3">
-        <v>9600</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>15500</v>
-      </c>
-      <c r="R58" s="3">
-        <v>14600</v>
-      </c>
-      <c r="S58" s="3">
-        <v>10600</v>
-      </c>
-      <c r="T58" s="3">
-        <v>10700</v>
-      </c>
-      <c r="U58" s="3">
-        <v>34600</v>
-      </c>
-      <c r="V58" s="3">
-        <v>36700</v>
-      </c>
-      <c r="W58" s="3">
-        <v>35700</v>
-      </c>
-      <c r="X58" s="3">
-        <v>34900</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>34000</v>
-      </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>31100</v>
       </c>
-      <c r="AA58" s="3" t="s">
+      <c r="AB58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>296900</v>
+        <v>269400</v>
       </c>
       <c r="E59" s="3">
-        <v>284000</v>
+        <v>306200</v>
       </c>
       <c r="F59" s="3">
-        <v>149300</v>
+        <v>292900</v>
       </c>
       <c r="G59" s="3">
-        <v>190300</v>
+        <v>153900</v>
       </c>
       <c r="H59" s="3">
-        <v>220200</v>
+        <v>196200</v>
       </c>
       <c r="I59" s="3">
-        <v>123800</v>
+        <v>227100</v>
       </c>
       <c r="J59" s="3">
+        <v>127700</v>
+      </c>
+      <c r="K59" s="3">
         <v>127200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>218800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>216200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>143400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>264400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>156900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>103300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>106300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>204100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>203000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>237000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>101000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>107600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>117100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>110200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>138900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>144900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>155200</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>366800</v>
+        <v>351900</v>
       </c>
       <c r="E60" s="3">
-        <v>362600</v>
+        <v>378300</v>
       </c>
       <c r="F60" s="3">
-        <v>206000</v>
+        <v>373900</v>
       </c>
       <c r="G60" s="3">
-        <v>256800</v>
+        <v>212500</v>
       </c>
       <c r="H60" s="3">
-        <v>286400</v>
+        <v>264800</v>
       </c>
       <c r="I60" s="3">
-        <v>188800</v>
+        <v>295300</v>
       </c>
       <c r="J60" s="3">
+        <v>194800</v>
+      </c>
+      <c r="K60" s="3">
         <v>179500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>274100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>264900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>181500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>306100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>184700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>125400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>134300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>229400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>225300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>259700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>146700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>156500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>164900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>158500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>181600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>147500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>163900</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>761500</v>
+        <v>787900</v>
       </c>
       <c r="E61" s="3">
-        <v>755400</v>
+        <v>785300</v>
       </c>
       <c r="F61" s="3">
-        <v>771900</v>
+        <v>779000</v>
       </c>
       <c r="G61" s="3">
-        <v>775500</v>
+        <v>796000</v>
       </c>
       <c r="H61" s="3">
-        <v>782000</v>
+        <v>799800</v>
       </c>
       <c r="I61" s="3">
-        <v>792700</v>
+        <v>806500</v>
       </c>
       <c r="J61" s="3">
+        <v>817500</v>
+      </c>
+      <c r="K61" s="3">
         <v>794700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>794400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>770300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>790000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>852200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>810500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>468400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>264300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>249400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>265000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>220700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>232800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>222600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>230900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>229300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>240500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>243500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>372600</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>99900</v>
+        <v>62500</v>
       </c>
       <c r="E62" s="3">
-        <v>93000</v>
+        <v>103100</v>
       </c>
       <c r="F62" s="3">
-        <v>76300</v>
+        <v>95900</v>
       </c>
       <c r="G62" s="3">
-        <v>102600</v>
+        <v>78600</v>
       </c>
       <c r="H62" s="3">
-        <v>102900</v>
+        <v>105800</v>
       </c>
       <c r="I62" s="3">
-        <v>106300</v>
+        <v>106100</v>
       </c>
       <c r="J62" s="3">
+        <v>109700</v>
+      </c>
+      <c r="K62" s="3">
         <v>127700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>48900</v>
-      </c>
-      <c r="L62" s="3">
-        <v>47400</v>
       </c>
       <c r="M62" s="3">
         <v>47400</v>
       </c>
       <c r="N62" s="3">
+        <v>47400</v>
+      </c>
+      <c r="O62" s="3">
         <v>116400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>60200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>15200</v>
-      </c>
-      <c r="S62" s="3">
-        <v>500</v>
       </c>
       <c r="T62" s="3">
         <v>500</v>
@@ -4502,10 +4648,10 @@
         <v>500</v>
       </c>
       <c r="V62" s="3">
+        <v>500</v>
+      </c>
+      <c r="W62" s="3">
         <v>10500</v>
-      </c>
-      <c r="W62" s="3">
-        <v>400</v>
       </c>
       <c r="X62" s="3">
         <v>400</v>
@@ -4514,13 +4660,16 @@
         <v>400</v>
       </c>
       <c r="Z62" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA62" s="3">
         <v>25600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1624700</v>
+        <v>1599500</v>
       </c>
       <c r="E66" s="3">
-        <v>1583100</v>
+        <v>1675500</v>
       </c>
       <c r="F66" s="3">
-        <v>1441300</v>
+        <v>1632600</v>
       </c>
       <c r="G66" s="3">
-        <v>1507000</v>
+        <v>1486400</v>
       </c>
       <c r="H66" s="3">
-        <v>1539300</v>
+        <v>1554100</v>
       </c>
       <c r="I66" s="3">
-        <v>1455300</v>
+        <v>1587500</v>
       </c>
       <c r="J66" s="3">
+        <v>1500800</v>
+      </c>
+      <c r="K66" s="3">
         <v>1470100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1447500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1406700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1336000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1628100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1378700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>917100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>717700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>680000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>688600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>706300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>595900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>588700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>537600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>535600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>514500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>525900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>549600</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1087100</v>
+        <v>1294800</v>
       </c>
       <c r="E72" s="3">
-        <v>1026500</v>
+        <v>1121000</v>
       </c>
       <c r="F72" s="3">
-        <v>1578300</v>
+        <v>1058500</v>
       </c>
       <c r="G72" s="3">
-        <v>1031300</v>
+        <v>1627600</v>
       </c>
       <c r="H72" s="3">
-        <v>950000</v>
+        <v>1063500</v>
       </c>
       <c r="I72" s="3">
-        <v>1005100</v>
+        <v>979700</v>
       </c>
       <c r="J72" s="3">
+        <v>1036500</v>
+      </c>
+      <c r="K72" s="3">
         <v>1397200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>909300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>566100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>635300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>945700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>553400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>469500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>706700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>973600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>532500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>568900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>959800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1278000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>812600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>750900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>748900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1724800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>712100</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2289900</v>
+        <v>2400200</v>
       </c>
       <c r="E76" s="3">
-        <v>2306500</v>
+        <v>2361500</v>
       </c>
       <c r="F76" s="3">
-        <v>2417800</v>
+        <v>2378600</v>
       </c>
       <c r="G76" s="3">
-        <v>2357700</v>
+        <v>2493400</v>
       </c>
       <c r="H76" s="3">
-        <v>2310800</v>
+        <v>2431400</v>
       </c>
       <c r="I76" s="3">
-        <v>2366000</v>
+        <v>2383000</v>
       </c>
       <c r="J76" s="3">
+        <v>2440000</v>
+      </c>
+      <c r="K76" s="3">
         <v>2297500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2252700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2156100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2228700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2150500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2226400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2040400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1988700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1820600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1707600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1975500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2111600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1993700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1773000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1713800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1602200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1644500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1410900</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>61100</v>
+        <v>91300</v>
       </c>
       <c r="E81" s="3">
+        <v>63000</v>
+      </c>
+      <c r="F81" s="3">
+        <v>59400</v>
+      </c>
+      <c r="G81" s="3">
+        <v>90500</v>
+      </c>
+      <c r="H81" s="3">
+        <v>83800</v>
+      </c>
+      <c r="I81" s="3">
+        <v>46800</v>
+      </c>
+      <c r="J81" s="3">
+        <v>69200</v>
+      </c>
+      <c r="K81" s="3">
+        <v>13600</v>
+      </c>
+      <c r="L81" s="3">
+        <v>28500</v>
+      </c>
+      <c r="M81" s="3">
+        <v>24600</v>
+      </c>
+      <c r="N81" s="3">
+        <v>62200</v>
+      </c>
+      <c r="O81" s="3">
+        <v>49500</v>
+      </c>
+      <c r="P81" s="3">
+        <v>66000</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>51300</v>
+      </c>
+      <c r="R81" s="3">
         <v>57600</v>
       </c>
-      <c r="F81" s="3">
-        <v>87800</v>
-      </c>
-      <c r="G81" s="3">
-        <v>81200</v>
-      </c>
-      <c r="H81" s="3">
-        <v>45300</v>
-      </c>
-      <c r="I81" s="3">
-        <v>67100</v>
-      </c>
-      <c r="J81" s="3">
-        <v>13600</v>
-      </c>
-      <c r="K81" s="3">
-        <v>28500</v>
-      </c>
-      <c r="L81" s="3">
-        <v>24600</v>
-      </c>
-      <c r="M81" s="3">
-        <v>62200</v>
-      </c>
-      <c r="N81" s="3">
-        <v>49500</v>
-      </c>
-      <c r="O81" s="3">
-        <v>66000</v>
-      </c>
-      <c r="P81" s="3">
-        <v>51300</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>57600</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>72500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>54800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>82300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>47000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>68100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>61600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>53800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>42900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>55200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6012,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>16600</v>
+        <v>14700</v>
       </c>
       <c r="E83" s="3">
-        <v>13900</v>
+        <v>17100</v>
       </c>
       <c r="F83" s="3">
-        <v>15200</v>
+        <v>14300</v>
       </c>
       <c r="G83" s="3">
-        <v>12700</v>
+        <v>15700</v>
       </c>
       <c r="H83" s="3">
-        <v>13000</v>
+        <v>13100</v>
       </c>
       <c r="I83" s="3">
+        <v>13400</v>
+      </c>
+      <c r="J83" s="3">
+        <v>11600</v>
+      </c>
+      <c r="K83" s="3">
+        <v>17000</v>
+      </c>
+      <c r="L83" s="3">
+        <v>9500</v>
+      </c>
+      <c r="M83" s="3">
+        <v>7400</v>
+      </c>
+      <c r="N83" s="3">
+        <v>8400</v>
+      </c>
+      <c r="O83" s="3">
+        <v>12500</v>
+      </c>
+      <c r="P83" s="3">
         <v>11200</v>
       </c>
-      <c r="J83" s="3">
-        <v>17000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>9500</v>
-      </c>
-      <c r="L83" s="3">
-        <v>7400</v>
-      </c>
-      <c r="M83" s="3">
-        <v>8400</v>
-      </c>
-      <c r="N83" s="3">
-        <v>12500</v>
-      </c>
-      <c r="O83" s="3">
-        <v>11200</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>5300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>5100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>5000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>6000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>5600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>6000</v>
-      </c>
-      <c r="W83" s="3">
-        <v>5400</v>
       </c>
       <c r="X83" s="3">
         <v>5400</v>
       </c>
       <c r="Y83" s="3">
+        <v>5400</v>
+      </c>
+      <c r="Z83" s="3">
         <v>5100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>5600</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>123900</v>
+        <v>96400</v>
       </c>
       <c r="E89" s="3">
-        <v>21300</v>
+        <v>127800</v>
       </c>
       <c r="F89" s="3">
-        <v>-38100</v>
+        <v>22000</v>
       </c>
       <c r="G89" s="3">
-        <v>84100</v>
+        <v>-39300</v>
       </c>
       <c r="H89" s="3">
-        <v>69600</v>
+        <v>86700</v>
       </c>
       <c r="I89" s="3">
-        <v>68400</v>
+        <v>71800</v>
       </c>
       <c r="J89" s="3">
+        <v>70600</v>
+      </c>
+      <c r="K89" s="3">
         <v>40800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>14700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>78500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>64900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>307600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>92200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-59500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-37500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>53000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>118600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>210000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-7100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>94700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>68100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>26300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>87900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>200000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>46700</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-14000</v>
+        <v>-9200</v>
       </c>
       <c r="E91" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1100</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K91" s="3">
         <v>-900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>1800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>3600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-7800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-126600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>72700</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-83500</v>
+        <v>35900</v>
       </c>
       <c r="E94" s="3">
-        <v>-29400</v>
+        <v>-86100</v>
       </c>
       <c r="F94" s="3">
-        <v>-15600</v>
+        <v>-30300</v>
       </c>
       <c r="G94" s="3">
-        <v>39400</v>
+        <v>-16100</v>
       </c>
       <c r="H94" s="3">
-        <v>-25600</v>
+        <v>40600</v>
       </c>
       <c r="I94" s="3">
-        <v>23200</v>
+        <v>-26400</v>
       </c>
       <c r="J94" s="3">
+        <v>24000</v>
+      </c>
+      <c r="K94" s="3">
         <v>191100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-65800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>35800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>478200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-447600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-113200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>28300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-97000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-195900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>39700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>13100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-499200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-62000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>165700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-52400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-240900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-31200</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,35 +6952,36 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-51800</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>50200</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-50200</v>
+        <v>51800</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-51800</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2000</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -6767,11 +7001,11 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>91200</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7270,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-94600</v>
+        <v>-118900</v>
       </c>
       <c r="E100" s="3">
-        <v>-28300</v>
+        <v>-97600</v>
       </c>
       <c r="F100" s="3">
-        <v>-18900</v>
+        <v>-29200</v>
       </c>
       <c r="G100" s="3">
-        <v>-95900</v>
+        <v>-19500</v>
       </c>
       <c r="H100" s="3">
-        <v>-33800</v>
+        <v>-98900</v>
       </c>
       <c r="I100" s="3">
-        <v>-8200</v>
+        <v>-34800</v>
       </c>
       <c r="J100" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-158200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-121200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>10700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-366600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>354200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>195100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>23200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>73400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-238700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>410700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-174500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-38500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>55000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-9400</v>
+        <v>-22900</v>
       </c>
       <c r="E101" s="3">
-        <v>39800</v>
+        <v>-9700</v>
       </c>
       <c r="F101" s="3">
-        <v>52500</v>
+        <v>41100</v>
       </c>
       <c r="G101" s="3">
-        <v>-23100</v>
+        <v>54100</v>
       </c>
       <c r="H101" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="I101" s="3">
         <v>-1800</v>
       </c>
-      <c r="I101" s="3">
-        <v>-30700</v>
-      </c>
       <c r="J101" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-87300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>71600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-165800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>116300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-175400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-133700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>217000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>60800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-121200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>73100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>62800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>281000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>14000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>54800</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>1100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-140600</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-63600</v>
+        <v>-9600</v>
       </c>
       <c r="E102" s="3">
-        <v>3400</v>
+        <v>-65600</v>
       </c>
       <c r="F102" s="3">
-        <v>-20100</v>
+        <v>3500</v>
       </c>
       <c r="G102" s="3">
-        <v>4400</v>
+        <v>-20700</v>
       </c>
       <c r="H102" s="3">
-        <v>8500</v>
+        <v>4600</v>
       </c>
       <c r="I102" s="3">
+        <v>8800</v>
+      </c>
+      <c r="J102" s="3">
+        <v>54400</v>
+      </c>
+      <c r="K102" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="L102" s="3">
+        <v>25400</v>
+      </c>
+      <c r="M102" s="3">
+        <v>-44900</v>
+      </c>
+      <c r="N102" s="3">
+        <v>64100</v>
+      </c>
+      <c r="O102" s="3">
+        <v>-153500</v>
+      </c>
+      <c r="P102" s="3">
+        <v>-134900</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>239400</v>
+      </c>
+      <c r="R102" s="3">
         <v>52800</v>
       </c>
-      <c r="J102" s="3">
-        <v>-13500</v>
-      </c>
-      <c r="K102" s="3">
-        <v>25400</v>
-      </c>
-      <c r="L102" s="3">
-        <v>-44900</v>
-      </c>
-      <c r="M102" s="3">
-        <v>64100</v>
-      </c>
-      <c r="N102" s="3">
-        <v>-153500</v>
-      </c>
-      <c r="O102" s="3">
-        <v>-134900</v>
-      </c>
-      <c r="P102" s="3">
-        <v>239400</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>52800</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-146000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>69300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>73800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>251500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>18500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>72300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-126500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>42000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PUODY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PUODY_QTR_FIN.xlsx
@@ -782,25 +782,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>183800</v>
+        <v>193400</v>
       </c>
       <c r="E8" s="3">
-        <v>182800</v>
+        <v>192400</v>
       </c>
       <c r="F8" s="3">
-        <v>185100</v>
+        <v>194900</v>
       </c>
       <c r="G8" s="3">
-        <v>179800</v>
+        <v>189300</v>
       </c>
       <c r="H8" s="3">
-        <v>165200</v>
+        <v>173900</v>
       </c>
       <c r="I8" s="3">
-        <v>156700</v>
+        <v>164900</v>
       </c>
       <c r="J8" s="3">
-        <v>141500</v>
+        <v>149000</v>
       </c>
       <c r="K8" s="3">
         <v>162200</v>
@@ -862,25 +862,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>67700</v>
+        <v>71300</v>
       </c>
       <c r="E9" s="3">
-        <v>75200</v>
+        <v>79200</v>
       </c>
       <c r="F9" s="3">
-        <v>82100</v>
+        <v>86400</v>
       </c>
       <c r="G9" s="3">
-        <v>95400</v>
+        <v>100400</v>
       </c>
       <c r="H9" s="3">
-        <v>69000</v>
+        <v>72600</v>
       </c>
       <c r="I9" s="3">
-        <v>63800</v>
+        <v>67100</v>
       </c>
       <c r="J9" s="3">
-        <v>60800</v>
+        <v>64000</v>
       </c>
       <c r="K9" s="3">
         <v>83200</v>
@@ -942,25 +942,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>116000</v>
+        <v>122100</v>
       </c>
       <c r="E10" s="3">
-        <v>107600</v>
+        <v>113200</v>
       </c>
       <c r="F10" s="3">
-        <v>103100</v>
+        <v>108500</v>
       </c>
       <c r="G10" s="3">
-        <v>84400</v>
+        <v>88900</v>
       </c>
       <c r="H10" s="3">
-        <v>96200</v>
+        <v>101200</v>
       </c>
       <c r="I10" s="3">
-        <v>92900</v>
+        <v>97800</v>
       </c>
       <c r="J10" s="3">
-        <v>80700</v>
+        <v>85000</v>
       </c>
       <c r="K10" s="3">
         <v>79000</v>
@@ -1304,7 +1304,7 @@
         <v>200</v>
       </c>
       <c r="H15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I15" s="3">
         <v>100</v>
@@ -1399,25 +1399,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>69600</v>
+        <v>73300</v>
       </c>
       <c r="E17" s="3">
-        <v>77700</v>
+        <v>81800</v>
       </c>
       <c r="F17" s="3">
-        <v>80400</v>
+        <v>84600</v>
       </c>
       <c r="G17" s="3">
-        <v>102600</v>
+        <v>108000</v>
       </c>
       <c r="H17" s="3">
-        <v>69500</v>
+        <v>73100</v>
       </c>
       <c r="I17" s="3">
-        <v>62400</v>
+        <v>65700</v>
       </c>
       <c r="J17" s="3">
-        <v>61400</v>
+        <v>64600</v>
       </c>
       <c r="K17" s="3">
         <v>83500</v>
@@ -1479,25 +1479,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>114200</v>
+        <v>120200</v>
       </c>
       <c r="E18" s="3">
-        <v>105100</v>
+        <v>110600</v>
       </c>
       <c r="F18" s="3">
-        <v>104800</v>
+        <v>110300</v>
       </c>
       <c r="G18" s="3">
-        <v>77200</v>
+        <v>81300</v>
       </c>
       <c r="H18" s="3">
-        <v>95700</v>
+        <v>100800</v>
       </c>
       <c r="I18" s="3">
-        <v>94300</v>
+        <v>99200</v>
       </c>
       <c r="J18" s="3">
-        <v>80100</v>
+        <v>84400</v>
       </c>
       <c r="K18" s="3">
         <v>78700</v>
@@ -1589,25 +1589,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>26200</v>
+        <v>27600</v>
       </c>
       <c r="E20" s="3">
-        <v>4300</v>
+        <v>4600</v>
       </c>
       <c r="F20" s="3">
-        <v>-3300</v>
+        <v>-3500</v>
       </c>
       <c r="G20" s="3">
-        <v>77200</v>
+        <v>81200</v>
       </c>
       <c r="H20" s="3">
-        <v>39500</v>
+        <v>41600</v>
       </c>
       <c r="I20" s="3">
-        <v>-5600</v>
+        <v>-5900</v>
       </c>
       <c r="J20" s="3">
-        <v>32100</v>
+        <v>33800</v>
       </c>
       <c r="K20" s="3">
         <v>-64400</v>
@@ -1669,25 +1669,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>155000</v>
+        <v>163200</v>
       </c>
       <c r="E21" s="3">
-        <v>126500</v>
+        <v>133200</v>
       </c>
       <c r="F21" s="3">
-        <v>115800</v>
+        <v>121900</v>
       </c>
       <c r="G21" s="3">
-        <v>170100</v>
+        <v>179000</v>
       </c>
       <c r="H21" s="3">
-        <v>148400</v>
+        <v>156200</v>
       </c>
       <c r="I21" s="3">
-        <v>102100</v>
+        <v>107400</v>
       </c>
       <c r="J21" s="3">
-        <v>123800</v>
+        <v>130300</v>
       </c>
       <c r="K21" s="3">
         <v>31400</v>
@@ -1749,25 +1749,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>17900</v>
+        <v>18900</v>
       </c>
       <c r="E22" s="3">
-        <v>17700</v>
+        <v>18700</v>
       </c>
       <c r="F22" s="3">
-        <v>16500</v>
+        <v>17400</v>
       </c>
       <c r="G22" s="3">
-        <v>81900</v>
+        <v>86200</v>
       </c>
       <c r="H22" s="3">
-        <v>16700</v>
+        <v>17600</v>
       </c>
       <c r="I22" s="3">
-        <v>16600</v>
+        <v>17500</v>
       </c>
       <c r="J22" s="3">
-        <v>16400</v>
+        <v>17300</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1829,25 +1829,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>122500</v>
+        <v>128900</v>
       </c>
       <c r="E23" s="3">
-        <v>91700</v>
+        <v>96500</v>
       </c>
       <c r="F23" s="3">
-        <v>84900</v>
+        <v>89400</v>
       </c>
       <c r="G23" s="3">
-        <v>72500</v>
+        <v>76300</v>
       </c>
       <c r="H23" s="3">
-        <v>118500</v>
+        <v>124700</v>
       </c>
       <c r="I23" s="3">
-        <v>72100</v>
+        <v>75900</v>
       </c>
       <c r="J23" s="3">
-        <v>95800</v>
+        <v>100800</v>
       </c>
       <c r="K23" s="3">
         <v>14300</v>
@@ -1909,25 +1909,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>18200</v>
+        <v>19100</v>
       </c>
       <c r="E24" s="3">
-        <v>14500</v>
+        <v>15300</v>
       </c>
       <c r="F24" s="3">
-        <v>14500</v>
+        <v>15200</v>
       </c>
       <c r="G24" s="3">
-        <v>-36700</v>
+        <v>-38700</v>
       </c>
       <c r="H24" s="3">
-        <v>23300</v>
+        <v>24500</v>
       </c>
       <c r="I24" s="3">
-        <v>15600</v>
+        <v>16400</v>
       </c>
       <c r="J24" s="3">
-        <v>19800</v>
+        <v>20900</v>
       </c>
       <c r="K24" s="3">
         <v>-11000</v>
@@ -2069,25 +2069,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>104300</v>
+        <v>109800</v>
       </c>
       <c r="E26" s="3">
-        <v>77200</v>
+        <v>81200</v>
       </c>
       <c r="F26" s="3">
-        <v>70500</v>
+        <v>74200</v>
       </c>
       <c r="G26" s="3">
-        <v>109200</v>
+        <v>114900</v>
       </c>
       <c r="H26" s="3">
-        <v>95200</v>
+        <v>100200</v>
       </c>
       <c r="I26" s="3">
-        <v>56500</v>
+        <v>59500</v>
       </c>
       <c r="J26" s="3">
-        <v>76000</v>
+        <v>79900</v>
       </c>
       <c r="K26" s="3">
         <v>25300</v>
@@ -2149,25 +2149,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>91300</v>
+        <v>96100</v>
       </c>
       <c r="E27" s="3">
-        <v>63000</v>
+        <v>66300</v>
       </c>
       <c r="F27" s="3">
-        <v>59400</v>
+        <v>62600</v>
       </c>
       <c r="G27" s="3">
-        <v>90500</v>
+        <v>95300</v>
       </c>
       <c r="H27" s="3">
-        <v>83800</v>
+        <v>88200</v>
       </c>
       <c r="I27" s="3">
-        <v>46800</v>
+        <v>49200</v>
       </c>
       <c r="J27" s="3">
-        <v>69200</v>
+        <v>72900</v>
       </c>
       <c r="K27" s="3">
         <v>13600</v>
@@ -2549,25 +2549,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-26200</v>
+        <v>-27600</v>
       </c>
       <c r="E32" s="3">
-        <v>-4300</v>
+        <v>-4600</v>
       </c>
       <c r="F32" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="G32" s="3">
-        <v>-77200</v>
+        <v>-81200</v>
       </c>
       <c r="H32" s="3">
-        <v>-39500</v>
+        <v>-41600</v>
       </c>
       <c r="I32" s="3">
-        <v>5600</v>
+        <v>5900</v>
       </c>
       <c r="J32" s="3">
-        <v>-32100</v>
+        <v>-33800</v>
       </c>
       <c r="K32" s="3">
         <v>64400</v>
@@ -2629,25 +2629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>91300</v>
+        <v>96100</v>
       </c>
       <c r="E33" s="3">
-        <v>63000</v>
+        <v>66300</v>
       </c>
       <c r="F33" s="3">
-        <v>59400</v>
+        <v>62600</v>
       </c>
       <c r="G33" s="3">
-        <v>90500</v>
+        <v>95300</v>
       </c>
       <c r="H33" s="3">
-        <v>83800</v>
+        <v>88200</v>
       </c>
       <c r="I33" s="3">
-        <v>46800</v>
+        <v>49200</v>
       </c>
       <c r="J33" s="3">
-        <v>69200</v>
+        <v>72900</v>
       </c>
       <c r="K33" s="3">
         <v>13600</v>
@@ -2789,25 +2789,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>91300</v>
+        <v>96100</v>
       </c>
       <c r="E35" s="3">
-        <v>63000</v>
+        <v>66300</v>
       </c>
       <c r="F35" s="3">
-        <v>59400</v>
+        <v>62600</v>
       </c>
       <c r="G35" s="3">
-        <v>90500</v>
+        <v>95300</v>
       </c>
       <c r="H35" s="3">
-        <v>83800</v>
+        <v>88200</v>
       </c>
       <c r="I35" s="3">
-        <v>46800</v>
+        <v>49200</v>
       </c>
       <c r="J35" s="3">
-        <v>69200</v>
+        <v>72900</v>
       </c>
       <c r="K35" s="3">
         <v>13600</v>
@@ -3014,25 +3014,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1334700</v>
+        <v>1404800</v>
       </c>
       <c r="E41" s="3">
-        <v>1344300</v>
+        <v>1414900</v>
       </c>
       <c r="F41" s="3">
-        <v>1430900</v>
+        <v>1506000</v>
       </c>
       <c r="G41" s="3">
-        <v>137600</v>
+        <v>144900</v>
       </c>
       <c r="H41" s="3">
-        <v>1448100</v>
+        <v>1524100</v>
       </c>
       <c r="I41" s="3">
-        <v>1443500</v>
+        <v>1519300</v>
       </c>
       <c r="J41" s="3">
-        <v>1434700</v>
+        <v>1510100</v>
       </c>
       <c r="K41" s="3">
         <v>56900</v>
@@ -3103,7 +3103,7 @@
         <v>8</v>
       </c>
       <c r="G42" s="3">
-        <v>1180300</v>
+        <v>1242300</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>8</v>
@@ -3174,25 +3174,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>71100</v>
+        <v>74800</v>
       </c>
       <c r="E43" s="3">
-        <v>77600</v>
+        <v>81600</v>
       </c>
       <c r="F43" s="3">
-        <v>79600</v>
+        <v>83800</v>
       </c>
       <c r="G43" s="3">
-        <v>137900</v>
+        <v>145200</v>
       </c>
       <c r="H43" s="3">
-        <v>85900</v>
+        <v>90400</v>
       </c>
       <c r="I43" s="3">
-        <v>83600</v>
+        <v>88000</v>
       </c>
       <c r="J43" s="3">
-        <v>75900</v>
+        <v>79900</v>
       </c>
       <c r="K43" s="3">
         <v>71800</v>
@@ -3254,25 +3254,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>9200</v>
+        <v>9700</v>
       </c>
       <c r="E44" s="3">
-        <v>8700</v>
+        <v>9100</v>
       </c>
       <c r="F44" s="3">
-        <v>8000</v>
+        <v>8400</v>
       </c>
       <c r="G44" s="3">
+        <v>8300</v>
+      </c>
+      <c r="H44" s="3">
+        <v>8400</v>
+      </c>
+      <c r="I44" s="3">
         <v>7900</v>
       </c>
-      <c r="H44" s="3">
-        <v>7900</v>
-      </c>
-      <c r="I44" s="3">
-        <v>7500</v>
-      </c>
       <c r="J44" s="3">
-        <v>7300</v>
+        <v>7700</v>
       </c>
       <c r="K44" s="3">
         <v>6900</v>
@@ -3334,25 +3334,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>107200</v>
+        <v>112900</v>
       </c>
       <c r="E45" s="3">
-        <v>103000</v>
+        <v>108400</v>
       </c>
       <c r="F45" s="3">
-        <v>34500</v>
+        <v>36300</v>
       </c>
       <c r="G45" s="3">
-        <v>15700</v>
+        <v>16500</v>
       </c>
       <c r="H45" s="3">
-        <v>26300</v>
+        <v>27700</v>
       </c>
       <c r="I45" s="3">
-        <v>25900</v>
+        <v>27200</v>
       </c>
       <c r="J45" s="3">
-        <v>21500</v>
+        <v>22600</v>
       </c>
       <c r="K45" s="3">
         <v>11800</v>
@@ -3414,25 +3414,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1522300</v>
+        <v>1602200</v>
       </c>
       <c r="E46" s="3">
-        <v>1533600</v>
+        <v>1614100</v>
       </c>
       <c r="F46" s="3">
-        <v>1553000</v>
+        <v>1634500</v>
       </c>
       <c r="G46" s="3">
-        <v>1479400</v>
+        <v>1557100</v>
       </c>
       <c r="H46" s="3">
-        <v>1568300</v>
+        <v>1650600</v>
       </c>
       <c r="I46" s="3">
-        <v>1560500</v>
+        <v>1642500</v>
       </c>
       <c r="J46" s="3">
-        <v>1539400</v>
+        <v>1620200</v>
       </c>
       <c r="K46" s="3">
         <v>1343500</v>
@@ -3494,25 +3494,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>72600</v>
+        <v>76500</v>
       </c>
       <c r="E47" s="3">
-        <v>73400</v>
+        <v>77200</v>
       </c>
       <c r="F47" s="3">
-        <v>102400</v>
+        <v>107800</v>
       </c>
       <c r="G47" s="3">
-        <v>157300</v>
+        <v>165600</v>
       </c>
       <c r="H47" s="3">
-        <v>104300</v>
+        <v>109800</v>
       </c>
       <c r="I47" s="3">
-        <v>100500</v>
+        <v>105800</v>
       </c>
       <c r="J47" s="3">
-        <v>100800</v>
+        <v>106100</v>
       </c>
       <c r="K47" s="3">
         <v>182700</v>
@@ -3574,25 +3574,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>139200</v>
+        <v>146500</v>
       </c>
       <c r="E48" s="3">
-        <v>131700</v>
+        <v>138600</v>
       </c>
       <c r="F48" s="3">
-        <v>70900</v>
+        <v>74600</v>
       </c>
       <c r="G48" s="3">
-        <v>128100</v>
+        <v>134800</v>
       </c>
       <c r="H48" s="3">
-        <v>72300</v>
+        <v>76100</v>
       </c>
       <c r="I48" s="3">
-        <v>72900</v>
+        <v>76700</v>
       </c>
       <c r="J48" s="3">
-        <v>73600</v>
+        <v>77400</v>
       </c>
       <c r="K48" s="3">
         <v>56300</v>
@@ -3654,25 +3654,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2059600</v>
+        <v>2167700</v>
       </c>
       <c r="E49" s="3">
-        <v>2092800</v>
+        <v>2202800</v>
       </c>
       <c r="F49" s="3">
-        <v>2138900</v>
+        <v>2251300</v>
       </c>
       <c r="G49" s="3">
-        <v>2024200</v>
+        <v>2130500</v>
       </c>
       <c r="H49" s="3">
-        <v>2108200</v>
+        <v>2218900</v>
       </c>
       <c r="I49" s="3">
-        <v>2096700</v>
+        <v>2206800</v>
       </c>
       <c r="J49" s="3">
-        <v>2089100</v>
+        <v>2198800</v>
       </c>
       <c r="K49" s="3">
         <v>2015200</v>
@@ -3894,25 +3894,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>206000</v>
+        <v>216800</v>
       </c>
       <c r="E52" s="3">
-        <v>205600</v>
+        <v>216400</v>
       </c>
       <c r="F52" s="3">
-        <v>146100</v>
+        <v>153800</v>
       </c>
       <c r="G52" s="3">
-        <v>190700</v>
+        <v>200700</v>
       </c>
       <c r="H52" s="3">
-        <v>132300</v>
+        <v>139300</v>
       </c>
       <c r="I52" s="3">
-        <v>139900</v>
+        <v>147200</v>
       </c>
       <c r="J52" s="3">
-        <v>138000</v>
+        <v>145300</v>
       </c>
       <c r="K52" s="3">
         <v>169800</v>
@@ -4054,25 +4054,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3999600</v>
+        <v>4209700</v>
       </c>
       <c r="E54" s="3">
-        <v>4037100</v>
+        <v>4249100</v>
       </c>
       <c r="F54" s="3">
-        <v>4011300</v>
+        <v>4221900</v>
       </c>
       <c r="G54" s="3">
-        <v>3979700</v>
+        <v>4188700</v>
       </c>
       <c r="H54" s="3">
-        <v>3985400</v>
+        <v>4194800</v>
       </c>
       <c r="I54" s="3">
-        <v>3970500</v>
+        <v>4179000</v>
       </c>
       <c r="J54" s="3">
-        <v>3940800</v>
+        <v>4147800</v>
       </c>
       <c r="K54" s="3">
         <v>3767600</v>
@@ -4194,25 +4194,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>44200</v>
+        <v>46500</v>
       </c>
       <c r="E57" s="3">
-        <v>35500</v>
+        <v>37400</v>
       </c>
       <c r="F57" s="3">
-        <v>37800</v>
+        <v>39800</v>
       </c>
       <c r="G57" s="3">
-        <v>30500</v>
+        <v>32100</v>
       </c>
       <c r="H57" s="3">
-        <v>28900</v>
+        <v>30400</v>
       </c>
       <c r="I57" s="3">
-        <v>31700</v>
+        <v>33400</v>
       </c>
       <c r="J57" s="3">
-        <v>32000</v>
+        <v>33700</v>
       </c>
       <c r="K57" s="3">
         <v>32200</v>
@@ -4274,25 +4274,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>38200</v>
+        <v>40300</v>
       </c>
       <c r="E58" s="3">
-        <v>36600</v>
+        <v>38500</v>
       </c>
       <c r="F58" s="3">
-        <v>43300</v>
+        <v>45600</v>
       </c>
       <c r="G58" s="3">
-        <v>28000</v>
+        <v>29500</v>
       </c>
       <c r="H58" s="3">
-        <v>39700</v>
+        <v>41800</v>
       </c>
       <c r="I58" s="3">
-        <v>36500</v>
+        <v>38400</v>
       </c>
       <c r="J58" s="3">
-        <v>35000</v>
+        <v>36900</v>
       </c>
       <c r="K58" s="3">
         <v>20200</v>
@@ -4354,25 +4354,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>269400</v>
+        <v>283600</v>
       </c>
       <c r="E59" s="3">
-        <v>306200</v>
+        <v>322300</v>
       </c>
       <c r="F59" s="3">
-        <v>292900</v>
+        <v>308200</v>
       </c>
       <c r="G59" s="3">
-        <v>153900</v>
+        <v>162000</v>
       </c>
       <c r="H59" s="3">
-        <v>196200</v>
+        <v>206500</v>
       </c>
       <c r="I59" s="3">
-        <v>227100</v>
+        <v>239000</v>
       </c>
       <c r="J59" s="3">
-        <v>127700</v>
+        <v>134400</v>
       </c>
       <c r="K59" s="3">
         <v>127200</v>
@@ -4434,25 +4434,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>351900</v>
+        <v>370400</v>
       </c>
       <c r="E60" s="3">
-        <v>378300</v>
+        <v>398200</v>
       </c>
       <c r="F60" s="3">
-        <v>373900</v>
+        <v>393600</v>
       </c>
       <c r="G60" s="3">
-        <v>212500</v>
+        <v>223600</v>
       </c>
       <c r="H60" s="3">
-        <v>264800</v>
+        <v>278700</v>
       </c>
       <c r="I60" s="3">
-        <v>295300</v>
+        <v>310800</v>
       </c>
       <c r="J60" s="3">
-        <v>194800</v>
+        <v>205000</v>
       </c>
       <c r="K60" s="3">
         <v>179500</v>
@@ -4514,25 +4514,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>787900</v>
+        <v>829300</v>
       </c>
       <c r="E61" s="3">
-        <v>785300</v>
+        <v>826500</v>
       </c>
       <c r="F61" s="3">
-        <v>779000</v>
+        <v>820000</v>
       </c>
       <c r="G61" s="3">
-        <v>796000</v>
+        <v>837800</v>
       </c>
       <c r="H61" s="3">
-        <v>799800</v>
+        <v>841800</v>
       </c>
       <c r="I61" s="3">
-        <v>806500</v>
+        <v>848900</v>
       </c>
       <c r="J61" s="3">
-        <v>817500</v>
+        <v>860400</v>
       </c>
       <c r="K61" s="3">
         <v>794700</v>
@@ -4594,25 +4594,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>62500</v>
+        <v>65800</v>
       </c>
       <c r="E62" s="3">
-        <v>103100</v>
+        <v>108500</v>
       </c>
       <c r="F62" s="3">
-        <v>95900</v>
+        <v>100900</v>
       </c>
       <c r="G62" s="3">
-        <v>78600</v>
+        <v>82800</v>
       </c>
       <c r="H62" s="3">
-        <v>105800</v>
+        <v>111300</v>
       </c>
       <c r="I62" s="3">
-        <v>106100</v>
+        <v>111600</v>
       </c>
       <c r="J62" s="3">
-        <v>109700</v>
+        <v>115400</v>
       </c>
       <c r="K62" s="3">
         <v>127700</v>
@@ -4914,25 +4914,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1599500</v>
+        <v>1683500</v>
       </c>
       <c r="E66" s="3">
-        <v>1675500</v>
+        <v>1763500</v>
       </c>
       <c r="F66" s="3">
-        <v>1632600</v>
+        <v>1718400</v>
       </c>
       <c r="G66" s="3">
-        <v>1486400</v>
+        <v>1564400</v>
       </c>
       <c r="H66" s="3">
-        <v>1554100</v>
+        <v>1635700</v>
       </c>
       <c r="I66" s="3">
-        <v>1587500</v>
+        <v>1670800</v>
       </c>
       <c r="J66" s="3">
-        <v>1500800</v>
+        <v>1579600</v>
       </c>
       <c r="K66" s="3">
         <v>1470100</v>
@@ -5344,25 +5344,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1294800</v>
+        <v>1362800</v>
       </c>
       <c r="E72" s="3">
-        <v>1121000</v>
+        <v>1179900</v>
       </c>
       <c r="F72" s="3">
-        <v>1058500</v>
+        <v>1114100</v>
       </c>
       <c r="G72" s="3">
-        <v>1627600</v>
+        <v>1713100</v>
       </c>
       <c r="H72" s="3">
-        <v>1063500</v>
+        <v>1119400</v>
       </c>
       <c r="I72" s="3">
-        <v>979700</v>
+        <v>1031200</v>
       </c>
       <c r="J72" s="3">
-        <v>1036500</v>
+        <v>1091000</v>
       </c>
       <c r="K72" s="3">
         <v>1397200</v>
@@ -5664,25 +5664,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2400200</v>
+        <v>2526200</v>
       </c>
       <c r="E76" s="3">
-        <v>2361500</v>
+        <v>2485600</v>
       </c>
       <c r="F76" s="3">
-        <v>2378600</v>
+        <v>2503600</v>
       </c>
       <c r="G76" s="3">
-        <v>2493400</v>
+        <v>2624300</v>
       </c>
       <c r="H76" s="3">
-        <v>2431400</v>
+        <v>2559100</v>
       </c>
       <c r="I76" s="3">
-        <v>2383000</v>
+        <v>2508100</v>
       </c>
       <c r="J76" s="3">
-        <v>2440000</v>
+        <v>2568100</v>
       </c>
       <c r="K76" s="3">
         <v>2297500</v>
@@ -5909,25 +5909,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>91300</v>
+        <v>96100</v>
       </c>
       <c r="E81" s="3">
-        <v>63000</v>
+        <v>66300</v>
       </c>
       <c r="F81" s="3">
-        <v>59400</v>
+        <v>62600</v>
       </c>
       <c r="G81" s="3">
-        <v>90500</v>
+        <v>95300</v>
       </c>
       <c r="H81" s="3">
-        <v>83800</v>
+        <v>88200</v>
       </c>
       <c r="I81" s="3">
-        <v>46800</v>
+        <v>49200</v>
       </c>
       <c r="J81" s="3">
-        <v>69200</v>
+        <v>72900</v>
       </c>
       <c r="K81" s="3">
         <v>13600</v>
@@ -6019,25 +6019,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>14700</v>
+        <v>15400</v>
       </c>
       <c r="E83" s="3">
-        <v>17100</v>
+        <v>18000</v>
       </c>
       <c r="F83" s="3">
-        <v>14300</v>
+        <v>15100</v>
       </c>
       <c r="G83" s="3">
-        <v>15700</v>
+        <v>16500</v>
       </c>
       <c r="H83" s="3">
-        <v>13100</v>
+        <v>13800</v>
       </c>
       <c r="I83" s="3">
-        <v>13400</v>
+        <v>14100</v>
       </c>
       <c r="J83" s="3">
-        <v>11600</v>
+        <v>12200</v>
       </c>
       <c r="K83" s="3">
         <v>17000</v>
@@ -6499,25 +6499,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>96400</v>
+        <v>101500</v>
       </c>
       <c r="E89" s="3">
-        <v>127800</v>
+        <v>134500</v>
       </c>
       <c r="F89" s="3">
-        <v>22000</v>
+        <v>23200</v>
       </c>
       <c r="G89" s="3">
-        <v>-39300</v>
+        <v>-41400</v>
       </c>
       <c r="H89" s="3">
-        <v>86700</v>
+        <v>91200</v>
       </c>
       <c r="I89" s="3">
-        <v>71800</v>
+        <v>75600</v>
       </c>
       <c r="J89" s="3">
-        <v>70600</v>
+        <v>74300</v>
       </c>
       <c r="K89" s="3">
         <v>40800</v>
@@ -6609,19 +6609,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-9200</v>
+        <v>-9700</v>
       </c>
       <c r="E91" s="3">
-        <v>-14500</v>
+        <v>-15200</v>
       </c>
       <c r="F91" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="G91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="H91" s="3">
         <v>-1200</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-1100</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>8</v>
@@ -6849,25 +6849,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>35900</v>
+        <v>37700</v>
       </c>
       <c r="E94" s="3">
-        <v>-86100</v>
+        <v>-90600</v>
       </c>
       <c r="F94" s="3">
-        <v>-30300</v>
+        <v>-31900</v>
       </c>
       <c r="G94" s="3">
-        <v>-16100</v>
+        <v>-16900</v>
       </c>
       <c r="H94" s="3">
-        <v>40600</v>
+        <v>42700</v>
       </c>
       <c r="I94" s="3">
-        <v>-26400</v>
+        <v>-27700</v>
       </c>
       <c r="J94" s="3">
-        <v>24000</v>
+        <v>25200</v>
       </c>
       <c r="K94" s="3">
         <v>191100</v>
@@ -6959,7 +6959,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-51800</v>
+        <v>-54500</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -6968,10 +6968,10 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>51800</v>
+        <v>54500</v>
       </c>
       <c r="H96" s="3">
-        <v>-51800</v>
+        <v>-54500</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -7279,25 +7279,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-118900</v>
+        <v>-125200</v>
       </c>
       <c r="E100" s="3">
-        <v>-97600</v>
+        <v>-102700</v>
       </c>
       <c r="F100" s="3">
-        <v>-29200</v>
+        <v>-30800</v>
       </c>
       <c r="G100" s="3">
-        <v>-19500</v>
+        <v>-20500</v>
       </c>
       <c r="H100" s="3">
-        <v>-98900</v>
+        <v>-104100</v>
       </c>
       <c r="I100" s="3">
-        <v>-34800</v>
+        <v>-36600</v>
       </c>
       <c r="J100" s="3">
-        <v>-8400</v>
+        <v>-8900</v>
       </c>
       <c r="K100" s="3">
         <v>-158200</v>
@@ -7359,25 +7359,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-22900</v>
+        <v>-24100</v>
       </c>
       <c r="E101" s="3">
-        <v>-9700</v>
+        <v>-10200</v>
       </c>
       <c r="F101" s="3">
-        <v>41100</v>
+        <v>43200</v>
       </c>
       <c r="G101" s="3">
-        <v>54100</v>
+        <v>57000</v>
       </c>
       <c r="H101" s="3">
-        <v>-23800</v>
+        <v>-25100</v>
       </c>
       <c r="I101" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="J101" s="3">
-        <v>-31700</v>
+        <v>-33300</v>
       </c>
       <c r="K101" s="3">
         <v>-87300</v>
@@ -7439,25 +7439,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-9600</v>
+        <v>-10100</v>
       </c>
       <c r="E102" s="3">
-        <v>-65600</v>
+        <v>-69000</v>
       </c>
       <c r="F102" s="3">
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="G102" s="3">
-        <v>-20700</v>
+        <v>-21800</v>
       </c>
       <c r="H102" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="I102" s="3">
-        <v>8800</v>
+        <v>9300</v>
       </c>
       <c r="J102" s="3">
-        <v>54400</v>
+        <v>57300</v>
       </c>
       <c r="K102" s="3">
         <v>-13500</v>

--- a/AAII_Financials/Quarterly/PUODY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PUODY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>PUODY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,384 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>193400</v>
+        <v>200100</v>
       </c>
       <c r="E8" s="3">
-        <v>192400</v>
+        <v>208300</v>
       </c>
       <c r="F8" s="3">
-        <v>194900</v>
+        <v>200400</v>
       </c>
       <c r="G8" s="3">
-        <v>189300</v>
+        <v>199400</v>
       </c>
       <c r="H8" s="3">
-        <v>173900</v>
+        <v>201900</v>
       </c>
       <c r="I8" s="3">
+        <v>196200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>180200</v>
+      </c>
+      <c r="K8" s="3">
         <v>164900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>149000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>162200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>119700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>84000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>123500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>188000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>147800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>129600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>127600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>144800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>135600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>158200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>125500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>133800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>126000</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>140900</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>116900</v>
       </c>
       <c r="AA8" s="3">
         <v>140900</v>
       </c>
       <c r="AB8" s="3">
+        <v>116900</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>140900</v>
+      </c>
+      <c r="AD8" s="3">
         <v>127500</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>71300</v>
+        <v>74900</v>
       </c>
       <c r="E9" s="3">
-        <v>79200</v>
+        <v>88600</v>
       </c>
       <c r="F9" s="3">
-        <v>86400</v>
+        <v>73900</v>
       </c>
       <c r="G9" s="3">
-        <v>100400</v>
+        <v>82000</v>
       </c>
       <c r="H9" s="3">
-        <v>72600</v>
+        <v>89500</v>
       </c>
       <c r="I9" s="3">
+        <v>104100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>75300</v>
+      </c>
+      <c r="K9" s="3">
         <v>67100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>64000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>83200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>57700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>45700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>50800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>103400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>66900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>52900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>50900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>69600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>59700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>63700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>42400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>56000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>50700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>63400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>43500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>61900</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>50600</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>122100</v>
+        <v>125300</v>
       </c>
       <c r="E10" s="3">
-        <v>113200</v>
+        <v>119700</v>
       </c>
       <c r="F10" s="3">
-        <v>108500</v>
+        <v>126600</v>
       </c>
       <c r="G10" s="3">
-        <v>88900</v>
+        <v>117400</v>
       </c>
       <c r="H10" s="3">
-        <v>101200</v>
+        <v>112400</v>
       </c>
       <c r="I10" s="3">
+        <v>92100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>104900</v>
+      </c>
+      <c r="K10" s="3">
         <v>97800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>85000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>79000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>62000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>38300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>72700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>84600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>80900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>76600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>76700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>75200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>76000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>94400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>83100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>77800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>75300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>77400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>73300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>79000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>77000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1071,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1153,14 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1239,14 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1286,31 +1325,37 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>100</v>
-      </c>
-      <c r="E15" s="3">
-        <v>100</v>
+        <v>200</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F15" s="3">
         <v>100</v>
       </c>
       <c r="G15" s="3">
+        <v>100</v>
+      </c>
+      <c r="H15" s="3">
+        <v>100</v>
+      </c>
+      <c r="I15" s="3">
         <v>200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>200</v>
-      </c>
-      <c r="I15" s="3">
-        <v>100</v>
-      </c>
-      <c r="J15" s="3">
-        <v>100</v>
       </c>
       <c r="K15" s="3">
         <v>100</v>
@@ -1325,7 +1370,7 @@
         <v>100</v>
       </c>
       <c r="O15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P15" s="3">
         <v>100</v>
@@ -1334,13 +1379,13 @@
         <v>0</v>
       </c>
       <c r="R15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U15" s="3">
         <v>100</v>
@@ -1348,11 +1393,11 @@
       <c r="V15" s="3">
         <v>100</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X15" s="3" t="s">
-        <v>8</v>
+      <c r="W15" s="3">
+        <v>100</v>
+      </c>
+      <c r="X15" s="3">
+        <v>100</v>
       </c>
       <c r="Y15" s="3" t="s">
         <v>8</v>
@@ -1360,14 +1405,20 @@
       <c r="Z15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1444,182 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>73300</v>
+        <v>74500</v>
       </c>
       <c r="E17" s="3">
-        <v>81800</v>
+        <v>96400</v>
       </c>
       <c r="F17" s="3">
-        <v>84600</v>
+        <v>75900</v>
       </c>
       <c r="G17" s="3">
-        <v>108000</v>
+        <v>84800</v>
       </c>
       <c r="H17" s="3">
-        <v>73100</v>
+        <v>87700</v>
       </c>
       <c r="I17" s="3">
+        <v>111900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>75800</v>
+      </c>
+      <c r="K17" s="3">
         <v>65700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>64600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>83500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>60600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>45500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>50200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>104300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>67700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>54000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>51300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>70300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>61400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>62900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>40700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>56900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>48300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>63000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>42700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>61500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>49600</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>120200</v>
+        <v>125700</v>
       </c>
       <c r="E18" s="3">
-        <v>110600</v>
+        <v>111900</v>
       </c>
       <c r="F18" s="3">
-        <v>110300</v>
+        <v>124500</v>
       </c>
       <c r="G18" s="3">
-        <v>81300</v>
+        <v>114600</v>
       </c>
       <c r="H18" s="3">
-        <v>100800</v>
+        <v>114300</v>
       </c>
       <c r="I18" s="3">
+        <v>84200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>104400</v>
+      </c>
+      <c r="K18" s="3">
         <v>99200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>84400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>78700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>59100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>38500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>73200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>83700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>80100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>75600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>76300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>74500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>74300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>95300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>84800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>77000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>77700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>77800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>74100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>79500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>77900</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,328 +1648,354 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>27600</v>
+        <v>-12900</v>
       </c>
       <c r="E20" s="3">
-        <v>4600</v>
+        <v>6600</v>
       </c>
       <c r="F20" s="3">
-        <v>-3500</v>
+        <v>28600</v>
       </c>
       <c r="G20" s="3">
-        <v>81200</v>
+        <v>4700</v>
       </c>
       <c r="H20" s="3">
-        <v>41600</v>
+        <v>-3600</v>
       </c>
       <c r="I20" s="3">
+        <v>84200</v>
+      </c>
+      <c r="J20" s="3">
+        <v>43100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-5900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>33800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-64400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>2700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>8600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>36400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>11800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>30900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>19200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>16600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>44100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>5300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>34500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-7100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>35700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>12000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>3100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-11500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>16400</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>163200</v>
+        <v>129400</v>
       </c>
       <c r="E21" s="3">
-        <v>133200</v>
+        <v>136600</v>
       </c>
       <c r="F21" s="3">
-        <v>121900</v>
+        <v>169100</v>
       </c>
       <c r="G21" s="3">
-        <v>179000</v>
+        <v>138000</v>
       </c>
       <c r="H21" s="3">
-        <v>156200</v>
+        <v>126300</v>
       </c>
       <c r="I21" s="3">
+        <v>185500</v>
+      </c>
+      <c r="J21" s="3">
+        <v>161800</v>
+      </c>
+      <c r="K21" s="3">
         <v>107400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>130300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>31400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>71300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>54600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>118100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>108000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>122200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>100100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>98000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>120000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>84600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>135800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>83300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>118700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>95200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>86300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>67800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>101400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>97700</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>18900</v>
+        <v>22600</v>
       </c>
       <c r="E22" s="3">
-        <v>18700</v>
+        <v>21000</v>
       </c>
       <c r="F22" s="3">
-        <v>17400</v>
+        <v>19600</v>
       </c>
       <c r="G22" s="3">
-        <v>86200</v>
+        <v>19400</v>
       </c>
       <c r="H22" s="3">
-        <v>17600</v>
+        <v>18000</v>
       </c>
       <c r="I22" s="3">
+        <v>89300</v>
+      </c>
+      <c r="J22" s="3">
+        <v>18300</v>
+      </c>
+      <c r="K22" s="3">
         <v>17500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>17300</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>9900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>9500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>11900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>21200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>10600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>8300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>5300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>17900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>4100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>4100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>4700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>22000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>4000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>3900</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>3900</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>44600</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AD22" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>128900</v>
+        <v>90200</v>
       </c>
       <c r="E23" s="3">
-        <v>96500</v>
+        <v>97500</v>
       </c>
       <c r="F23" s="3">
-        <v>89400</v>
+        <v>133600</v>
       </c>
       <c r="G23" s="3">
-        <v>76300</v>
+        <v>100000</v>
       </c>
       <c r="H23" s="3">
-        <v>124700</v>
+        <v>92600</v>
       </c>
       <c r="I23" s="3">
+        <v>79000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>129300</v>
+      </c>
+      <c r="K23" s="3">
         <v>75900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>100800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>14300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>51900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>37600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>97800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>74300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>100500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>86500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>87600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>100800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>75400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>125700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>73000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>90700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>85800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>77000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>58700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>51300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>85500</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1912,79 +2003,85 @@
         <v>19100</v>
       </c>
       <c r="E24" s="3">
-        <v>15300</v>
+        <v>17700</v>
       </c>
       <c r="F24" s="3">
-        <v>15200</v>
+        <v>19800</v>
       </c>
       <c r="G24" s="3">
-        <v>-38700</v>
+        <v>15800</v>
       </c>
       <c r="H24" s="3">
-        <v>24500</v>
+        <v>15800</v>
       </c>
       <c r="I24" s="3">
+        <v>-40100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>25400</v>
+      </c>
+      <c r="K24" s="3">
         <v>16400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>20900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-11000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>15100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>6600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>25900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>17300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>26600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>24100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>20400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>19000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>12000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>34000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>16500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>14700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>18300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>17500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>11800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>-7000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2160,186 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>109800</v>
+        <v>71100</v>
       </c>
       <c r="E26" s="3">
-        <v>81200</v>
+        <v>79800</v>
       </c>
       <c r="F26" s="3">
-        <v>74200</v>
+        <v>113800</v>
       </c>
       <c r="G26" s="3">
-        <v>114900</v>
+        <v>84200</v>
       </c>
       <c r="H26" s="3">
-        <v>100200</v>
+        <v>76900</v>
       </c>
       <c r="I26" s="3">
+        <v>119100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>103800</v>
+      </c>
+      <c r="K26" s="3">
         <v>59500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>79900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>25300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>36800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>31100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>71900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>56900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>73800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>62400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>67200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>81700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>63400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>91700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>56500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>76000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>67500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>59600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>46900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>58300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>96100</v>
+        <v>57100</v>
       </c>
       <c r="E27" s="3">
-        <v>66300</v>
+        <v>65400</v>
       </c>
       <c r="F27" s="3">
-        <v>62600</v>
+        <v>99600</v>
       </c>
       <c r="G27" s="3">
-        <v>95300</v>
+        <v>68700</v>
       </c>
       <c r="H27" s="3">
-        <v>88200</v>
+        <v>64800</v>
       </c>
       <c r="I27" s="3">
+        <v>98700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>91400</v>
+      </c>
+      <c r="K27" s="3">
         <v>49200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>72900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>13600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>28500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>24600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>62200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>49500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>66000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>51300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>57600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>72500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>54800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>82300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>47000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>68100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>61600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>54200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>42900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>55200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2418,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2353,15 +2474,15 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
       <c r="V29" s="3">
         <v>0</v>
       </c>
@@ -2372,19 +2493,25 @@
         <v>0</v>
       </c>
       <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
         <v>-400</v>
       </c>
-      <c r="Z29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="3">
-        <v>0</v>
-      </c>
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2676,186 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-27600</v>
+        <v>12900</v>
       </c>
       <c r="E32" s="3">
-        <v>-4600</v>
+        <v>-6600</v>
       </c>
       <c r="F32" s="3">
-        <v>3500</v>
+        <v>-28600</v>
       </c>
       <c r="G32" s="3">
-        <v>-81200</v>
+        <v>-4700</v>
       </c>
       <c r="H32" s="3">
-        <v>-41600</v>
+        <v>3600</v>
       </c>
       <c r="I32" s="3">
+        <v>-84200</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-43100</v>
+      </c>
+      <c r="K32" s="3">
         <v>5900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-33800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>64400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-2700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-8600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-36400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-11800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-30900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-19200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-16600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-44100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-5300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-34500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>7100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-35700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-12000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-3100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>11500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-16400</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>-14800</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>96100</v>
+        <v>57100</v>
       </c>
       <c r="E33" s="3">
-        <v>66300</v>
+        <v>65400</v>
       </c>
       <c r="F33" s="3">
-        <v>62600</v>
+        <v>99600</v>
       </c>
       <c r="G33" s="3">
-        <v>95300</v>
+        <v>68700</v>
       </c>
       <c r="H33" s="3">
-        <v>88200</v>
+        <v>64800</v>
       </c>
       <c r="I33" s="3">
+        <v>98700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>91400</v>
+      </c>
+      <c r="K33" s="3">
         <v>49200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>72900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>13600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>28500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>24600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>62200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>49500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>66000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>51300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>57600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>72500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>54800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>82300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>47000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>68100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>61600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>53800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>42900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>55200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2934,191 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>96100</v>
+        <v>57100</v>
       </c>
       <c r="E35" s="3">
-        <v>66300</v>
+        <v>65400</v>
       </c>
       <c r="F35" s="3">
-        <v>62600</v>
+        <v>99600</v>
       </c>
       <c r="G35" s="3">
-        <v>95300</v>
+        <v>68700</v>
       </c>
       <c r="H35" s="3">
-        <v>88200</v>
+        <v>64800</v>
       </c>
       <c r="I35" s="3">
+        <v>98700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>91400</v>
+      </c>
+      <c r="K35" s="3">
         <v>49200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>72900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>13600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>28500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>24600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>62200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>49500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>66000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>51300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>57600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>72500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>54800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>82300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>47000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>68100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>61600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>53800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>42900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>55200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,88 +3179,96 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1404800</v>
+        <v>1362800</v>
       </c>
       <c r="E41" s="3">
-        <v>1414900</v>
+        <v>1301000</v>
       </c>
       <c r="F41" s="3">
-        <v>1506000</v>
+        <v>1455900</v>
       </c>
       <c r="G41" s="3">
-        <v>144900</v>
+        <v>1466300</v>
       </c>
       <c r="H41" s="3">
-        <v>1524100</v>
+        <v>1560700</v>
       </c>
       <c r="I41" s="3">
+        <v>150100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1579500</v>
+      </c>
+      <c r="K41" s="3">
         <v>1519300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1510100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>56900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1469500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1398700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1433500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>24100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1429300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1506600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>1267200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>10200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>1091400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>1217400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>1143600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>23600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>849000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>830500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>758200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>815900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>651900</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3102,634 +3281,682 @@
       <c r="F42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="3">
-        <v>1242300</v>
+      <c r="G42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
+      <c r="I42" s="3">
+        <v>1287400</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="3">
-        <v>1196200</v>
+      <c r="K42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>8</v>
+      <c r="M42" s="3">
+        <v>1196200</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O42" s="3">
-        <v>1409100</v>
+      <c r="O42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>8</v>
+      <c r="Q42" s="3">
+        <v>1409100</v>
       </c>
       <c r="R42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S42" s="3">
-        <v>1131400</v>
+      <c r="S42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>8</v>
+      <c r="U42" s="3">
+        <v>1131400</v>
       </c>
       <c r="V42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W42" s="3">
-        <v>1073300</v>
+      <c r="W42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y42" s="3" t="s">
-        <v>8</v>
+      <c r="Y42" s="3">
+        <v>1073300</v>
       </c>
       <c r="Z42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA42" s="3">
-        <v>741000</v>
+      <c r="AA42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AB42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>741000</v>
+      </c>
+      <c r="AD42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>74800</v>
+        <v>62500</v>
       </c>
       <c r="E43" s="3">
-        <v>81600</v>
+        <v>81700</v>
       </c>
       <c r="F43" s="3">
-        <v>83800</v>
+        <v>77500</v>
       </c>
       <c r="G43" s="3">
-        <v>145200</v>
+        <v>84600</v>
       </c>
       <c r="H43" s="3">
-        <v>90400</v>
+        <v>86800</v>
       </c>
       <c r="I43" s="3">
+        <v>150400</v>
+      </c>
+      <c r="J43" s="3">
+        <v>93700</v>
+      </c>
+      <c r="K43" s="3">
         <v>88000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>79900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>71800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>77400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>81800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>78300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>83300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>79900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>70100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>66000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>68900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>76600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>81300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>100000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>128300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>107700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>110400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>105300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>104500</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>85200</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>9700</v>
+        <v>10200</v>
       </c>
       <c r="E44" s="3">
-        <v>9100</v>
+        <v>10100</v>
       </c>
       <c r="F44" s="3">
+        <v>10100</v>
+      </c>
+      <c r="G44" s="3">
+        <v>9500</v>
+      </c>
+      <c r="H44" s="3">
+        <v>8700</v>
+      </c>
+      <c r="I44" s="3">
+        <v>8600</v>
+      </c>
+      <c r="J44" s="3">
+        <v>8700</v>
+      </c>
+      <c r="K44" s="3">
+        <v>7900</v>
+      </c>
+      <c r="L44" s="3">
+        <v>7700</v>
+      </c>
+      <c r="M44" s="3">
+        <v>6900</v>
+      </c>
+      <c r="N44" s="3">
+        <v>6500</v>
+      </c>
+      <c r="O44" s="3">
+        <v>6100</v>
+      </c>
+      <c r="P44" s="3">
+        <v>5900</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>7300</v>
+      </c>
+      <c r="R44" s="3">
+        <v>6200</v>
+      </c>
+      <c r="S44" s="3">
+        <v>5300</v>
+      </c>
+      <c r="T44" s="3">
+        <v>5000</v>
+      </c>
+      <c r="U44" s="3">
+        <v>4500</v>
+      </c>
+      <c r="V44" s="3">
+        <v>5900</v>
+      </c>
+      <c r="W44" s="3">
+        <v>5400</v>
+      </c>
+      <c r="X44" s="3">
+        <v>5400</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>5300</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>5500</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>5600</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>5300</v>
+      </c>
+      <c r="AC44" s="3">
         <v>8400</v>
       </c>
-      <c r="G44" s="3">
-        <v>8300</v>
-      </c>
-      <c r="H44" s="3">
-        <v>8400</v>
-      </c>
-      <c r="I44" s="3">
-        <v>7900</v>
-      </c>
-      <c r="J44" s="3">
-        <v>7700</v>
-      </c>
-      <c r="K44" s="3">
-        <v>6900</v>
-      </c>
-      <c r="L44" s="3">
-        <v>6500</v>
-      </c>
-      <c r="M44" s="3">
-        <v>6100</v>
-      </c>
-      <c r="N44" s="3">
-        <v>5900</v>
-      </c>
-      <c r="O44" s="3">
-        <v>7300</v>
-      </c>
-      <c r="P44" s="3">
-        <v>6200</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>5300</v>
-      </c>
-      <c r="R44" s="3">
-        <v>5000</v>
-      </c>
-      <c r="S44" s="3">
-        <v>4500</v>
-      </c>
-      <c r="T44" s="3">
-        <v>5900</v>
-      </c>
-      <c r="U44" s="3">
-        <v>5400</v>
-      </c>
-      <c r="V44" s="3">
-        <v>5400</v>
-      </c>
-      <c r="W44" s="3">
-        <v>5300</v>
-      </c>
-      <c r="X44" s="3">
-        <v>5500</v>
-      </c>
-      <c r="Y44" s="3">
-        <v>5600</v>
-      </c>
-      <c r="Z44" s="3">
-        <v>5300</v>
-      </c>
-      <c r="AA44" s="3">
-        <v>8400</v>
-      </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>112900</v>
+        <v>99500</v>
       </c>
       <c r="E45" s="3">
-        <v>108400</v>
+        <v>99700</v>
       </c>
       <c r="F45" s="3">
-        <v>36300</v>
+        <v>117000</v>
       </c>
       <c r="G45" s="3">
-        <v>16500</v>
+        <v>112400</v>
       </c>
       <c r="H45" s="3">
-        <v>27700</v>
+        <v>37600</v>
       </c>
       <c r="I45" s="3">
+        <v>17100</v>
+      </c>
+      <c r="J45" s="3">
+        <v>28700</v>
+      </c>
+      <c r="K45" s="3">
         <v>27200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>22600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>11800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>13100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>42400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>40200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>22700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>38700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>13400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>9900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>6300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>27200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>34300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>68800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>25900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>59700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>55400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>50200</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>73000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>50700</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1602200</v>
+        <v>1535000</v>
       </c>
       <c r="E46" s="3">
-        <v>1614100</v>
+        <v>1492500</v>
       </c>
       <c r="F46" s="3">
-        <v>1634500</v>
+        <v>1660400</v>
       </c>
       <c r="G46" s="3">
-        <v>1557100</v>
+        <v>1672800</v>
       </c>
       <c r="H46" s="3">
-        <v>1650600</v>
+        <v>1693900</v>
       </c>
       <c r="I46" s="3">
+        <v>1613700</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1710600</v>
+      </c>
+      <c r="K46" s="3">
         <v>1642500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1620200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1343500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1566500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1529000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1557800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1548600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1554200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1595400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1348100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1221300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1201100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1338500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1317800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>1256400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>1021900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>1001900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>919000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>940700</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>792800</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>76500</v>
+        <v>79100</v>
       </c>
       <c r="E47" s="3">
-        <v>77200</v>
+        <v>79500</v>
       </c>
       <c r="F47" s="3">
-        <v>107800</v>
+        <v>79200</v>
       </c>
       <c r="G47" s="3">
-        <v>165600</v>
+        <v>80000</v>
       </c>
       <c r="H47" s="3">
-        <v>109800</v>
+        <v>111700</v>
       </c>
       <c r="I47" s="3">
+        <v>171600</v>
+      </c>
+      <c r="J47" s="3">
+        <v>113800</v>
+      </c>
+      <c r="K47" s="3">
         <v>105800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>106100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>182700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>154300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>140900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>138200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>95000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>131200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>179200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>180300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>172400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>143300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>162200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>217500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>218000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>208300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>201500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>196000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>205700</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AD47" s="3">
         <v>197500</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>146500</v>
+        <v>149700</v>
       </c>
       <c r="E48" s="3">
-        <v>138600</v>
+        <v>156600</v>
       </c>
       <c r="F48" s="3">
-        <v>74600</v>
+        <v>151800</v>
       </c>
       <c r="G48" s="3">
-        <v>134800</v>
+        <v>143600</v>
       </c>
       <c r="H48" s="3">
-        <v>76100</v>
+        <v>77300</v>
       </c>
       <c r="I48" s="3">
+        <v>139700</v>
+      </c>
+      <c r="J48" s="3">
+        <v>78900</v>
+      </c>
+      <c r="K48" s="3">
         <v>76700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>77400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>56300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>49300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>47600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>48700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>57400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>52300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>50100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>51000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>47800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>47500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>56200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>50100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>54700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>49300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>49900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>50500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>112400</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>49000</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2167700</v>
+        <v>2244200</v>
       </c>
       <c r="E49" s="3">
-        <v>2202800</v>
+        <v>2245100</v>
       </c>
       <c r="F49" s="3">
-        <v>2251300</v>
+        <v>2246500</v>
       </c>
       <c r="G49" s="3">
-        <v>2130500</v>
+        <v>2282800</v>
       </c>
       <c r="H49" s="3">
-        <v>2218900</v>
+        <v>2333000</v>
       </c>
       <c r="I49" s="3">
+        <v>2207900</v>
+      </c>
+      <c r="J49" s="3">
+        <v>2299500</v>
+      </c>
+      <c r="K49" s="3">
         <v>2206800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>2198800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>2015200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1792800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1724700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1718000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1962700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1768100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>1084600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>1057300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>971800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>924600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>1071500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>1049100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>981900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>957200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>923200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>882000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>882800</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>872700</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,88 +4121,100 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>216800</v>
+        <v>246900</v>
       </c>
       <c r="E52" s="3">
-        <v>216400</v>
+        <v>237300</v>
       </c>
       <c r="F52" s="3">
-        <v>153800</v>
+        <v>224700</v>
       </c>
       <c r="G52" s="3">
-        <v>200700</v>
+        <v>224200</v>
       </c>
       <c r="H52" s="3">
-        <v>139300</v>
+        <v>159300</v>
       </c>
       <c r="I52" s="3">
+        <v>208000</v>
+      </c>
+      <c r="J52" s="3">
+        <v>144300</v>
+      </c>
+      <c r="K52" s="3">
         <v>147200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>145300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>169800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>137300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>120600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>102000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>114900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>99400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>48300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>69800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>87200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>79600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>53300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>73100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>71500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>73900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>72900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>69100</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>91600</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4293,100 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4209700</v>
+        <v>4254900</v>
       </c>
       <c r="E54" s="3">
-        <v>4249100</v>
+        <v>4210900</v>
       </c>
       <c r="F54" s="3">
-        <v>4221900</v>
+        <v>4362600</v>
       </c>
       <c r="G54" s="3">
-        <v>4188700</v>
+        <v>4403400</v>
       </c>
       <c r="H54" s="3">
-        <v>4194800</v>
+        <v>4375300</v>
       </c>
       <c r="I54" s="3">
+        <v>4340900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>4347100</v>
+      </c>
+      <c r="K54" s="3">
         <v>4179000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>4147800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3767600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3700200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3562800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>3564700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>3778600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>3605100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2957500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2706400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>2500500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>2396100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>2681700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>2707500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>2582400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>2310700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>2249300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>2116700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>2170400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>1960500</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,488 +4447,526 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>46500</v>
+        <v>57500</v>
       </c>
       <c r="E57" s="3">
-        <v>37400</v>
+        <v>47500</v>
       </c>
       <c r="F57" s="3">
-        <v>39800</v>
+        <v>48200</v>
       </c>
       <c r="G57" s="3">
-        <v>32100</v>
+        <v>38700</v>
       </c>
       <c r="H57" s="3">
-        <v>30400</v>
+        <v>41200</v>
       </c>
       <c r="I57" s="3">
+        <v>33300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>31500</v>
+      </c>
+      <c r="K57" s="3">
         <v>33400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>33700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>32200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>29000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>25800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>27200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>30500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>17700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>12500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>12500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>10800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>11700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>12000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>11100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>12300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>12100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>13400</v>
-      </c>
-      <c r="Z57" s="3">
-        <v>8700</v>
-      </c>
-      <c r="AA57" s="3">
-        <v>13800</v>
       </c>
       <c r="AB57" s="3">
         <v>8700</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>13800</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>8700</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>40300</v>
+        <v>51400</v>
       </c>
       <c r="E58" s="3">
-        <v>38500</v>
+        <v>49500</v>
       </c>
       <c r="F58" s="3">
-        <v>45600</v>
+        <v>41700</v>
       </c>
       <c r="G58" s="3">
-        <v>29500</v>
+        <v>39900</v>
       </c>
       <c r="H58" s="3">
-        <v>41800</v>
+        <v>47200</v>
       </c>
       <c r="I58" s="3">
+        <v>30500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>43300</v>
+      </c>
+      <c r="K58" s="3">
         <v>38400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>36900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>20200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>26400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>22900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>10900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>11200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>10100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>9600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>15500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>14600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>10600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>10700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>34600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>36700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>35700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>34900</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>34000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>31100</v>
       </c>
-      <c r="AB58" s="3" t="s">
+      <c r="AD58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>283600</v>
+        <v>202500</v>
       </c>
       <c r="E59" s="3">
-        <v>322300</v>
+        <v>179900</v>
       </c>
       <c r="F59" s="3">
-        <v>308200</v>
+        <v>293900</v>
       </c>
       <c r="G59" s="3">
-        <v>162000</v>
+        <v>334000</v>
       </c>
       <c r="H59" s="3">
-        <v>206500</v>
+        <v>319400</v>
       </c>
       <c r="I59" s="3">
+        <v>167900</v>
+      </c>
+      <c r="J59" s="3">
+        <v>214000</v>
+      </c>
+      <c r="K59" s="3">
         <v>239000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>134400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>127200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>218800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>216200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>143400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>264400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>156900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>103300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>106300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>204100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>203000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>237000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>101000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>107600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>117100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>110200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>138900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>144900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>155200</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>370400</v>
+        <v>311400</v>
       </c>
       <c r="E60" s="3">
-        <v>398200</v>
+        <v>276900</v>
       </c>
       <c r="F60" s="3">
-        <v>393600</v>
+        <v>383900</v>
       </c>
       <c r="G60" s="3">
-        <v>223600</v>
+        <v>412600</v>
       </c>
       <c r="H60" s="3">
-        <v>278700</v>
+        <v>407900</v>
       </c>
       <c r="I60" s="3">
+        <v>231800</v>
+      </c>
+      <c r="J60" s="3">
+        <v>288900</v>
+      </c>
+      <c r="K60" s="3">
         <v>310800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>205000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>179500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>274100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>264900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>181500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>306100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>184700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>125400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>134300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>229400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>225300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>259700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>146700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>156500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>164900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>158500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>181600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>147500</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>163900</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>829300</v>
+        <v>823200</v>
       </c>
       <c r="E61" s="3">
-        <v>826500</v>
+        <v>837300</v>
       </c>
       <c r="F61" s="3">
-        <v>820000</v>
+        <v>859400</v>
       </c>
       <c r="G61" s="3">
-        <v>837800</v>
+        <v>856500</v>
       </c>
       <c r="H61" s="3">
-        <v>841800</v>
+        <v>849700</v>
       </c>
       <c r="I61" s="3">
+        <v>868300</v>
+      </c>
+      <c r="J61" s="3">
+        <v>872400</v>
+      </c>
+      <c r="K61" s="3">
         <v>848900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>860400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>794700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>794400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>770300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>790000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>852200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>810500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>468400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>264300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>249400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>265000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>220700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>232800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>222600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>230900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>229300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>240500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>243500</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>372600</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>65800</v>
+        <v>51800</v>
       </c>
       <c r="E62" s="3">
-        <v>108500</v>
+        <v>64100</v>
       </c>
       <c r="F62" s="3">
-        <v>100900</v>
+        <v>68200</v>
       </c>
       <c r="G62" s="3">
-        <v>82800</v>
+        <v>112400</v>
       </c>
       <c r="H62" s="3">
-        <v>111300</v>
+        <v>104600</v>
       </c>
       <c r="I62" s="3">
-        <v>111600</v>
+        <v>85800</v>
       </c>
       <c r="J62" s="3">
         <v>115400</v>
       </c>
       <c r="K62" s="3">
+        <v>111600</v>
+      </c>
+      <c r="L62" s="3">
+        <v>115400</v>
+      </c>
+      <c r="M62" s="3">
         <v>127700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>48900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>47400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>47400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>116400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>60200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>15200</v>
-      </c>
-      <c r="T62" s="3">
-        <v>500</v>
-      </c>
-      <c r="U62" s="3">
-        <v>500</v>
       </c>
       <c r="V62" s="3">
         <v>500</v>
       </c>
       <c r="W62" s="3">
+        <v>500</v>
+      </c>
+      <c r="X62" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y62" s="3">
         <v>10500</v>
-      </c>
-      <c r="X62" s="3">
-        <v>400</v>
-      </c>
-      <c r="Y62" s="3">
-        <v>400</v>
       </c>
       <c r="Z62" s="3">
         <v>400</v>
       </c>
       <c r="AA62" s="3">
-        <v>25600</v>
+        <v>400</v>
       </c>
       <c r="AB62" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>25600</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5217,100 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1683500</v>
+        <v>1609400</v>
       </c>
       <c r="E66" s="3">
-        <v>1763500</v>
+        <v>1605900</v>
       </c>
       <c r="F66" s="3">
-        <v>1718400</v>
+        <v>1744600</v>
       </c>
       <c r="G66" s="3">
-        <v>1564400</v>
+        <v>1827600</v>
       </c>
       <c r="H66" s="3">
-        <v>1635700</v>
+        <v>1780800</v>
       </c>
       <c r="I66" s="3">
+        <v>1621300</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1695100</v>
+      </c>
+      <c r="K66" s="3">
         <v>1670800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1579600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1470100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1447500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1406700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1336000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1628100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1378700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>917100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>717700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>680000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>688600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>706300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>595900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>588700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>537600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>535600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>514500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>525900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>549600</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5593,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5679,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1362800</v>
+        <v>1371600</v>
       </c>
       <c r="E72" s="3">
-        <v>1179900</v>
+        <v>1315000</v>
       </c>
       <c r="F72" s="3">
-        <v>1114100</v>
+        <v>1412300</v>
       </c>
       <c r="G72" s="3">
-        <v>1713100</v>
+        <v>1222800</v>
       </c>
       <c r="H72" s="3">
-        <v>1119400</v>
+        <v>1154600</v>
       </c>
       <c r="I72" s="3">
+        <v>1775300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>1160000</v>
+      </c>
+      <c r="K72" s="3">
         <v>1031200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1091000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1397200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>909300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>566100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>635300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>945700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>553400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>469500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>706700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>973600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>532500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>568900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>959800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>1278000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>812600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>750900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>748900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>1724800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>712100</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +6023,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2526200</v>
+        <v>2645500</v>
       </c>
       <c r="E76" s="3">
-        <v>2485600</v>
+        <v>2605000</v>
       </c>
       <c r="F76" s="3">
-        <v>2503600</v>
+        <v>2618000</v>
       </c>
       <c r="G76" s="3">
-        <v>2624300</v>
+        <v>2575800</v>
       </c>
       <c r="H76" s="3">
-        <v>2559100</v>
+        <v>2594500</v>
       </c>
       <c r="I76" s="3">
+        <v>2719600</v>
+      </c>
+      <c r="J76" s="3">
+        <v>2652000</v>
+      </c>
+      <c r="K76" s="3">
         <v>2508100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2568100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2297500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2252700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>2156100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>2228700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2150500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>2226400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>2040400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1988700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1820600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>1707600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>1975500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>2111600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>1993700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>1773000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>1713800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>1602200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>1644500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>1410900</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6195,191 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>96100</v>
+        <v>57100</v>
       </c>
       <c r="E81" s="3">
-        <v>66300</v>
+        <v>65400</v>
       </c>
       <c r="F81" s="3">
-        <v>62600</v>
+        <v>99600</v>
       </c>
       <c r="G81" s="3">
-        <v>95300</v>
+        <v>68700</v>
       </c>
       <c r="H81" s="3">
-        <v>88200</v>
+        <v>64800</v>
       </c>
       <c r="I81" s="3">
+        <v>98700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>91400</v>
+      </c>
+      <c r="K81" s="3">
         <v>49200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>72900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>13600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>28500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>24600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>62200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>49500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>66000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>51300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>57600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>72500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>54800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>82300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>47000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>68100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>61600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>53800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>42900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>55200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,88 +6408,96 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>15400</v>
+        <v>16600</v>
       </c>
       <c r="E83" s="3">
-        <v>18000</v>
+        <v>18100</v>
       </c>
       <c r="F83" s="3">
-        <v>15100</v>
+        <v>16000</v>
       </c>
       <c r="G83" s="3">
-        <v>16500</v>
+        <v>18700</v>
       </c>
       <c r="H83" s="3">
-        <v>13800</v>
+        <v>15600</v>
       </c>
       <c r="I83" s="3">
+        <v>17100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>14300</v>
+      </c>
+      <c r="K83" s="3">
         <v>14100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>12200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>17000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>9500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>7400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>8400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>12500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>11200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>5300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>5100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>1300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>5000</v>
-      </c>
-      <c r="U83" s="3">
-        <v>6000</v>
-      </c>
-      <c r="V83" s="3">
-        <v>5600</v>
       </c>
       <c r="W83" s="3">
         <v>6000</v>
       </c>
       <c r="X83" s="3">
+        <v>5600</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>6000</v>
+      </c>
+      <c r="Z83" s="3">
         <v>5400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>5400</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>5100</v>
-      </c>
-      <c r="AA83" s="3">
-        <v>5600</v>
       </c>
       <c r="AB83" s="3">
         <v>5100</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>5600</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6920,100 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>101500</v>
+        <v>100200</v>
       </c>
       <c r="E89" s="3">
-        <v>134500</v>
+        <v>34200</v>
       </c>
       <c r="F89" s="3">
-        <v>23200</v>
+        <v>105200</v>
       </c>
       <c r="G89" s="3">
-        <v>-41400</v>
+        <v>139400</v>
       </c>
       <c r="H89" s="3">
-        <v>91200</v>
+        <v>24000</v>
       </c>
       <c r="I89" s="3">
+        <v>-42900</v>
+      </c>
+      <c r="J89" s="3">
+        <v>94600</v>
+      </c>
+      <c r="K89" s="3">
         <v>75600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>74300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>40800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>14700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>78500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>64900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>307600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>92200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-59500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-37500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>53000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>118600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>210000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-7100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>94700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>68100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>26300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>87900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>200000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>46700</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +7042,96 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-9700</v>
+        <v>-2023300</v>
       </c>
       <c r="E91" s="3">
-        <v>-15200</v>
+        <v>-328000</v>
       </c>
       <c r="F91" s="3">
-        <v>-1000</v>
+        <v>-496000</v>
       </c>
       <c r="G91" s="3">
+        <v>-714800</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-735400</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-404800</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-464800</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="O91" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="R91" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="S91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T91" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="U91" s="3">
+        <v>3600</v>
+      </c>
+      <c r="V91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="W91" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="X91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-1300</v>
       </c>
-      <c r="H91" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="Z91" s="3">
         <v>-900</v>
       </c>
-      <c r="L91" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="M91" s="3">
-        <v>1800</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="AA91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="AB91" s="3">
         <v>-400</v>
       </c>
-      <c r="R91" s="3">
-        <v>-6800</v>
-      </c>
-      <c r="S91" s="3">
-        <v>3600</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="V91" s="3">
-        <v>-400</v>
-      </c>
-      <c r="W91" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="X91" s="3">
-        <v>-900</v>
-      </c>
-      <c r="Y91" s="3">
-        <v>-700</v>
-      </c>
-      <c r="Z91" s="3">
-        <v>-400</v>
-      </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-126600</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>72700</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7296,100 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>37700</v>
+        <v>-50200</v>
       </c>
       <c r="E94" s="3">
-        <v>-90600</v>
+        <v>189100</v>
       </c>
       <c r="F94" s="3">
-        <v>-31900</v>
+        <v>39100</v>
       </c>
       <c r="G94" s="3">
-        <v>-16900</v>
+        <v>-93900</v>
       </c>
       <c r="H94" s="3">
-        <v>42700</v>
+        <v>-33100</v>
       </c>
       <c r="I94" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="J94" s="3">
+        <v>44300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-27700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>25200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>191100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-65800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>35800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>478200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-447600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-113200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>28300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-97000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-195900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>39700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>13100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-499200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-62000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>165700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-52400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-240900</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-31200</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,41 +7418,43 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-54500</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-113000</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-56500</v>
       </c>
       <c r="G96" s="3">
-        <v>54500</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-54500</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>56500</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-56500</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-2000</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -7004,14 +7471,14 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>91200</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
@@ -7033,8 +7500,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,244 +7758,268 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-125200</v>
+        <v>-36600</v>
       </c>
       <c r="E100" s="3">
-        <v>-102700</v>
+        <v>-238600</v>
       </c>
       <c r="F100" s="3">
-        <v>-30800</v>
+        <v>-129700</v>
       </c>
       <c r="G100" s="3">
-        <v>-20500</v>
+        <v>-106400</v>
       </c>
       <c r="H100" s="3">
-        <v>-104100</v>
+        <v>-31900</v>
       </c>
       <c r="I100" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-107900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-36600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-8900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-158200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>4900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-121200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>10700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-366600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>354200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>195100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>1300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>23200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>73400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-238700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-1600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>410700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-174500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-38500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>55000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-24100</v>
+        <v>47600</v>
       </c>
       <c r="E101" s="3">
-        <v>-10200</v>
+        <v>-139600</v>
       </c>
       <c r="F101" s="3">
-        <v>43200</v>
+        <v>-25000</v>
       </c>
       <c r="G101" s="3">
-        <v>57000</v>
+        <v>-10600</v>
       </c>
       <c r="H101" s="3">
-        <v>-25100</v>
+        <v>44800</v>
       </c>
       <c r="I101" s="3">
+        <v>59100</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-33300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-87300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>71600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-165800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>116300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-175400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-133700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>217000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>60800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-121200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>73100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>62800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-1500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>281000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>14000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>54800</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>1100</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>-140600</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AD101" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-10100</v>
+        <v>61000</v>
       </c>
       <c r="E102" s="3">
-        <v>-69000</v>
+        <v>-154900</v>
       </c>
       <c r="F102" s="3">
-        <v>3700</v>
+        <v>-10500</v>
       </c>
       <c r="G102" s="3">
-        <v>-21800</v>
+        <v>-71500</v>
       </c>
       <c r="H102" s="3">
-        <v>4800</v>
+        <v>3900</v>
       </c>
       <c r="I102" s="3">
+        <v>-22600</v>
+      </c>
+      <c r="J102" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K102" s="3">
         <v>9300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>57300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-13500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>25400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-44900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>64100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-153500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-134900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>239400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>52800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-146000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>69300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>73800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>2900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>251500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>18500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>72300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-126500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>42000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PUODY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PUODY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>PUODY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,384 +665,397 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>200100</v>
+        <v>226100</v>
       </c>
       <c r="E8" s="3">
-        <v>208300</v>
+        <v>208100</v>
       </c>
       <c r="F8" s="3">
-        <v>200400</v>
+        <v>216500</v>
       </c>
       <c r="G8" s="3">
-        <v>199400</v>
+        <v>208400</v>
       </c>
       <c r="H8" s="3">
-        <v>201900</v>
+        <v>207300</v>
       </c>
       <c r="I8" s="3">
-        <v>196200</v>
+        <v>210000</v>
       </c>
       <c r="J8" s="3">
+        <v>203900</v>
+      </c>
+      <c r="K8" s="3">
         <v>180200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>164900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>149000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>162200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>119700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>84000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>123500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>188000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>147800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>129600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>127600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>144800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>135600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>158200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>125500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>133800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>126000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>140900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>116900</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>140900</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>127500</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>74900</v>
+        <v>87400</v>
       </c>
       <c r="E9" s="3">
-        <v>88600</v>
+        <v>77800</v>
       </c>
       <c r="F9" s="3">
-        <v>73900</v>
+        <v>92300</v>
       </c>
       <c r="G9" s="3">
-        <v>82000</v>
+        <v>76800</v>
       </c>
       <c r="H9" s="3">
-        <v>89500</v>
+        <v>85300</v>
       </c>
       <c r="I9" s="3">
-        <v>104100</v>
+        <v>93000</v>
       </c>
       <c r="J9" s="3">
+        <v>108200</v>
+      </c>
+      <c r="K9" s="3">
         <v>75300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>67100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>64000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>83200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>57700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>45700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>50800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>103400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>66900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>52900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>50900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>69600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>59700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>63700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>42400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>56000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>50700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>63400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>43500</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>61900</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>50600</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>125300</v>
+        <v>138700</v>
       </c>
       <c r="E10" s="3">
-        <v>119700</v>
+        <v>130300</v>
       </c>
       <c r="F10" s="3">
-        <v>126600</v>
+        <v>124200</v>
       </c>
       <c r="G10" s="3">
-        <v>117400</v>
+        <v>131600</v>
       </c>
       <c r="H10" s="3">
-        <v>112400</v>
+        <v>122000</v>
       </c>
       <c r="I10" s="3">
-        <v>92100</v>
+        <v>116900</v>
       </c>
       <c r="J10" s="3">
+        <v>95700</v>
+      </c>
+      <c r="K10" s="3">
         <v>104900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>97800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>85000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>79000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>62000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>38300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>72700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>84600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>80900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>76600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>76700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>75200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>76000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>94400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>83100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>77800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>75300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>77400</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>73300</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>79000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>77000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1331,34 +1351,37 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
         <v>200</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
+      <c r="E15" s="3">
+        <v>200</v>
       </c>
       <c r="F15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G15" s="3">
         <v>100</v>
       </c>
       <c r="H15" s="3">
+        <v>200</v>
+      </c>
+      <c r="I15" s="3">
         <v>100</v>
-      </c>
-      <c r="I15" s="3">
-        <v>200</v>
       </c>
       <c r="J15" s="3">
         <v>200</v>
       </c>
       <c r="K15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L15" s="3">
         <v>100</v>
@@ -1376,19 +1399,19 @@
         <v>100</v>
       </c>
       <c r="Q15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
         <v>100</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
       <c r="T15" s="3">
         <v>0</v>
       </c>
       <c r="U15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V15" s="3">
         <v>100</v>
@@ -1399,8 +1422,8 @@
       <c r="X15" s="3">
         <v>100</v>
       </c>
-      <c r="Y15" s="3" t="s">
-        <v>8</v>
+      <c r="Y15" s="3">
+        <v>100</v>
       </c>
       <c r="Z15" s="3" t="s">
         <v>8</v>
@@ -1411,14 +1434,17 @@
       <c r="AB15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC15" s="3">
-        <v>0</v>
+      <c r="AC15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>74500</v>
+        <v>91500</v>
       </c>
       <c r="E17" s="3">
-        <v>96400</v>
+        <v>77400</v>
       </c>
       <c r="F17" s="3">
-        <v>75900</v>
+        <v>101500</v>
       </c>
       <c r="G17" s="3">
-        <v>84800</v>
+        <v>78900</v>
       </c>
       <c r="H17" s="3">
-        <v>87700</v>
+        <v>88200</v>
       </c>
       <c r="I17" s="3">
-        <v>111900</v>
+        <v>91100</v>
       </c>
       <c r="J17" s="3">
+        <v>116400</v>
+      </c>
+      <c r="K17" s="3">
         <v>75800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>65700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>64600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>83500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>60600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>45500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>50200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>104300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>67700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>54000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>51300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>70300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>61400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>62900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>40700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>56900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>48300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>63000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>42700</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>61500</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>49600</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>125700</v>
+        <v>134600</v>
       </c>
       <c r="E18" s="3">
-        <v>111900</v>
+        <v>130600</v>
       </c>
       <c r="F18" s="3">
-        <v>124500</v>
+        <v>115000</v>
       </c>
       <c r="G18" s="3">
-        <v>114600</v>
+        <v>129500</v>
       </c>
       <c r="H18" s="3">
-        <v>114300</v>
+        <v>119200</v>
       </c>
       <c r="I18" s="3">
-        <v>84200</v>
+        <v>118800</v>
       </c>
       <c r="J18" s="3">
+        <v>87500</v>
+      </c>
+      <c r="K18" s="3">
         <v>104400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>99200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>84400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>78700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>59100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>38500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>73200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>83700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>80100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>75600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>76300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>74500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>74300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>95300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>84800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>77000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>77700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>77800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>74100</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>79500</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>77900</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,438 +1683,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-12900</v>
+        <v>-7500</v>
       </c>
       <c r="E20" s="3">
-        <v>6600</v>
+        <v>-13400</v>
       </c>
       <c r="F20" s="3">
-        <v>28600</v>
+        <v>-15000</v>
       </c>
       <c r="G20" s="3">
-        <v>4700</v>
+        <v>29700</v>
       </c>
       <c r="H20" s="3">
-        <v>-3600</v>
+        <v>4900</v>
       </c>
       <c r="I20" s="3">
-        <v>84200</v>
+        <v>-3800</v>
       </c>
       <c r="J20" s="3">
+        <v>87500</v>
+      </c>
+      <c r="K20" s="3">
         <v>43100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-5900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>33800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-64400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>8600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>36400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>11800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>30900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>19200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>16600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>44100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>5300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>34500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-7100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>35700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>12000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>3100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-11500</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>16400</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>129400</v>
+        <v>145700</v>
       </c>
       <c r="E21" s="3">
-        <v>136600</v>
+        <v>134500</v>
       </c>
       <c r="F21" s="3">
-        <v>169100</v>
+        <v>119400</v>
       </c>
       <c r="G21" s="3">
-        <v>138000</v>
+        <v>175800</v>
       </c>
       <c r="H21" s="3">
-        <v>126300</v>
+        <v>143500</v>
       </c>
       <c r="I21" s="3">
-        <v>185500</v>
+        <v>131300</v>
       </c>
       <c r="J21" s="3">
+        <v>192900</v>
+      </c>
+      <c r="K21" s="3">
         <v>161800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>107400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>130300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>31400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>71300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>54600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>118100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>108000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>122200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>100100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>98000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>120000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>84600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>135800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>83300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>118700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>95200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>86300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>67800</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>101400</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>97700</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>22600</v>
+        <v>23500</v>
       </c>
       <c r="E22" s="3">
-        <v>21000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>19600</v>
+        <v>23500</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G22" s="3">
-        <v>19400</v>
+        <v>20300</v>
       </c>
       <c r="H22" s="3">
-        <v>18000</v>
+        <v>20100</v>
       </c>
       <c r="I22" s="3">
-        <v>89300</v>
+        <v>18700</v>
       </c>
       <c r="J22" s="3">
+        <v>92900</v>
+      </c>
+      <c r="K22" s="3">
         <v>18300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>17500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>17300</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>9900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>9500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>11900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>21200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>10600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>8300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>5300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>17900</v>
-      </c>
-      <c r="V22" s="3">
-        <v>4100</v>
       </c>
       <c r="W22" s="3">
         <v>4100</v>
       </c>
       <c r="X22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="Y22" s="3">
         <v>4700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>22000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>4000</v>
-      </c>
-      <c r="AA22" s="3">
-        <v>3900</v>
       </c>
       <c r="AB22" s="3">
         <v>3900</v>
       </c>
       <c r="AC22" s="3">
+        <v>3900</v>
+      </c>
+      <c r="AD22" s="3">
         <v>44600</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>90200</v>
+        <v>103600</v>
       </c>
       <c r="E23" s="3">
-        <v>97500</v>
+        <v>93700</v>
       </c>
       <c r="F23" s="3">
-        <v>133600</v>
+        <v>100000</v>
       </c>
       <c r="G23" s="3">
-        <v>100000</v>
+        <v>138900</v>
       </c>
       <c r="H23" s="3">
-        <v>92600</v>
+        <v>104000</v>
       </c>
       <c r="I23" s="3">
-        <v>79000</v>
+        <v>96300</v>
       </c>
       <c r="J23" s="3">
+        <v>82200</v>
+      </c>
+      <c r="K23" s="3">
         <v>129300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>75900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>100800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>14300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>51900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>37600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>97800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>74300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>100500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>86500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>87600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>100800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>75400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>125700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>73000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>90700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>85800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>77000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>58700</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>51300</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>85500</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>19100</v>
+        <v>32200</v>
       </c>
       <c r="E24" s="3">
-        <v>17700</v>
+        <v>19800</v>
       </c>
       <c r="F24" s="3">
-        <v>19800</v>
+        <v>17600</v>
       </c>
       <c r="G24" s="3">
-        <v>15800</v>
+        <v>20600</v>
       </c>
       <c r="H24" s="3">
-        <v>15800</v>
+        <v>16500</v>
       </c>
       <c r="I24" s="3">
-        <v>-40100</v>
+        <v>16400</v>
       </c>
       <c r="J24" s="3">
+        <v>-41600</v>
+      </c>
+      <c r="K24" s="3">
         <v>25400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>16400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>20900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-11000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>15100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>6600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>25900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>17300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>26600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>24100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>20400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>19000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>12000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>34000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>16500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>14700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>18300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>17500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>11800</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-7000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>71100</v>
+        <v>71400</v>
       </c>
       <c r="E26" s="3">
-        <v>79800</v>
+        <v>73900</v>
       </c>
       <c r="F26" s="3">
-        <v>113800</v>
+        <v>82500</v>
       </c>
       <c r="G26" s="3">
-        <v>84200</v>
+        <v>118300</v>
       </c>
       <c r="H26" s="3">
-        <v>76900</v>
+        <v>87500</v>
       </c>
       <c r="I26" s="3">
-        <v>119100</v>
+        <v>79900</v>
       </c>
       <c r="J26" s="3">
+        <v>123800</v>
+      </c>
+      <c r="K26" s="3">
         <v>103800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>59500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>79900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>25300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>36800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>31100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>71900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>56900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>73800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>62400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>67200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>81700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>63400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>91700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>56500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>76000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>67500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>59600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>46900</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>58300</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>57100</v>
+        <v>57500</v>
       </c>
       <c r="E27" s="3">
-        <v>65400</v>
+        <v>59400</v>
       </c>
       <c r="F27" s="3">
-        <v>99600</v>
+        <v>67500</v>
       </c>
       <c r="G27" s="3">
-        <v>68700</v>
+        <v>103600</v>
       </c>
       <c r="H27" s="3">
-        <v>64800</v>
+        <v>71400</v>
       </c>
       <c r="I27" s="3">
-        <v>98700</v>
+        <v>67400</v>
       </c>
       <c r="J27" s="3">
+        <v>102600</v>
+      </c>
+      <c r="K27" s="3">
         <v>91400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>49200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>72900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>13600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>28500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>24600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>62200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>49500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>66000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>51300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>57600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>72500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>54800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>82300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>47000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>68100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>61600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>54200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>42900</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>55200</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2480,12 +2541,12 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-      <c r="U29" s="3" t="s">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
       <c r="W29" s="3">
         <v>0</v>
       </c>
@@ -2499,19 +2560,22 @@
         <v>0</v>
       </c>
       <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3">
         <v>-400</v>
       </c>
-      <c r="AB29" s="3">
-        <v>0</v>
-      </c>
       <c r="AC29" s="3">
         <v>0</v>
       </c>
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,180 +2749,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>12900</v>
+        <v>7500</v>
       </c>
       <c r="E32" s="3">
-        <v>-6600</v>
+        <v>13400</v>
       </c>
       <c r="F32" s="3">
-        <v>-28600</v>
+        <v>15000</v>
       </c>
       <c r="G32" s="3">
-        <v>-4700</v>
+        <v>-29700</v>
       </c>
       <c r="H32" s="3">
-        <v>3600</v>
+        <v>-4900</v>
       </c>
       <c r="I32" s="3">
-        <v>-84200</v>
+        <v>3800</v>
       </c>
       <c r="J32" s="3">
+        <v>-87500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-43100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>5900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-33800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>64400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-8600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-36400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-11800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-30900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-19200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-16600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-44100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-5300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-34500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>7100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-35700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-12000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-3100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>11500</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-16400</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-14800</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>57100</v>
+        <v>57500</v>
       </c>
       <c r="E33" s="3">
-        <v>65400</v>
+        <v>59400</v>
       </c>
       <c r="F33" s="3">
-        <v>99600</v>
+        <v>67500</v>
       </c>
       <c r="G33" s="3">
-        <v>68700</v>
+        <v>103600</v>
       </c>
       <c r="H33" s="3">
-        <v>64800</v>
+        <v>71400</v>
       </c>
       <c r="I33" s="3">
-        <v>98700</v>
+        <v>67400</v>
       </c>
       <c r="J33" s="3">
+        <v>102600</v>
+      </c>
+      <c r="K33" s="3">
         <v>91400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>49200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>72900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>13600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>28500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>24600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>62200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>49500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>66000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>51300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>57600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>72500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>54800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>82300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>47000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>68100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>61600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>53800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>42900</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>55200</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>57100</v>
+        <v>57500</v>
       </c>
       <c r="E35" s="3">
-        <v>65400</v>
+        <v>59400</v>
       </c>
       <c r="F35" s="3">
-        <v>99600</v>
+        <v>67500</v>
       </c>
       <c r="G35" s="3">
-        <v>68700</v>
+        <v>103600</v>
       </c>
       <c r="H35" s="3">
-        <v>64800</v>
+        <v>71400</v>
       </c>
       <c r="I35" s="3">
-        <v>98700</v>
+        <v>67400</v>
       </c>
       <c r="J35" s="3">
+        <v>102600</v>
+      </c>
+      <c r="K35" s="3">
         <v>91400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>49200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>72900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>13600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>28500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>24600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>62200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>49500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>66000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>51300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>57600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>72500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>54800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>82300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>47000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>68100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>61600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>53800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>42900</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>55200</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,94 +3267,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1362800</v>
+        <v>1360200</v>
       </c>
       <c r="E41" s="3">
-        <v>1301000</v>
+        <v>1416900</v>
       </c>
       <c r="F41" s="3">
-        <v>1455900</v>
+        <v>50300</v>
       </c>
       <c r="G41" s="3">
-        <v>1466300</v>
+        <v>1513600</v>
       </c>
       <c r="H41" s="3">
-        <v>1560700</v>
+        <v>1524500</v>
       </c>
       <c r="I41" s="3">
-        <v>150100</v>
+        <v>1622600</v>
       </c>
       <c r="J41" s="3">
+        <v>156100</v>
+      </c>
+      <c r="K41" s="3">
         <v>1579500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1519300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1510100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>56900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1469500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1398700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1433500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>24100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1429300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1506600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1267200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>10200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1091400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1217400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1143600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>23600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>849000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>830500</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>758200</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>815900</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>651900</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3278,8 +3368,8 @@
       <c r="E42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
+      <c r="F42" s="3">
+        <v>1202800</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>8</v>
@@ -3287,11 +3377,11 @@
       <c r="H42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="3">
-        <v>1287400</v>
-      </c>
-      <c r="J42" s="3" t="s">
+      <c r="I42" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J42" s="3">
+        <v>1338500</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>8</v>
@@ -3299,11 +3389,11 @@
       <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N42" s="3">
         <v>1196200</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>8</v>
@@ -3311,11 +3401,11 @@
       <c r="P42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R42" s="3">
         <v>1409100</v>
-      </c>
-      <c r="R42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>8</v>
@@ -3323,11 +3413,11 @@
       <c r="T42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U42" s="3">
+      <c r="U42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V42" s="3">
         <v>1131400</v>
-      </c>
-      <c r="V42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W42" s="3" t="s">
         <v>8</v>
@@ -3335,11 +3425,11 @@
       <c r="X42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Y42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z42" s="3">
         <v>1073300</v>
-      </c>
-      <c r="Z42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA42" s="3" t="s">
         <v>8</v>
@@ -3347,272 +3437,284 @@
       <c r="AB42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AC42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD42" s="3">
         <v>741000</v>
       </c>
-      <c r="AD42" s="3" t="s">
+      <c r="AE42" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>62500</v>
+        <v>66100</v>
       </c>
       <c r="E43" s="3">
-        <v>81700</v>
+        <v>65000</v>
       </c>
       <c r="F43" s="3">
-        <v>77500</v>
+        <v>147000</v>
       </c>
       <c r="G43" s="3">
-        <v>84600</v>
+        <v>80600</v>
       </c>
       <c r="H43" s="3">
-        <v>86800</v>
+        <v>88000</v>
       </c>
       <c r="I43" s="3">
-        <v>150400</v>
+        <v>90300</v>
       </c>
       <c r="J43" s="3">
+        <v>156400</v>
+      </c>
+      <c r="K43" s="3">
         <v>93700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>88000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>79900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>71800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>77400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>81800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>78300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>83300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>79900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>70100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>66000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>68900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>76600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>81300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>100000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>128300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>107700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>110400</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>105300</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>104500</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>85200</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>10200</v>
+        <v>11400</v>
       </c>
       <c r="E44" s="3">
-        <v>10100</v>
+        <v>10600</v>
       </c>
       <c r="F44" s="3">
-        <v>10100</v>
+        <v>10600</v>
       </c>
       <c r="G44" s="3">
-        <v>9500</v>
+        <v>10400</v>
       </c>
       <c r="H44" s="3">
+        <v>9800</v>
+      </c>
+      <c r="I44" s="3">
+        <v>9000</v>
+      </c>
+      <c r="J44" s="3">
+        <v>9000</v>
+      </c>
+      <c r="K44" s="3">
         <v>8700</v>
       </c>
-      <c r="I44" s="3">
-        <v>8600</v>
-      </c>
-      <c r="J44" s="3">
-        <v>8700</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>7900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>7700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>6500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>6100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>7300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>6200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>5900</v>
-      </c>
-      <c r="W44" s="3">
-        <v>5400</v>
       </c>
       <c r="X44" s="3">
         <v>5400</v>
       </c>
       <c r="Y44" s="3">
+        <v>5400</v>
+      </c>
+      <c r="Z44" s="3">
         <v>5300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>5500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>5600</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>5300</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>8400</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>99500</v>
+        <v>97300</v>
       </c>
       <c r="E45" s="3">
-        <v>99700</v>
+        <v>103400</v>
       </c>
       <c r="F45" s="3">
-        <v>117000</v>
+        <v>14700</v>
       </c>
       <c r="G45" s="3">
-        <v>112400</v>
+        <v>121600</v>
       </c>
       <c r="H45" s="3">
-        <v>37600</v>
+        <v>116800</v>
       </c>
       <c r="I45" s="3">
-        <v>17100</v>
+        <v>39100</v>
       </c>
       <c r="J45" s="3">
+        <v>17700</v>
+      </c>
+      <c r="K45" s="3">
         <v>28700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>27200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>22600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>11800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>13100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>42400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>40200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>22700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>38700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>13400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>9900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>6300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>27200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>34300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>68800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>25900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>59700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>55400</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>50200</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>73000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>50700</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3620,343 +3722,355 @@
         <v>1535000</v>
       </c>
       <c r="E46" s="3">
-        <v>1492500</v>
+        <v>1595900</v>
       </c>
       <c r="F46" s="3">
-        <v>1660400</v>
+        <v>1425300</v>
       </c>
       <c r="G46" s="3">
-        <v>1672800</v>
+        <v>1726200</v>
       </c>
       <c r="H46" s="3">
-        <v>1693900</v>
+        <v>1739100</v>
       </c>
       <c r="I46" s="3">
-        <v>1613700</v>
+        <v>1761100</v>
       </c>
       <c r="J46" s="3">
+        <v>1677700</v>
+      </c>
+      <c r="K46" s="3">
         <v>1710600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1642500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1620200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1343500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1566500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1529000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1557800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1548600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1554200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1595400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1348100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1221300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1201100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1338500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1317800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1256400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1021900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1001900</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>919000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>940700</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>792800</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>79100</v>
+        <v>81500</v>
       </c>
       <c r="E47" s="3">
-        <v>79500</v>
+        <v>82200</v>
       </c>
       <c r="F47" s="3">
-        <v>79200</v>
+        <v>183100</v>
       </c>
       <c r="G47" s="3">
-        <v>80000</v>
+        <v>82400</v>
       </c>
       <c r="H47" s="3">
-        <v>111700</v>
+        <v>83200</v>
       </c>
       <c r="I47" s="3">
-        <v>171600</v>
+        <v>116100</v>
       </c>
       <c r="J47" s="3">
+        <v>178400</v>
+      </c>
+      <c r="K47" s="3">
         <v>113800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>105800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>106100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>182700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>154300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>140900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>138200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>95000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>131200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>179200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>180300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>172400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>143300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>162200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>217500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>218000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>208300</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>201500</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>196000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>205700</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>197500</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>149700</v>
+        <v>155900</v>
       </c>
       <c r="E48" s="3">
-        <v>156600</v>
+        <v>155700</v>
       </c>
       <c r="F48" s="3">
-        <v>151800</v>
+        <v>162800</v>
       </c>
       <c r="G48" s="3">
-        <v>143600</v>
+        <v>157800</v>
       </c>
       <c r="H48" s="3">
-        <v>77300</v>
+        <v>149300</v>
       </c>
       <c r="I48" s="3">
-        <v>139700</v>
+        <v>80400</v>
       </c>
       <c r="J48" s="3">
+        <v>145300</v>
+      </c>
+      <c r="K48" s="3">
         <v>78900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>76700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>77400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>56300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>49300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>47600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>48700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>57400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>52300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>50100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>51000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>47800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>47500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>56200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>50100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>54700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>49300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>49900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>50500</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>112400</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>49000</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2244200</v>
+        <v>2334300</v>
       </c>
       <c r="E49" s="3">
-        <v>2245100</v>
+        <v>2333200</v>
       </c>
       <c r="F49" s="3">
-        <v>2246500</v>
+        <v>2332200</v>
       </c>
       <c r="G49" s="3">
-        <v>2282800</v>
+        <v>2335500</v>
       </c>
       <c r="H49" s="3">
-        <v>2333000</v>
+        <v>2373300</v>
       </c>
       <c r="I49" s="3">
-        <v>2207900</v>
+        <v>2425500</v>
       </c>
       <c r="J49" s="3">
+        <v>2295400</v>
+      </c>
+      <c r="K49" s="3">
         <v>2299500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2206800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2198800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2015200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1792800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1724700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1718000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1962700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1768100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1084600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1057300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>971800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>924600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1071500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1049100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>981900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>957200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>923200</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>882000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>882800</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>872700</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,94 +4244,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>246900</v>
+        <v>260200</v>
       </c>
       <c r="E52" s="3">
-        <v>237300</v>
+        <v>256700</v>
       </c>
       <c r="F52" s="3">
-        <v>224700</v>
+        <v>273500</v>
       </c>
       <c r="G52" s="3">
-        <v>224200</v>
+        <v>233600</v>
       </c>
       <c r="H52" s="3">
-        <v>159300</v>
+        <v>233100</v>
       </c>
       <c r="I52" s="3">
-        <v>208000</v>
+        <v>165700</v>
       </c>
       <c r="J52" s="3">
+        <v>216300</v>
+      </c>
+      <c r="K52" s="3">
         <v>144300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>147200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>145300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>169800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>137300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>120600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>102000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>114900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>99400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>48300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>69800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>87200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>79600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>53300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>73100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>71500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>73900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>72900</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>69100</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>91600</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4254900</v>
+        <v>4367000</v>
       </c>
       <c r="E54" s="3">
-        <v>4210900</v>
+        <v>4423600</v>
       </c>
       <c r="F54" s="3">
-        <v>4362600</v>
+        <v>4376900</v>
       </c>
       <c r="G54" s="3">
-        <v>4403400</v>
+        <v>4535600</v>
       </c>
       <c r="H54" s="3">
-        <v>4375300</v>
+        <v>4578000</v>
       </c>
       <c r="I54" s="3">
-        <v>4340900</v>
+        <v>4548800</v>
       </c>
       <c r="J54" s="3">
+        <v>4513000</v>
+      </c>
+      <c r="K54" s="3">
         <v>4347100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4179000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4147800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3767600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3700200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3562800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3564700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3778600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3605100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2957500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2706400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2500500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2396100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2681700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2707500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2582400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2310700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>2249300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>2116700</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>2170400</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>1960500</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,497 +4579,513 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>57500</v>
+        <v>68200</v>
       </c>
       <c r="E57" s="3">
-        <v>47500</v>
+        <v>59800</v>
       </c>
       <c r="F57" s="3">
-        <v>48200</v>
+        <v>36200</v>
       </c>
       <c r="G57" s="3">
-        <v>38700</v>
+        <v>50200</v>
       </c>
       <c r="H57" s="3">
-        <v>41200</v>
+        <v>40300</v>
       </c>
       <c r="I57" s="3">
-        <v>33300</v>
+        <v>42800</v>
       </c>
       <c r="J57" s="3">
+        <v>34600</v>
+      </c>
+      <c r="K57" s="3">
         <v>31500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>33400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>33700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>32200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>29000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>25800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>27200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>30500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>17700</v>
-      </c>
-      <c r="S57" s="3">
-        <v>12500</v>
       </c>
       <c r="T57" s="3">
         <v>12500</v>
       </c>
       <c r="U57" s="3">
+        <v>12500</v>
+      </c>
+      <c r="V57" s="3">
         <v>10800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>11700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>12000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>11100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>12300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>12100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>13400</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>8700</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>13800</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>51400</v>
+        <v>59600</v>
       </c>
       <c r="E58" s="3">
-        <v>49500</v>
+        <v>53400</v>
       </c>
       <c r="F58" s="3">
-        <v>41700</v>
+        <v>39000</v>
       </c>
       <c r="G58" s="3">
-        <v>39900</v>
+        <v>43400</v>
       </c>
       <c r="H58" s="3">
-        <v>47200</v>
+        <v>41500</v>
       </c>
       <c r="I58" s="3">
-        <v>30500</v>
+        <v>49100</v>
       </c>
       <c r="J58" s="3">
+        <v>31700</v>
+      </c>
+      <c r="K58" s="3">
         <v>43300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>38400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>36900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>20200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>26400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>22900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>10900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>11200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>10100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>9600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>15500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>14600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>10600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>10700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>34600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>36700</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>35700</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>34900</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>34000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>31100</v>
       </c>
-      <c r="AD58" s="3" t="s">
+      <c r="AE58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>202500</v>
+        <v>179000</v>
       </c>
       <c r="E59" s="3">
-        <v>179900</v>
+        <v>210500</v>
       </c>
       <c r="F59" s="3">
-        <v>293900</v>
+        <v>212700</v>
       </c>
       <c r="G59" s="3">
-        <v>334000</v>
+        <v>305500</v>
       </c>
       <c r="H59" s="3">
-        <v>319400</v>
+        <v>347200</v>
       </c>
       <c r="I59" s="3">
-        <v>167900</v>
+        <v>332100</v>
       </c>
       <c r="J59" s="3">
+        <v>174600</v>
+      </c>
+      <c r="K59" s="3">
         <v>214000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>239000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>134400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>127200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>218800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>216200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>143400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>264400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>156900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>103300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>106300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>204100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>203000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>237000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>101000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>107600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>117100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>110200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>138900</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>144900</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>155200</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>311400</v>
+        <v>306800</v>
       </c>
       <c r="E60" s="3">
-        <v>276900</v>
+        <v>323700</v>
       </c>
       <c r="F60" s="3">
-        <v>383900</v>
+        <v>287900</v>
       </c>
       <c r="G60" s="3">
-        <v>412600</v>
+        <v>399100</v>
       </c>
       <c r="H60" s="3">
-        <v>407900</v>
+        <v>429000</v>
       </c>
       <c r="I60" s="3">
-        <v>231800</v>
+        <v>424000</v>
       </c>
       <c r="J60" s="3">
+        <v>241000</v>
+      </c>
+      <c r="K60" s="3">
         <v>288900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>310800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>205000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>179500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>274100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>264900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>181500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>306100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>184700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>125400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>134300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>229400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>225300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>259700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>146700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>156500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>164900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>158500</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>181600</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>147500</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>163900</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>823200</v>
+        <v>824900</v>
       </c>
       <c r="E61" s="3">
-        <v>837300</v>
+        <v>855900</v>
       </c>
       <c r="F61" s="3">
-        <v>859400</v>
+        <v>870500</v>
       </c>
       <c r="G61" s="3">
-        <v>856500</v>
+        <v>893500</v>
       </c>
       <c r="H61" s="3">
-        <v>849700</v>
+        <v>890500</v>
       </c>
       <c r="I61" s="3">
-        <v>868300</v>
+        <v>883400</v>
       </c>
       <c r="J61" s="3">
+        <v>902700</v>
+      </c>
+      <c r="K61" s="3">
         <v>872400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>848900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>860400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>794700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>794400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>770300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>790000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>852200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>810500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>468400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>264300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>249400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>265000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>220700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>232800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>222600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>230900</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>229300</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>240500</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>243500</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>372600</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>51800</v>
+        <v>50900</v>
       </c>
       <c r="E62" s="3">
-        <v>64100</v>
+        <v>53800</v>
       </c>
       <c r="F62" s="3">
-        <v>68200</v>
+        <v>66100</v>
       </c>
       <c r="G62" s="3">
-        <v>112400</v>
+        <v>70900</v>
       </c>
       <c r="H62" s="3">
-        <v>104600</v>
+        <v>116900</v>
       </c>
       <c r="I62" s="3">
-        <v>85800</v>
+        <v>108700</v>
       </c>
       <c r="J62" s="3">
+        <v>89200</v>
+      </c>
+      <c r="K62" s="3">
         <v>115400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>111600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>115400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>127700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>48900</v>
-      </c>
-      <c r="O62" s="3">
-        <v>47400</v>
       </c>
       <c r="P62" s="3">
         <v>47400</v>
       </c>
       <c r="Q62" s="3">
+        <v>47400</v>
+      </c>
+      <c r="R62" s="3">
         <v>116400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>60200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>15200</v>
-      </c>
-      <c r="V62" s="3">
-        <v>500</v>
       </c>
       <c r="W62" s="3">
         <v>500</v>
@@ -4948,10 +5094,10 @@
         <v>500</v>
       </c>
       <c r="Y62" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z62" s="3">
         <v>10500</v>
-      </c>
-      <c r="Z62" s="3">
-        <v>400</v>
       </c>
       <c r="AA62" s="3">
         <v>400</v>
@@ -4960,13 +5106,16 @@
         <v>400</v>
       </c>
       <c r="AC62" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD62" s="3">
         <v>25600</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1609400</v>
+        <v>1626800</v>
       </c>
       <c r="E66" s="3">
-        <v>1605900</v>
+        <v>1673200</v>
       </c>
       <c r="F66" s="3">
-        <v>1744600</v>
+        <v>1669100</v>
       </c>
       <c r="G66" s="3">
-        <v>1827600</v>
+        <v>1813800</v>
       </c>
       <c r="H66" s="3">
-        <v>1780800</v>
+        <v>1900100</v>
       </c>
       <c r="I66" s="3">
-        <v>1621300</v>
+        <v>1851400</v>
       </c>
       <c r="J66" s="3">
+        <v>1685500</v>
+      </c>
+      <c r="K66" s="3">
         <v>1695100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1670800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1579600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1470100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1447500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1406700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1336000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1628100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1378700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>917100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>717700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>680000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>688600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>706300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>595900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>588700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>537600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>535600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>514500</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>525900</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>549600</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1371600</v>
+        <v>1424700</v>
       </c>
       <c r="E72" s="3">
-        <v>1315000</v>
+        <v>1426000</v>
       </c>
       <c r="F72" s="3">
-        <v>1412300</v>
+        <v>1903700</v>
       </c>
       <c r="G72" s="3">
-        <v>1222800</v>
+        <v>1468300</v>
       </c>
       <c r="H72" s="3">
-        <v>1154600</v>
+        <v>1271300</v>
       </c>
       <c r="I72" s="3">
-        <v>1775300</v>
+        <v>1200400</v>
       </c>
       <c r="J72" s="3">
+        <v>1845700</v>
+      </c>
+      <c r="K72" s="3">
         <v>1160000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1031200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1091000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1397200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>909300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>566100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>635300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>945700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>553400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>469500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>706700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>973600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>532500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>568900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>959800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1278000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>812600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>750900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>748900</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>1724800</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>712100</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2645500</v>
+        <v>2740200</v>
       </c>
       <c r="E76" s="3">
-        <v>2605000</v>
+        <v>2750400</v>
       </c>
       <c r="F76" s="3">
-        <v>2618000</v>
+        <v>2707800</v>
       </c>
       <c r="G76" s="3">
-        <v>2575800</v>
+        <v>2721800</v>
       </c>
       <c r="H76" s="3">
-        <v>2594500</v>
+        <v>2678000</v>
       </c>
       <c r="I76" s="3">
-        <v>2719600</v>
+        <v>2697400</v>
       </c>
       <c r="J76" s="3">
+        <v>2827500</v>
+      </c>
+      <c r="K76" s="3">
         <v>2652000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2508100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2568100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2297500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2252700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2156100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2228700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2150500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2226400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2040400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1988700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1820600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1707600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1975500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2111600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1993700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1773000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1713800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1602200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>1644500</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>1410900</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>57100</v>
+        <v>57500</v>
       </c>
       <c r="E81" s="3">
-        <v>65400</v>
+        <v>59400</v>
       </c>
       <c r="F81" s="3">
-        <v>99600</v>
+        <v>67500</v>
       </c>
       <c r="G81" s="3">
-        <v>68700</v>
+        <v>103600</v>
       </c>
       <c r="H81" s="3">
-        <v>64800</v>
+        <v>71400</v>
       </c>
       <c r="I81" s="3">
-        <v>98700</v>
+        <v>67400</v>
       </c>
       <c r="J81" s="3">
+        <v>102600</v>
+      </c>
+      <c r="K81" s="3">
         <v>91400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>49200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>72900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>13600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>28500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>24600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>62200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>49500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>66000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>51300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>57600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>72500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>54800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>82300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>47000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>68100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>61600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>53800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>42900</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>55200</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,94 +6608,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E83" s="3">
+        <v>17200</v>
+      </c>
+      <c r="F83" s="3">
+        <v>19400</v>
+      </c>
+      <c r="G83" s="3">
         <v>16600</v>
       </c>
-      <c r="E83" s="3">
-        <v>18100</v>
-      </c>
-      <c r="F83" s="3">
-        <v>16000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>18700</v>
-      </c>
       <c r="H83" s="3">
-        <v>15600</v>
+        <v>19400</v>
       </c>
       <c r="I83" s="3">
-        <v>17100</v>
+        <v>16200</v>
       </c>
       <c r="J83" s="3">
+        <v>17800</v>
+      </c>
+      <c r="K83" s="3">
         <v>14300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>14100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>12200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>17000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>9500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>7400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>8400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>12500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>11200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>5300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>5100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>5000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>6000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>5600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>6000</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>5400</v>
       </c>
       <c r="AA83" s="3">
         <v>5400</v>
       </c>
       <c r="AB83" s="3">
+        <v>5400</v>
+      </c>
+      <c r="AC83" s="3">
         <v>5100</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>5600</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>100200</v>
+        <v>152700</v>
       </c>
       <c r="E89" s="3">
-        <v>34200</v>
+        <v>104200</v>
       </c>
       <c r="F89" s="3">
-        <v>105200</v>
+        <v>270400</v>
       </c>
       <c r="G89" s="3">
-        <v>139400</v>
+        <v>109300</v>
       </c>
       <c r="H89" s="3">
-        <v>24000</v>
+        <v>144900</v>
       </c>
       <c r="I89" s="3">
-        <v>-42900</v>
+        <v>25000</v>
       </c>
       <c r="J89" s="3">
+        <v>-44600</v>
+      </c>
+      <c r="K89" s="3">
         <v>94600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>75600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>74300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>40800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>14700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>78500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>64900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>307600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>92200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-59500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-37500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>53000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>118600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>210000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-7100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>94700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>68100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>26300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>87900</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>200000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>46700</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,94 +7264,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2023300</v>
+        <v>-317500</v>
       </c>
       <c r="E91" s="3">
-        <v>-328000</v>
+        <v>-250900</v>
       </c>
       <c r="F91" s="3">
+        <v>-264500</v>
+      </c>
+      <c r="G91" s="3">
         <v>-496000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-714800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-735400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-404800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-464800</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N91" s="3">
         <v>-900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>1800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-6800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>3600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-7800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-700</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-400</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-126600</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>72700</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,94 +7529,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-50200</v>
+        <v>99300</v>
       </c>
       <c r="E94" s="3">
-        <v>189100</v>
+        <v>-52200</v>
       </c>
       <c r="F94" s="3">
-        <v>39100</v>
+        <v>154600</v>
       </c>
       <c r="G94" s="3">
-        <v>-93900</v>
+        <v>40700</v>
       </c>
       <c r="H94" s="3">
-        <v>-33100</v>
+        <v>-97600</v>
       </c>
       <c r="I94" s="3">
-        <v>-17500</v>
+        <v>-34400</v>
       </c>
       <c r="J94" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="K94" s="3">
         <v>44300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-27700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>25200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>191100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-65800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>35800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>478200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-447600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-113200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>28300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-97000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-195900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>39700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>13100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-499200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-62000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>165700</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-52400</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-240900</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-31200</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7429,35 +7663,35 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-113000</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>-117500</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-58700</v>
+      </c>
+      <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
+        <v>58700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-56500</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
-      <c r="I96" s="3">
-        <v>56500</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-56500</v>
-      </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-2000</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -7477,11 +7711,11 @@
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>91200</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
         <v>0</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,262 +8007,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-130900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-38100</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-440000</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-134900</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-110700</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-33100</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="K100" s="3">
+        <v>-107900</v>
+      </c>
+      <c r="L100" s="3">
         <v>-36600</v>
       </c>
-      <c r="E100" s="3">
-        <v>-238600</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-129700</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-106400</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-31900</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-21200</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-107900</v>
-      </c>
-      <c r="K100" s="3">
-        <v>-36600</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-8900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-158200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>4900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-121200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>10700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-366600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>354200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>195100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>23200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>73400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-238700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>410700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-174500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-38500</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>55000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>47600</v>
+        <v>-177800</v>
       </c>
       <c r="E101" s="3">
-        <v>-139600</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-25000</v>
+        <v>49500</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G101" s="3">
-        <v>-10600</v>
+        <v>-26000</v>
       </c>
       <c r="H101" s="3">
-        <v>44800</v>
+        <v>-11000</v>
       </c>
       <c r="I101" s="3">
-        <v>59100</v>
+        <v>46600</v>
       </c>
       <c r="J101" s="3">
+        <v>61400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-26000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-33300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-87300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>71600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-165800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>116300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-175400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-133700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>217000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>60800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-121200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>73100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>62800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>281000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>14000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>54800</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>1100</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-140600</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>61000</v>
+        <v>-56700</v>
       </c>
       <c r="E102" s="3">
-        <v>-154900</v>
+        <v>63400</v>
       </c>
       <c r="F102" s="3">
-        <v>-10500</v>
+        <v>-24600</v>
       </c>
       <c r="G102" s="3">
-        <v>-71500</v>
+        <v>-10900</v>
       </c>
       <c r="H102" s="3">
-        <v>3900</v>
+        <v>-74400</v>
       </c>
       <c r="I102" s="3">
-        <v>-22600</v>
+        <v>4000</v>
       </c>
       <c r="J102" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="K102" s="3">
         <v>5000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>9300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>57300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-13500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>25400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-44900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>64100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-153500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-134900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>239400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>52800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-146000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>69300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>73800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>2900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>251500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>18500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>72300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-1900</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-126500</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>42000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PUODY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PUODY_QTR_FIN.xlsx
@@ -793,25 +793,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>226100</v>
+        <v>223500</v>
       </c>
       <c r="E8" s="3">
-        <v>208100</v>
+        <v>205700</v>
       </c>
       <c r="F8" s="3">
-        <v>216500</v>
+        <v>214100</v>
       </c>
       <c r="G8" s="3">
-        <v>208400</v>
+        <v>206000</v>
       </c>
       <c r="H8" s="3">
-        <v>207300</v>
+        <v>204900</v>
       </c>
       <c r="I8" s="3">
-        <v>210000</v>
+        <v>207600</v>
       </c>
       <c r="J8" s="3">
-        <v>203900</v>
+        <v>201600</v>
       </c>
       <c r="K8" s="3">
         <v>180200</v>
@@ -882,25 +882,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>87400</v>
+        <v>86400</v>
       </c>
       <c r="E9" s="3">
-        <v>77800</v>
+        <v>76900</v>
       </c>
       <c r="F9" s="3">
-        <v>92300</v>
+        <v>91200</v>
       </c>
       <c r="G9" s="3">
-        <v>76800</v>
+        <v>75900</v>
       </c>
       <c r="H9" s="3">
-        <v>85300</v>
+        <v>84300</v>
       </c>
       <c r="I9" s="3">
-        <v>93000</v>
+        <v>92000</v>
       </c>
       <c r="J9" s="3">
-        <v>108200</v>
+        <v>107000</v>
       </c>
       <c r="K9" s="3">
         <v>75300</v>
@@ -971,25 +971,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>138700</v>
+        <v>137100</v>
       </c>
       <c r="E10" s="3">
-        <v>130300</v>
+        <v>128800</v>
       </c>
       <c r="F10" s="3">
-        <v>124200</v>
+        <v>122800</v>
       </c>
       <c r="G10" s="3">
-        <v>131600</v>
+        <v>130100</v>
       </c>
       <c r="H10" s="3">
-        <v>122000</v>
+        <v>120600</v>
       </c>
       <c r="I10" s="3">
-        <v>116900</v>
+        <v>115600</v>
       </c>
       <c r="J10" s="3">
-        <v>95700</v>
+        <v>94600</v>
       </c>
       <c r="K10" s="3">
         <v>104900</v>
@@ -1372,7 +1372,7 @@
         <v>100</v>
       </c>
       <c r="H15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I15" s="3">
         <v>100</v>
@@ -1479,25 +1479,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>91500</v>
+        <v>90400</v>
       </c>
       <c r="E17" s="3">
-        <v>77400</v>
+        <v>76600</v>
       </c>
       <c r="F17" s="3">
-        <v>101500</v>
+        <v>100300</v>
       </c>
       <c r="G17" s="3">
-        <v>78900</v>
+        <v>78000</v>
       </c>
       <c r="H17" s="3">
-        <v>88200</v>
+        <v>87100</v>
       </c>
       <c r="I17" s="3">
-        <v>91100</v>
+        <v>90100</v>
       </c>
       <c r="J17" s="3">
-        <v>116400</v>
+        <v>115100</v>
       </c>
       <c r="K17" s="3">
         <v>75800</v>
@@ -1568,25 +1568,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>134600</v>
+        <v>133100</v>
       </c>
       <c r="E18" s="3">
-        <v>130600</v>
+        <v>129100</v>
       </c>
       <c r="F18" s="3">
-        <v>115000</v>
+        <v>113700</v>
       </c>
       <c r="G18" s="3">
-        <v>129500</v>
+        <v>128000</v>
       </c>
       <c r="H18" s="3">
-        <v>119200</v>
+        <v>117800</v>
       </c>
       <c r="I18" s="3">
-        <v>118800</v>
+        <v>117500</v>
       </c>
       <c r="J18" s="3">
-        <v>87500</v>
+        <v>86500</v>
       </c>
       <c r="K18" s="3">
         <v>104400</v>
@@ -1693,22 +1693,22 @@
         <v>-7500</v>
       </c>
       <c r="E20" s="3">
-        <v>-13400</v>
+        <v>-13200</v>
       </c>
       <c r="F20" s="3">
-        <v>-15000</v>
+        <v>-14800</v>
       </c>
       <c r="G20" s="3">
-        <v>29700</v>
+        <v>29400</v>
       </c>
       <c r="H20" s="3">
         <v>4900</v>
       </c>
       <c r="I20" s="3">
-        <v>-3800</v>
+        <v>-3700</v>
       </c>
       <c r="J20" s="3">
-        <v>87500</v>
+        <v>86500</v>
       </c>
       <c r="K20" s="3">
         <v>43100</v>
@@ -1779,25 +1779,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>145700</v>
+        <v>144000</v>
       </c>
       <c r="E21" s="3">
-        <v>134500</v>
+        <v>132900</v>
       </c>
       <c r="F21" s="3">
-        <v>119400</v>
+        <v>118000</v>
       </c>
       <c r="G21" s="3">
-        <v>175800</v>
+        <v>173800</v>
       </c>
       <c r="H21" s="3">
-        <v>143500</v>
+        <v>141900</v>
       </c>
       <c r="I21" s="3">
-        <v>131300</v>
+        <v>129800</v>
       </c>
       <c r="J21" s="3">
-        <v>192900</v>
+        <v>190700</v>
       </c>
       <c r="K21" s="3">
         <v>161800</v>
@@ -1868,25 +1868,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>23500</v>
+        <v>23200</v>
       </c>
       <c r="E22" s="3">
-        <v>23500</v>
+        <v>23200</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G22" s="3">
-        <v>20300</v>
+        <v>20100</v>
       </c>
       <c r="H22" s="3">
-        <v>20100</v>
+        <v>19900</v>
       </c>
       <c r="I22" s="3">
-        <v>18700</v>
+        <v>18500</v>
       </c>
       <c r="J22" s="3">
-        <v>92900</v>
+        <v>91800</v>
       </c>
       <c r="K22" s="3">
         <v>18300</v>
@@ -1957,25 +1957,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>103600</v>
+        <v>102400</v>
       </c>
       <c r="E23" s="3">
-        <v>93700</v>
+        <v>92700</v>
       </c>
       <c r="F23" s="3">
-        <v>100000</v>
+        <v>98900</v>
       </c>
       <c r="G23" s="3">
-        <v>138900</v>
+        <v>137300</v>
       </c>
       <c r="H23" s="3">
-        <v>104000</v>
+        <v>102800</v>
       </c>
       <c r="I23" s="3">
-        <v>96300</v>
+        <v>95200</v>
       </c>
       <c r="J23" s="3">
-        <v>82200</v>
+        <v>81200</v>
       </c>
       <c r="K23" s="3">
         <v>129300</v>
@@ -2046,25 +2046,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>32200</v>
+        <v>31800</v>
       </c>
       <c r="E24" s="3">
-        <v>19800</v>
+        <v>19600</v>
       </c>
       <c r="F24" s="3">
-        <v>17600</v>
+        <v>17400</v>
       </c>
       <c r="G24" s="3">
-        <v>20600</v>
+        <v>20300</v>
       </c>
       <c r="H24" s="3">
-        <v>16500</v>
+        <v>16300</v>
       </c>
       <c r="I24" s="3">
-        <v>16400</v>
+        <v>16200</v>
       </c>
       <c r="J24" s="3">
-        <v>-41600</v>
+        <v>-41200</v>
       </c>
       <c r="K24" s="3">
         <v>25400</v>
@@ -2224,25 +2224,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>71400</v>
+        <v>70600</v>
       </c>
       <c r="E26" s="3">
-        <v>73900</v>
+        <v>73100</v>
       </c>
       <c r="F26" s="3">
-        <v>82500</v>
+        <v>81500</v>
       </c>
       <c r="G26" s="3">
-        <v>118300</v>
+        <v>116900</v>
       </c>
       <c r="H26" s="3">
-        <v>87500</v>
+        <v>86500</v>
       </c>
       <c r="I26" s="3">
-        <v>79900</v>
+        <v>79000</v>
       </c>
       <c r="J26" s="3">
-        <v>123800</v>
+        <v>122400</v>
       </c>
       <c r="K26" s="3">
         <v>103800</v>
@@ -2313,25 +2313,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>57500</v>
+        <v>56900</v>
       </c>
       <c r="E27" s="3">
-        <v>59400</v>
+        <v>58700</v>
       </c>
       <c r="F27" s="3">
-        <v>67500</v>
+        <v>66700</v>
       </c>
       <c r="G27" s="3">
-        <v>103600</v>
+        <v>102400</v>
       </c>
       <c r="H27" s="3">
-        <v>71400</v>
+        <v>70600</v>
       </c>
       <c r="I27" s="3">
-        <v>67400</v>
+        <v>66600</v>
       </c>
       <c r="J27" s="3">
-        <v>102600</v>
+        <v>101500</v>
       </c>
       <c r="K27" s="3">
         <v>91400</v>
@@ -2761,22 +2761,22 @@
         <v>7500</v>
       </c>
       <c r="E32" s="3">
-        <v>13400</v>
+        <v>13200</v>
       </c>
       <c r="F32" s="3">
-        <v>15000</v>
+        <v>14800</v>
       </c>
       <c r="G32" s="3">
-        <v>-29700</v>
+        <v>-29400</v>
       </c>
       <c r="H32" s="3">
         <v>-4900</v>
       </c>
       <c r="I32" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="J32" s="3">
-        <v>-87500</v>
+        <v>-86500</v>
       </c>
       <c r="K32" s="3">
         <v>-43100</v>
@@ -2847,25 +2847,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>57500</v>
+        <v>56900</v>
       </c>
       <c r="E33" s="3">
-        <v>59400</v>
+        <v>58700</v>
       </c>
       <c r="F33" s="3">
-        <v>67500</v>
+        <v>66700</v>
       </c>
       <c r="G33" s="3">
-        <v>103600</v>
+        <v>102400</v>
       </c>
       <c r="H33" s="3">
-        <v>71400</v>
+        <v>70600</v>
       </c>
       <c r="I33" s="3">
-        <v>67400</v>
+        <v>66600</v>
       </c>
       <c r="J33" s="3">
-        <v>102600</v>
+        <v>101500</v>
       </c>
       <c r="K33" s="3">
         <v>91400</v>
@@ -3025,25 +3025,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>57500</v>
+        <v>56900</v>
       </c>
       <c r="E35" s="3">
-        <v>59400</v>
+        <v>58700</v>
       </c>
       <c r="F35" s="3">
-        <v>67500</v>
+        <v>66700</v>
       </c>
       <c r="G35" s="3">
-        <v>103600</v>
+        <v>102400</v>
       </c>
       <c r="H35" s="3">
-        <v>71400</v>
+        <v>70600</v>
       </c>
       <c r="I35" s="3">
-        <v>67400</v>
+        <v>66600</v>
       </c>
       <c r="J35" s="3">
-        <v>102600</v>
+        <v>101500</v>
       </c>
       <c r="K35" s="3">
         <v>91400</v>
@@ -3274,25 +3274,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1360200</v>
+        <v>1344600</v>
       </c>
       <c r="E41" s="3">
-        <v>1416900</v>
+        <v>1400700</v>
       </c>
       <c r="F41" s="3">
-        <v>50300</v>
+        <v>49700</v>
       </c>
       <c r="G41" s="3">
-        <v>1513600</v>
+        <v>1496300</v>
       </c>
       <c r="H41" s="3">
-        <v>1524500</v>
+        <v>1507100</v>
       </c>
       <c r="I41" s="3">
-        <v>1622600</v>
+        <v>1604100</v>
       </c>
       <c r="J41" s="3">
-        <v>156100</v>
+        <v>154300</v>
       </c>
       <c r="K41" s="3">
         <v>1579500</v>
@@ -3369,7 +3369,7 @@
         <v>8</v>
       </c>
       <c r="F42" s="3">
-        <v>1202800</v>
+        <v>1189100</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>8</v>
@@ -3381,7 +3381,7 @@
         <v>8</v>
       </c>
       <c r="J42" s="3">
-        <v>1338500</v>
+        <v>1323200</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>8</v>
@@ -3452,25 +3452,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>66100</v>
+        <v>65300</v>
       </c>
       <c r="E43" s="3">
-        <v>65000</v>
+        <v>64200</v>
       </c>
       <c r="F43" s="3">
-        <v>147000</v>
+        <v>145300</v>
       </c>
       <c r="G43" s="3">
-        <v>80600</v>
+        <v>79700</v>
       </c>
       <c r="H43" s="3">
-        <v>88000</v>
+        <v>87000</v>
       </c>
       <c r="I43" s="3">
-        <v>90300</v>
+        <v>89200</v>
       </c>
       <c r="J43" s="3">
-        <v>156400</v>
+        <v>154600</v>
       </c>
       <c r="K43" s="3">
         <v>93700</v>
@@ -3541,25 +3541,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>11400</v>
+        <v>11300</v>
       </c>
       <c r="E44" s="3">
-        <v>10600</v>
+        <v>10500</v>
       </c>
       <c r="F44" s="3">
-        <v>10600</v>
+        <v>10400</v>
       </c>
       <c r="G44" s="3">
-        <v>10400</v>
+        <v>10300</v>
       </c>
       <c r="H44" s="3">
-        <v>9800</v>
+        <v>9700</v>
       </c>
       <c r="I44" s="3">
-        <v>9000</v>
+        <v>8900</v>
       </c>
       <c r="J44" s="3">
-        <v>9000</v>
+        <v>8900</v>
       </c>
       <c r="K44" s="3">
         <v>8700</v>
@@ -3630,25 +3630,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>97300</v>
+        <v>96200</v>
       </c>
       <c r="E45" s="3">
-        <v>103400</v>
+        <v>102200</v>
       </c>
       <c r="F45" s="3">
-        <v>14700</v>
+        <v>14500</v>
       </c>
       <c r="G45" s="3">
-        <v>121600</v>
+        <v>120200</v>
       </c>
       <c r="H45" s="3">
-        <v>116800</v>
+        <v>115500</v>
       </c>
       <c r="I45" s="3">
-        <v>39100</v>
+        <v>38700</v>
       </c>
       <c r="J45" s="3">
-        <v>17700</v>
+        <v>17500</v>
       </c>
       <c r="K45" s="3">
         <v>28700</v>
@@ -3719,25 +3719,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1535000</v>
+        <v>1517500</v>
       </c>
       <c r="E46" s="3">
-        <v>1595900</v>
+        <v>1577700</v>
       </c>
       <c r="F46" s="3">
-        <v>1425300</v>
+        <v>1409100</v>
       </c>
       <c r="G46" s="3">
-        <v>1726200</v>
+        <v>1706500</v>
       </c>
       <c r="H46" s="3">
-        <v>1739100</v>
+        <v>1719300</v>
       </c>
       <c r="I46" s="3">
-        <v>1761100</v>
+        <v>1741000</v>
       </c>
       <c r="J46" s="3">
-        <v>1677700</v>
+        <v>1658600</v>
       </c>
       <c r="K46" s="3">
         <v>1710600</v>
@@ -3808,25 +3808,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>81500</v>
+        <v>80600</v>
       </c>
       <c r="E47" s="3">
-        <v>82200</v>
+        <v>81300</v>
       </c>
       <c r="F47" s="3">
-        <v>183100</v>
+        <v>181000</v>
       </c>
       <c r="G47" s="3">
-        <v>82400</v>
+        <v>81400</v>
       </c>
       <c r="H47" s="3">
-        <v>83200</v>
+        <v>82300</v>
       </c>
       <c r="I47" s="3">
-        <v>116100</v>
+        <v>114800</v>
       </c>
       <c r="J47" s="3">
-        <v>178400</v>
+        <v>176300</v>
       </c>
       <c r="K47" s="3">
         <v>113800</v>
@@ -3897,25 +3897,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>155900</v>
+        <v>154200</v>
       </c>
       <c r="E48" s="3">
-        <v>155700</v>
+        <v>153900</v>
       </c>
       <c r="F48" s="3">
-        <v>162800</v>
+        <v>160900</v>
       </c>
       <c r="G48" s="3">
-        <v>157800</v>
+        <v>156000</v>
       </c>
       <c r="H48" s="3">
-        <v>149300</v>
+        <v>147600</v>
       </c>
       <c r="I48" s="3">
-        <v>80400</v>
+        <v>79500</v>
       </c>
       <c r="J48" s="3">
-        <v>145300</v>
+        <v>143600</v>
       </c>
       <c r="K48" s="3">
         <v>78900</v>
@@ -3986,25 +3986,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2334300</v>
+        <v>2307700</v>
       </c>
       <c r="E49" s="3">
-        <v>2333200</v>
+        <v>2306500</v>
       </c>
       <c r="F49" s="3">
-        <v>2332200</v>
+        <v>2305600</v>
       </c>
       <c r="G49" s="3">
-        <v>2335500</v>
+        <v>2308900</v>
       </c>
       <c r="H49" s="3">
-        <v>2373300</v>
+        <v>2346200</v>
       </c>
       <c r="I49" s="3">
-        <v>2425500</v>
+        <v>2397900</v>
       </c>
       <c r="J49" s="3">
-        <v>2295400</v>
+        <v>2269200</v>
       </c>
       <c r="K49" s="3">
         <v>2299500</v>
@@ -4253,25 +4253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>260200</v>
+        <v>257300</v>
       </c>
       <c r="E52" s="3">
-        <v>256700</v>
+        <v>253700</v>
       </c>
       <c r="F52" s="3">
-        <v>273500</v>
+        <v>270400</v>
       </c>
       <c r="G52" s="3">
-        <v>233600</v>
+        <v>231000</v>
       </c>
       <c r="H52" s="3">
-        <v>233100</v>
+        <v>230500</v>
       </c>
       <c r="I52" s="3">
-        <v>165700</v>
+        <v>163800</v>
       </c>
       <c r="J52" s="3">
-        <v>216300</v>
+        <v>213800</v>
       </c>
       <c r="K52" s="3">
         <v>144300</v>
@@ -4431,25 +4431,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4367000</v>
+        <v>4317200</v>
       </c>
       <c r="E54" s="3">
-        <v>4423600</v>
+        <v>4373200</v>
       </c>
       <c r="F54" s="3">
-        <v>4376900</v>
+        <v>4327000</v>
       </c>
       <c r="G54" s="3">
-        <v>4535600</v>
+        <v>4483900</v>
       </c>
       <c r="H54" s="3">
-        <v>4578000</v>
+        <v>4525800</v>
       </c>
       <c r="I54" s="3">
-        <v>4548800</v>
+        <v>4496900</v>
       </c>
       <c r="J54" s="3">
-        <v>4513000</v>
+        <v>4461500</v>
       </c>
       <c r="K54" s="3">
         <v>4347100</v>
@@ -4586,25 +4586,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>68200</v>
+        <v>67400</v>
       </c>
       <c r="E57" s="3">
-        <v>59800</v>
+        <v>59100</v>
       </c>
       <c r="F57" s="3">
-        <v>36200</v>
+        <v>35800</v>
       </c>
       <c r="G57" s="3">
-        <v>50200</v>
+        <v>49600</v>
       </c>
       <c r="H57" s="3">
-        <v>40300</v>
+        <v>39800</v>
       </c>
       <c r="I57" s="3">
-        <v>42800</v>
+        <v>42400</v>
       </c>
       <c r="J57" s="3">
-        <v>34600</v>
+        <v>34200</v>
       </c>
       <c r="K57" s="3">
         <v>31500</v>
@@ -4675,25 +4675,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>59600</v>
+        <v>58900</v>
       </c>
       <c r="E58" s="3">
-        <v>53400</v>
+        <v>52800</v>
       </c>
       <c r="F58" s="3">
-        <v>39000</v>
+        <v>38600</v>
       </c>
       <c r="G58" s="3">
-        <v>43400</v>
+        <v>42900</v>
       </c>
       <c r="H58" s="3">
-        <v>41500</v>
+        <v>41100</v>
       </c>
       <c r="I58" s="3">
-        <v>49100</v>
+        <v>48500</v>
       </c>
       <c r="J58" s="3">
-        <v>31700</v>
+        <v>31400</v>
       </c>
       <c r="K58" s="3">
         <v>43300</v>
@@ -4764,25 +4764,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>179000</v>
+        <v>177000</v>
       </c>
       <c r="E59" s="3">
-        <v>210500</v>
+        <v>208100</v>
       </c>
       <c r="F59" s="3">
-        <v>212700</v>
+        <v>210200</v>
       </c>
       <c r="G59" s="3">
-        <v>305500</v>
+        <v>302100</v>
       </c>
       <c r="H59" s="3">
-        <v>347200</v>
+        <v>343200</v>
       </c>
       <c r="I59" s="3">
-        <v>332100</v>
+        <v>328300</v>
       </c>
       <c r="J59" s="3">
-        <v>174600</v>
+        <v>172600</v>
       </c>
       <c r="K59" s="3">
         <v>214000</v>
@@ -4853,25 +4853,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>306800</v>
+        <v>303300</v>
       </c>
       <c r="E60" s="3">
-        <v>323700</v>
+        <v>320000</v>
       </c>
       <c r="F60" s="3">
-        <v>287900</v>
+        <v>284600</v>
       </c>
       <c r="G60" s="3">
-        <v>399100</v>
+        <v>394500</v>
       </c>
       <c r="H60" s="3">
-        <v>429000</v>
+        <v>424100</v>
       </c>
       <c r="I60" s="3">
-        <v>424000</v>
+        <v>419200</v>
       </c>
       <c r="J60" s="3">
-        <v>241000</v>
+        <v>238200</v>
       </c>
       <c r="K60" s="3">
         <v>288900</v>
@@ -4942,25 +4942,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>824900</v>
+        <v>815500</v>
       </c>
       <c r="E61" s="3">
-        <v>855900</v>
+        <v>846100</v>
       </c>
       <c r="F61" s="3">
-        <v>870500</v>
+        <v>860600</v>
       </c>
       <c r="G61" s="3">
-        <v>893500</v>
+        <v>883300</v>
       </c>
       <c r="H61" s="3">
-        <v>890500</v>
+        <v>880300</v>
       </c>
       <c r="I61" s="3">
-        <v>883400</v>
+        <v>873400</v>
       </c>
       <c r="J61" s="3">
-        <v>902700</v>
+        <v>892400</v>
       </c>
       <c r="K61" s="3">
         <v>872400</v>
@@ -5031,25 +5031,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>50900</v>
+        <v>50300</v>
       </c>
       <c r="E62" s="3">
-        <v>53800</v>
+        <v>53200</v>
       </c>
       <c r="F62" s="3">
-        <v>66100</v>
+        <v>65300</v>
       </c>
       <c r="G62" s="3">
-        <v>70900</v>
+        <v>70100</v>
       </c>
       <c r="H62" s="3">
-        <v>116900</v>
+        <v>115500</v>
       </c>
       <c r="I62" s="3">
-        <v>108700</v>
+        <v>107500</v>
       </c>
       <c r="J62" s="3">
-        <v>89200</v>
+        <v>88200</v>
       </c>
       <c r="K62" s="3">
         <v>115400</v>
@@ -5387,25 +5387,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1626800</v>
+        <v>1608300</v>
       </c>
       <c r="E66" s="3">
-        <v>1673200</v>
+        <v>1654100</v>
       </c>
       <c r="F66" s="3">
-        <v>1669100</v>
+        <v>1650100</v>
       </c>
       <c r="G66" s="3">
-        <v>1813800</v>
+        <v>1793100</v>
       </c>
       <c r="H66" s="3">
-        <v>1900100</v>
+        <v>1878400</v>
       </c>
       <c r="I66" s="3">
-        <v>1851400</v>
+        <v>1830300</v>
       </c>
       <c r="J66" s="3">
-        <v>1685500</v>
+        <v>1666300</v>
       </c>
       <c r="K66" s="3">
         <v>1695100</v>
@@ -5865,25 +5865,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1424700</v>
+        <v>1408500</v>
       </c>
       <c r="E72" s="3">
-        <v>1426000</v>
+        <v>1409700</v>
       </c>
       <c r="F72" s="3">
-        <v>1903700</v>
+        <v>1882000</v>
       </c>
       <c r="G72" s="3">
-        <v>1468300</v>
+        <v>1451500</v>
       </c>
       <c r="H72" s="3">
-        <v>1271300</v>
+        <v>1256800</v>
       </c>
       <c r="I72" s="3">
-        <v>1200400</v>
+        <v>1186700</v>
       </c>
       <c r="J72" s="3">
-        <v>1845700</v>
+        <v>1824700</v>
       </c>
       <c r="K72" s="3">
         <v>1160000</v>
@@ -6221,25 +6221,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2740200</v>
+        <v>2709000</v>
       </c>
       <c r="E76" s="3">
-        <v>2750400</v>
+        <v>2719000</v>
       </c>
       <c r="F76" s="3">
-        <v>2707800</v>
+        <v>2676900</v>
       </c>
       <c r="G76" s="3">
-        <v>2721800</v>
+        <v>2690800</v>
       </c>
       <c r="H76" s="3">
-        <v>2678000</v>
+        <v>2647400</v>
       </c>
       <c r="I76" s="3">
-        <v>2697400</v>
+        <v>2666600</v>
       </c>
       <c r="J76" s="3">
-        <v>2827500</v>
+        <v>2795200</v>
       </c>
       <c r="K76" s="3">
         <v>2652000</v>
@@ -6493,25 +6493,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>57500</v>
+        <v>56900</v>
       </c>
       <c r="E81" s="3">
-        <v>59400</v>
+        <v>58700</v>
       </c>
       <c r="F81" s="3">
-        <v>67500</v>
+        <v>66700</v>
       </c>
       <c r="G81" s="3">
-        <v>103600</v>
+        <v>102400</v>
       </c>
       <c r="H81" s="3">
-        <v>71400</v>
+        <v>70600</v>
       </c>
       <c r="I81" s="3">
-        <v>67400</v>
+        <v>66600</v>
       </c>
       <c r="J81" s="3">
-        <v>102600</v>
+        <v>101500</v>
       </c>
       <c r="K81" s="3">
         <v>91400</v>
@@ -6615,25 +6615,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>18600</v>
+        <v>18400</v>
       </c>
       <c r="E83" s="3">
-        <v>17200</v>
+        <v>17000</v>
       </c>
       <c r="F83" s="3">
-        <v>19400</v>
+        <v>19100</v>
       </c>
       <c r="G83" s="3">
-        <v>16600</v>
+        <v>16400</v>
       </c>
       <c r="H83" s="3">
-        <v>19400</v>
+        <v>19200</v>
       </c>
       <c r="I83" s="3">
-        <v>16200</v>
+        <v>16000</v>
       </c>
       <c r="J83" s="3">
-        <v>17800</v>
+        <v>17600</v>
       </c>
       <c r="K83" s="3">
         <v>14300</v>
@@ -7149,25 +7149,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>152700</v>
+        <v>151000</v>
       </c>
       <c r="E89" s="3">
-        <v>104200</v>
+        <v>103000</v>
       </c>
       <c r="F89" s="3">
-        <v>270400</v>
+        <v>267300</v>
       </c>
       <c r="G89" s="3">
-        <v>109300</v>
+        <v>108100</v>
       </c>
       <c r="H89" s="3">
-        <v>144900</v>
+        <v>143200</v>
       </c>
       <c r="I89" s="3">
-        <v>25000</v>
+        <v>24700</v>
       </c>
       <c r="J89" s="3">
-        <v>-44600</v>
+        <v>-44100</v>
       </c>
       <c r="K89" s="3">
         <v>94600</v>
@@ -7538,25 +7538,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>99300</v>
+        <v>98100</v>
       </c>
       <c r="E94" s="3">
-        <v>-52200</v>
+        <v>-51600</v>
       </c>
       <c r="F94" s="3">
-        <v>154600</v>
+        <v>152800</v>
       </c>
       <c r="G94" s="3">
-        <v>40700</v>
+        <v>40200</v>
       </c>
       <c r="H94" s="3">
-        <v>-97600</v>
+        <v>-96500</v>
       </c>
       <c r="I94" s="3">
-        <v>-34400</v>
+        <v>-34000</v>
       </c>
       <c r="J94" s="3">
-        <v>-18200</v>
+        <v>-18000</v>
       </c>
       <c r="K94" s="3">
         <v>44300</v>
@@ -7666,10 +7666,10 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-117500</v>
+        <v>-116100</v>
       </c>
       <c r="G96" s="3">
-        <v>-58700</v>
+        <v>-58100</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -7678,7 +7678,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>58700</v>
+        <v>58100</v>
       </c>
       <c r="K96" s="3">
         <v>-56500</v>
@@ -8016,25 +8016,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-130900</v>
+        <v>-129400</v>
       </c>
       <c r="E100" s="3">
-        <v>-38100</v>
+        <v>-37700</v>
       </c>
       <c r="F100" s="3">
-        <v>-440000</v>
+        <v>-435000</v>
       </c>
       <c r="G100" s="3">
-        <v>-134900</v>
+        <v>-133300</v>
       </c>
       <c r="H100" s="3">
-        <v>-110700</v>
+        <v>-109400</v>
       </c>
       <c r="I100" s="3">
-        <v>-33100</v>
+        <v>-32800</v>
       </c>
       <c r="J100" s="3">
-        <v>-22100</v>
+        <v>-21800</v>
       </c>
       <c r="K100" s="3">
         <v>-107900</v>
@@ -8105,25 +8105,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-177800</v>
+        <v>-175800</v>
       </c>
       <c r="E101" s="3">
-        <v>49500</v>
+        <v>48900</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G101" s="3">
-        <v>-26000</v>
+        <v>-25700</v>
       </c>
       <c r="H101" s="3">
-        <v>-11000</v>
+        <v>-10900</v>
       </c>
       <c r="I101" s="3">
-        <v>46600</v>
+        <v>46000</v>
       </c>
       <c r="J101" s="3">
-        <v>61400</v>
+        <v>60700</v>
       </c>
       <c r="K101" s="3">
         <v>-26000</v>
@@ -8194,25 +8194,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-56700</v>
+        <v>-56100</v>
       </c>
       <c r="E102" s="3">
-        <v>63400</v>
+        <v>62700</v>
       </c>
       <c r="F102" s="3">
-        <v>-24600</v>
+        <v>-24300</v>
       </c>
       <c r="G102" s="3">
-        <v>-10900</v>
+        <v>-10800</v>
       </c>
       <c r="H102" s="3">
-        <v>-74400</v>
+        <v>-73500</v>
       </c>
       <c r="I102" s="3">
         <v>4000</v>
       </c>
       <c r="J102" s="3">
-        <v>-23500</v>
+        <v>-23200</v>
       </c>
       <c r="K102" s="3">
         <v>5000</v>
